--- a/DevKit/Help/开发辅助工具使用手册.xlsx
+++ b/DevKit/Help/开发辅助工具使用手册.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" firstSheet="7" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="目的" sheetId="1" r:id="rId1"/>
@@ -28,132 +28,132 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="563">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="610">
   <si>
     <t>目的</t>
   </si>
   <si>
     <t>通过使用工具，提高工作效率，防止手工编码的低级错误，消减代码复查的工作时间。</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>.Net Framework 4.5</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>工程</t>
   </si>
   <si>
     <t>新建工程</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>菜单 -&gt; 文件 -&gt; 新建工程</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>*暂时请不要使用Java</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>项目名称：</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>这个项目的名字，可以是任意文字</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>命名空间</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>新建工程后，系统将自动添加以下文件夹</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>\Model\Document</t>
   </si>
   <si>
     <t>数据模型设计书</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>\Model\SourceCode</t>
   </si>
   <si>
     <t>数据模型代码</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>枚举代码文件夹</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>*枚举代码文件夹中的文件将在枚举中介绍</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>同时，系统会生成 Project.xml文件</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>打开工程</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>菜单 -&gt; 文件 -&gt; 打开工程</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>数据模型</t>
   </si>
   <si>
     <t>工具通过将设计书直接转化为Model代码的方式，使得数据模型的编码环节做到自动化。</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>设计人员只需要填写完数据设计式样书，则工具可以完成代码的自动生成。</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>基本</t>
   </si>
   <si>
     <t>No</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>属性名</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>元数据类型</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>枚举类型</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>显示名称</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>编号，暂时没有什么作用</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Model的变量名称，请使用符合C#变量名称的字符串</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>枚举类型的完整类型名称</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>这个项目在Web页显示时候的名称</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>校验</t>
@@ -163,197 +163,197 @@
   </si>
   <si>
     <t>是否为必须项目</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>错误信息</t>
   </si>
   <si>
     <t>错误信息</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>数值范围</t>
   </si>
   <si>
     <t>最大值</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>最小值</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>字符串长度</t>
   </si>
   <si>
     <t>模式</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>正则表达式</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>格式</t>
   </si>
   <si>
     <t>使用类型</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>显示模式</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>这个字段在使用的时候的类型，例如电子邮件，电话号码</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>这个字段在表示模式的时候，如何显示。</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>版本控制</t>
   </si>
   <si>
     <t>省略</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>项目是ID这样的，不希望直接被页面编辑的项目。</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>编号项目（布尔型）</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>是/否（布尔型）</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>*填写的时候，如果是 （布尔型） 的填写项，请在格子里面填写任意字符表示选中。</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>代码的生成</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>将设计书放在Document文件夹下，选择 菜单 -&gt; 工程 -&gt; 生成所有模型代码  系统将自动重新生成所有的代码。</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>生成的代码直接可以给VS使用，作为生成View的数据源头。</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>注意：Language这样的枚举，VS无法自动生成代码，需要手动添加</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>同时，旗标类型的枚举，需要其他的代码的配合，这个在枚举中介绍。</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>枚举类型分为普通枚举和旗标枚举</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>普通枚举：一个变量值只可能有一种枚举状态，则使用普通枚举。</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>旗标枚举：一个变量可能同时存在多种枚举状态，则使用旗标枚举。</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>例如：小明 同时会 日语 和 英语 ，则语言就是一个旗标枚举。</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>例如：如果一家超市，每周只有一天休息，则星期几休息就是一个一般枚举。</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>枚举</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>枚举类型</t>
   </si>
   <si>
     <t>数据模型设计书项目说明</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>枚举设计书项目说明</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>枚举名称：</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Flag型  (布尔型）</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>是否为旗标枚举</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>枚举量</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>这个枚举的名称，必须符合C#变量名规则</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>表示某个枚举的变量，必须符合C#变量名规则</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>枚举显示名</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>枚举在画面上显示的名字</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>枚举值</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>枚举在系统内部的名字</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Enum附加代码</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>VS系统将会把Enum类型作为数字处理，如果需要在画面显示的时候，将普通枚举作为下拉列表，旗标枚举作为多个复选框，</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>请将新建工程时候的Enum文件夹下面的代码放入VS的项目中。</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Enum辅助代码</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>旗标枚举的模板</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>普通枚举的模板</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>using System;</t>
@@ -399,71 +399,71 @@
   </si>
   <si>
     <t>界面说明</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>适用范围</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>工具环境</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>版本情报</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>如果你只需要生成一个模型,则可以使用 菜单 -&gt; 工具 -&gt; 生成数据模型来生成指定数据模型.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>允许的最大值</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>允许的最小值</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>允许的最大字符串长度</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>允许的最小字符串长度</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>(系统在编辑的时候,将通过浏览器内置的html5功能检查输入是否合法)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>工具</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>指定枚举设计文档和源代码保存路径后,即可生成代码.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>菜单 -&gt; 工具 -&gt; 生成枚举代码</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>目标计划</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>ASP.NET MVC5 ,Spring MVC4 。</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Java 系 Spring MVC4 JSR-349 验证标准的完善.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>数据模型(Spring)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>package HRSystemOnline;</t>
@@ -1030,97 +1030,97 @@
   </si>
   <si>
     <t>数据模型(ASP.NET)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Native2ASCII</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Java中的Property文档,需要将本地语言转为机器语言,这个工具能够自动转换单个字符串.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>菜单 -&gt; 工具 -&gt; Native2ASCII</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>变更履历</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>2014/12/19</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>增加了Native AscII 工具</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>这里支持 Native -&gt; ASCII 和 ASCII -&gt; Native 的双向转换.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>请在Native或者ASCII里面填入内容.系统将自动判断转换方向.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>如果需要批量转换,请先在Excel里填写好转换内容,再执行批量转换</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>*批量转换也支持双向转换,请按照需求填写内容.系统将自动转换直到 No 列为空.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>2014/12/22</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>增加了Struts2的数据验证处理</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>2014/12/23</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>增加MySql建表语句功能</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>项目的NameSpace，以后生成的Model的命名空间会是 NameSpace.Models(.NET),Java的Package名称也在这里设定</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>数据表结构生成</t>
   </si>
   <si>
     <t>在数据设计书编辑后,可以通过工具自动生成数据库的CreateTable语句.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>MySql篇</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>字符串</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>varchar</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>需要长度提示</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>整型</t>
   </si>
   <si>
     <t>int</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>布尔值</t>
@@ -1130,7 +1130,7 @@
   </si>
   <si>
     <t>日期(包含时间)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>datetime</t>
@@ -1140,15 +1140,15 @@
   </si>
   <si>
     <t>*暂时默认有且只有一个主键,主键是数字自增主健.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>&lt;考虑到旗标型枚举,所以将类型定义扩大为smallint.&gt;</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>自动生成代码示例</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>DROP TABLE IF EXISTS `test`.`Candidate`;</t>
@@ -1194,26 +1194,26 @@
   </si>
   <si>
     <t>增加 Struts2路由编辑</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Struts2路由</t>
   </si>
   <si>
     <t>通过读取Excel文档自动生成Struts的路由配置部分内容.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>菜单 -&gt; 工具 -&gt; Struts2路由</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>读入文件格式如下</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>生成文件</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>&lt;struts&gt;</t>
@@ -1268,38 +1268,38 @@
   </si>
   <si>
     <t>这里只是Struts的路由部分的配置,在实际使用中,需要进行一些修改.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>2015/1/4</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>增加代码片断功能</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>代码片断</t>
   </si>
   <si>
     <t>将一些常用的代码或者知识,收集到一起,便于以后查阅和使用.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>检索功能支持标题和描述,Tag检索</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>2015/1/30</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>增强了数据模型定义</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>EnumExtention.cs</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1315,7 +1315,7 @@
       </rPr>
       <t>\SourceCode</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1341,19 +1341,19 @@
       </rPr>
       <t>\Document</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>\Enum\ExtendSourceCode</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>枚举辅助代码</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>EnumDisplayNameAttribute.cs</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1369,23 +1369,23 @@
       </rPr>
       <t>isplayName属性代码</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>放置在数据模型代码工程中</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>放置于\WebSite\Views\Shared\EditorTemplates中</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Enum具体的编码</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>先确保所有的Enum附加代码放置在正确的文件夹,并且添加了适当的引用</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1431,15 +1431,15 @@
       </rPr>
       <t>,需要手动添加.</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>添加的形式则和普通的字段一样.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Create视图的时候,请保证设定一个New过的模型到ViewData.Model,不然会发生Null引用错误.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">        public ActionResult Create()</t>
@@ -1461,19 +1461,19 @@
       </rPr>
       <t>new Interview();</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>EnumFlags.cs</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Enum.cs</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>代码通过 UIHint属性来控制 字段使用的模板,所以自动生成的代码应该象这个样子:</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">            /// &lt;summary&gt;</t>
@@ -1537,11 +1537,11 @@
   </si>
   <si>
     <t>名字空间</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>该枚举的名字空间</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1568,43 +1568,43 @@
       </rPr>
       <t>在Enum生成代码中,请注意.</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>注意,系统将自动添加 "0:"字符,所以这里填写的时候不要添加 "0:"</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>MongoDB的时候,日期将使用Local模式</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>2015/2/3</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>增加了MongoDB的支持</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>如果名字空间不填写的话,这里将自动使用工程的名字空间</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>2015/2/4</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>增加了类描述</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>增加了复制所有代码到真实工程</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>增加了元数据类型:列表</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1630,34 +1630,19 @@
       </rPr>
       <t>中,需要添加EnumDisplayNameAttibute的命名空间</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>基类</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>系统支持 CompanyTable,MasterTable两种扩展数据模型</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>CompanyTable,自带一个CompanyId 企业编号,Code项目编号主键</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>MasterTable,继承了CompanyTable,同时带有 Name名称和Description描述字段</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据模型可以选择任意一个基类,由于C#不允许多继承,所以暂时让MasterTable继承与CompanyTable</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>CompanyTable.cs</t>
-  </si>
-  <si>
-    <t>CompanyTable代码</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>MasterTable.cs</t>
@@ -1676,135 +1661,135 @@
       </rPr>
       <t>代码</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>有时候MVC5.0的Js下面的一些验证相关的JS会被误删除造成验证无效。</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>这个时候可以新建一个MVC5.0的工程，然后将Js下面的文件全部复制过去即可。</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>关于自动添加的字段</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>CollectionName:</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Prefix</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>MvcTitle</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>用作画面标题的字符</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>数据表名称(附加一个静态方法)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>数据编号的前缀(附加一个静态方法)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>2015/2/5</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>增加了MvcTitle字段</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>MVC5开发</t>
   </si>
   <si>
     <t>业务模型的设计</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>MasterTable</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>数据模型</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>普通的数据</t>
   </si>
   <si>
     <t>CompanyTable</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>选项列表</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>提供Master数据</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>固定的Master数据</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>模板的修改</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>标准模板</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>C:\Program Files (x86)\Microsoft Visual Studio 12.0\Common7\IDE\Extensions\Microsoft\Web\Mvc\Scaffolding\Templates</t>
   </si>
   <si>
     <t>将标准模板导入到工程中,建立CodeTemplates目录,MVC本地优先级高于标准模板</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>将模板进行本地化,同时使用 MvcTitle(本工具为每个模型自动添加)这样的标题字段,填充相应位置</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>例:</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>&lt;h2&gt;@&lt;#= ViewDataTypeName#&gt;.MvcTitle 列表&lt;/h2&gt;</t>
   </si>
   <si>
     <t>注意,日期形式的时候,html5的Date控件要求格式必须是 yyyy-MM-dd所以这里进行强制设定</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>关于自动导出到MVC的约定</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">这里约定将 </t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">枚举放入  </t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">数据模型放入 </t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Master表放在</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1830,7 +1815,7 @@
       </rPr>
       <t>文件夹，</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1866,27 +1851,27 @@
       </rPr>
       <t>文件夹,</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Master 文件夹</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>2015/2/11</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>日期型数据在HTML5控件中无法表示的对应</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>增加了Master表自动名字修正功能</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>将Master表和Model表分割开来</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1912,7 +1897,7 @@
       </rPr>
       <t>\Document</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1938,15 +1923,15 @@
       </rPr>
       <t>\SourceCode</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>辅助表设计书</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>辅助表代码</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1972,31 +1957,31 @@
       </rPr>
       <t>的工程，而是管理设计文档的工程，或者是WorkSpace这样的一个概念。</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>2015/2/26</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>增加了修改工程属性的功能</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>修改了一些Bug</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>修改工程</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>菜单 -&gt; 数据定义 -&gt; 修改工程</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>打开工程后可以通过修改工程菜单对工程属性进行修改</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2012,10 +1997,7 @@
       </rPr>
       <t>.系统将自动载入目录结构,更新文件.</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>using InfraStructure.DataBase;</t>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>using MongoDB.Bson.Serialization.Attributes;</t>
@@ -2024,8 +2006,26 @@
     <t>namespace BussinessLogic.Entity</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">    /// 候</t>
+    <t xml:space="preserve">            /// 姓名</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            [DisplayName("姓名")]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            public string Name { get; set; }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            /// 大学</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            [DisplayName("大学")]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            public string University { get; set; }</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            /// </t>
     </r>
     <r>
       <rPr>
@@ -2035,7 +2035,22 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>选</t>
+      <t>专业</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            [DisplayName("</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>专业</t>
     </r>
     <r>
       <rPr>
@@ -2045,11 +2060,11 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>人</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">    public partial class Candidate : CompanyTable</t>
+      <t>")]</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">            public string Major { get; set; }</t>
   </si>
   <si>
     <r>
@@ -2063,7 +2078,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>职</t>
+      <t>语</t>
     </r>
     <r>
       <rPr>
@@ -2073,7 +2088,12 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>位</t>
+      <t>言</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            [DisplayName("</t>
     </r>
     <r>
       <rPr>
@@ -2083,7 +2103,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>编</t>
+      <t>语</t>
     </r>
     <r>
       <rPr>
@@ -2093,12 +2113,21 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>号</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">            [DisplayName("</t>
+      <t>言")]</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">            /// 招聘渠道</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            [DisplayName("招聘渠道")]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            public string Channel { get; set; }</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            /// </t>
     </r>
     <r>
       <rPr>
@@ -2108,7 +2137,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>职</t>
+      <t>备</t>
     </r>
     <r>
       <rPr>
@@ -2118,7 +2147,12 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>位</t>
+      <t>注</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            [DisplayName("</t>
     </r>
     <r>
       <rPr>
@@ -2128,7 +2162,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>编</t>
+      <t>备</t>
     </r>
     <r>
       <rPr>
@@ -2138,24 +2172,27 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>号")]</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">            public string PositionCode { get; set; }</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            /// 姓名</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            [DisplayName("姓名")]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            public string Name { get; set; }</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">            /// </t>
+      <t>注")]</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">            public string Comment { get; set; }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            /// 数据集名称</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            public override string GetCollectionName()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            }</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            /// 数据集名称静</t>
     </r>
     <r>
       <rPr>
@@ -2165,7 +2202,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>联</t>
+      <t>态</t>
     </r>
     <r>
       <rPr>
@@ -2175,12 +2212,12 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>系方式</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">            [DisplayName("</t>
+      <t>字段</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            /// 数据主</t>
     </r>
     <r>
       <rPr>
@@ -2190,7 +2227,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>联</t>
+      <t>键</t>
     </r>
     <r>
       <rPr>
@@ -2200,24 +2237,7 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>系方式")]</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">            public string Contact { get; set; }</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            /// 大学</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            [DisplayName("大学")]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            public string University { get; set; }</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">            /// </t>
+      <t>前</t>
     </r>
     <r>
       <rPr>
@@ -2227,12 +2247,18 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>专业</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">            [DisplayName("</t>
+      <t>缀</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">            public override string GetPrefix()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                return string.Empty;</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            /// 数据主</t>
     </r>
     <r>
       <rPr>
@@ -2242,7 +2268,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>专业</t>
+      <t>键</t>
     </r>
     <r>
       <rPr>
@@ -2252,15 +2278,7 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>")]</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">            public string Major { get; set; }</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">            /// </t>
+      <t>前</t>
     </r>
     <r>
       <rPr>
@@ -2270,7 +2288,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>语</t>
+      <t>缀</t>
     </r>
     <r>
       <rPr>
@@ -2280,12 +2298,7 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>言</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">            [DisplayName("</t>
+      <t>静</t>
     </r>
     <r>
       <rPr>
@@ -2295,7 +2308,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>语</t>
+      <t>态</t>
     </r>
     <r>
       <rPr>
@@ -2305,18 +2318,15 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>言")]</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">            [UIHint("EnumFlags")]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            public LanguageType Language { get; set; }</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">            /// 市</t>
+      <t>字段</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">            public static string Prefix = string.Empty;</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            /// Mvc画面的</t>
     </r>
     <r>
       <rPr>
@@ -2326,7 +2336,657 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>场</t>
+      <t>标题</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">            [BsonIgnore]</t>
+  </si>
+  <si>
+    <t>using BussinessLogic.Enterprise;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    NotAvaliable = 0 ,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Outstanding = 9 ,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    AboveArravage = 6 ,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Acceptable = 3 ,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Unacceptable = 2 ,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Marginal = 1 ,</t>
+  </si>
+  <si>
+    <t>2015/4/3</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加了CreateOrEdit的CSHTML文件的自动生成</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>CreateOrEdit页面</t>
+  </si>
+  <si>
+    <t>虽然MVC有T4模板，但是，内置的T4模板无法满足定制的要求。</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>工具将自动根据模型生成CreateOrEdit页面的Cshtml文件</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期型</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期型控件封装了 jQuery UI 的 DateTime组件</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>辅助表型</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>辅助表分为单值和多值两种类型。单值在UI上表现为一个下拉列表框，多值表现为一组CheckBox</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>@model TalentInfo</t>
+  </si>
+  <si>
+    <t>@{</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    if (Model.Code == ConstHelper.NewRecordCode)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        ViewBag.Title = "创建" + TalentInfo.MvcTitle;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    else</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        ViewBag.Title = "编辑" + TalentInfo.MvcTitle;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Layout = "~/Views/Shared/_DashBoardForMin.cshtml";</t>
+  </si>
+  <si>
+    <t>@using (Html.BeginForm())</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    @Html.AntiForgeryToken()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;div class="form-horizontal"&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        &lt;div class="form-group"&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            @Html.LabelFor(model =&gt; model.BirthDay, new { @class = "control-label col-md-2" })</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            &lt;div class="col-md-10"&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                @HtmlUIHelper.GetDatePicker("BirthDay", Model.BirthDay)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                @Html.ValidationMessageFor(model =&gt; model.BirthDay, new { @class = "text-danger" })</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            &lt;/div&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        &lt;/div&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            @Html.LabelFor(model =&gt; model.Mobile, new { @class = "control-label col-md-2" })</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                @Html.EditorFor(model =&gt; model.Mobile, new { htmlAttributes = new { @class = "form-control" } })</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                @Html.ValidationMessageFor(model =&gt; model.Mobile, new { @class = "text-danger" })</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            @Html.LabelFor(model =&gt; model.Email, new { @class = "control-label col-md-2" })</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                @Html.EditorFor(model =&gt; model.Email, new { htmlAttributes = new { @class = "form-control" } })</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                @Html.ValidationMessageFor(model =&gt; model.Email, new { @class = "text-danger" })</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            @Html.LabelFor(model =&gt; model.University, new { @class = "control-label col-md-2" })</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                @Html.EditorFor(model =&gt; model.University, new { htmlAttributes = new { @class = "form-control" } })</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                @Html.ValidationMessageFor(model =&gt; model.University, new { @class = "text-danger" })</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            @Html.LabelFor(model =&gt; model.Major, new { @class = "control-label col-md-2" })</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                @Html.EditorFor(model =&gt; model.Major, new { htmlAttributes = new { @class = "form-control" } })</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                @Html.ValidationMessageFor(model =&gt; model.Major, new { @class = "text-danger" })</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            @Html.LabelFor(model =&gt; model.LanguageList, new { @class = "control-label col-md-2" })</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                @Html.EditorFor(model =&gt; model.LanguageList, new { htmlAttributes = new { @class = "form-control" } })</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                @Html.ValidationMessageFor(model =&gt; model.LanguageList, new { @class = "text-danger" })</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            @Html.LabelFor(model =&gt; model.SkillList, new { @class = "control-label col-md-2" })</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                @Html.EditorFor(model =&gt; model.SkillList, new { htmlAttributes = new { @class = "form-control" } })</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                @Html.ValidationMessageFor(model =&gt; model.SkillList, new { @class = "text-danger" })</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            @Html.LabelFor(model =&gt; model.MarketBGList, new { @class = "control-label col-md-2" })</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                @(HtmlUIHelper.GetMultiValueUI&lt;M_MarketBG&gt;("MarketBGList", ViewBag.MarketBGList, Model.MarketBGList))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                @Html.ValidationMessageFor(model =&gt; model.MarketBGList, new { @class = "text-danger" })</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            @Html.LabelFor(model =&gt; model.TechniqueBG, new { @class = "control-label col-md-2" })</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                @(HtmlUIHelper.GetSingleValueUI&lt;M_TechniqueBG&gt;("TechniqueBG", ViewBag.TechniqueBGList, Model.TechniqueBG))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                @Html.ValidationMessageFor(model =&gt; model.TechniqueBG, new { @class = "text-danger" })</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            @Html.LabelFor(model =&gt; model.Channel, new { @class = "control-label col-md-2" })</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                @Html.EditorFor(model =&gt; model.Channel, new { htmlAttributes = new { @class = "form-control" } })</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                @Html.ValidationMessageFor(model =&gt; model.Channel, new { @class = "text-danger" })</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            @Html.LabelFor(model =&gt; model.Comment, new { @class = "control-label col-md-2" })</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                @Html.EditorFor(model =&gt; model.Comment, new { htmlAttributes = new { @class = "form-control" } })</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                @Html.ValidationMessageFor(model =&gt; model.Comment, new { @class = "text-danger" })</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            @Html.LabelFor(model =&gt; model.SearchKey, new { @class = "control-label col-md-2" })</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                @Html.EditorFor(model =&gt; model.SearchKey, new { htmlAttributes = new { @class = "form-control" } })</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                @Html.ValidationMessageFor(model =&gt; model.SearchKey, new { @class = "text-danger" })</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            @Html.LabelFor(model =&gt; model.AccessRight, new { @class = "control-label col-md-2" })</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                @HtmlUIHelper.GetMVCCheckBox("", "AccessRight", Model.AccessRight)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                @Html.ValidationMessageFor(model =&gt; model.AccessRight, new { @class = "text-danger" })</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            &lt;div class="col-md-offset-2 col-md-10"&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                @if (Model.Code == ConstHelper.NewRecordCode)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    &lt;input type="submit" value="创建" class="btn btn-success" style="width:120px" /&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                else</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    &lt;input type="submit" value="保存" class="btn btn-success" style="width:120px" /&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                @Html.ActionLink("返回列表", "Index", new { }, new { @class = "btn btn-default", style = "width:120px" })</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>CreateOrEdit</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始状态</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>展开后</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>单值类型</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>多值类型</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>约定：</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>这里约定多值类型的辅助表，列表的名称为 MasterTableName去掉"M_"前缀，加上 List后缀</t>
+  </si>
+  <si>
+    <t>同时为了统一代码，列表名称尽可能和项目名称保持一致。</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>MasterTableName：</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>M_MarketBG</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                @(HtmlUIHelper.GetMultiValueUI&lt;M_MarketBG&gt;("MarketBGList", ViewBag.MarketBGList, Model.MarketBGList))</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>ViewBag.MarketBGList</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>MarketBGList</t>
+  </si>
+  <si>
+    <t>列表名称：</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目名称：</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>同时为了统一代码，项目名称尽可能和MasterTableName保持一致。</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                @(HtmlUIHelper.GetSingleValueUI&lt;M_TechniqueBG&gt;("TechniqueBG", ViewBag.TechniqueBGList, Model.TechniqueBG))</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>M_TechniqueBG</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>ViewBag.TechniqueBGList</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>TechniqueBG</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>布尔型</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>布尔型在实际使用时候，需要进行一些手工美化</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>该功能不能单独使用，必须加入配套的UI控件代码（HtmlUIHelper</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.cs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）。</t>
+    </r>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>辅助表</t>
+  </si>
+  <si>
+    <t>辅助表（MasterTable）里面存放着一些序列。当我们输入数据的时候，为了便利性和防止输入错误，</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>我们将一些项目可能出现的值，以表格的形式保存起来，输入的时候，不能自由填写，只能从列表里面选择。</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>这样的列表是一种辅助性质的列表，所以我们约定称为辅助表。</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>辅助表中包含了一种专门用来表示状态的辅助表，我们称为状态辅助表。</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>这种表格能够定义数据的表示颜色，表示顺序，是对于辅助表的一种扩展。</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>辅助表和枚举</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>辅助表和枚举的区别是：枚举用户相对稳定的序列，例如一年四季的序列，HTTP的状态。</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>辅助表则是用于更新比较频繁的序列，当然，可以将枚举也看成一种辅助表。</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>在编码上，枚举可能更便利，辅助表在各种封装方法的帮助下，也可以做到很简洁。</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>另外，辅助表可以使用缓存系统进行加速，提高性能，枚举则完全在编译的时候变成程序的一部分，无需缓存。</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>约定</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>这里约定辅助表（MasterTable）以 "M_"为前缀</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>整个系统很大程度上需要各种辅助表的支持。对于停止使用的Master表，可以设置为 不启用</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>辅助表可以用在单个值的选取上，例如状态的选取，可以用在多个值得选取上，例如技能的选取。</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>带有评价的多项目</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>C#的元数据类型，暂时支持 字符串，整型，布尔值，日期，枚举（普通枚举，旗标枚举），</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>辅助表，辅助评价表</t>
+    </r>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>列表型</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以设定元数据是不是List型。辅助评价表暂时只支持列表型</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flg</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flg分为Skip和Hidden两种，</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skip 将被系统忽略，如果该项目不需要了，但是又想保留完整履历，可以将项目设置为Skip</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hidden 标记一个项目为Hidden类型，例如ID这种自动设定的项目，就因该设置为Hidden</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>同时确认一下代码中是否添加了这些JS的引用。</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>关于验证失效的问题</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据模型可以在VS中在T4模板的作用在直接生成UI界面。</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>本工具也提供了功能更加强大的UI生成模块。</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>通过框架的过滤器和报表系统,自动生成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>泛用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>过滤器</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和报表界面.</t>
+    </r>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015/4/13</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Filter特性的追加</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Organization,自带一个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Organization</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">Id </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>组织</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>编号,Code项目编号主键</t>
+    </r>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>数据模型可以选择任意一个基类,由于C#不允许多继承,所以暂时让MasterTable继承与</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Organization</t>
+    </r>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Organization.cs</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Organization代码</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>在多个值的选取上，还可以支持五个级别的等级的选取。（参考：CreateOrEdit页面：带有评价的多项目）</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果列表还带有分类的话,可以使用CatalogMasterTable</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Ver 0.0.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3.1</t>
+    </r>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>using InfraStructure;</t>
+  </si>
+  <si>
+    <t>using InfraStructure.FilterSet;</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    /// 人才</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>储备</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    [DisplayName("人才</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>储备</t>
     </r>
     <r>
       <rPr>
@@ -2336,12 +2996,15 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>背景</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">            [DisplayName("市</t>
+      <t>")]</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">    public partial class TalentInfo : Organization</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            /// 英</t>
     </r>
     <r>
       <rPr>
@@ -2351,7 +3014,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>场</t>
+      <t>语</t>
     </r>
     <r>
       <rPr>
@@ -2361,15 +3024,12 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>背景")]</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">            public bool MarketBG { get; set; }</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">            /// 技</t>
+      <t>名</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            [DisplayName("英</t>
     </r>
     <r>
       <rPr>
@@ -2379,7 +3039,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>术</t>
+      <t>语</t>
     </r>
     <r>
       <rPr>
@@ -2389,12 +3049,60 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>背景</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">            [DisplayName("技</t>
+      <t>名")]</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">            public string EnglishName { get; set; }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            /// 生日</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            [DisplayName("生日")]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            [DataType(DataType.Date)]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            [FilterItem(MetaStructType = FilterItemAttribute.StructType.Datetime)]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            [DisplayFormat(DataFormatString = "{0:yyyy-MM-dd}",ApplyFormatInEditMode= true)]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            [BsonDateTimeOptions(Kind = DateTimeKind.Local)]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            public DateTime BirthDay { get; set; }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            /// 出生地</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            [DisplayName("出生地")]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            public string BornIn { get; set; }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            /// 常住地</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            [DisplayName("常住地")]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            public string Location { get; set; }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            /// 手机</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            [DisplayName("手机")]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            [RegularExpression(@"^1[3458][0-9]{9}$" , ErrorMessage = "手机号格式不正</t>
     </r>
     <r>
       <rPr>
@@ -2404,7 +3112,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>术</t>
+      <t>确</t>
     </r>
     <r>
       <rPr>
@@ -2414,20 +3122,14 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>背景")]</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">            public bool techniqueBG { get; set; }</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            /// 招聘渠道</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            [DisplayName("招聘渠道")]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            public string Channel { get; set; }</t>
+      <t>")]</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">            [DataType(DataType.PhoneNumber)]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            public string Mobile { get; set; }</t>
   </si>
   <si>
     <r>
@@ -2441,12 +3143,17 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>简历</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">            [DisplayName("</t>
+      <t>电</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Mincho"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>子</t>
     </r>
     <r>
       <rPr>
@@ -2456,7 +3163,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>简历</t>
+      <t>邮</t>
     </r>
     <r>
       <rPr>
@@ -2466,15 +3173,12 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>")]</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">            public List&lt;string&gt; ResumeFile { get; set; }</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">            /// </t>
+      <t>件</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            [DisplayName("</t>
     </r>
     <r>
       <rPr>
@@ -2484,7 +3188,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>备</t>
+      <t>电</t>
     </r>
     <r>
       <rPr>
@@ -2494,12 +3198,7 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>注</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">            [DisplayName("</t>
+      <t>子</t>
     </r>
     <r>
       <rPr>
@@ -2509,7 +3208,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>备</t>
+      <t>邮</t>
     </r>
     <r>
       <rPr>
@@ -2519,30 +3218,51 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>注")]</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">            public string Comment { get; set; }</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            /// 数据集名称</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            public override string GetCollectionName()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            {</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                return "Candidate";</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            }</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">            /// 数据集名称静</t>
+      <t>件")]</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">            [DataType(DataType.EmailAddress)]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            public string Email { get; set; }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            /// 学位</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            [DisplayName("学位")]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            [FilterItem(MetaType = typeof(AcademicType), MetaStructType = FilterItemAttribute.StructType.SingleEnum)]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            public AcademicType Academic { get; set; }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            /// 海外工作背景</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            [DisplayName("海外工作背景")]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            [FilterItem(MetaStructType = FilterItemAttribute.StructType.Boolean)]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            public bool OverseaWork { get; set; }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            /// 海外教育背景</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            [DisplayName("海外教育背景")]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            public bool OverseaEdu { get; set; }</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            /// 行</t>
     </r>
     <r>
       <rPr>
@@ -2552,7 +3272,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>态</t>
+      <t>业</t>
     </r>
     <r>
       <rPr>
@@ -2562,15 +3282,12 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>字段</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">            public static string CollectionName = "Candidate";</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">            /// 数据主</t>
+      <t>背景</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            [DisplayName("行</t>
     </r>
     <r>
       <rPr>
@@ -2580,7 +3297,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>键</t>
+      <t>业</t>
     </r>
     <r>
       <rPr>
@@ -2590,7 +3307,27 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>前</t>
+      <t>背景")]</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">            [FilterItem(MetaType = typeof(M_IndustryBackground), MetaStructType = FilterItemAttribute.StructType.MultiMasterTable)]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            public List&lt;string&gt; IndustryBackgroundList { get; set; }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            /// 上一家公司</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            [DisplayName("上一家公司")]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            public string PreEmp { get; set; }</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            /// 上一家公司行</t>
     </r>
     <r>
       <rPr>
@@ -2600,18 +3337,12 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>缀</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">            public override string GetPrefix()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                return string.Empty;</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">            /// 数据主</t>
+      <t>业</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            [DisplayName("上一家公司行</t>
     </r>
     <r>
       <rPr>
@@ -2621,7 +3352,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>键</t>
+      <t>业</t>
     </r>
     <r>
       <rPr>
@@ -2631,7 +3362,39 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>前</t>
+      <t>")]</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">            [FilterItem(MetaType = typeof(M_IndustryBackground), MetaStructType = FilterItemAttribute.StructType.SingleMasterTable)]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            public string PerInd { get; set; }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            [FilterItem(MetaType = typeof(M_Channel), MetaStructType = FilterItemAttribute.StructType.SingleMasterTable)]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            [FilterItem(MetaType = typeof(M_Language), MetaStructType = FilterItemAttribute.StructType.MultiMasterTableWithGrade)]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            public List&lt;ItemWithGrade&gt; LanguageList { get; set; }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            /// 技能</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            [DisplayName("技能")]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            [FilterItem(MetaType = typeof(M_Skill), MetaStructType = FilterItemAttribute.StructType.MultiCatalogMasterTable)]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            public List&lt;string&gt; SkillList { get; set; }</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            /// 等</t>
     </r>
     <r>
       <rPr>
@@ -2641,7 +3404,22 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>缀</t>
+      <t>级</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            [DisplayName("等</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>级</t>
     </r>
     <r>
       <rPr>
@@ -2651,7 +3429,18 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>静</t>
+      <t>")]</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">            [FilterItem(MetaType = typeof(CommonGrade), MetaStructType = FilterItemAttribute.StructType.SingleEnum)]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            public CommonGrade TalentRank { get; set; }</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            /// </t>
     </r>
     <r>
       <rPr>
@@ -2661,7 +3450,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>态</t>
+      <t>评</t>
     </r>
     <r>
       <rPr>
@@ -2671,15 +3460,12 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>字段</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">            public static string Prefix = string.Empty;</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">            /// Mvc画面的</t>
+      <t>价</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            [DisplayName("</t>
     </r>
     <r>
       <rPr>
@@ -2689,15 +3475,31 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>标题</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">            [BsonIgnore]</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">            public static string MvcTitle = "候</t>
+      <t>评</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Mincho"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>价")]</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">            public string Evaluate { get; set; }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                return "TalentInfo";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            public static string CollectionName = "TalentInfo";</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            public static string MvcTitle = "人才</t>
     </r>
     <r>
       <rPr>
@@ -2707,7 +3509,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>选</t>
+      <t>储备</t>
     </r>
     <r>
       <rPr>
@@ -2717,552 +3519,15 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>人";</t>
-    </r>
-  </si>
-  <si>
-    <t>using BussinessLogic.Enterprise;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    NotAvaliable = 0 ,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Outstanding = 9 ,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    AboveArravage = 6 ,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Acceptable = 3 ,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Unacceptable = 2 ,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Marginal = 1 ,</t>
-  </si>
-  <si>
-    <t>2015/4/3</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>增加了CreateOrEdit的CSHTML文件的自动生成</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>CreateOrEdit页面</t>
-  </si>
-  <si>
-    <t>虽然MVC有T4模板，但是，内置的T4模板无法满足定制的要求。</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>工具将自动根据模型生成CreateOrEdit页面的Cshtml文件</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期型</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期型控件封装了 jQuery UI 的 DateTime组件</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>辅助表型</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>辅助表分为单值和多值两种类型。单值在UI上表现为一个下拉列表框，多值表现为一组CheckBox</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>@model TalentInfo</t>
-  </si>
-  <si>
-    <t>@{</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    if (Model.Code == ConstHelper.NewRecordCode)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        ViewBag.Title = "创建" + TalentInfo.MvcTitle;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    else</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        ViewBag.Title = "编辑" + TalentInfo.MvcTitle;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Layout = "~/Views/Shared/_DashBoardForMin.cshtml";</t>
-  </si>
-  <si>
-    <t>@using (Html.BeginForm())</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    @Html.AntiForgeryToken()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    &lt;div class="form-horizontal"&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        &lt;div class="form-group"&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            @Html.LabelFor(model =&gt; model.BirthDay, new { @class = "control-label col-md-2" })</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;div class="col-md-10"&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                @HtmlUIHelper.GetDatePicker("BirthDay", Model.BirthDay)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                @Html.ValidationMessageFor(model =&gt; model.BirthDay, new { @class = "text-danger" })</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;/div&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        &lt;/div&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            @Html.LabelFor(model =&gt; model.Mobile, new { @class = "control-label col-md-2" })</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                @Html.EditorFor(model =&gt; model.Mobile, new { htmlAttributes = new { @class = "form-control" } })</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                @Html.ValidationMessageFor(model =&gt; model.Mobile, new { @class = "text-danger" })</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            @Html.LabelFor(model =&gt; model.Email, new { @class = "control-label col-md-2" })</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                @Html.EditorFor(model =&gt; model.Email, new { htmlAttributes = new { @class = "form-control" } })</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                @Html.ValidationMessageFor(model =&gt; model.Email, new { @class = "text-danger" })</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            @Html.LabelFor(model =&gt; model.University, new { @class = "control-label col-md-2" })</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                @Html.EditorFor(model =&gt; model.University, new { htmlAttributes = new { @class = "form-control" } })</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                @Html.ValidationMessageFor(model =&gt; model.University, new { @class = "text-danger" })</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            @Html.LabelFor(model =&gt; model.Major, new { @class = "control-label col-md-2" })</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                @Html.EditorFor(model =&gt; model.Major, new { htmlAttributes = new { @class = "form-control" } })</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                @Html.ValidationMessageFor(model =&gt; model.Major, new { @class = "text-danger" })</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            @Html.LabelFor(model =&gt; model.LanguageList, new { @class = "control-label col-md-2" })</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                @Html.EditorFor(model =&gt; model.LanguageList, new { htmlAttributes = new { @class = "form-control" } })</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                @Html.ValidationMessageFor(model =&gt; model.LanguageList, new { @class = "text-danger" })</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            @Html.LabelFor(model =&gt; model.SkillList, new { @class = "control-label col-md-2" })</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                @Html.EditorFor(model =&gt; model.SkillList, new { htmlAttributes = new { @class = "form-control" } })</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                @Html.ValidationMessageFor(model =&gt; model.SkillList, new { @class = "text-danger" })</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            @Html.LabelFor(model =&gt; model.MarketBGList, new { @class = "control-label col-md-2" })</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                @(HtmlUIHelper.GetMultiValueUI&lt;M_MarketBG&gt;("MarketBGList", ViewBag.MarketBGList, Model.MarketBGList))</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                @Html.ValidationMessageFor(model =&gt; model.MarketBGList, new { @class = "text-danger" })</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            @Html.LabelFor(model =&gt; model.TechniqueBG, new { @class = "control-label col-md-2" })</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                @(HtmlUIHelper.GetSingleValueUI&lt;M_TechniqueBG&gt;("TechniqueBG", ViewBag.TechniqueBGList, Model.TechniqueBG))</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                @Html.ValidationMessageFor(model =&gt; model.TechniqueBG, new { @class = "text-danger" })</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            @Html.LabelFor(model =&gt; model.Channel, new { @class = "control-label col-md-2" })</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                @Html.EditorFor(model =&gt; model.Channel, new { htmlAttributes = new { @class = "form-control" } })</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                @Html.ValidationMessageFor(model =&gt; model.Channel, new { @class = "text-danger" })</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            @Html.LabelFor(model =&gt; model.Comment, new { @class = "control-label col-md-2" })</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                @Html.EditorFor(model =&gt; model.Comment, new { htmlAttributes = new { @class = "form-control" } })</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                @Html.ValidationMessageFor(model =&gt; model.Comment, new { @class = "text-danger" })</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            @Html.LabelFor(model =&gt; model.SearchKey, new { @class = "control-label col-md-2" })</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                @Html.EditorFor(model =&gt; model.SearchKey, new { htmlAttributes = new { @class = "form-control" } })</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                @Html.ValidationMessageFor(model =&gt; model.SearchKey, new { @class = "text-danger" })</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            @Html.LabelFor(model =&gt; model.AccessRight, new { @class = "control-label col-md-2" })</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                @HtmlUIHelper.GetMVCCheckBox("", "AccessRight", Model.AccessRight)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                @Html.ValidationMessageFor(model =&gt; model.AccessRight, new { @class = "text-danger" })</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            &lt;div class="col-md-offset-2 col-md-10"&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                @if (Model.Code == ConstHelper.NewRecordCode)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                {</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    &lt;input type="submit" value="创建" class="btn btn-success" style="width:120px" /&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                }</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                else</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    &lt;input type="submit" value="保存" class="btn btn-success" style="width:120px" /&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                @Html.ActionLink("返回列表", "Index", new { }, new { @class = "btn btn-default", style = "width:120px" })</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    &lt;/div&gt;</t>
-  </si>
-  <si>
-    <t>CreateOrEdit</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>初始状态</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>展开后</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>单值类型</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>多值类型</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>约定：</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>这里约定多值类型的辅助表，列表的名称为 MasterTableName去掉"M_"前缀，加上 List后缀</t>
-  </si>
-  <si>
-    <t>同时为了统一代码，列表名称尽可能和项目名称保持一致。</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>MasterTableName：</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>M_MarketBG</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">                @(HtmlUIHelper.GetMultiValueUI&lt;M_MarketBG&gt;("MarketBGList", ViewBag.MarketBGList, Model.MarketBGList))</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>ViewBag.MarketBGList</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>MarketBGList</t>
-  </si>
-  <si>
-    <t>列表名称：</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目名称：</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>同时为了统一代码，项目名称尽可能和MasterTableName保持一致。</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">                @(HtmlUIHelper.GetSingleValueUI&lt;M_TechniqueBG&gt;("TechniqueBG", ViewBag.TechniqueBGList, Model.TechniqueBG))</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>M_TechniqueBG</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>ViewBag.TechniqueBGList</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>TechniqueBG</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>布尔型</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>布尔型在实际使用时候，需要进行一些手工美化</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Ver 0.0.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>3.0</t>
-    </r>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>该功能不能单独使用，必须加入配套的UI控件代码（HtmlUIHelper</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>.cs</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）。</t>
-    </r>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>辅助表</t>
-  </si>
-  <si>
-    <t>辅助表（MasterTable）里面存放着一些序列。当我们输入数据的时候，为了便利性和防止输入错误，</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>我们将一些项目可能出现的值，以表格的形式保存起来，输入的时候，不能自由填写，只能从列表里面选择。</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>这样的列表是一种辅助性质的列表，所以我们约定称为辅助表。</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>辅助表中包含了一种专门用来表示状态的辅助表，我们称为状态辅助表。</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>这种表格能够定义数据的表示颜色，表示顺序，是对于辅助表的一种扩展。</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>辅助表和枚举</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>辅助表和枚举的区别是：枚举用户相对稳定的序列，例如一年四季的序列，HTTP的状态。</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>辅助表则是用于更新比较频繁的序列，当然，可以将枚举也看成一种辅助表。</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>在编码上，枚举可能更便利，辅助表在各种封装方法的帮助下，也可以做到很简洁。</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>另外，辅助表可以使用缓存系统进行加速，提高性能，枚举则完全在编译的时候变成程序的一部分，无需缓存。</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>约定</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>这里约定辅助表（MasterTable）以 "M_"为前缀</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>整个系统很大程度上需要各种辅助表的支持。对于停止使用的Master表，可以设置为 不启用</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>辅助表可以用在单个值的选取上，例如状态的选取，可以用在多个值得选取上，例如技能的选取。</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>带有评价的多项目</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>在多个值得选取上，还可以支持五个级别的等级的选取。（参考：CreateOrEdit页面：带有评价的多项目）</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>C#的元数据类型，暂时支持 字符串，整型，布尔值，日期，枚举（普通枚举，旗标枚举），</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>辅助表，辅助评价表</t>
-    </r>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>列表型</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>可以设定元数据是不是List型。辅助评价表暂时只支持列表型</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Flg</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Flg分为Skip和Hidden两种，</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Skip 将被系统忽略，如果该项目不需要了，但是又想保留完整履历，可以将项目设置为Skip</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hidden 标记一个项目为Hidden类型，例如ID这种自动设定的项目，就因该设置为Hidden</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>同时确认一下代码中是否添加了这些JS的引用。</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>关于验证失效的问题</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据模型可以在VS中在T4模板的作用在直接生成UI界面。</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>本工具也提供了功能更加强大的UI生成模块。</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>通过框架的过滤器和报表系统,自动生成</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>泛用</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>过滤器</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>和报表界面.</t>
-    </r>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>2015/4/13</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Filter特性的追加</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+      <t>";</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="32">
+  <fonts count="33">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3270,6 +3535,13 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -3604,11 +3876,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -3623,55 +3892,61 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="20" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
+    <xf numFmtId="14" fontId="21" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -3686,55 +3961,55 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -3743,10 +4018,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -4010,55 +4285,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>134</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>158</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 5"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="1009650" y="25412700"/>
-          <a:ext cx="4210050" cy="4619625"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>164</xdr:row>
+      <xdr:row>170</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>167</xdr:row>
+      <xdr:row>173</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4069,7 +4304,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
@@ -4099,13 +4334,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>178</xdr:row>
+      <xdr:row>184</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>180</xdr:row>
+      <xdr:row>186</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4155,13 +4390,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>179</xdr:row>
+      <xdr:row>185</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>66676</xdr:colOff>
-      <xdr:row>181</xdr:row>
+      <xdr:row>187</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4199,7 +4434,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>CompanyTable</a:t>
+            <a:t>Organization</a:t>
           </a:r>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
         </a:p>
@@ -4211,13 +4446,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>181</xdr:row>
+      <xdr:row>187</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>183</xdr:row>
+      <xdr:row>189</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4267,13 +4502,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>199</xdr:row>
+      <xdr:row>205</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>216</xdr:row>
+      <xdr:row>222</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4284,7 +4519,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
@@ -4312,20 +4547,67 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>80</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>52</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>102</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 3"/>
+        <xdr:cNvPr id="3" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1000125" y="21145500"/>
+          <a:ext cx="6343650" cy="3219450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>1442</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1026" name="Picture 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -4339,13 +4621,20 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="990600" y="15335250"/>
-          <a:ext cx="9563100" cy="4276725"/>
+          <a:off x="952500" y="14860442"/>
+          <a:ext cx="9229725" cy="4827733"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -4353,19 +4642,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>111</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>126</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>166</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Picture 1"/>
+        <xdr:cNvPr id="1027" name="Picture 3"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -4379,8 +4668,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="971550" y="21164550"/>
-          <a:ext cx="4819650" cy="3000375"/>
+          <a:off x="942975" y="25679400"/>
+          <a:ext cx="4572000" cy="5953125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4505,8 +4794,15 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>CompanyTable</a:t>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Organization</a:t>
           </a:r>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
         </a:p>
@@ -4573,15 +4869,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>76198</xdr:colOff>
+      <xdr:colOff>66673</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>152399</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4590,8 +4886,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2276473" y="2838450"/>
-          <a:ext cx="1876426" cy="371475"/>
+          <a:off x="2266948" y="2790825"/>
+          <a:ext cx="1371602" cy="371475"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4626,6 +4922,69 @@
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:t>StatusMasterTable</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>47627</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="矩形 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2276475" y="3114675"/>
+          <a:ext cx="1371602" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>CatalogMasterTable</a:t>
           </a:r>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
         </a:p>
@@ -4739,53 +5098,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2049" name="Picture 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="1009650" y="1524000"/>
-          <a:ext cx="4819650" cy="3000375"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="1">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
       <xdr:row>27</xdr:row>
@@ -4805,7 +5117,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
@@ -4852,7 +5164,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
@@ -4899,7 +5211,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
@@ -4939,7 +5251,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
@@ -4986,7 +5298,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
@@ -5033,7 +5345,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
@@ -5080,7 +5392,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
@@ -5090,6 +5402,53 @@
         <a:xfrm>
           <a:off x="1924050" y="24841200"/>
           <a:ext cx="3124200" cy="1619250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1009650" y="1971675"/>
+          <a:ext cx="6343650" cy="3219450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5679,8 +6038,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="D3:M73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="AZ55" sqref="AZ55"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AM15" sqref="AM15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15" customHeight="1"/>
@@ -5704,7 +6063,7 @@
     </row>
     <row r="6" spans="4:6" ht="15" customHeight="1">
       <c r="F6" s="46" t="s">
-        <v>560</v>
+        <v>531</v>
       </c>
     </row>
     <row r="9" spans="4:6" ht="15" customHeight="1">
@@ -5733,8 +6092,8 @@
       </c>
     </row>
     <row r="19" spans="4:6" ht="15" customHeight="1">
-      <c r="F19" s="45" t="s">
-        <v>530</v>
+      <c r="F19" s="49" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="21" spans="4:6" ht="15" customHeight="1">
@@ -5830,61 +6189,61 @@
     </row>
     <row r="66" spans="6:13" ht="15" customHeight="1">
       <c r="F66" s="37" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="M66" s="38" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="67" spans="6:13" ht="15" customHeight="1">
       <c r="F67" s="39" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="M67" s="38" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="68" spans="6:13" ht="15" customHeight="1">
       <c r="M68" s="38" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="69" spans="6:13" ht="15" customHeight="1">
       <c r="M69" s="40" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
     </row>
     <row r="70" spans="6:13" ht="15" customHeight="1">
       <c r="F70" s="42" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="M70" s="41" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="71" spans="6:13" ht="15" customHeight="1">
       <c r="M71" s="41" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
     </row>
     <row r="72" spans="6:13" ht="15" customHeight="1">
       <c r="F72" s="43" t="s">
-        <v>437</v>
+        <v>410</v>
       </c>
       <c r="M72" s="44" t="s">
-        <v>438</v>
+        <v>411</v>
       </c>
     </row>
     <row r="73" spans="6:13" ht="15" customHeight="1">
       <c r="F73" s="47" t="s">
-        <v>561</v>
+        <v>532</v>
       </c>
       <c r="M73" s="48" t="s">
-        <v>562</v>
+        <v>533</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
+  <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -5895,8 +6254,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="D3:F139"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="A85" sqref="A85:XFD91"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AQ80" sqref="AQ80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="16.5"/>
@@ -5906,22 +6265,22 @@
   <sheetData>
     <row r="3" spans="4:6" ht="18">
       <c r="D3" s="5" t="s">
-        <v>508</v>
+        <v>481</v>
       </c>
     </row>
     <row r="5" spans="4:6">
       <c r="F5" s="44" t="s">
-        <v>446</v>
+        <v>419</v>
       </c>
     </row>
     <row r="6" spans="4:6">
       <c r="F6" s="44" t="s">
-        <v>447</v>
+        <v>420</v>
       </c>
     </row>
     <row r="7" spans="4:6">
       <c r="F7" s="44" t="s">
-        <v>448</v>
+        <v>421</v>
       </c>
     </row>
     <row r="8" spans="4:6">
@@ -5931,7 +6290,7 @@
     </row>
     <row r="9" spans="4:6">
       <c r="F9" s="44" t="s">
-        <v>449</v>
+        <v>422</v>
       </c>
     </row>
     <row r="10" spans="4:6">
@@ -5941,7 +6300,7 @@
     </row>
     <row r="11" spans="4:6">
       <c r="F11" s="44" t="s">
-        <v>450</v>
+        <v>423</v>
       </c>
     </row>
     <row r="12" spans="4:6">
@@ -5951,7 +6310,7 @@
     </row>
     <row r="13" spans="4:6">
       <c r="F13" s="44" t="s">
-        <v>451</v>
+        <v>424</v>
       </c>
     </row>
     <row r="14" spans="4:6">
@@ -5961,7 +6320,7 @@
     </row>
     <row r="15" spans="4:6">
       <c r="F15" s="44" t="s">
-        <v>452</v>
+        <v>425</v>
       </c>
     </row>
     <row r="16" spans="4:6">
@@ -5971,7 +6330,7 @@
     </row>
     <row r="17" spans="6:6">
       <c r="F17" s="44" t="s">
-        <v>453</v>
+        <v>426</v>
       </c>
     </row>
     <row r="18" spans="6:6">
@@ -5981,537 +6340,537 @@
     </row>
     <row r="19" spans="6:6">
       <c r="F19" s="44" t="s">
-        <v>454</v>
+        <v>427</v>
       </c>
     </row>
     <row r="20" spans="6:6">
       <c r="F20" s="44" t="s">
-        <v>455</v>
+        <v>428</v>
       </c>
     </row>
     <row r="21" spans="6:6">
       <c r="F21" s="44" t="s">
-        <v>456</v>
+        <v>429</v>
       </c>
     </row>
     <row r="22" spans="6:6">
       <c r="F22" s="44" t="s">
-        <v>457</v>
+        <v>430</v>
       </c>
     </row>
     <row r="23" spans="6:6">
       <c r="F23" s="44" t="s">
-        <v>458</v>
+        <v>431</v>
       </c>
     </row>
     <row r="24" spans="6:6">
       <c r="F24" s="44" t="s">
-        <v>459</v>
+        <v>432</v>
       </c>
     </row>
     <row r="25" spans="6:6">
       <c r="F25" s="44" t="s">
-        <v>460</v>
+        <v>433</v>
       </c>
     </row>
     <row r="26" spans="6:6">
       <c r="F26" s="44" t="s">
-        <v>461</v>
+        <v>434</v>
       </c>
     </row>
     <row r="27" spans="6:6">
       <c r="F27" s="44" t="s">
-        <v>462</v>
+        <v>435</v>
       </c>
     </row>
     <row r="29" spans="6:6">
       <c r="F29" s="44" t="s">
-        <v>456</v>
+        <v>429</v>
       </c>
     </row>
     <row r="30" spans="6:6">
       <c r="F30" s="44" t="s">
-        <v>463</v>
+        <v>436</v>
       </c>
     </row>
     <row r="31" spans="6:6">
       <c r="F31" s="44" t="s">
-        <v>458</v>
+        <v>431</v>
       </c>
     </row>
     <row r="32" spans="6:6">
       <c r="F32" s="44" t="s">
-        <v>464</v>
+        <v>437</v>
       </c>
     </row>
     <row r="33" spans="6:6">
       <c r="F33" s="44" t="s">
-        <v>465</v>
+        <v>438</v>
       </c>
     </row>
     <row r="34" spans="6:6">
       <c r="F34" s="44" t="s">
-        <v>461</v>
+        <v>434</v>
       </c>
     </row>
     <row r="35" spans="6:6">
       <c r="F35" s="44" t="s">
-        <v>462</v>
+        <v>435</v>
       </c>
     </row>
     <row r="37" spans="6:6">
       <c r="F37" s="44" t="s">
-        <v>456</v>
+        <v>429</v>
       </c>
     </row>
     <row r="38" spans="6:6">
       <c r="F38" s="44" t="s">
-        <v>466</v>
+        <v>439</v>
       </c>
     </row>
     <row r="39" spans="6:6">
       <c r="F39" s="44" t="s">
-        <v>458</v>
+        <v>431</v>
       </c>
     </row>
     <row r="40" spans="6:6">
       <c r="F40" s="44" t="s">
-        <v>467</v>
+        <v>440</v>
       </c>
     </row>
     <row r="41" spans="6:6">
       <c r="F41" s="44" t="s">
-        <v>468</v>
+        <v>441</v>
       </c>
     </row>
     <row r="42" spans="6:6">
       <c r="F42" s="44" t="s">
-        <v>461</v>
+        <v>434</v>
       </c>
     </row>
     <row r="43" spans="6:6">
       <c r="F43" s="44" t="s">
-        <v>462</v>
+        <v>435</v>
       </c>
     </row>
     <row r="45" spans="6:6">
       <c r="F45" s="44" t="s">
-        <v>456</v>
+        <v>429</v>
       </c>
     </row>
     <row r="46" spans="6:6">
       <c r="F46" s="44" t="s">
-        <v>469</v>
+        <v>442</v>
       </c>
     </row>
     <row r="47" spans="6:6">
       <c r="F47" s="44" t="s">
-        <v>458</v>
+        <v>431</v>
       </c>
     </row>
     <row r="48" spans="6:6">
       <c r="F48" s="44" t="s">
-        <v>470</v>
+        <v>443</v>
       </c>
     </row>
     <row r="49" spans="6:6">
       <c r="F49" s="44" t="s">
-        <v>471</v>
+        <v>444</v>
       </c>
     </row>
     <row r="50" spans="6:6">
       <c r="F50" s="44" t="s">
-        <v>461</v>
+        <v>434</v>
       </c>
     </row>
     <row r="51" spans="6:6">
       <c r="F51" s="44" t="s">
-        <v>462</v>
+        <v>435</v>
       </c>
     </row>
     <row r="53" spans="6:6">
       <c r="F53" s="44" t="s">
-        <v>456</v>
+        <v>429</v>
       </c>
     </row>
     <row r="54" spans="6:6">
       <c r="F54" s="44" t="s">
-        <v>472</v>
+        <v>445</v>
       </c>
     </row>
     <row r="55" spans="6:6">
       <c r="F55" s="44" t="s">
-        <v>458</v>
+        <v>431</v>
       </c>
     </row>
     <row r="56" spans="6:6">
       <c r="F56" s="44" t="s">
-        <v>473</v>
+        <v>446</v>
       </c>
     </row>
     <row r="57" spans="6:6">
       <c r="F57" s="44" t="s">
-        <v>474</v>
+        <v>447</v>
       </c>
     </row>
     <row r="58" spans="6:6">
       <c r="F58" s="44" t="s">
-        <v>461</v>
+        <v>434</v>
       </c>
     </row>
     <row r="59" spans="6:6">
       <c r="F59" s="44" t="s">
-        <v>462</v>
+        <v>435</v>
       </c>
     </row>
     <row r="61" spans="6:6">
       <c r="F61" s="44" t="s">
-        <v>456</v>
+        <v>429</v>
       </c>
     </row>
     <row r="62" spans="6:6">
       <c r="F62" s="44" t="s">
-        <v>475</v>
+        <v>448</v>
       </c>
     </row>
     <row r="63" spans="6:6">
       <c r="F63" s="44" t="s">
-        <v>458</v>
+        <v>431</v>
       </c>
     </row>
     <row r="64" spans="6:6">
       <c r="F64" s="44" t="s">
-        <v>476</v>
+        <v>449</v>
       </c>
     </row>
     <row r="65" spans="6:6">
       <c r="F65" s="44" t="s">
-        <v>477</v>
+        <v>450</v>
       </c>
     </row>
     <row r="66" spans="6:6">
       <c r="F66" s="44" t="s">
-        <v>461</v>
+        <v>434</v>
       </c>
     </row>
     <row r="67" spans="6:6">
       <c r="F67" s="44" t="s">
-        <v>462</v>
+        <v>435</v>
       </c>
     </row>
     <row r="69" spans="6:6">
       <c r="F69" s="44" t="s">
-        <v>456</v>
+        <v>429</v>
       </c>
     </row>
     <row r="70" spans="6:6">
       <c r="F70" s="44" t="s">
-        <v>478</v>
+        <v>451</v>
       </c>
     </row>
     <row r="71" spans="6:6">
       <c r="F71" s="44" t="s">
-        <v>458</v>
+        <v>431</v>
       </c>
     </row>
     <row r="72" spans="6:6">
       <c r="F72" s="44" t="s">
-        <v>479</v>
+        <v>452</v>
       </c>
     </row>
     <row r="73" spans="6:6">
       <c r="F73" s="44" t="s">
-        <v>480</v>
+        <v>453</v>
       </c>
     </row>
     <row r="74" spans="6:6">
       <c r="F74" s="44" t="s">
-        <v>461</v>
+        <v>434</v>
       </c>
     </row>
     <row r="75" spans="6:6">
       <c r="F75" s="44" t="s">
-        <v>462</v>
+        <v>435</v>
       </c>
     </row>
     <row r="77" spans="6:6" ht="15.75" customHeight="1">
       <c r="F77" s="44" t="s">
-        <v>456</v>
+        <v>429</v>
       </c>
     </row>
     <row r="78" spans="6:6">
       <c r="F78" s="44" t="s">
-        <v>481</v>
+        <v>454</v>
       </c>
     </row>
     <row r="79" spans="6:6">
       <c r="F79" s="44" t="s">
-        <v>458</v>
+        <v>431</v>
       </c>
     </row>
     <row r="80" spans="6:6">
       <c r="F80" s="31" t="s">
-        <v>482</v>
+        <v>455</v>
       </c>
     </row>
     <row r="81" spans="6:6">
       <c r="F81" s="44" t="s">
-        <v>483</v>
+        <v>456</v>
       </c>
     </row>
     <row r="82" spans="6:6">
       <c r="F82" s="44" t="s">
-        <v>461</v>
+        <v>434</v>
       </c>
     </row>
     <row r="83" spans="6:6">
       <c r="F83" s="44" t="s">
-        <v>462</v>
+        <v>435</v>
       </c>
     </row>
     <row r="85" spans="6:6">
       <c r="F85" s="44" t="s">
-        <v>456</v>
+        <v>429</v>
       </c>
     </row>
     <row r="86" spans="6:6">
       <c r="F86" s="44" t="s">
-        <v>484</v>
+        <v>457</v>
       </c>
     </row>
     <row r="87" spans="6:6">
       <c r="F87" s="44" t="s">
-        <v>458</v>
+        <v>431</v>
       </c>
     </row>
     <row r="88" spans="6:6">
       <c r="F88" s="31" t="s">
-        <v>485</v>
+        <v>458</v>
       </c>
     </row>
     <row r="89" spans="6:6">
       <c r="F89" s="44" t="s">
-        <v>486</v>
+        <v>459</v>
       </c>
     </row>
     <row r="90" spans="6:6">
       <c r="F90" s="44" t="s">
-        <v>461</v>
+        <v>434</v>
       </c>
     </row>
     <row r="91" spans="6:6">
       <c r="F91" s="44" t="s">
-        <v>462</v>
+        <v>435</v>
       </c>
     </row>
     <row r="93" spans="6:6">
       <c r="F93" s="44" t="s">
-        <v>456</v>
+        <v>429</v>
       </c>
     </row>
     <row r="94" spans="6:6">
       <c r="F94" s="44" t="s">
-        <v>487</v>
+        <v>460</v>
       </c>
     </row>
     <row r="95" spans="6:6">
       <c r="F95" s="44" t="s">
-        <v>458</v>
+        <v>431</v>
       </c>
     </row>
     <row r="96" spans="6:6">
       <c r="F96" s="44" t="s">
-        <v>488</v>
+        <v>461</v>
       </c>
     </row>
     <row r="97" spans="6:6">
       <c r="F97" s="44" t="s">
-        <v>489</v>
+        <v>462</v>
       </c>
     </row>
     <row r="98" spans="6:6">
       <c r="F98" s="44" t="s">
-        <v>461</v>
+        <v>434</v>
       </c>
     </row>
     <row r="99" spans="6:6">
       <c r="F99" s="44" t="s">
-        <v>462</v>
+        <v>435</v>
       </c>
     </row>
     <row r="101" spans="6:6">
       <c r="F101" s="44" t="s">
-        <v>456</v>
+        <v>429</v>
       </c>
     </row>
     <row r="102" spans="6:6">
       <c r="F102" s="44" t="s">
-        <v>490</v>
+        <v>463</v>
       </c>
     </row>
     <row r="103" spans="6:6">
       <c r="F103" s="44" t="s">
-        <v>458</v>
+        <v>431</v>
       </c>
     </row>
     <row r="104" spans="6:6">
       <c r="F104" s="44" t="s">
-        <v>491</v>
+        <v>464</v>
       </c>
     </row>
     <row r="105" spans="6:6">
       <c r="F105" s="44" t="s">
-        <v>492</v>
+        <v>465</v>
       </c>
     </row>
     <row r="106" spans="6:6">
       <c r="F106" s="44" t="s">
-        <v>461</v>
+        <v>434</v>
       </c>
     </row>
     <row r="107" spans="6:6">
       <c r="F107" s="44" t="s">
-        <v>462</v>
+        <v>435</v>
       </c>
     </row>
     <row r="109" spans="6:6">
       <c r="F109" s="44" t="s">
-        <v>456</v>
+        <v>429</v>
       </c>
     </row>
     <row r="110" spans="6:6">
       <c r="F110" s="44" t="s">
-        <v>493</v>
+        <v>466</v>
       </c>
     </row>
     <row r="111" spans="6:6">
       <c r="F111" s="44" t="s">
-        <v>458</v>
+        <v>431</v>
       </c>
     </row>
     <row r="112" spans="6:6">
       <c r="F112" s="44" t="s">
-        <v>494</v>
+        <v>467</v>
       </c>
     </row>
     <row r="113" spans="6:6">
       <c r="F113" s="44" t="s">
-        <v>495</v>
+        <v>468</v>
       </c>
     </row>
     <row r="114" spans="6:6">
       <c r="F114" s="44" t="s">
-        <v>461</v>
+        <v>434</v>
       </c>
     </row>
     <row r="115" spans="6:6">
       <c r="F115" s="44" t="s">
-        <v>462</v>
+        <v>435</v>
       </c>
     </row>
     <row r="117" spans="6:6">
       <c r="F117" s="44" t="s">
-        <v>456</v>
+        <v>429</v>
       </c>
     </row>
     <row r="118" spans="6:6">
       <c r="F118" s="44" t="s">
-        <v>496</v>
+        <v>469</v>
       </c>
     </row>
     <row r="119" spans="6:6">
       <c r="F119" s="44" t="s">
-        <v>458</v>
+        <v>431</v>
       </c>
     </row>
     <row r="120" spans="6:6">
       <c r="F120" s="31" t="s">
-        <v>497</v>
+        <v>470</v>
       </c>
     </row>
     <row r="121" spans="6:6">
       <c r="F121" s="44" t="s">
-        <v>498</v>
+        <v>471</v>
       </c>
     </row>
     <row r="122" spans="6:6">
       <c r="F122" s="44" t="s">
-        <v>461</v>
+        <v>434</v>
       </c>
     </row>
     <row r="123" spans="6:6">
       <c r="F123" s="44" t="s">
-        <v>462</v>
+        <v>435</v>
       </c>
     </row>
     <row r="125" spans="6:6">
       <c r="F125" s="44" t="s">
-        <v>456</v>
+        <v>429</v>
       </c>
     </row>
     <row r="126" spans="6:6">
       <c r="F126" s="44" t="s">
-        <v>499</v>
+        <v>472</v>
       </c>
     </row>
     <row r="127" spans="6:6">
       <c r="F127" s="44" t="s">
-        <v>500</v>
+        <v>473</v>
       </c>
     </row>
     <row r="128" spans="6:6">
       <c r="F128" s="44" t="s">
-        <v>501</v>
+        <v>474</v>
       </c>
     </row>
     <row r="129" spans="6:6">
       <c r="F129" s="44" t="s">
-        <v>502</v>
+        <v>475</v>
       </c>
     </row>
     <row r="130" spans="6:6">
       <c r="F130" s="44" t="s">
-        <v>503</v>
+        <v>476</v>
       </c>
     </row>
     <row r="131" spans="6:6">
       <c r="F131" s="44" t="s">
-        <v>504</v>
+        <v>477</v>
       </c>
     </row>
     <row r="132" spans="6:6">
       <c r="F132" s="44" t="s">
-        <v>501</v>
+        <v>474</v>
       </c>
     </row>
     <row r="133" spans="6:6">
       <c r="F133" s="44" t="s">
-        <v>505</v>
+        <v>478</v>
       </c>
     </row>
     <row r="134" spans="6:6">
       <c r="F134" s="44" t="s">
-        <v>503</v>
+        <v>476</v>
       </c>
     </row>
     <row r="135" spans="6:6">
       <c r="F135" s="44" t="s">
-        <v>506</v>
+        <v>479</v>
       </c>
     </row>
     <row r="136" spans="6:6">
       <c r="F136" s="44" t="s">
-        <v>461</v>
+        <v>434</v>
       </c>
     </row>
     <row r="137" spans="6:6">
       <c r="F137" s="44" t="s">
-        <v>462</v>
+        <v>435</v>
       </c>
     </row>
     <row r="138" spans="6:6">
       <c r="F138" s="44" t="s">
-        <v>507</v>
+        <v>480</v>
       </c>
     </row>
     <row r="139" spans="6:6">
@@ -6520,7 +6879,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
+  <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -7249,7 +7608,7 @@
       <c r="AQ35" s="21"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
+  <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -7895,7 +8254,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
+  <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -7950,7 +8309,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
+  <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -7986,7 +8345,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
+  <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -8008,34 +8367,34 @@
   <sheetData>
     <row r="3" spans="4:26">
       <c r="D3" s="1" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="5" spans="4:26">
       <c r="F5" s="36" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
     </row>
     <row r="7" spans="4:26">
       <c r="H7" s="36" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="P7" s="36" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="Z7" s="36" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
     <row r="8" spans="4:26">
       <c r="H8" s="36" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="P8" s="36" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="Z8" s="36" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
     </row>
     <row r="9" spans="4:26">
@@ -8043,44 +8402,44 @@
         <v>65</v>
       </c>
       <c r="Z9" s="36" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
     <row r="11" spans="4:26">
       <c r="F11" s="36" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
     </row>
     <row r="13" spans="4:26">
       <c r="H13" s="36" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
     <row r="14" spans="4:26">
       <c r="J14" s="36" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
     </row>
     <row r="16" spans="4:26">
       <c r="H16" s="36" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
     </row>
     <row r="17" spans="8:11">
       <c r="H17" s="36" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
     </row>
     <row r="19" spans="8:11">
       <c r="H19" s="36" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="K19" s="36" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
+  <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -8108,7 +8467,7 @@
     </row>
     <row r="5" spans="4:6" ht="15" customHeight="1">
       <c r="F5" s="40" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="7" spans="4:6" ht="15" customHeight="1">
@@ -8196,18 +8555,18 @@
     </row>
     <row r="59" spans="6:20" ht="15" customHeight="1">
       <c r="H59" s="40" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="T59" s="40" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="60" spans="6:20" ht="15" customHeight="1">
       <c r="H60" s="40" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="T60" s="40" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="62" spans="6:20" ht="15" customHeight="1">
@@ -8235,27 +8594,27 @@
     </row>
     <row r="99" spans="4:14" ht="15" customHeight="1">
       <c r="F99" s="41" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
     </row>
     <row r="101" spans="4:14" ht="15" customHeight="1">
       <c r="D101" s="7" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="103" spans="4:14" ht="15" customHeight="1">
       <c r="F103" s="41" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
     </row>
     <row r="105" spans="4:14" ht="15" customHeight="1">
       <c r="F105" s="41" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
     </row>
     <row r="108" spans="4:14" ht="15" customHeight="1">
       <c r="D108" s="5" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
     </row>
     <row r="109" spans="4:14" ht="15" customHeight="1">
@@ -8264,7 +8623,7 @@
     <row r="110" spans="4:14" ht="15" customHeight="1">
       <c r="D110" s="5"/>
       <c r="F110" s="38" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="111" spans="4:14" ht="15" customHeight="1">
@@ -8273,28 +8632,28 @@
     <row r="112" spans="4:14" ht="15" customHeight="1">
       <c r="D112" s="5"/>
       <c r="H112" s="38" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="N112" s="38" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
     </row>
     <row r="113" spans="4:14" ht="15" customHeight="1">
       <c r="D113" s="5"/>
       <c r="H113" s="38" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="N113" s="38" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
     </row>
     <row r="114" spans="4:14" ht="15" customHeight="1">
       <c r="D114" s="5"/>
       <c r="H114" s="38" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="N114" s="38" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
     <row r="115" spans="4:14" ht="15" customHeight="1">
@@ -8334,7 +8693,7 @@
       <c r="D126" s="5"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
+  <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -8343,10 +8702,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="D3:S224"/>
+  <dimension ref="D3:S230"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AH28" sqref="AH28"/>
+    <sheetView topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="AH144" sqref="AH144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15" customHeight="1"/>
@@ -8384,25 +8743,25 @@
     <row r="11" spans="4:10" ht="15" customHeight="1">
       <c r="F11" s="1"/>
       <c r="H11" s="45" t="s">
-        <v>552</v>
+        <v>523</v>
       </c>
     </row>
     <row r="12" spans="4:10" ht="15" customHeight="1">
       <c r="F12" s="1"/>
       <c r="J12" s="45" t="s">
-        <v>553</v>
+        <v>524</v>
       </c>
     </row>
     <row r="13" spans="4:10" ht="15" customHeight="1">
       <c r="F13" s="1"/>
       <c r="J13" s="45" t="s">
-        <v>554</v>
+        <v>525</v>
       </c>
     </row>
     <row r="14" spans="4:10" ht="15" customHeight="1">
       <c r="F14" s="1"/>
       <c r="J14" s="45" t="s">
-        <v>555</v>
+        <v>526</v>
       </c>
     </row>
     <row r="16" spans="4:10" ht="15" customHeight="1">
@@ -8432,7 +8791,7 @@
     </row>
     <row r="23" spans="8:10" ht="15" customHeight="1">
       <c r="J23" s="45" t="s">
-        <v>549</v>
+        <v>520</v>
       </c>
     </row>
     <row r="24" spans="8:10" ht="15" customHeight="1">
@@ -8445,14 +8804,14 @@
     </row>
     <row r="26" spans="8:10" ht="15" customHeight="1">
       <c r="H26" s="45" t="s">
-        <v>550</v>
+        <v>521</v>
       </c>
       <c r="J26" s="30"/>
     </row>
     <row r="27" spans="8:10" ht="15" customHeight="1">
       <c r="H27" s="45"/>
       <c r="J27" s="45" t="s">
-        <v>551</v>
+        <v>522</v>
       </c>
     </row>
     <row r="29" spans="8:10" ht="15" customHeight="1">
@@ -8627,7 +8986,7 @@
     </row>
     <row r="71" spans="6:10" ht="15" customHeight="1">
       <c r="J71" s="31" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
     </row>
     <row r="72" spans="6:10" ht="15" customHeight="1">
@@ -8670,12 +9029,12 @@
     </row>
     <row r="130" spans="6:6" ht="15" customHeight="1">
       <c r="F130" s="45" t="s">
-        <v>558</v>
+        <v>529</v>
       </c>
     </row>
     <row r="131" spans="6:6" ht="15" customHeight="1">
       <c r="F131" s="45" t="s">
-        <v>559</v>
+        <v>530</v>
       </c>
     </row>
     <row r="132" spans="6:6" ht="15" customHeight="1">
@@ -8691,109 +9050,109 @@
         <v>59</v>
       </c>
     </row>
-    <row r="163" spans="4:6" ht="15" customHeight="1">
-      <c r="E163" s="30" t="s">
+    <row r="169" spans="5:5" ht="15" customHeight="1">
+      <c r="E169" s="30" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="171" spans="4:6" ht="15" customHeight="1">
-      <c r="D171" s="5" t="s">
+    <row r="177" spans="4:6" ht="15" customHeight="1">
+      <c r="D177" s="5" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="173" spans="4:6" ht="15" customHeight="1">
-      <c r="F173" s="33" t="s">
+    <row r="179" spans="4:6" ht="15" customHeight="1">
+      <c r="F179" s="33" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="174" spans="4:6" ht="15" customHeight="1">
-      <c r="F174" s="33"/>
-    </row>
-    <row r="175" spans="4:6" ht="15" customHeight="1">
-      <c r="F175" s="33" t="s">
+    <row r="180" spans="4:6" ht="15" customHeight="1">
+      <c r="F180" s="33"/>
+    </row>
+    <row r="181" spans="4:6" ht="15" customHeight="1">
+      <c r="F181" s="49" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="182" spans="4:6" ht="15" customHeight="1">
+      <c r="F182" s="33" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="176" spans="4:6" ht="15" customHeight="1">
-      <c r="F176" s="33" t="s">
+    <row r="193" spans="4:19" ht="15" customHeight="1">
+      <c r="F193" s="49" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="196" spans="4:19" ht="15" customHeight="1">
+      <c r="F196" s="49" t="s">
+        <v>536</v>
+      </c>
+      <c r="S196" s="49" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="197" spans="4:19" ht="15" customHeight="1">
+      <c r="F197" s="2" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="187" spans="6:19" ht="15" customHeight="1">
-      <c r="F187" s="33" t="s">
+      <c r="S197" s="33" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="190" spans="6:19" ht="15" customHeight="1">
-      <c r="F190" s="2" t="s">
+    <row r="198" spans="4:19" ht="15" customHeight="1">
+      <c r="H198" s="33"/>
+    </row>
+    <row r="200" spans="4:19" ht="15" customHeight="1">
+      <c r="D200" s="5" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="202" spans="4:19" ht="15" customHeight="1">
+      <c r="F202" s="35" t="s">
         <v>320</v>
       </c>
-      <c r="S190" s="33" t="s">
+    </row>
+    <row r="203" spans="4:19" ht="15" customHeight="1">
+      <c r="F203" s="35" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="191" spans="6:19" ht="15" customHeight="1">
-      <c r="F191" s="2" t="s">
+    <row r="204" spans="4:19" ht="15" customHeight="1">
+      <c r="F204" s="45" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="226" spans="4:15" ht="15" customHeight="1">
+      <c r="D226" s="5" t="s">
         <v>322</v>
       </c>
-      <c r="S191" s="33" t="s">
+    </row>
+    <row r="228" spans="4:15" ht="15" customHeight="1">
+      <c r="F228" s="36" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="192" spans="6:19" ht="15" customHeight="1">
-      <c r="H192" s="33"/>
-    </row>
-    <row r="194" spans="4:6" ht="15" customHeight="1">
-      <c r="D194" s="5" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="196" spans="4:6" ht="15" customHeight="1">
-      <c r="F196" s="35" t="s">
+      <c r="O228" s="36" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="229" spans="4:15" ht="15" customHeight="1">
+      <c r="F229" s="36" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="197" spans="4:6" ht="15" customHeight="1">
-      <c r="F197" s="35" t="s">
+      <c r="O229" s="36" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="230" spans="4:15" ht="15" customHeight="1">
+      <c r="F230" s="36" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="198" spans="4:6" ht="15" customHeight="1">
-      <c r="F198" s="45" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="220" spans="4:15" ht="15" customHeight="1">
-      <c r="D220" s="5" t="s">
+      <c r="O230" s="36" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="222" spans="4:15" ht="15" customHeight="1">
-      <c r="F222" s="36" t="s">
-        <v>327</v>
-      </c>
-      <c r="O222" s="36" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="223" spans="4:15" ht="15" customHeight="1">
-      <c r="F223" s="36" t="s">
-        <v>328</v>
-      </c>
-      <c r="O223" s="36" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="224" spans="4:15" ht="15" customHeight="1">
-      <c r="F224" s="36" t="s">
-        <v>329</v>
-      </c>
-      <c r="O224" s="36" t="s">
-        <v>330</v>
-      </c>
-    </row>
   </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
+  <phoneticPr fontId="19" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I22:I28">
       <formula1>$AE$4:$AE$9</formula1>
@@ -8810,7 +9169,7 @@
   <dimension ref="D3:F34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AJ14" sqref="AJ14"/>
+      <selection activeCell="AC14" sqref="AC14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="18"/>
@@ -8822,86 +9181,91 @@
   <sheetData>
     <row r="3" spans="4:6">
       <c r="D3" s="5" t="s">
-        <v>532</v>
+        <v>504</v>
       </c>
     </row>
     <row r="5" spans="4:6">
       <c r="F5" s="45" t="s">
-        <v>533</v>
+        <v>505</v>
       </c>
     </row>
     <row r="6" spans="4:6">
       <c r="F6" s="45" t="s">
-        <v>534</v>
+        <v>506</v>
       </c>
     </row>
     <row r="7" spans="4:6">
       <c r="F7" s="45" t="s">
-        <v>535</v>
+        <v>507</v>
       </c>
     </row>
     <row r="17" spans="4:6">
       <c r="F17" s="45" t="s">
-        <v>536</v>
+        <v>508</v>
       </c>
     </row>
     <row r="18" spans="4:6">
       <c r="F18" s="45" t="s">
-        <v>537</v>
+        <v>509</v>
       </c>
     </row>
     <row r="19" spans="4:6">
       <c r="F19" s="45" t="s">
-        <v>546</v>
+        <v>518</v>
       </c>
     </row>
     <row r="20" spans="4:6">
-      <c r="F20" s="45" t="s">
-        <v>548</v>
+      <c r="F20" s="49" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="21" spans="4:6">
       <c r="F21" s="45" t="s">
-        <v>545</v>
+        <v>517</v>
+      </c>
+    </row>
+    <row r="22" spans="4:6">
+      <c r="F22" s="49" t="s">
+        <v>539</v>
       </c>
     </row>
     <row r="24" spans="4:6">
       <c r="D24" s="5" t="s">
-        <v>538</v>
+        <v>510</v>
       </c>
     </row>
     <row r="26" spans="4:6">
       <c r="F26" s="45" t="s">
-        <v>539</v>
+        <v>511</v>
       </c>
     </row>
     <row r="27" spans="4:6">
       <c r="F27" s="45" t="s">
-        <v>540</v>
+        <v>512</v>
       </c>
     </row>
     <row r="28" spans="4:6">
       <c r="F28" s="45" t="s">
-        <v>541</v>
+        <v>513</v>
       </c>
     </row>
     <row r="29" spans="4:6">
       <c r="F29" s="45" t="s">
-        <v>542</v>
+        <v>514</v>
       </c>
     </row>
     <row r="32" spans="4:6">
       <c r="D32" s="5" t="s">
-        <v>543</v>
+        <v>515</v>
       </c>
     </row>
     <row r="34" spans="6:6">
       <c r="F34" s="28" t="s">
-        <v>544</v>
+        <v>516</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
+  <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -9220,7 +9584,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
+  <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -9229,10 +9593,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="D3:F128"/>
+  <dimension ref="D3:F209"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AJ121" sqref="AJ121"/>
+      <selection activeCell="AF204" sqref="AF204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15" customHeight="1"/>
@@ -9251,277 +9615,282 @@
     </row>
     <row r="5" spans="4:6" ht="15" customHeight="1">
       <c r="F5" s="6" t="s">
-        <v>376</v>
+        <v>541</v>
       </c>
     </row>
     <row r="6" spans="4:6" ht="15" customHeight="1">
       <c r="F6" s="6" t="s">
-        <v>85</v>
+        <v>542</v>
       </c>
     </row>
     <row r="7" spans="4:6" ht="15" customHeight="1">
       <c r="F7" s="6" t="s">
-        <v>87</v>
+        <v>372</v>
       </c>
     </row>
     <row r="8" spans="4:6" ht="15" customHeight="1">
       <c r="F8" s="6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="4:6" ht="15" customHeight="1">
       <c r="F9" s="6" t="s">
-        <v>377</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="4:6" ht="15" customHeight="1">
       <c r="F10" s="6" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="12" spans="4:6" ht="15" customHeight="1">
-      <c r="F12" s="6" t="s">
-        <v>378</v>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11" spans="4:6" ht="15" customHeight="1">
+      <c r="F11" s="6" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="4:6" ht="15" customHeight="1">
       <c r="F13" s="6" t="s">
-        <v>89</v>
+        <v>373</v>
       </c>
     </row>
     <row r="14" spans="4:6" ht="15" customHeight="1">
       <c r="F14" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15" spans="4:6" ht="15" customHeight="1">
       <c r="F15" s="6" t="s">
-        <v>379</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16" spans="4:6" ht="15" customHeight="1">
       <c r="F16" s="6" t="s">
-        <v>91</v>
+        <v>543</v>
       </c>
     </row>
     <row r="17" spans="6:6" ht="15" customHeight="1">
       <c r="F17" s="6" t="s">
-        <v>380</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18" spans="6:6" ht="15" customHeight="1">
       <c r="F18" s="6" t="s">
-        <v>92</v>
+        <v>544</v>
       </c>
     </row>
     <row r="19" spans="6:6" ht="15" customHeight="1">
       <c r="F19" s="6" t="s">
-        <v>93</v>
+        <v>545</v>
+      </c>
+    </row>
+    <row r="20" spans="6:6" ht="15" customHeight="1">
+      <c r="F20" s="6" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="21" spans="6:6" ht="15" customHeight="1">
       <c r="F21" s="6" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="22" spans="6:6" ht="15" customHeight="1">
-      <c r="F22" s="6" t="s">
-        <v>381</v>
+        <v>93</v>
       </c>
     </row>
     <row r="23" spans="6:6" ht="15" customHeight="1">
       <c r="F23" s="6" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="24" spans="6:6" ht="15" customHeight="1">
       <c r="F24" s="6" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
     </row>
     <row r="25" spans="6:6" ht="15" customHeight="1">
       <c r="F25" s="6" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="26" spans="6:6" ht="15" customHeight="1">
       <c r="F26" s="6" t="s">
-        <v>383</v>
+        <v>375</v>
+      </c>
+    </row>
+    <row r="27" spans="6:6" ht="15" customHeight="1">
+      <c r="F27" s="6" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="28" spans="6:6" ht="15" customHeight="1">
       <c r="F28" s="6" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="29" spans="6:6" ht="15" customHeight="1">
-      <c r="F29" s="6" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
     </row>
     <row r="30" spans="6:6" ht="15" customHeight="1">
       <c r="F30" s="6" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="31" spans="6:6" ht="15" customHeight="1">
       <c r="F31" s="6" t="s">
-        <v>385</v>
+        <v>546</v>
       </c>
     </row>
     <row r="32" spans="6:6" ht="15" customHeight="1">
       <c r="F32" s="6" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="33" spans="6:6" ht="15" customHeight="1">
       <c r="F33" s="6" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="35" spans="6:6" ht="15" customHeight="1">
-      <c r="F35" s="6" t="s">
-        <v>282</v>
+        <v>547</v>
+      </c>
+    </row>
+    <row r="34" spans="6:6" ht="15" customHeight="1">
+      <c r="F34" s="6" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="36" spans="6:6" ht="15" customHeight="1">
       <c r="F36" s="6" t="s">
-        <v>387</v>
+        <v>282</v>
       </c>
     </row>
     <row r="37" spans="6:6" ht="15" customHeight="1">
       <c r="F37" s="6" t="s">
-        <v>284</v>
+        <v>549</v>
       </c>
     </row>
     <row r="38" spans="6:6" ht="15" customHeight="1">
       <c r="F38" s="6" t="s">
-        <v>388</v>
+        <v>284</v>
       </c>
     </row>
     <row r="39" spans="6:6" ht="15" customHeight="1">
       <c r="F39" s="6" t="s">
-        <v>287</v>
+        <v>550</v>
       </c>
     </row>
     <row r="40" spans="6:6" ht="15" customHeight="1">
       <c r="F40" s="6" t="s">
-        <v>389</v>
+        <v>287</v>
+      </c>
+    </row>
+    <row r="41" spans="6:6" ht="15" customHeight="1">
+      <c r="F41" s="6" t="s">
+        <v>551</v>
       </c>
     </row>
     <row r="42" spans="6:6" ht="15" customHeight="1">
       <c r="F42" s="6" t="s">
-        <v>282</v>
+        <v>552</v>
       </c>
     </row>
     <row r="43" spans="6:6" ht="15" customHeight="1">
       <c r="F43" s="6" t="s">
-        <v>390</v>
+        <v>553</v>
       </c>
     </row>
     <row r="44" spans="6:6" ht="15" customHeight="1">
       <c r="F44" s="6" t="s">
-        <v>284</v>
+        <v>554</v>
       </c>
     </row>
     <row r="45" spans="6:6" ht="15" customHeight="1">
       <c r="F45" s="6" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="46" spans="6:6" ht="15" customHeight="1">
-      <c r="F46" s="6" t="s">
-        <v>287</v>
+        <v>555</v>
       </c>
     </row>
     <row r="47" spans="6:6" ht="15" customHeight="1">
       <c r="F47" s="6" t="s">
-        <v>392</v>
+        <v>282</v>
+      </c>
+    </row>
+    <row r="48" spans="6:6" ht="15" customHeight="1">
+      <c r="F48" s="6" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="49" spans="6:6" ht="15" customHeight="1">
       <c r="F49" s="6" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="50" spans="6:6" ht="15" customHeight="1">
       <c r="F50" s="6" t="s">
-        <v>393</v>
+        <v>557</v>
       </c>
     </row>
     <row r="51" spans="6:6" ht="15" customHeight="1">
       <c r="F51" s="6" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="52" spans="6:6" ht="15" customHeight="1">
-      <c r="F52" s="6" t="s">
-        <v>394</v>
+        <v>558</v>
       </c>
     </row>
     <row r="53" spans="6:6" ht="15" customHeight="1">
       <c r="F53" s="6" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
     </row>
     <row r="54" spans="6:6" ht="15" customHeight="1">
       <c r="F54" s="6" t="s">
-        <v>395</v>
+        <v>559</v>
+      </c>
+    </row>
+    <row r="55" spans="6:6" ht="15" customHeight="1">
+      <c r="F55" s="6" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="56" spans="6:6" ht="15" customHeight="1">
       <c r="F56" s="6" t="s">
-        <v>282</v>
+        <v>560</v>
       </c>
     </row>
     <row r="57" spans="6:6" ht="15" customHeight="1">
       <c r="F57" s="6" t="s">
-        <v>396</v>
+        <v>287</v>
       </c>
     </row>
     <row r="58" spans="6:6" ht="15" customHeight="1">
       <c r="F58" s="6" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="59" spans="6:6" ht="15" customHeight="1">
-      <c r="F59" s="6" t="s">
-        <v>397</v>
+        <v>561</v>
       </c>
     </row>
     <row r="60" spans="6:6" ht="15" customHeight="1">
       <c r="F60" s="6" t="s">
-        <v>398</v>
+        <v>282</v>
       </c>
     </row>
     <row r="61" spans="6:6" ht="15" customHeight="1">
       <c r="F61" s="6" t="s">
-        <v>399</v>
+        <v>562</v>
+      </c>
+    </row>
+    <row r="62" spans="6:6" ht="15" customHeight="1">
+      <c r="F62" s="6" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="63" spans="6:6" ht="15" customHeight="1">
       <c r="F63" s="6" t="s">
-        <v>282</v>
+        <v>563</v>
       </c>
     </row>
     <row r="64" spans="6:6" ht="15" customHeight="1">
       <c r="F64" s="6" t="s">
-        <v>400</v>
+        <v>287</v>
       </c>
     </row>
     <row r="65" spans="6:6" ht="15" customHeight="1">
       <c r="F65" s="6" t="s">
-        <v>284</v>
+        <v>564</v>
       </c>
     </row>
     <row r="66" spans="6:6" ht="15" customHeight="1">
       <c r="F66" s="6" t="s">
-        <v>401</v>
+        <v>565</v>
       </c>
     </row>
     <row r="67" spans="6:6" ht="15" customHeight="1">
       <c r="F67" s="6" t="s">
-        <v>402</v>
+        <v>566</v>
       </c>
     </row>
     <row r="69" spans="6:6" ht="15" customHeight="1">
@@ -9531,7 +9900,7 @@
     </row>
     <row r="70" spans="6:6" ht="15" customHeight="1">
       <c r="F70" s="6" t="s">
-        <v>403</v>
+        <v>567</v>
       </c>
     </row>
     <row r="71" spans="6:6" ht="15" customHeight="1">
@@ -9541,197 +9910,207 @@
     </row>
     <row r="72" spans="6:6" ht="15" customHeight="1">
       <c r="F72" s="6" t="s">
-        <v>404</v>
+        <v>568</v>
       </c>
     </row>
     <row r="73" spans="6:6" ht="15" customHeight="1">
       <c r="F73" s="6" t="s">
-        <v>405</v>
+        <v>287</v>
+      </c>
+    </row>
+    <row r="74" spans="6:6" ht="15" customHeight="1">
+      <c r="F74" s="6" t="s">
+        <v>569</v>
       </c>
     </row>
     <row r="75" spans="6:6" ht="15" customHeight="1">
       <c r="F75" s="6" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="76" spans="6:6" ht="15" customHeight="1">
-      <c r="F76" s="6" t="s">
-        <v>406</v>
+        <v>570</v>
       </c>
     </row>
     <row r="77" spans="6:6" ht="15" customHeight="1">
       <c r="F77" s="6" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="78" spans="6:6" ht="15" customHeight="1">
       <c r="F78" s="6" t="s">
-        <v>407</v>
+        <v>377</v>
       </c>
     </row>
     <row r="79" spans="6:6" ht="15" customHeight="1">
       <c r="F79" s="6" t="s">
-        <v>408</v>
+        <v>284</v>
+      </c>
+    </row>
+    <row r="80" spans="6:6" ht="15" customHeight="1">
+      <c r="F80" s="6" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="81" spans="6:6" ht="15" customHeight="1">
       <c r="F81" s="6" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
     </row>
     <row r="82" spans="6:6" ht="15" customHeight="1">
       <c r="F82" s="6" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="83" spans="6:6" ht="15" customHeight="1">
-      <c r="F83" s="6" t="s">
-        <v>284</v>
+        <v>379</v>
       </c>
     </row>
     <row r="84" spans="6:6" ht="15" customHeight="1">
       <c r="F84" s="6" t="s">
-        <v>410</v>
+        <v>282</v>
       </c>
     </row>
     <row r="85" spans="6:6" ht="15" customHeight="1">
       <c r="F85" s="6" t="s">
-        <v>411</v>
+        <v>380</v>
+      </c>
+    </row>
+    <row r="86" spans="6:6" ht="15" customHeight="1">
+      <c r="F86" s="6" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="87" spans="6:6" ht="15" customHeight="1">
       <c r="F87" s="6" t="s">
-        <v>282</v>
+        <v>381</v>
       </c>
     </row>
     <row r="88" spans="6:6" ht="15" customHeight="1">
       <c r="F88" s="6" t="s">
-        <v>412</v>
+        <v>287</v>
       </c>
     </row>
     <row r="89" spans="6:6" ht="15" customHeight="1">
       <c r="F89" s="6" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="90" spans="6:6" ht="15" customHeight="1">
-      <c r="F90" s="6" t="s">
-        <v>413</v>
+        <v>382</v>
       </c>
     </row>
     <row r="91" spans="6:6" ht="15" customHeight="1">
       <c r="F91" s="6" t="s">
-        <v>414</v>
+        <v>282</v>
+      </c>
+    </row>
+    <row r="92" spans="6:6" ht="15" customHeight="1">
+      <c r="F92" s="6" t="s">
+        <v>571</v>
       </c>
     </row>
     <row r="93" spans="6:6" ht="15" customHeight="1">
       <c r="F93" s="6" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="94" spans="6:6" ht="15" customHeight="1">
       <c r="F94" s="6" t="s">
-        <v>415</v>
+        <v>572</v>
       </c>
     </row>
     <row r="95" spans="6:6" ht="15" customHeight="1">
       <c r="F95" s="6" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="96" spans="6:6" ht="15" customHeight="1">
       <c r="F96" s="6" t="s">
-        <v>416</v>
+        <v>573</v>
       </c>
     </row>
     <row r="97" spans="6:6" ht="15" customHeight="1">
       <c r="F97" s="6" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="98" spans="6:6" ht="15" customHeight="1">
-      <c r="F98" s="6" t="s">
-        <v>418</v>
+        <v>574</v>
       </c>
     </row>
     <row r="99" spans="6:6" ht="15" customHeight="1">
       <c r="F99" s="6" t="s">
-        <v>419</v>
+        <v>282</v>
+      </c>
+    </row>
+    <row r="100" spans="6:6" ht="15" customHeight="1">
+      <c r="F100" s="6" t="s">
+        <v>575</v>
       </c>
     </row>
     <row r="101" spans="6:6" ht="15" customHeight="1">
       <c r="F101" s="6" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="102" spans="6:6" ht="15" customHeight="1">
       <c r="F102" s="6" t="s">
-        <v>420</v>
+        <v>576</v>
       </c>
     </row>
     <row r="103" spans="6:6" ht="15" customHeight="1">
       <c r="F103" s="6" t="s">
-        <v>284</v>
+        <v>577</v>
       </c>
     </row>
     <row r="104" spans="6:6" ht="15" customHeight="1">
       <c r="F104" s="6" t="s">
-        <v>421</v>
+        <v>578</v>
+      </c>
+    </row>
+    <row r="106" spans="6:6" ht="15" customHeight="1">
+      <c r="F106" s="6" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="107" spans="6:6" ht="15" customHeight="1">
       <c r="F107" s="6" t="s">
-        <v>282</v>
+        <v>579</v>
       </c>
     </row>
     <row r="108" spans="6:6" ht="15" customHeight="1">
       <c r="F108" s="6" t="s">
-        <v>422</v>
+        <v>284</v>
       </c>
     </row>
     <row r="109" spans="6:6" ht="15" customHeight="1">
       <c r="F109" s="6" t="s">
-        <v>284</v>
+        <v>580</v>
       </c>
     </row>
     <row r="110" spans="6:6" ht="15" customHeight="1">
       <c r="F110" s="6" t="s">
-        <v>423</v>
+        <v>577</v>
       </c>
     </row>
     <row r="111" spans="6:6" ht="15" customHeight="1">
       <c r="F111" s="6" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="112" spans="6:6" ht="15" customHeight="1">
-      <c r="F112" s="6" t="s">
-        <v>424</v>
+        <v>581</v>
       </c>
     </row>
     <row r="113" spans="6:6" ht="15" customHeight="1">
       <c r="F113" s="6" t="s">
-        <v>419</v>
+        <v>282</v>
+      </c>
+    </row>
+    <row r="114" spans="6:6" ht="15" customHeight="1">
+      <c r="F114" s="6" t="s">
+        <v>582</v>
       </c>
     </row>
     <row r="115" spans="6:6" ht="15" customHeight="1">
       <c r="F115" s="6" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="116" spans="6:6" ht="15" customHeight="1">
       <c r="F116" s="6" t="s">
-        <v>425</v>
+        <v>583</v>
       </c>
     </row>
     <row r="117" spans="6:6" ht="15" customHeight="1">
       <c r="F117" s="6" t="s">
-        <v>284</v>
+        <v>584</v>
       </c>
     </row>
     <row r="118" spans="6:6" ht="15" customHeight="1">
       <c r="F118" s="6" t="s">
-        <v>426</v>
+        <v>585</v>
       </c>
     </row>
     <row r="120" spans="6:6" ht="15" customHeight="1">
@@ -9741,7 +10120,7 @@
     </row>
     <row r="121" spans="6:6" ht="15" customHeight="1">
       <c r="F121" s="6" t="s">
-        <v>427</v>
+        <v>586</v>
       </c>
     </row>
     <row r="122" spans="6:6" ht="15" customHeight="1">
@@ -9751,31 +10130,371 @@
     </row>
     <row r="123" spans="6:6" ht="15" customHeight="1">
       <c r="F123" s="6" t="s">
-        <v>428</v>
+        <v>587</v>
       </c>
     </row>
     <row r="124" spans="6:6" ht="15" customHeight="1">
       <c r="F124" s="6" t="s">
-        <v>429</v>
+        <v>588</v>
       </c>
     </row>
     <row r="126" spans="6:6" ht="15" customHeight="1">
       <c r="F126" s="6" t="s">
-        <v>94</v>
+        <v>282</v>
       </c>
     </row>
     <row r="127" spans="6:6" ht="15" customHeight="1">
       <c r="F127" s="6" t="s">
-        <v>95</v>
+        <v>589</v>
       </c>
     </row>
     <row r="128" spans="6:6" ht="15" customHeight="1">
       <c r="F128" s="6" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="129" spans="6:6" ht="15" customHeight="1">
+      <c r="F129" s="6" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="130" spans="6:6" ht="15" customHeight="1">
+      <c r="F130" s="6" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="131" spans="6:6" ht="15" customHeight="1">
+      <c r="F131" s="6" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="133" spans="6:6" ht="15" customHeight="1">
+      <c r="F133" s="6" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="134" spans="6:6" ht="15" customHeight="1">
+      <c r="F134" s="6" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="135" spans="6:6" ht="15" customHeight="1">
+      <c r="F135" s="6" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="136" spans="6:6" ht="15" customHeight="1">
+      <c r="F136" s="6" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="137" spans="6:6" ht="15" customHeight="1">
+      <c r="F137" s="6" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="138" spans="6:6" ht="15" customHeight="1">
+      <c r="F138" s="6" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="140" spans="6:6" ht="15" customHeight="1">
+      <c r="F140" s="6" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="141" spans="6:6" ht="15" customHeight="1">
+      <c r="F141" s="6" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="142" spans="6:6" ht="15" customHeight="1">
+      <c r="F142" s="6" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="143" spans="6:6" ht="15" customHeight="1">
+      <c r="F143" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="144" spans="6:6" ht="15" customHeight="1">
+      <c r="F144" s="6" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="145" spans="6:6" ht="15" customHeight="1">
+      <c r="F145" s="6" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="147" spans="6:6" ht="15" customHeight="1">
+      <c r="F147" s="6" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="148" spans="6:6" ht="15" customHeight="1">
+      <c r="F148" s="6" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="149" spans="6:6" ht="15" customHeight="1">
+      <c r="F149" s="6" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="150" spans="6:6" ht="15" customHeight="1">
+      <c r="F150" s="6" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="151" spans="6:6" ht="15" customHeight="1">
+      <c r="F151" s="6" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="152" spans="6:6" ht="15" customHeight="1">
+      <c r="F152" s="6" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="154" spans="6:6" ht="15" customHeight="1">
+      <c r="F154" s="6" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="155" spans="6:6" ht="15" customHeight="1">
+      <c r="F155" s="6" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="156" spans="6:6" ht="15" customHeight="1">
+      <c r="F156" s="6" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="157" spans="6:6" ht="15" customHeight="1">
+      <c r="F157" s="6" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="158" spans="6:6" ht="15" customHeight="1">
+      <c r="F158" s="6" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="159" spans="6:6" ht="15" customHeight="1">
+      <c r="F159" s="6" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="160" spans="6:6" ht="15" customHeight="1">
+      <c r="F160" s="6" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="162" spans="6:6" ht="15" customHeight="1">
+      <c r="F162" s="6" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="163" spans="6:6" ht="15" customHeight="1">
+      <c r="F163" s="6" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="164" spans="6:6" ht="15" customHeight="1">
+      <c r="F164" s="6" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="165" spans="6:6" ht="15" customHeight="1">
+      <c r="F165" s="6" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="166" spans="6:6" ht="15" customHeight="1">
+      <c r="F166" s="6" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="168" spans="6:6" ht="15" customHeight="1">
+      <c r="F168" s="6" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="169" spans="6:6" ht="15" customHeight="1">
+      <c r="F169" s="6" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="170" spans="6:6" ht="15" customHeight="1">
+      <c r="F170" s="6" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="171" spans="6:6" ht="15" customHeight="1">
+      <c r="F171" s="6" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="172" spans="6:6" ht="15" customHeight="1">
+      <c r="F172" s="6" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="174" spans="6:6" ht="15" customHeight="1">
+      <c r="F174" s="6" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="175" spans="6:6" ht="15" customHeight="1">
+      <c r="F175" s="6" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="176" spans="6:6" ht="15" customHeight="1">
+      <c r="F176" s="6" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="177" spans="6:6" ht="15" customHeight="1">
+      <c r="F177" s="6" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="178" spans="6:6" ht="15" customHeight="1">
+      <c r="F178" s="6" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="179" spans="6:6" ht="15" customHeight="1">
+      <c r="F179" s="6" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="180" spans="6:6" ht="15" customHeight="1">
+      <c r="F180" s="6" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="182" spans="6:6" ht="15" customHeight="1">
+      <c r="F182" s="6" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="183" spans="6:6" ht="15" customHeight="1">
+      <c r="F183" s="6" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="184" spans="6:6" ht="15" customHeight="1">
+      <c r="F184" s="6" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="185" spans="6:6" ht="15" customHeight="1">
+      <c r="F185" s="6" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="188" spans="6:6" ht="15" customHeight="1">
+      <c r="F188" s="6" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="189" spans="6:6" ht="15" customHeight="1">
+      <c r="F189" s="6" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="190" spans="6:6" ht="15" customHeight="1">
+      <c r="F190" s="6" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="191" spans="6:6" ht="15" customHeight="1">
+      <c r="F191" s="6" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="192" spans="6:6" ht="15" customHeight="1">
+      <c r="F192" s="6" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="193" spans="6:6" ht="15" customHeight="1">
+      <c r="F193" s="6" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="194" spans="6:6" ht="15" customHeight="1">
+      <c r="F194" s="6" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="196" spans="6:6" ht="15" customHeight="1">
+      <c r="F196" s="6" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="197" spans="6:6" ht="15" customHeight="1">
+      <c r="F197" s="6" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="198" spans="6:6" ht="15" customHeight="1">
+      <c r="F198" s="6" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="199" spans="6:6" ht="15" customHeight="1">
+      <c r="F199" s="6" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="201" spans="6:6" ht="15" customHeight="1">
+      <c r="F201" s="6" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="202" spans="6:6" ht="15" customHeight="1">
+      <c r="F202" s="6" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="203" spans="6:6" ht="15" customHeight="1">
+      <c r="F203" s="6" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="204" spans="6:6" ht="15" customHeight="1">
+      <c r="F204" s="6" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="205" spans="6:6" ht="15" customHeight="1">
+      <c r="F205" s="6" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="207" spans="6:6" ht="15" customHeight="1">
+      <c r="F207" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="208" spans="6:6" ht="15" customHeight="1">
+      <c r="F208" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="209" spans="6:6" ht="15" customHeight="1">
+      <c r="F209" s="6" t="s">
         <v>96</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
+  <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -9804,7 +10523,7 @@
     <row r="5" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D5" s="5"/>
       <c r="F5" s="6" t="s">
-        <v>430</v>
+        <v>403</v>
       </c>
     </row>
     <row r="6" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
@@ -9856,7 +10575,7 @@
     <row r="14" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D14" s="5"/>
       <c r="F14" s="6" t="s">
-        <v>431</v>
+        <v>404</v>
       </c>
     </row>
     <row r="15" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
@@ -9890,7 +10609,7 @@
     <row r="20" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D20" s="5"/>
       <c r="F20" s="6" t="s">
-        <v>432</v>
+        <v>405</v>
       </c>
     </row>
     <row r="21" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
@@ -9924,7 +10643,7 @@
     <row r="26" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D26" s="5"/>
       <c r="F26" s="6" t="s">
-        <v>433</v>
+        <v>406</v>
       </c>
     </row>
     <row r="27" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
@@ -9958,7 +10677,7 @@
     <row r="32" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D32" s="5"/>
       <c r="F32" s="6" t="s">
-        <v>434</v>
+        <v>407</v>
       </c>
     </row>
     <row r="33" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
@@ -9992,7 +10711,7 @@
     <row r="38" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D38" s="5"/>
       <c r="F38" s="6" t="s">
-        <v>435</v>
+        <v>408</v>
       </c>
     </row>
     <row r="39" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
@@ -10026,7 +10745,7 @@
     <row r="44" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D44" s="5"/>
       <c r="F44" s="6" t="s">
-        <v>436</v>
+        <v>409</v>
       </c>
     </row>
     <row r="45" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
@@ -10039,7 +10758,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
+  <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10661,7 +11380,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
+  <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10671,7 +11390,7 @@
   <dimension ref="D3:T121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AG113" sqref="AG113"/>
+      <selection activeCell="AP12" sqref="AP12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="18"/>
@@ -10683,124 +11402,124 @@
   <sheetData>
     <row r="3" spans="4:6">
       <c r="D3" s="5" t="s">
-        <v>439</v>
+        <v>412</v>
       </c>
     </row>
     <row r="5" spans="4:6">
       <c r="F5" s="44" t="s">
-        <v>440</v>
+        <v>413</v>
       </c>
     </row>
     <row r="6" spans="4:6">
       <c r="F6" s="44" t="s">
-        <v>441</v>
+        <v>414</v>
       </c>
     </row>
     <row r="8" spans="4:6">
       <c r="F8" s="45" t="s">
-        <v>531</v>
+        <v>503</v>
       </c>
     </row>
     <row r="24" spans="4:14">
       <c r="D24" s="5" t="s">
-        <v>442</v>
+        <v>415</v>
       </c>
     </row>
     <row r="26" spans="4:14">
       <c r="F26" s="44" t="s">
-        <v>443</v>
+        <v>416</v>
       </c>
     </row>
     <row r="31" spans="4:14">
       <c r="N31" s="44" t="s">
-        <v>509</v>
+        <v>482</v>
       </c>
     </row>
     <row r="46" spans="4:14">
       <c r="N46" s="44" t="s">
-        <v>510</v>
+        <v>483</v>
       </c>
     </row>
     <row r="48" spans="4:14">
       <c r="D48" s="5" t="s">
-        <v>444</v>
+        <v>417</v>
       </c>
     </row>
     <row r="50" spans="6:20">
       <c r="F50" s="44" t="s">
-        <v>445</v>
+        <v>418</v>
       </c>
     </row>
     <row r="52" spans="6:20">
       <c r="H52" s="44" t="s">
-        <v>511</v>
+        <v>484</v>
       </c>
     </row>
     <row r="56" spans="6:20">
       <c r="T56" s="44" t="s">
-        <v>509</v>
+        <v>482</v>
       </c>
     </row>
     <row r="64" spans="6:20">
       <c r="T64" s="44" t="s">
-        <v>510</v>
+        <v>483</v>
       </c>
     </row>
     <row r="67" spans="4:19" ht="16.5">
       <c r="D67" s="44"/>
       <c r="F67" s="44" t="s">
-        <v>456</v>
+        <v>429</v>
       </c>
     </row>
     <row r="68" spans="4:19" ht="16.5">
       <c r="D68" s="44"/>
       <c r="F68" s="44" t="s">
-        <v>484</v>
+        <v>457</v>
       </c>
     </row>
     <row r="69" spans="4:19" ht="16.5">
       <c r="D69" s="44"/>
       <c r="F69" s="44" t="s">
-        <v>458</v>
+        <v>431</v>
       </c>
     </row>
     <row r="70" spans="4:19" ht="16.5">
       <c r="D70" s="44"/>
       <c r="F70" s="31" t="s">
-        <v>524</v>
+        <v>497</v>
       </c>
     </row>
     <row r="71" spans="4:19" ht="16.5">
       <c r="D71" s="44"/>
       <c r="F71" s="44" t="s">
-        <v>486</v>
+        <v>459</v>
       </c>
     </row>
     <row r="72" spans="4:19" ht="16.5">
       <c r="D72" s="44"/>
       <c r="F72" s="44" t="s">
-        <v>461</v>
+        <v>434</v>
       </c>
     </row>
     <row r="73" spans="4:19" ht="16.5">
       <c r="D73" s="44"/>
       <c r="F73" s="44" t="s">
-        <v>462</v>
+        <v>435</v>
       </c>
     </row>
     <row r="75" spans="4:19">
       <c r="H75" s="28" t="s">
-        <v>513</v>
+        <v>486</v>
       </c>
     </row>
     <row r="76" spans="4:19">
       <c r="J76" s="28" t="s">
-        <v>514</v>
+        <v>487</v>
       </c>
     </row>
     <row r="77" spans="4:19">
       <c r="J77" s="28" t="s">
-        <v>523</v>
+        <v>496</v>
       </c>
     </row>
     <row r="78" spans="4:19">
@@ -10808,131 +11527,131 @@
     </row>
     <row r="79" spans="4:19">
       <c r="J79" s="44" t="s">
-        <v>516</v>
+        <v>489</v>
       </c>
       <c r="S79" s="44" t="s">
-        <v>525</v>
+        <v>498</v>
       </c>
     </row>
     <row r="80" spans="4:19">
       <c r="J80" s="44" t="s">
-        <v>521</v>
+        <v>494</v>
       </c>
       <c r="S80" s="44" t="s">
-        <v>526</v>
+        <v>499</v>
       </c>
     </row>
     <row r="81" spans="4:19">
       <c r="J81" s="44" t="s">
-        <v>522</v>
+        <v>495</v>
       </c>
       <c r="S81" s="44" t="s">
-        <v>527</v>
+        <v>500</v>
       </c>
     </row>
     <row r="83" spans="4:19">
       <c r="H83" s="44" t="s">
-        <v>512</v>
+        <v>485</v>
       </c>
     </row>
     <row r="91" spans="4:19" ht="15.75" customHeight="1">
       <c r="D91" s="44"/>
       <c r="F91" s="44" t="s">
-        <v>456</v>
+        <v>429</v>
       </c>
     </row>
     <row r="92" spans="4:19" ht="16.5">
       <c r="D92" s="44"/>
       <c r="F92" s="44" t="s">
-        <v>481</v>
+        <v>454</v>
       </c>
     </row>
     <row r="93" spans="4:19" ht="16.5">
       <c r="D93" s="44"/>
       <c r="F93" s="44" t="s">
-        <v>458</v>
+        <v>431</v>
       </c>
     </row>
     <row r="94" spans="4:19" ht="16.5">
       <c r="D94" s="44"/>
       <c r="F94" s="31" t="s">
-        <v>518</v>
+        <v>491</v>
       </c>
     </row>
     <row r="95" spans="4:19" ht="16.5">
       <c r="D95" s="44"/>
       <c r="F95" s="44" t="s">
-        <v>483</v>
+        <v>456</v>
       </c>
     </row>
     <row r="96" spans="4:19" ht="16.5">
       <c r="D96" s="44"/>
       <c r="F96" s="44" t="s">
-        <v>461</v>
+        <v>434</v>
       </c>
     </row>
     <row r="97" spans="4:19" ht="16.5">
       <c r="D97" s="44"/>
       <c r="F97" s="44" t="s">
-        <v>462</v>
+        <v>435</v>
       </c>
     </row>
     <row r="100" spans="4:19">
       <c r="H100" s="28" t="s">
-        <v>513</v>
+        <v>486</v>
       </c>
     </row>
     <row r="101" spans="4:19">
       <c r="J101" s="28" t="s">
-        <v>514</v>
+        <v>487</v>
       </c>
     </row>
     <row r="102" spans="4:19">
       <c r="J102" s="28" t="s">
-        <v>515</v>
+        <v>488</v>
       </c>
     </row>
     <row r="104" spans="4:19">
       <c r="J104" s="44" t="s">
-        <v>516</v>
+        <v>489</v>
       </c>
       <c r="S104" s="44" t="s">
-        <v>517</v>
+        <v>490</v>
       </c>
     </row>
     <row r="105" spans="4:19">
       <c r="J105" s="44" t="s">
-        <v>521</v>
+        <v>494</v>
       </c>
       <c r="S105" s="44" t="s">
-        <v>519</v>
+        <v>492</v>
       </c>
     </row>
     <row r="106" spans="4:19">
       <c r="J106" s="44" t="s">
-        <v>522</v>
+        <v>495</v>
       </c>
       <c r="S106" s="44" t="s">
-        <v>520</v>
+        <v>493</v>
       </c>
     </row>
     <row r="109" spans="4:19">
       <c r="H109" s="45" t="s">
-        <v>547</v>
+        <v>519</v>
       </c>
     </row>
     <row r="119" spans="4:6">
       <c r="D119" s="5" t="s">
-        <v>528</v>
+        <v>501</v>
       </c>
     </row>
     <row r="121" spans="4:6">
       <c r="F121" s="44" t="s">
-        <v>529</v>
+        <v>502</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
+  <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/DevKit/Help/开发辅助工具使用手册.xlsx
+++ b/DevKit/Help/开发辅助工具使用手册.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" firstSheet="7" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="目的" sheetId="1" r:id="rId1"/>
@@ -28,132 +28,132 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="610">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="611">
   <si>
     <t>目的</t>
   </si>
   <si>
     <t>通过使用工具，提高工作效率，防止手工编码的低级错误，消减代码复查的工作时间。</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>.Net Framework 4.5</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>工程</t>
   </si>
   <si>
     <t>新建工程</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>菜单 -&gt; 文件 -&gt; 新建工程</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>*暂时请不要使用Java</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>项目名称：</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>这个项目的名字，可以是任意文字</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>命名空间</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>新建工程后，系统将自动添加以下文件夹</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>\Model\Document</t>
   </si>
   <si>
     <t>数据模型设计书</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>\Model\SourceCode</t>
   </si>
   <si>
     <t>数据模型代码</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>枚举代码文件夹</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>*枚举代码文件夹中的文件将在枚举中介绍</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>同时，系统会生成 Project.xml文件</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>打开工程</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>菜单 -&gt; 文件 -&gt; 打开工程</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>数据模型</t>
   </si>
   <si>
     <t>工具通过将设计书直接转化为Model代码的方式，使得数据模型的编码环节做到自动化。</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>设计人员只需要填写完数据设计式样书，则工具可以完成代码的自动生成。</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>基本</t>
   </si>
   <si>
     <t>No</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>属性名</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>元数据类型</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>枚举类型</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>显示名称</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>编号，暂时没有什么作用</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>Model的变量名称，请使用符合C#变量名称的字符串</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>枚举类型的完整类型名称</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>这个项目在Web页显示时候的名称</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>校验</t>
@@ -163,197 +163,197 @@
   </si>
   <si>
     <t>是否为必须项目</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>错误信息</t>
   </si>
   <si>
     <t>错误信息</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>数值范围</t>
   </si>
   <si>
     <t>最大值</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>最小值</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>字符串长度</t>
   </si>
   <si>
     <t>模式</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>正则表达式</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>格式</t>
   </si>
   <si>
     <t>使用类型</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>显示模式</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>这个字段在使用的时候的类型，例如电子邮件，电话号码</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>这个字段在表示模式的时候，如何显示。</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>版本控制</t>
   </si>
   <si>
     <t>省略</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>项目是ID这样的，不希望直接被页面编辑的项目。</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>编号项目（布尔型）</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>是/否（布尔型）</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>*填写的时候，如果是 （布尔型） 的填写项，请在格子里面填写任意字符表示选中。</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>代码的生成</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>将设计书放在Document文件夹下，选择 菜单 -&gt; 工程 -&gt; 生成所有模型代码  系统将自动重新生成所有的代码。</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>生成的代码直接可以给VS使用，作为生成View的数据源头。</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>注意：Language这样的枚举，VS无法自动生成代码，需要手动添加</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>同时，旗标类型的枚举，需要其他的代码的配合，这个在枚举中介绍。</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>枚举类型分为普通枚举和旗标枚举</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>普通枚举：一个变量值只可能有一种枚举状态，则使用普通枚举。</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>旗标枚举：一个变量可能同时存在多种枚举状态，则使用旗标枚举。</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>例如：小明 同时会 日语 和 英语 ，则语言就是一个旗标枚举。</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>例如：如果一家超市，每周只有一天休息，则星期几休息就是一个一般枚举。</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>枚举</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>枚举类型</t>
   </si>
   <si>
     <t>数据模型设计书项目说明</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>枚举设计书项目说明</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>枚举名称：</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>Flag型  (布尔型）</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>是否为旗标枚举</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>枚举量</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>这个枚举的名称，必须符合C#变量名规则</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>表示某个枚举的变量，必须符合C#变量名规则</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>枚举显示名</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>枚举在画面上显示的名字</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>枚举值</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>枚举在系统内部的名字</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>Enum附加代码</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>VS系统将会把Enum类型作为数字处理，如果需要在画面显示的时候，将普通枚举作为下拉列表，旗标枚举作为多个复选框，</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>请将新建工程时候的Enum文件夹下面的代码放入VS的项目中。</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>Enum辅助代码</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>旗标枚举的模板</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>普通枚举的模板</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>using System;</t>
@@ -399,71 +399,71 @@
   </si>
   <si>
     <t>界面说明</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>适用范围</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>工具环境</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>版本情报</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>如果你只需要生成一个模型,则可以使用 菜单 -&gt; 工具 -&gt; 生成数据模型来生成指定数据模型.</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>允许的最大值</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>允许的最小值</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>允许的最大字符串长度</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>允许的最小字符串长度</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>(系统在编辑的时候,将通过浏览器内置的html5功能检查输入是否合法)</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>工具</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>指定枚举设计文档和源代码保存路径后,即可生成代码.</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>菜单 -&gt; 工具 -&gt; 生成枚举代码</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>目标计划</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>ASP.NET MVC5 ,Spring MVC4 。</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>Java 系 Spring MVC4 JSR-349 验证标准的完善.</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>数据模型(Spring)</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>package HRSystemOnline;</t>
@@ -1030,97 +1030,97 @@
   </si>
   <si>
     <t>数据模型(ASP.NET)</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>Native2ASCII</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>Java中的Property文档,需要将本地语言转为机器语言,这个工具能够自动转换单个字符串.</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>菜单 -&gt; 工具 -&gt; Native2ASCII</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>变更履历</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>2014/12/19</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>增加了Native AscII 工具</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>这里支持 Native -&gt; ASCII 和 ASCII -&gt; Native 的双向转换.</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>请在Native或者ASCII里面填入内容.系统将自动判断转换方向.</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>如果需要批量转换,请先在Excel里填写好转换内容,再执行批量转换</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>*批量转换也支持双向转换,请按照需求填写内容.系统将自动转换直到 No 列为空.</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>2014/12/22</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>增加了Struts2的数据验证处理</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>2014/12/23</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>增加MySql建表语句功能</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>项目的NameSpace，以后生成的Model的命名空间会是 NameSpace.Models(.NET),Java的Package名称也在这里设定</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>数据表结构生成</t>
   </si>
   <si>
     <t>在数据设计书编辑后,可以通过工具自动生成数据库的CreateTable语句.</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>MySql篇</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>字符串</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>varchar</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>需要长度提示</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>整型</t>
   </si>
   <si>
     <t>int</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>布尔值</t>
@@ -1130,7 +1130,7 @@
   </si>
   <si>
     <t>日期(包含时间)</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>datetime</t>
@@ -1140,15 +1140,15 @@
   </si>
   <si>
     <t>*暂时默认有且只有一个主键,主键是数字自增主健.</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>&lt;考虑到旗标型枚举,所以将类型定义扩大为smallint.&gt;</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>自动生成代码示例</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>DROP TABLE IF EXISTS `test`.`Candidate`;</t>
@@ -1194,26 +1194,26 @@
   </si>
   <si>
     <t>增加 Struts2路由编辑</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>Struts2路由</t>
   </si>
   <si>
     <t>通过读取Excel文档自动生成Struts的路由配置部分内容.</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>菜单 -&gt; 工具 -&gt; Struts2路由</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>读入文件格式如下</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>生成文件</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>&lt;struts&gt;</t>
@@ -1268,38 +1268,38 @@
   </si>
   <si>
     <t>这里只是Struts的路由部分的配置,在实际使用中,需要进行一些修改.</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>2015/1/4</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>增加代码片断功能</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>代码片断</t>
   </si>
   <si>
     <t>将一些常用的代码或者知识,收集到一起,便于以后查阅和使用.</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>检索功能支持标题和描述,Tag检索</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>2015/1/30</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>增强了数据模型定义</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>EnumExtention.cs</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1315,7 +1315,7 @@
       </rPr>
       <t>\SourceCode</t>
     </r>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1341,19 +1341,19 @@
       </rPr>
       <t>\Document</t>
     </r>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>\Enum\ExtendSourceCode</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>枚举辅助代码</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>EnumDisplayNameAttribute.cs</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1369,23 +1369,23 @@
       </rPr>
       <t>isplayName属性代码</t>
     </r>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>放置在数据模型代码工程中</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>放置于\WebSite\Views\Shared\EditorTemplates中</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>Enum具体的编码</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>先确保所有的Enum附加代码放置在正确的文件夹,并且添加了适当的引用</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1431,15 +1431,15 @@
       </rPr>
       <t>,需要手动添加.</t>
     </r>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>添加的形式则和普通的字段一样.</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>Create视图的时候,请保证设定一个New过的模型到ViewData.Model,不然会发生Null引用错误.</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">        public ActionResult Create()</t>
@@ -1461,19 +1461,19 @@
       </rPr>
       <t>new Interview();</t>
     </r>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>EnumFlags.cs</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>Enum.cs</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>代码通过 UIHint属性来控制 字段使用的模板,所以自动生成的代码应该象这个样子:</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">            /// &lt;summary&gt;</t>
@@ -1537,11 +1537,11 @@
   </si>
   <si>
     <t>名字空间</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>该枚举的名字空间</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1568,43 +1568,43 @@
       </rPr>
       <t>在Enum生成代码中,请注意.</t>
     </r>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>注意,系统将自动添加 "0:"字符,所以这里填写的时候不要添加 "0:"</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>MongoDB的时候,日期将使用Local模式</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>2015/2/3</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>增加了MongoDB的支持</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>如果名字空间不填写的话,这里将自动使用工程的名字空间</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>2015/2/4</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>增加了类描述</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>增加了复制所有代码到真实工程</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>增加了元数据类型:列表</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1630,19 +1630,19 @@
       </rPr>
       <t>中,需要添加EnumDisplayNameAttibute的命名空间</t>
     </r>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>基类</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>系统支持 CompanyTable,MasterTable两种扩展数据模型</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>MasterTable,继承了CompanyTable,同时带有 Name名称和Description描述字段</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>MasterTable.cs</t>
@@ -1661,135 +1661,135 @@
       </rPr>
       <t>代码</t>
     </r>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>有时候MVC5.0的Js下面的一些验证相关的JS会被误删除造成验证无效。</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>这个时候可以新建一个MVC5.0的工程，然后将Js下面的文件全部复制过去即可。</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>关于自动添加的字段</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>CollectionName:</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>Prefix</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>MvcTitle</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>用作画面标题的字符</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>数据表名称(附加一个静态方法)</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>数据编号的前缀(附加一个静态方法)</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>2015/2/5</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>增加了MvcTitle字段</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>MVC5开发</t>
   </si>
   <si>
     <t>业务模型的设计</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>MasterTable</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>数据模型</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>普通的数据</t>
   </si>
   <si>
     <t>CompanyTable</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>选项列表</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>提供Master数据</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>固定的Master数据</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>模板的修改</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>标准模板</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>C:\Program Files (x86)\Microsoft Visual Studio 12.0\Common7\IDE\Extensions\Microsoft\Web\Mvc\Scaffolding\Templates</t>
   </si>
   <si>
     <t>将标准模板导入到工程中,建立CodeTemplates目录,MVC本地优先级高于标准模板</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>将模板进行本地化,同时使用 MvcTitle(本工具为每个模型自动添加)这样的标题字段,填充相应位置</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>例:</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>&lt;h2&gt;@&lt;#= ViewDataTypeName#&gt;.MvcTitle 列表&lt;/h2&gt;</t>
   </si>
   <si>
     <t>注意,日期形式的时候,html5的Date控件要求格式必须是 yyyy-MM-dd所以这里进行强制设定</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>关于自动导出到MVC的约定</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">这里约定将 </t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">枚举放入  </t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">数据模型放入 </t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>Master表放在</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1815,7 +1815,7 @@
       </rPr>
       <t>文件夹，</t>
     </r>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1851,27 +1851,27 @@
       </rPr>
       <t>文件夹,</t>
     </r>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>Master 文件夹</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>2015/2/11</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>日期型数据在HTML5控件中无法表示的对应</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>增加了Master表自动名字修正功能</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>将Master表和Model表分割开来</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1897,7 +1897,7 @@
       </rPr>
       <t>\Document</t>
     </r>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1923,15 +1923,15 @@
       </rPr>
       <t>\SourceCode</t>
     </r>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>辅助表设计书</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>辅助表代码</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1957,31 +1957,31 @@
       </rPr>
       <t>的工程，而是管理设计文档的工程，或者是WorkSpace这样的一个概念。</t>
     </r>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>2015/2/26</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>增加了修改工程属性的功能</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>修改了一些Bug</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>修改工程</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>菜单 -&gt; 数据定义 -&gt; 修改工程</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>打开工程后可以通过修改工程菜单对工程属性进行修改</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1997,7 +1997,7 @@
       </rPr>
       <t>.系统将自动载入目录结构,更新文件.</t>
     </r>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>using MongoDB.Bson.Serialization.Attributes;</t>
@@ -2365,38 +2365,38 @@
   </si>
   <si>
     <t>2015/4/3</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>增加了CreateOrEdit的CSHTML文件的自动生成</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>CreateOrEdit页面</t>
   </si>
   <si>
     <t>虽然MVC有T4模板，但是，内置的T4模板无法满足定制的要求。</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>工具将自动根据模型生成CreateOrEdit页面的Cshtml文件</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>日期型</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>日期型控件封装了 jQuery UI 的 DateTime组件</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>辅助表型</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>辅助表分为单值和多值两种类型。单值在UI上表现为一个下拉列表框，多值表现为一组CheckBox</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>@model TalentInfo</t>
@@ -2586,89 +2586,89 @@
   </si>
   <si>
     <t>CreateOrEdit</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>初始状态</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>展开后</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>单值类型</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>多值类型</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>约定：</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>这里约定多值类型的辅助表，列表的名称为 MasterTableName去掉"M_"前缀，加上 List后缀</t>
   </si>
   <si>
     <t>同时为了统一代码，列表名称尽可能和项目名称保持一致。</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>MasterTableName：</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>M_MarketBG</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">                @(HtmlUIHelper.GetMultiValueUI&lt;M_MarketBG&gt;("MarketBGList", ViewBag.MarketBGList, Model.MarketBGList))</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>ViewBag.MarketBGList</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>MarketBGList</t>
   </si>
   <si>
     <t>列表名称：</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>项目名称：</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>同时为了统一代码，项目名称尽可能和MasterTableName保持一致。</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">                @(HtmlUIHelper.GetSingleValueUI&lt;M_TechniqueBG&gt;("TechniqueBG", ViewBag.TechniqueBGList, Model.TechniqueBG))</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>M_TechniqueBG</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>ViewBag.TechniqueBGList</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>TechniqueBG</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>布尔型</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>布尔型在实际使用时候，需要进行一些手工美化</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2694,70 +2694,70 @@
       </rPr>
       <t>）。</t>
     </r>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>辅助表</t>
   </si>
   <si>
     <t>辅助表（MasterTable）里面存放着一些序列。当我们输入数据的时候，为了便利性和防止输入错误，</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>我们将一些项目可能出现的值，以表格的形式保存起来，输入的时候，不能自由填写，只能从列表里面选择。</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>这样的列表是一种辅助性质的列表，所以我们约定称为辅助表。</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>辅助表中包含了一种专门用来表示状态的辅助表，我们称为状态辅助表。</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>这种表格能够定义数据的表示颜色，表示顺序，是对于辅助表的一种扩展。</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>辅助表和枚举</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>辅助表和枚举的区别是：枚举用户相对稳定的序列，例如一年四季的序列，HTTP的状态。</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>辅助表则是用于更新比较频繁的序列，当然，可以将枚举也看成一种辅助表。</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>在编码上，枚举可能更便利，辅助表在各种封装方法的帮助下，也可以做到很简洁。</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>另外，辅助表可以使用缓存系统进行加速，提高性能，枚举则完全在编译的时候变成程序的一部分，无需缓存。</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>约定</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>这里约定辅助表（MasterTable）以 "M_"为前缀</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>整个系统很大程度上需要各种辅助表的支持。对于停止使用的Master表，可以设置为 不启用</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>辅助表可以用在单个值的选取上，例如状态的选取，可以用在多个值得选取上，例如技能的选取。</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>带有评价的多项目</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2773,47 +2773,47 @@
       </rPr>
       <t>辅助表，辅助评价表</t>
     </r>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>列表型</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>可以设定元数据是不是List型。辅助评价表暂时只支持列表型</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>Flg</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>Flg分为Skip和Hidden两种，</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>Skip 将被系统忽略，如果该项目不需要了，但是又想保留完整履历，可以将项目设置为Skip</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>Hidden 标记一个项目为Hidden类型，例如ID这种自动设定的项目，就因该设置为Hidden</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>同时确认一下代码中是否添加了这些JS的引用。</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>关于验证失效的问题</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>数据模型可以在VS中在T4模板的作用在直接生成UI界面。</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>本工具也提供了功能更加强大的UI生成模块。</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2849,15 +2849,15 @@
       </rPr>
       <t>和报表界面.</t>
     </r>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>2015/4/13</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>Filter特性的追加</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2903,7 +2903,7 @@
       </rPr>
       <t>编号,Code项目编号主键</t>
     </r>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2919,23 +2919,23 @@
       </rPr>
       <t>Organization</t>
     </r>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>Organization.cs</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>Organization代码</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>在多个值的选取上，还可以支持五个级别的等级的选取。（参考：CreateOrEdit页面：带有评价的多项目）</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>如果列表还带有分类的话,可以使用CatalogMasterTable</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2951,7 +2951,7 @@
       </rPr>
       <t>3.1</t>
     </r>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>using InfraStructure;</t>
@@ -3521,13 +3521,17 @@
       </rPr>
       <t>";</t>
     </r>
+  </si>
+  <si>
+    <t>ASP.NET MVC5的诸多功能,需要InfraStructure这个DLL的支持.数据库暂时支持无需ORM的MongoDB.</t>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="33">
+  <fonts count="34">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3535,6 +3539,13 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -3880,9 +3891,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -3895,55 +3903,61 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="21" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
+    <xf numFmtId="14" fontId="22" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="19" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -3958,55 +3972,55 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -4015,16 +4029,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4042,13 +4053,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>40</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6036,10 +6047,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="D3:M73"/>
+  <dimension ref="D3:M74"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AM15" sqref="AM15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15" customHeight="1"/>
@@ -6076,174 +6087,179 @@
         <v>113</v>
       </c>
     </row>
-    <row r="13" spans="4:6" ht="15" customHeight="1">
-      <c r="D13" s="5" t="s">
+    <row r="12" spans="4:6" ht="15" customHeight="1">
+      <c r="F12" s="28" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="14" spans="4:6" ht="15" customHeight="1">
+      <c r="D14" s="5" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="15" spans="4:6" ht="15" customHeight="1">
-      <c r="F15" s="2" t="s">
+    <row r="16" spans="4:6" ht="15" customHeight="1">
+      <c r="F16" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="4:6" ht="15" customHeight="1">
-      <c r="D17" s="5" t="s">
+    <row r="18" spans="4:6" ht="15" customHeight="1">
+      <c r="D18" s="5" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="19" spans="4:6" ht="15" customHeight="1">
-      <c r="F19" s="49" t="s">
+    <row r="20" spans="4:6" ht="15" customHeight="1">
+      <c r="F20" s="49" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="21" spans="4:6" ht="15" customHeight="1">
-      <c r="D21" s="5" t="s">
+    <row r="22" spans="4:6" ht="15" customHeight="1">
+      <c r="D22" s="5" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="49" spans="4:13" ht="15" customHeight="1">
-      <c r="D49" s="5" t="s">
+    <row r="50" spans="4:13" ht="15" customHeight="1">
+      <c r="D50" s="5" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="51" spans="4:13" ht="15" customHeight="1">
-      <c r="F51" s="2" t="s">
+    <row r="52" spans="4:13" ht="15" customHeight="1">
+      <c r="F52" s="2" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="54" spans="4:13" ht="15" customHeight="1">
-      <c r="D54" s="5" t="s">
+    <row r="55" spans="4:13" ht="15" customHeight="1">
+      <c r="D55" s="5" t="s">
         <v>189</v>
-      </c>
-    </row>
-    <row r="56" spans="4:13" ht="15" customHeight="1">
-      <c r="F56" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="M56" s="2" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="57" spans="4:13" ht="15" customHeight="1">
       <c r="F57" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="M57" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="58" spans="4:13" ht="15" customHeight="1">
+      <c r="F58" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="M57" s="2" t="s">
+      <c r="M58" s="2" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="58" spans="4:13" ht="15" customHeight="1">
-      <c r="F58" s="10" t="s">
+    <row r="59" spans="4:13" ht="15" customHeight="1">
+      <c r="F59" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="M58" s="2" t="s">
+      <c r="M59" s="2" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="59" spans="4:13" ht="15" customHeight="1">
-      <c r="M59" s="2" t="s">
+    <row r="60" spans="4:13" ht="15" customHeight="1">
+      <c r="M60" s="2" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="60" spans="4:13" ht="15" customHeight="1">
-      <c r="F60" s="10" t="s">
+    <row r="61" spans="4:13" ht="15" customHeight="1">
+      <c r="F61" s="10" t="s">
         <v>255</v>
       </c>
-      <c r="M60" s="2" t="s">
+      <c r="M61" s="2" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="61" spans="4:13" ht="15" customHeight="1">
-      <c r="F61" s="22" t="s">
+    <row r="62" spans="4:13" ht="15" customHeight="1">
+      <c r="F62" s="22" t="s">
         <v>260</v>
       </c>
-      <c r="M61" s="23" t="s">
+      <c r="M62" s="23" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="62" spans="4:13" ht="15" customHeight="1">
-      <c r="F62" s="32" t="s">
+    <row r="63" spans="4:13" ht="15" customHeight="1">
+      <c r="F63" s="32" t="s">
         <v>307</v>
       </c>
-      <c r="M62" s="30" t="s">
+      <c r="M63" s="30" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="63" spans="4:13" ht="15" customHeight="1">
-      <c r="F63" s="34" t="s">
+    <row r="64" spans="4:13" ht="15" customHeight="1">
+      <c r="F64" s="34" t="s">
         <v>310</v>
       </c>
-      <c r="M63" s="33" t="s">
+      <c r="M64" s="33" t="s">
         <v>311</v>
-      </c>
-    </row>
-    <row r="64" spans="4:13" ht="15" customHeight="1">
-      <c r="M64" s="33" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="65" spans="6:13" ht="15" customHeight="1">
       <c r="M65" s="33" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="66" spans="6:13" ht="15" customHeight="1">
+      <c r="M66" s="33" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="66" spans="6:13" ht="15" customHeight="1">
-      <c r="F66" s="37" t="s">
+    <row r="67" spans="6:13" ht="15" customHeight="1">
+      <c r="F67" s="37" t="s">
         <v>329</v>
       </c>
-      <c r="M66" s="38" t="s">
+      <c r="M67" s="38" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="67" spans="6:13" ht="15" customHeight="1">
-      <c r="F67" s="39" t="s">
+    <row r="68" spans="6:13" ht="15" customHeight="1">
+      <c r="F68" s="39" t="s">
         <v>356</v>
       </c>
-      <c r="M67" s="38" t="s">
+      <c r="M68" s="38" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="68" spans="6:13" ht="15" customHeight="1">
-      <c r="M68" s="38" t="s">
+    <row r="69" spans="6:13" ht="15" customHeight="1">
+      <c r="M69" s="38" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="69" spans="6:13" ht="15" customHeight="1">
-      <c r="M69" s="40" t="s">
+    <row r="70" spans="6:13" ht="15" customHeight="1">
+      <c r="M70" s="40" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="70" spans="6:13" ht="15" customHeight="1">
-      <c r="F70" s="42" t="s">
+    <row r="71" spans="6:13" ht="15" customHeight="1">
+      <c r="F71" s="42" t="s">
         <v>365</v>
       </c>
-      <c r="M70" s="41" t="s">
+      <c r="M71" s="41" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="71" spans="6:13" ht="15" customHeight="1">
-      <c r="M71" s="41" t="s">
+    <row r="72" spans="6:13" ht="15" customHeight="1">
+      <c r="M72" s="41" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="72" spans="6:13" ht="15" customHeight="1">
-      <c r="F72" s="43" t="s">
+    <row r="73" spans="6:13" ht="15" customHeight="1">
+      <c r="F73" s="43" t="s">
         <v>410</v>
       </c>
-      <c r="M72" s="44" t="s">
+      <c r="M73" s="44" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="73" spans="6:13" ht="15" customHeight="1">
-      <c r="F73" s="47" t="s">
+    <row r="74" spans="6:13" ht="15" customHeight="1">
+      <c r="F74" s="47" t="s">
         <v>532</v>
       </c>
-      <c r="M73" s="48" t="s">
+      <c r="M74" s="48" t="s">
         <v>533</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="19" type="noConversion"/>
+  <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -6254,7 +6270,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="D3:F139"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AQ80" sqref="AQ80"/>
     </sheetView>
   </sheetViews>
@@ -6879,7 +6895,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="19" type="noConversion"/>
+  <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -7608,7 +7624,7 @@
       <c r="AQ35" s="21"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="19" type="noConversion"/>
+  <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -8254,7 +8270,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="19" type="noConversion"/>
+  <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -8309,7 +8325,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="19" type="noConversion"/>
+  <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -8345,7 +8361,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="19" type="noConversion"/>
+  <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -8439,7 +8455,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="19" type="noConversion"/>
+  <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -8693,7 +8709,7 @@
       <c r="D126" s="5"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="19" type="noConversion"/>
+  <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -9152,7 +9168,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="19" type="noConversion"/>
+  <phoneticPr fontId="20" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I22:I28">
       <formula1>$AE$4:$AE$9</formula1>
@@ -9265,7 +9281,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="19" type="noConversion"/>
+  <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -9584,7 +9600,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="19" type="noConversion"/>
+  <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -10494,7 +10510,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="19" type="noConversion"/>
+  <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -10758,7 +10774,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="19" type="noConversion"/>
+  <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -11380,7 +11396,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="19" type="noConversion"/>
+  <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -11651,7 +11667,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="19" type="noConversion"/>
+  <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/DevKit/Help/开发辅助工具使用手册.xlsx
+++ b/DevKit/Help/开发辅助工具使用手册.xlsx
@@ -19,16 +19,17 @@
     <sheet name="自动生成代码示例（CreateOrEdit）" sheetId="14" r:id="rId10"/>
     <sheet name="数据表结构生成" sheetId="7" r:id="rId11"/>
     <sheet name="Struts2路由" sheetId="8" r:id="rId12"/>
-    <sheet name="Native2ASCII" sheetId="6" r:id="rId13"/>
-    <sheet name="代码片断" sheetId="9" r:id="rId14"/>
-    <sheet name="MVC5开发" sheetId="10" r:id="rId15"/>
+    <sheet name="Struts2验证" sheetId="16" r:id="rId13"/>
+    <sheet name="Native2ASCII" sheetId="6" r:id="rId14"/>
+    <sheet name="代码片断" sheetId="9" r:id="rId15"/>
+    <sheet name="MVC5开发" sheetId="10" r:id="rId16"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="611">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="638">
   <si>
     <t>目的</t>
   </si>
@@ -37,10 +38,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>.Net Framework 4.5</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>工程</t>
   </si>
   <si>
@@ -451,10 +448,6 @@
   </si>
   <si>
     <t>目标计划</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>ASP.NET MVC5 ,Spring MVC4 。</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -2585,10 +2578,6 @@
     <t xml:space="preserve">    &lt;/div&gt;</t>
   </si>
   <si>
-    <t>CreateOrEdit</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>初始状态</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -2938,8 +2927,585 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>Ver 0.0.</t>
+    <t>using InfraStructure;</t>
+  </si>
+  <si>
+    <t>using InfraStructure.FilterSet;</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    /// 人才</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>储备</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    [DisplayName("人才</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>储备</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Mincho"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>")]</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">    public partial class TalentInfo : Organization</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            /// 英</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>语</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Mincho"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>名</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            [DisplayName("英</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>语</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Mincho"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>名")]</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">            public string EnglishName { get; set; }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            /// 生日</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            [DisplayName("生日")]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            [DataType(DataType.Date)]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            [FilterItem(MetaStructType = FilterItemAttribute.StructType.Datetime)]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            [DisplayFormat(DataFormatString = "{0:yyyy-MM-dd}",ApplyFormatInEditMode= true)]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            [BsonDateTimeOptions(Kind = DateTimeKind.Local)]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            public DateTime BirthDay { get; set; }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            /// 出生地</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            [DisplayName("出生地")]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            public string BornIn { get; set; }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            /// 常住地</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            [DisplayName("常住地")]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            public string Location { get; set; }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            /// 手机</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            [DisplayName("手机")]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            [RegularExpression(@"^1[3458][0-9]{9}$" , ErrorMessage = "手机号格式不正</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>确</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Mincho"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>")]</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">            [DataType(DataType.PhoneNumber)]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            public string Mobile { get; set; }</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            /// </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>电</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Mincho"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>子</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>邮</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Mincho"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>件</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            [DisplayName("</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>电</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Mincho"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>子</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>邮</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Mincho"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>件")]</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">            [DataType(DataType.EmailAddress)]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            public string Email { get; set; }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            /// 学位</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            [DisplayName("学位")]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            [FilterItem(MetaType = typeof(AcademicType), MetaStructType = FilterItemAttribute.StructType.SingleEnum)]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            public AcademicType Academic { get; set; }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            /// 海外工作背景</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            [DisplayName("海外工作背景")]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            [FilterItem(MetaStructType = FilterItemAttribute.StructType.Boolean)]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            public bool OverseaWork { get; set; }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            /// 海外教育背景</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            [DisplayName("海外教育背景")]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            public bool OverseaEdu { get; set; }</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            /// 行</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>业</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Mincho"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>背景</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            [DisplayName("行</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>业</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Mincho"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>背景")]</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">            [FilterItem(MetaType = typeof(M_IndustryBackground), MetaStructType = FilterItemAttribute.StructType.MultiMasterTable)]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            public List&lt;string&gt; IndustryBackgroundList { get; set; }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            /// 上一家公司</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            [DisplayName("上一家公司")]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            public string PreEmp { get; set; }</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            /// 上一家公司行</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>业</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            [DisplayName("上一家公司行</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>业</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Mincho"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>")]</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">            [FilterItem(MetaType = typeof(M_IndustryBackground), MetaStructType = FilterItemAttribute.StructType.SingleMasterTable)]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            public string PerInd { get; set; }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            [FilterItem(MetaType = typeof(M_Channel), MetaStructType = FilterItemAttribute.StructType.SingleMasterTable)]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            [FilterItem(MetaType = typeof(M_Language), MetaStructType = FilterItemAttribute.StructType.MultiMasterTableWithGrade)]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            public List&lt;ItemWithGrade&gt; LanguageList { get; set; }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            /// 技能</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            [DisplayName("技能")]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            [FilterItem(MetaType = typeof(M_Skill), MetaStructType = FilterItemAttribute.StructType.MultiCatalogMasterTable)]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            public List&lt;string&gt; SkillList { get; set; }</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            /// 等</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>级</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            [DisplayName("等</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>级</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Mincho"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>")]</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">            [FilterItem(MetaType = typeof(CommonGrade), MetaStructType = FilterItemAttribute.StructType.SingleEnum)]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            public CommonGrade TalentRank { get; set; }</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            /// </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>评</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Mincho"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>价</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            [DisplayName("</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>评</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Mincho"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>价")]</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">            public string Evaluate { get; set; }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                return "TalentInfo";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            public static string CollectionName = "TalentInfo";</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            public static string MvcTitle = "人才</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>储备</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Mincho"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>";</t>
+    </r>
+  </si>
+  <si>
+    <t>ASP.NET MVC5的诸多功能,需要InfraStructure这个DLL的支持.数据库暂时支持无需ORM的MongoDB.</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>.Net Framework 4.5</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ASP.NET MVC5 ,Spring MVC4 </t>
     </r>
     <r>
       <rPr>
@@ -2949,582 +3515,125 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>3.1</t>
-    </r>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>using InfraStructure;</t>
-  </si>
-  <si>
-    <t>using InfraStructure.FilterSet;</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">    /// 人才</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+      <t>,Struts2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>储备</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">    [DisplayName("人才</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015/6/26</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>强化了Struts2的数据验证处理</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Ver 0.0.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>储备</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MS Mincho"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>")]</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">    public partial class TalentInfo : Organization</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">            /// 英</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>语</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MS Mincho"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>名</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">            [DisplayName("英</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>语</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MS Mincho"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>名")]</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">            public string EnglishName { get; set; }</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            /// 生日</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            [DisplayName("生日")]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            [DataType(DataType.Date)]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            [FilterItem(MetaStructType = FilterItemAttribute.StructType.Datetime)]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            [DisplayFormat(DataFormatString = "{0:yyyy-MM-dd}",ApplyFormatInEditMode= true)]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            [BsonDateTimeOptions(Kind = DateTimeKind.Local)]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            public DateTime BirthDay { get; set; }</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            /// 出生地</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            [DisplayName("出生地")]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            public string BornIn { get; set; }</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            /// 常住地</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            [DisplayName("常住地")]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            public string Location { get; set; }</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            /// 手机</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            [DisplayName("手机")]</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">            [RegularExpression(@"^1[3458][0-9]{9}$" , ErrorMessage = "手机号格式不正</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>确</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MS Mincho"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>")]</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">            [DataType(DataType.PhoneNumber)]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            public string Mobile { get; set; }</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">            /// </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>电</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MS Mincho"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>子</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>邮</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MS Mincho"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>件</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">            [DisplayName("</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>电</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MS Mincho"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>子</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>邮</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MS Mincho"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>件")]</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">            [DataType(DataType.EmailAddress)]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            public string Email { get; set; }</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            /// 学位</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            [DisplayName("学位")]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            [FilterItem(MetaType = typeof(AcademicType), MetaStructType = FilterItemAttribute.StructType.SingleEnum)]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            public AcademicType Academic { get; set; }</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            /// 海外工作背景</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            [DisplayName("海外工作背景")]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            [FilterItem(MetaStructType = FilterItemAttribute.StructType.Boolean)]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            public bool OverseaWork { get; set; }</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            /// 海外教育背景</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            [DisplayName("海外教育背景")]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            public bool OverseaEdu { get; set; }</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">            /// 行</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>业</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MS Mincho"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>背景</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">            [DisplayName("行</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>业</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MS Mincho"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>背景")]</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">            [FilterItem(MetaType = typeof(M_IndustryBackground), MetaStructType = FilterItemAttribute.StructType.MultiMasterTable)]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            public List&lt;string&gt; IndustryBackgroundList { get; set; }</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            /// 上一家公司</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            [DisplayName("上一家公司")]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            public string PreEmp { get; set; }</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">            /// 上一家公司行</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>业</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">            [DisplayName("上一家公司行</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>业</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MS Mincho"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>")]</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">            [FilterItem(MetaType = typeof(M_IndustryBackground), MetaStructType = FilterItemAttribute.StructType.SingleMasterTable)]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            public string PerInd { get; set; }</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            [FilterItem(MetaType = typeof(M_Channel), MetaStructType = FilterItemAttribute.StructType.SingleMasterTable)]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            [FilterItem(MetaType = typeof(M_Language), MetaStructType = FilterItemAttribute.StructType.MultiMasterTableWithGrade)]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            public List&lt;ItemWithGrade&gt; LanguageList { get; set; }</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            /// 技能</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            [DisplayName("技能")]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            [FilterItem(MetaType = typeof(M_Skill), MetaStructType = FilterItemAttribute.StructType.MultiCatalogMasterTable)]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            public List&lt;string&gt; SkillList { get; set; }</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">            /// 等</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>级</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">            [DisplayName("等</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>级</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MS Mincho"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>")]</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">            [FilterItem(MetaType = typeof(CommonGrade), MetaStructType = FilterItemAttribute.StructType.SingleEnum)]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            public CommonGrade TalentRank { get; set; }</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">            /// </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>评</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MS Mincho"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>价</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">            [DisplayName("</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>评</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MS Mincho"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>价")]</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">            public string Evaluate { get; set; }</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                return "TalentInfo";</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            public static string CollectionName = "TalentInfo";</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">            public static string MvcTitle = "人才</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>储备</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MS Mincho"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>";</t>
-    </r>
-  </si>
-  <si>
-    <t>ASP.NET MVC5的诸多功能,需要InfraStructure这个DLL的支持.数据库暂时支持无需ORM的MongoDB.</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+      <t>3.2</t>
+    </r>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">CreateOrEdit - ASP.NET MVC5 </t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Struts2验证</t>
+  </si>
+  <si>
+    <t>通过读取验证设定文档,自动生成Struts2使用的Action单位的验证用XML.</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证设定文档和前面的ASP.NET MVC文档结构一致.</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>同时支持内联和外置两种错误信息表示方式.</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;?xml version="1.0" encoding="utf-8"?&gt;</t>
+  </si>
+  <si>
+    <t>&lt;!DOCTYPE validators PUBLIC "-//OpenSymphony Group//XWork Validator 1.0.2//EN" "http://struts.apache.org/dtds/xwork-validator-1.0.2.dtd"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;validators&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;field name="DepartmentCode"&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;field-validator type="requiredstring"&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      &lt;message key="DepartmentCode.required" /&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;/field-validator&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;/field&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;field name="Name"&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;field name="EmploymentType"&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;field name="Target"&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;field-validator type="int"&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      &lt;param name="min"&gt;1&lt;/param&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      &lt;param name="max"&gt;99&lt;/param&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;field name="Location"&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;field name="JodDetails"&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;field name="SkillCatalogCode"&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;field name="IndustryBackgroundCode"&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;field name="OpenDate"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/validators&gt;</t>
+  </si>
+  <si>
+    <t>LoginAction-validation.xml</t>
   </si>
 </sst>
 </file>
@@ -3887,7 +3996,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4038,6 +4147,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -4080,6 +4195,105 @@
         <a:xfrm>
           <a:off x="971550" y="3848100"/>
           <a:ext cx="7067550" cy="4448175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2049" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1390650" y="1333500"/>
+          <a:ext cx="6115050" cy="5229225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2050" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1400175" y="7153275"/>
+          <a:ext cx="3695700" cy="4857750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5575,6 +5789,58 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4098" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1200150" y="838200"/>
+          <a:ext cx="5086350" cy="1838325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
       <xdr:row>8</xdr:row>
@@ -5656,105 +5922,6 @@
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2049" name="Picture 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="1390650" y="1333500"/>
-          <a:ext cx="6115050" cy="5229225"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="1">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2050" name="Picture 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="1400175" y="7153275"/>
-          <a:ext cx="3695700" cy="4857750"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="1">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -6047,10 +6214,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="D3:M74"/>
+  <dimension ref="D3:M75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="AH58" sqref="AH58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15" customHeight="1"/>
@@ -6074,188 +6241,196 @@
     </row>
     <row r="6" spans="4:6" ht="15" customHeight="1">
       <c r="F6" s="46" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
     </row>
     <row r="9" spans="4:6" ht="15" customHeight="1">
       <c r="D9" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="4:6" ht="15" customHeight="1">
-      <c r="F11" s="2" t="s">
-        <v>113</v>
+      <c r="F11" s="50" t="s">
+        <v>608</v>
       </c>
     </row>
     <row r="12" spans="4:6" ht="15" customHeight="1">
       <c r="F12" s="28" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
     </row>
     <row r="14" spans="4:6" ht="15" customHeight="1">
       <c r="D14" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="4:6" ht="15" customHeight="1">
-      <c r="F16" s="2" t="s">
-        <v>2</v>
+      <c r="F16" s="50" t="s">
+        <v>607</v>
       </c>
     </row>
     <row r="18" spans="4:6" ht="15" customHeight="1">
       <c r="D18" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="20" spans="4:6" ht="15" customHeight="1">
-      <c r="F20" s="49" t="s">
-        <v>540</v>
+      <c r="F20" s="50" t="s">
+        <v>611</v>
       </c>
     </row>
     <row r="22" spans="4:6" ht="15" customHeight="1">
       <c r="D22" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="50" spans="4:13" ht="15" customHeight="1">
       <c r="D50" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="52" spans="4:13" ht="15" customHeight="1">
       <c r="F52" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="55" spans="4:13" ht="15" customHeight="1">
       <c r="D55" s="5" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="57" spans="4:13" ht="15" customHeight="1">
       <c r="F57" s="8" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="M57" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="58" spans="4:13" ht="15" customHeight="1">
       <c r="F58" s="8" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="M58" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="59" spans="4:13" ht="15" customHeight="1">
       <c r="F59" s="10" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="M59" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="60" spans="4:13" ht="15" customHeight="1">
       <c r="M60" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="61" spans="4:13" ht="15" customHeight="1">
       <c r="F61" s="10" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="M61" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="62" spans="4:13" ht="15" customHeight="1">
       <c r="F62" s="22" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="M62" s="23" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="63" spans="4:13" ht="15" customHeight="1">
       <c r="F63" s="32" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="M63" s="30" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="64" spans="4:13" ht="15" customHeight="1">
       <c r="F64" s="34" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="M64" s="33" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="65" spans="6:13" ht="15" customHeight="1">
       <c r="M65" s="33" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="66" spans="6:13" ht="15" customHeight="1">
       <c r="M66" s="33" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="67" spans="6:13" ht="15" customHeight="1">
       <c r="F67" s="37" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="M67" s="38" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="68" spans="6:13" ht="15" customHeight="1">
       <c r="F68" s="39" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="M68" s="38" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="69" spans="6:13" ht="15" customHeight="1">
       <c r="M69" s="38" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="70" spans="6:13" ht="15" customHeight="1">
       <c r="M70" s="40" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="71" spans="6:13" ht="15" customHeight="1">
       <c r="F71" s="42" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="M71" s="41" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="72" spans="6:13" ht="15" customHeight="1">
       <c r="M72" s="41" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="73" spans="6:13" ht="15" customHeight="1">
       <c r="F73" s="43" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="M73" s="44" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="74" spans="6:13" ht="15" customHeight="1">
       <c r="F74" s="47" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="M74" s="48" t="s">
-        <v>533</v>
+        <v>530</v>
+      </c>
+    </row>
+    <row r="75" spans="6:13" ht="15" customHeight="1">
+      <c r="F75" s="51" t="s">
+        <v>609</v>
+      </c>
+      <c r="M75" s="50" t="s">
+        <v>610</v>
       </c>
     </row>
   </sheetData>
@@ -6271,7 +6446,7 @@
   <dimension ref="D3:F139"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AQ80" sqref="AQ80"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="16.5"/>
@@ -6281,617 +6456,617 @@
   <sheetData>
     <row r="3" spans="4:6" ht="18">
       <c r="D3" s="5" t="s">
-        <v>481</v>
+        <v>612</v>
       </c>
     </row>
     <row r="5" spans="4:6">
       <c r="F5" s="44" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="6" spans="4:6">
       <c r="F6" s="44" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="7" spans="4:6">
       <c r="F7" s="44" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="8" spans="4:6">
       <c r="F8" s="44" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="4:6">
       <c r="F9" s="44" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="10" spans="4:6">
       <c r="F10" s="44" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="4:6">
       <c r="F11" s="44" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="12" spans="4:6">
       <c r="F12" s="44" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="4:6">
       <c r="F13" s="44" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="14" spans="4:6">
       <c r="F14" s="44" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="4:6">
       <c r="F15" s="44" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="16" spans="4:6">
       <c r="F16" s="44" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="6:6">
       <c r="F17" s="44" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="18" spans="6:6">
       <c r="F18" s="44" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19" spans="6:6">
       <c r="F19" s="44" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="20" spans="6:6">
       <c r="F20" s="44" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="21" spans="6:6">
       <c r="F21" s="44" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="22" spans="6:6">
       <c r="F22" s="44" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="23" spans="6:6">
       <c r="F23" s="44" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="24" spans="6:6">
       <c r="F24" s="44" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="25" spans="6:6">
       <c r="F25" s="44" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="26" spans="6:6">
       <c r="F26" s="44" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="27" spans="6:6">
       <c r="F27" s="44" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="29" spans="6:6">
       <c r="F29" s="44" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="30" spans="6:6">
       <c r="F30" s="44" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="31" spans="6:6">
       <c r="F31" s="44" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="32" spans="6:6">
       <c r="F32" s="44" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="33" spans="6:6">
       <c r="F33" s="44" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="34" spans="6:6">
       <c r="F34" s="44" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="35" spans="6:6">
       <c r="F35" s="44" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="37" spans="6:6">
       <c r="F37" s="44" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="38" spans="6:6">
       <c r="F38" s="44" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="39" spans="6:6">
       <c r="F39" s="44" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="40" spans="6:6">
       <c r="F40" s="44" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="41" spans="6:6">
       <c r="F41" s="44" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="42" spans="6:6">
       <c r="F42" s="44" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="43" spans="6:6">
       <c r="F43" s="44" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="45" spans="6:6">
       <c r="F45" s="44" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="46" spans="6:6">
       <c r="F46" s="44" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="47" spans="6:6">
       <c r="F47" s="44" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="48" spans="6:6">
       <c r="F48" s="44" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="49" spans="6:6">
       <c r="F49" s="44" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="50" spans="6:6">
       <c r="F50" s="44" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="51" spans="6:6">
       <c r="F51" s="44" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="53" spans="6:6">
       <c r="F53" s="44" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="54" spans="6:6">
       <c r="F54" s="44" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="55" spans="6:6">
       <c r="F55" s="44" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="56" spans="6:6">
       <c r="F56" s="44" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="57" spans="6:6">
       <c r="F57" s="44" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="58" spans="6:6">
       <c r="F58" s="44" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="59" spans="6:6">
       <c r="F59" s="44" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="61" spans="6:6">
       <c r="F61" s="44" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="62" spans="6:6">
       <c r="F62" s="44" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="63" spans="6:6">
       <c r="F63" s="44" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="64" spans="6:6">
       <c r="F64" s="44" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="65" spans="6:6">
       <c r="F65" s="44" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="66" spans="6:6">
       <c r="F66" s="44" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="67" spans="6:6">
       <c r="F67" s="44" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="69" spans="6:6">
       <c r="F69" s="44" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="70" spans="6:6">
       <c r="F70" s="44" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="71" spans="6:6">
       <c r="F71" s="44" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="72" spans="6:6">
       <c r="F72" s="44" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="73" spans="6:6">
       <c r="F73" s="44" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="74" spans="6:6">
       <c r="F74" s="44" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="75" spans="6:6">
       <c r="F75" s="44" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="77" spans="6:6" ht="15.75" customHeight="1">
       <c r="F77" s="44" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="78" spans="6:6">
       <c r="F78" s="44" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="79" spans="6:6">
       <c r="F79" s="44" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="80" spans="6:6">
       <c r="F80" s="31" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="81" spans="6:6">
       <c r="F81" s="44" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="82" spans="6:6">
       <c r="F82" s="44" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="83" spans="6:6">
       <c r="F83" s="44" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="85" spans="6:6">
       <c r="F85" s="44" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="86" spans="6:6">
       <c r="F86" s="44" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="87" spans="6:6">
       <c r="F87" s="44" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="88" spans="6:6">
       <c r="F88" s="31" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="89" spans="6:6">
       <c r="F89" s="44" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="90" spans="6:6">
       <c r="F90" s="44" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="91" spans="6:6">
       <c r="F91" s="44" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="93" spans="6:6">
       <c r="F93" s="44" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="94" spans="6:6">
       <c r="F94" s="44" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="95" spans="6:6">
       <c r="F95" s="44" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="96" spans="6:6">
       <c r="F96" s="44" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="97" spans="6:6">
       <c r="F97" s="44" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="98" spans="6:6">
       <c r="F98" s="44" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="99" spans="6:6">
       <c r="F99" s="44" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="101" spans="6:6">
       <c r="F101" s="44" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="102" spans="6:6">
       <c r="F102" s="44" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="103" spans="6:6">
       <c r="F103" s="44" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="104" spans="6:6">
       <c r="F104" s="44" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="105" spans="6:6">
       <c r="F105" s="44" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="106" spans="6:6">
       <c r="F106" s="44" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="107" spans="6:6">
       <c r="F107" s="44" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="109" spans="6:6">
       <c r="F109" s="44" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="110" spans="6:6">
       <c r="F110" s="44" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="111" spans="6:6">
       <c r="F111" s="44" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="112" spans="6:6">
       <c r="F112" s="44" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="113" spans="6:6">
       <c r="F113" s="44" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="114" spans="6:6">
       <c r="F114" s="44" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="115" spans="6:6">
       <c r="F115" s="44" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="117" spans="6:6">
       <c r="F117" s="44" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="118" spans="6:6">
       <c r="F118" s="44" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="119" spans="6:6">
       <c r="F119" s="44" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="120" spans="6:6">
       <c r="F120" s="31" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="121" spans="6:6">
       <c r="F121" s="44" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="122" spans="6:6">
       <c r="F122" s="44" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="123" spans="6:6">
       <c r="F123" s="44" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="125" spans="6:6">
       <c r="F125" s="44" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="126" spans="6:6">
       <c r="F126" s="44" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="127" spans="6:6">
       <c r="F127" s="44" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="128" spans="6:6">
       <c r="F128" s="44" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="129" spans="6:6">
       <c r="F129" s="44" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="130" spans="6:6">
       <c r="F130" s="44" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="131" spans="6:6">
       <c r="F131" s="44" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="132" spans="6:6">
       <c r="F132" s="44" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="133" spans="6:6">
       <c r="F133" s="44" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="134" spans="6:6">
       <c r="F134" s="44" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="135" spans="6:6">
       <c r="F135" s="44" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="136" spans="6:6">
       <c r="F136" s="44" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="137" spans="6:6">
       <c r="F137" s="44" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="138" spans="6:6">
       <c r="F138" s="44" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="139" spans="6:6">
       <c r="F139" s="44" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -6915,76 +7090,76 @@
   <sheetData>
     <row r="3" spans="4:21">
       <c r="D3" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="5" spans="4:21">
       <c r="H5" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7" spans="4:21">
       <c r="F7" s="11" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="9" spans="4:21">
       <c r="H9" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="U9" s="2" t="s">
         <v>204</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="U9" s="2" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="10" spans="4:21">
       <c r="H10" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="U10" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="11" spans="4:21">
       <c r="H11" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="12" spans="4:21">
       <c r="H12" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="13" spans="4:21">
       <c r="H13" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M13" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="U13" s="2" t="s">
         <v>213</v>
-      </c>
-      <c r="U13" s="2" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="15" spans="4:21">
       <c r="H15" s="12" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="18" spans="6:43">
       <c r="F18" s="11" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="20" spans="6:43">
@@ -7029,7 +7204,7 @@
       <c r="H21" s="16"/>
       <c r="I21" s="17"/>
       <c r="J21" s="17" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="K21" s="17"/>
       <c r="L21" s="17"/>
@@ -7069,7 +7244,7 @@
       <c r="H22" s="16"/>
       <c r="I22" s="17"/>
       <c r="J22" s="17" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K22" s="17"/>
       <c r="L22" s="17"/>
@@ -7109,7 +7284,7 @@
       <c r="H23" s="16"/>
       <c r="I23" s="17"/>
       <c r="J23" s="17" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="K23" s="17"/>
       <c r="L23" s="17"/>
@@ -7149,7 +7324,7 @@
       <c r="H24" s="16"/>
       <c r="I24" s="17"/>
       <c r="J24" s="17" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K24" s="17"/>
       <c r="L24" s="17"/>
@@ -7189,7 +7364,7 @@
       <c r="H25" s="16"/>
       <c r="I25" s="17"/>
       <c r="J25" s="17" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="K25" s="17"/>
       <c r="L25" s="17"/>
@@ -7229,7 +7404,7 @@
       <c r="H26" s="16"/>
       <c r="I26" s="17"/>
       <c r="J26" s="17" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="K26" s="17"/>
       <c r="L26" s="17"/>
@@ -7269,7 +7444,7 @@
       <c r="H27" s="16"/>
       <c r="I27" s="17"/>
       <c r="J27" s="17" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K27" s="17"/>
       <c r="L27" s="17"/>
@@ -7309,7 +7484,7 @@
       <c r="H28" s="16"/>
       <c r="I28" s="17"/>
       <c r="J28" s="17" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="K28" s="17"/>
       <c r="L28" s="17"/>
@@ -7349,7 +7524,7 @@
       <c r="H29" s="16"/>
       <c r="I29" s="17"/>
       <c r="J29" s="17" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="K29" s="17"/>
       <c r="L29" s="17"/>
@@ -7389,7 +7564,7 @@
       <c r="H30" s="16"/>
       <c r="I30" s="17"/>
       <c r="J30" s="17" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="K30" s="17"/>
       <c r="L30" s="17"/>
@@ -7429,7 +7604,7 @@
       <c r="H31" s="16"/>
       <c r="I31" s="17"/>
       <c r="J31" s="17" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K31" s="17"/>
       <c r="L31" s="17"/>
@@ -7469,7 +7644,7 @@
       <c r="H32" s="16"/>
       <c r="I32" s="17"/>
       <c r="J32" s="17" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="K32" s="17"/>
       <c r="L32" s="17"/>
@@ -7509,7 +7684,7 @@
       <c r="H33" s="16"/>
       <c r="I33" s="17"/>
       <c r="J33" s="17" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K33" s="17"/>
       <c r="L33" s="17"/>
@@ -7549,7 +7724,7 @@
       <c r="H34" s="16"/>
       <c r="I34" s="17"/>
       <c r="J34" s="17" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="K34" s="17"/>
       <c r="L34" s="17"/>
@@ -7645,27 +7820,27 @@
   <sheetData>
     <row r="3" spans="4:6">
       <c r="D3" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="5" spans="4:6">
       <c r="F5" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="7" spans="4:6">
       <c r="F7" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="18" spans="6:6">
       <c r="F18" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="37" spans="6:33">
       <c r="F37" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="39" spans="6:33">
@@ -7700,7 +7875,7 @@
       <c r="H40" s="16"/>
       <c r="I40" s="17"/>
       <c r="J40" s="17" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K40" s="17"/>
       <c r="L40" s="17"/>
@@ -7730,7 +7905,7 @@
       <c r="H41" s="16"/>
       <c r="I41" s="17"/>
       <c r="J41" s="17" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="K41" s="17"/>
       <c r="L41" s="17"/>
@@ -7760,7 +7935,7 @@
       <c r="H42" s="16"/>
       <c r="I42" s="17"/>
       <c r="J42" s="17" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="K42" s="17"/>
       <c r="L42" s="17"/>
@@ -7790,7 +7965,7 @@
       <c r="H43" s="16"/>
       <c r="I43" s="17"/>
       <c r="J43" s="17" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K43" s="17"/>
       <c r="L43" s="17"/>
@@ -7820,7 +7995,7 @@
       <c r="H44" s="16"/>
       <c r="I44" s="17"/>
       <c r="J44" s="17" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K44" s="17"/>
       <c r="L44" s="17"/>
@@ -7850,7 +8025,7 @@
       <c r="H45" s="16"/>
       <c r="I45" s="17"/>
       <c r="J45" s="17" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="K45" s="17"/>
       <c r="L45" s="17"/>
@@ -7880,7 +8055,7 @@
       <c r="H46" s="16"/>
       <c r="I46" s="17"/>
       <c r="J46" s="17" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K46" s="17"/>
       <c r="L46" s="17"/>
@@ -7910,7 +8085,7 @@
       <c r="H47" s="16"/>
       <c r="I47" s="17"/>
       <c r="J47" s="17" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K47" s="17"/>
       <c r="L47" s="17"/>
@@ -7940,7 +8115,7 @@
       <c r="H48" s="16"/>
       <c r="I48" s="17"/>
       <c r="J48" s="17" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K48" s="17"/>
       <c r="L48" s="17"/>
@@ -7970,7 +8145,7 @@
       <c r="H49" s="16"/>
       <c r="I49" s="17"/>
       <c r="J49" s="17" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K49" s="17"/>
       <c r="L49" s="17"/>
@@ -8000,7 +8175,7 @@
       <c r="H50" s="16"/>
       <c r="I50" s="17"/>
       <c r="J50" s="17" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="K50" s="17"/>
       <c r="L50" s="17"/>
@@ -8030,7 +8205,7 @@
       <c r="H51" s="16"/>
       <c r="I51" s="17"/>
       <c r="J51" s="17" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K51" s="17"/>
       <c r="L51" s="17"/>
@@ -8060,7 +8235,7 @@
       <c r="H52" s="16"/>
       <c r="I52" s="17"/>
       <c r="J52" s="17" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="K52" s="17"/>
       <c r="L52" s="17"/>
@@ -8090,7 +8265,7 @@
       <c r="H53" s="16"/>
       <c r="I53" s="17"/>
       <c r="J53" s="17" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="K53" s="17"/>
       <c r="L53" s="17"/>
@@ -8120,7 +8295,7 @@
       <c r="H54" s="16"/>
       <c r="I54" s="17"/>
       <c r="J54" s="17" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K54" s="17"/>
       <c r="L54" s="17"/>
@@ -8150,7 +8325,7 @@
       <c r="H55" s="16"/>
       <c r="I55" s="17"/>
       <c r="J55" s="17" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K55" s="17"/>
       <c r="L55" s="17"/>
@@ -8180,7 +8355,7 @@
       <c r="H56" s="16"/>
       <c r="I56" s="17"/>
       <c r="J56" s="17" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="K56" s="17"/>
       <c r="L56" s="17"/>
@@ -8210,7 +8385,7 @@
       <c r="H57" s="16"/>
       <c r="I57" s="17"/>
       <c r="J57" s="17" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="K57" s="17"/>
       <c r="L57" s="17"/>
@@ -8266,7 +8441,7 @@
     </row>
     <row r="60" spans="8:33">
       <c r="H60" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
   </sheetData>
@@ -8277,6 +8452,322 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="D3:I75"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AN17" sqref="AN17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="16384" width="2.625" style="50"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="4:7">
+      <c r="D3" s="1" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="16" spans="4:7">
+      <c r="G16" s="50" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="17" spans="7:9">
+      <c r="G17" s="50" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="18" spans="7:9">
+      <c r="G18" s="50" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="20" spans="7:9">
+      <c r="G20" s="50" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="22" spans="7:9">
+      <c r="I22" s="50" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="23" spans="7:9">
+      <c r="I23" s="50" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="24" spans="7:9">
+      <c r="I24" s="50" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="25" spans="7:9">
+      <c r="I25" s="50" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="26" spans="7:9">
+      <c r="I26" s="50" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="27" spans="7:9">
+      <c r="I27" s="50" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="28" spans="7:9">
+      <c r="I28" s="50" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="29" spans="7:9">
+      <c r="I29" s="50" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="30" spans="7:9">
+      <c r="I30" s="50" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="31" spans="7:9">
+      <c r="I31" s="50" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="32" spans="7:9">
+      <c r="I32" s="50" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="33" spans="9:9">
+      <c r="I33" s="50" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="34" spans="9:9">
+      <c r="I34" s="50" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="35" spans="9:9">
+      <c r="I35" s="50" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="36" spans="9:9">
+      <c r="I36" s="50" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="37" spans="9:9">
+      <c r="I37" s="50" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="38" spans="9:9">
+      <c r="I38" s="50" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="39" spans="9:9">
+      <c r="I39" s="50" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="40" spans="9:9">
+      <c r="I40" s="50" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="41" spans="9:9">
+      <c r="I41" s="50" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="42" spans="9:9">
+      <c r="I42" s="50" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="43" spans="9:9">
+      <c r="I43" s="50" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="44" spans="9:9">
+      <c r="I44" s="50" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="45" spans="9:9">
+      <c r="I45" s="50" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="46" spans="9:9">
+      <c r="I46" s="50" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="47" spans="9:9">
+      <c r="I47" s="50" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="48" spans="9:9">
+      <c r="I48" s="50" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="49" spans="9:9">
+      <c r="I49" s="50" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="50" spans="9:9">
+      <c r="I50" s="50" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="51" spans="9:9">
+      <c r="I51" s="50" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="52" spans="9:9">
+      <c r="I52" s="50" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="53" spans="9:9">
+      <c r="I53" s="50" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="54" spans="9:9">
+      <c r="I54" s="50" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="55" spans="9:9">
+      <c r="I55" s="50" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="56" spans="9:9">
+      <c r="I56" s="50" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="57" spans="9:9">
+      <c r="I57" s="50" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="58" spans="9:9">
+      <c r="I58" s="50" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="59" spans="9:9">
+      <c r="I59" s="50" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="60" spans="9:9">
+      <c r="I60" s="50" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="61" spans="9:9">
+      <c r="I61" s="50" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="62" spans="9:9">
+      <c r="I62" s="50" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="63" spans="9:9">
+      <c r="I63" s="50" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="64" spans="9:9">
+      <c r="I64" s="50" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="65" spans="9:9">
+      <c r="I65" s="50" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="66" spans="9:9">
+      <c r="I66" s="50" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="67" spans="9:9">
+      <c r="I67" s="50" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="68" spans="9:9">
+      <c r="I68" s="50" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="69" spans="9:9">
+      <c r="I69" s="50" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="70" spans="9:9">
+      <c r="I70" s="50" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="71" spans="9:9">
+      <c r="I71" s="50" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="72" spans="9:9">
+      <c r="I72" s="50" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="73" spans="9:9">
+      <c r="I73" s="50" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="74" spans="9:9">
+      <c r="I74" s="50" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="75" spans="9:9">
+      <c r="I75" s="50" t="s">
+        <v>636</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="20" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="D3:F35"/>
   <sheetViews>
@@ -8291,37 +8782,37 @@
   <sheetData>
     <row r="3" spans="4:6">
       <c r="D3" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5" spans="4:6">
       <c r="F5" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="7" spans="4:6">
       <c r="F7" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="21" spans="6:6">
       <c r="F21" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="22" spans="6:6">
       <c r="F22" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="24" spans="6:6">
       <c r="F24" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="35" spans="6:6">
       <c r="F35" s="9" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -8332,7 +8823,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="D3:F33"/>
   <sheetViews>
@@ -8347,17 +8838,17 @@
   <sheetData>
     <row r="3" spans="4:6">
       <c r="D3" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="5" spans="4:6">
       <c r="F5" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="33" spans="6:6">
       <c r="F33" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>
@@ -8368,7 +8859,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="D3:Z19"/>
   <sheetViews>
@@ -8383,75 +8874,75 @@
   <sheetData>
     <row r="3" spans="4:26">
       <c r="D3" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="5" spans="4:26">
       <c r="F5" s="36" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="7" spans="4:26">
       <c r="H7" s="36" t="s">
+        <v>332</v>
+      </c>
+      <c r="P7" s="36" t="s">
         <v>334</v>
       </c>
-      <c r="P7" s="36" t="s">
-        <v>336</v>
-      </c>
       <c r="Z7" s="36" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="8" spans="4:26">
       <c r="H8" s="36" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="P8" s="36" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="Z8" s="36" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="9" spans="4:26">
       <c r="H9" s="36" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Z9" s="36" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="11" spans="4:26">
       <c r="F11" s="36" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="13" spans="4:26">
       <c r="H13" s="36" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="14" spans="4:26">
       <c r="J14" s="36" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="16" spans="4:26">
       <c r="H16" s="36" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="17" spans="8:11">
       <c r="H17" s="36" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="19" spans="8:11">
       <c r="H19" s="36" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="K19" s="36" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
   </sheetData>
@@ -8478,22 +8969,22 @@
   <sheetData>
     <row r="3" spans="4:6" ht="15" customHeight="1">
       <c r="D3" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="4:6" ht="15" customHeight="1">
       <c r="F5" s="40" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="7" spans="4:6" ht="15" customHeight="1">
       <c r="D7" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="4:6" ht="15" customHeight="1">
       <c r="F9" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="4:6" ht="15" customHeight="1">
@@ -8501,93 +8992,93 @@
     </row>
     <row r="26" spans="6:8" ht="15" customHeight="1">
       <c r="F26" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="6:8" ht="15" customHeight="1">
       <c r="F28" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="6:8" ht="15" customHeight="1">
       <c r="H30" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="6:8" ht="15" customHeight="1">
       <c r="F32" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="8:8" ht="15" customHeight="1">
       <c r="H34" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="52" spans="6:20" ht="15" customHeight="1">
       <c r="F52" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="54" spans="6:20" ht="15" customHeight="1">
       <c r="H54" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="T54" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="T54" s="2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="55" spans="6:20" ht="15" customHeight="1">
       <c r="H55" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="T55" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="T55" s="2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="56" spans="6:20" ht="15" customHeight="1">
       <c r="H56" s="24" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="T56" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="57" spans="6:20" ht="15" customHeight="1">
       <c r="H57" s="24" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="T57" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="58" spans="6:20" ht="15" customHeight="1">
       <c r="H58" s="24" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="T58" s="24" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="59" spans="6:20" ht="15" customHeight="1">
       <c r="H59" s="40" t="s">
+        <v>358</v>
+      </c>
+      <c r="T59" s="40" t="s">
         <v>360</v>
-      </c>
-      <c r="T59" s="40" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="60" spans="6:20" ht="15" customHeight="1">
       <c r="H60" s="40" t="s">
+        <v>359</v>
+      </c>
+      <c r="T60" s="40" t="s">
         <v>361</v>
-      </c>
-      <c r="T60" s="40" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="62" spans="6:20" ht="15" customHeight="1">
       <c r="H62" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="63" spans="6:20" ht="15" customHeight="1">
@@ -8595,42 +9086,42 @@
     </row>
     <row r="64" spans="6:20" ht="15" customHeight="1">
       <c r="F64" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" spans="4:4" ht="15" customHeight="1">
       <c r="D95" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="97" spans="4:14" ht="15" customHeight="1">
       <c r="F97" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="99" spans="4:14" ht="15" customHeight="1">
       <c r="F99" s="41" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="101" spans="4:14" ht="15" customHeight="1">
       <c r="D101" s="7" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="103" spans="4:14" ht="15" customHeight="1">
       <c r="F103" s="41" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="105" spans="4:14" ht="15" customHeight="1">
       <c r="F105" s="41" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="108" spans="4:14" ht="15" customHeight="1">
       <c r="D108" s="5" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="109" spans="4:14" ht="15" customHeight="1">
@@ -8639,7 +9130,7 @@
     <row r="110" spans="4:14" ht="15" customHeight="1">
       <c r="D110" s="5"/>
       <c r="F110" s="38" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="111" spans="4:14" ht="15" customHeight="1">
@@ -8648,28 +9139,28 @@
     <row r="112" spans="4:14" ht="15" customHeight="1">
       <c r="D112" s="5"/>
       <c r="H112" s="38" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="N112" s="38" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="113" spans="4:14" ht="15" customHeight="1">
       <c r="D113" s="5"/>
       <c r="H113" s="38" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="N113" s="38" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="114" spans="4:14" ht="15" customHeight="1">
       <c r="D114" s="5"/>
       <c r="H114" s="38" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="N114" s="38" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="115" spans="4:14" ht="15" customHeight="1">
@@ -8733,86 +9224,86 @@
   <sheetData>
     <row r="3" spans="4:10" ht="15" customHeight="1">
       <c r="D3" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="4:10" ht="15" customHeight="1">
       <c r="F5" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="4:10" ht="15" customHeight="1">
       <c r="F6" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="4:10" ht="15" customHeight="1">
       <c r="D8" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="4:10" ht="15" customHeight="1">
       <c r="F10" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="4:10" ht="15" customHeight="1">
       <c r="F11" s="1"/>
       <c r="H11" s="45" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
     </row>
     <row r="12" spans="4:10" ht="15" customHeight="1">
       <c r="F12" s="1"/>
       <c r="J12" s="45" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
     </row>
     <row r="13" spans="4:10" ht="15" customHeight="1">
       <c r="F13" s="1"/>
       <c r="J13" s="45" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
     </row>
     <row r="14" spans="4:10" ht="15" customHeight="1">
       <c r="F14" s="1"/>
       <c r="J14" s="45" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
     </row>
     <row r="16" spans="4:10" ht="15" customHeight="1">
       <c r="H16" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="8:10" ht="15" customHeight="1">
       <c r="J17" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="8:10" ht="15" customHeight="1">
       <c r="H19" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="8:10" ht="15" customHeight="1">
       <c r="J20" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="8:10" ht="15" customHeight="1">
       <c r="H22" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="8:10" ht="15" customHeight="1">
       <c r="J23" s="45" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
     </row>
     <row r="24" spans="8:10" ht="15" customHeight="1">
       <c r="J24" s="30" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="25" spans="8:10" ht="15" customHeight="1">
@@ -8820,189 +9311,189 @@
     </row>
     <row r="26" spans="8:10" ht="15" customHeight="1">
       <c r="H26" s="45" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="J26" s="30"/>
     </row>
     <row r="27" spans="8:10" ht="15" customHeight="1">
       <c r="H27" s="45"/>
       <c r="J27" s="45" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
     </row>
     <row r="29" spans="8:10" ht="15" customHeight="1">
       <c r="H29" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="8:10" ht="15" customHeight="1">
       <c r="J30" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="8:10" ht="15" customHeight="1">
       <c r="H32" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33" spans="6:17" ht="15" customHeight="1">
       <c r="J33" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="35" spans="6:17" ht="15" customHeight="1">
       <c r="H35" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="36" spans="6:17" ht="15" customHeight="1">
       <c r="J36" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="6:17" ht="15" customHeight="1">
       <c r="F38" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="40" spans="6:17" ht="15" customHeight="1">
       <c r="H40" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="42" spans="6:17" ht="15" customHeight="1">
       <c r="J42" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q42" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="43" spans="6:17" ht="15" customHeight="1">
       <c r="J43" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q43" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="45" spans="6:17" ht="15" customHeight="1">
       <c r="H45" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="47" spans="6:17" ht="15" customHeight="1">
       <c r="J47" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q47" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="48" spans="6:17" ht="15" customHeight="1">
       <c r="J48" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q48" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="49" spans="6:17" ht="15" customHeight="1">
       <c r="J49" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q49" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="51" spans="6:17" ht="15" customHeight="1">
       <c r="H51" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="53" spans="6:17" ht="15" customHeight="1">
       <c r="J53" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q53" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="54" spans="6:17" ht="15" customHeight="1">
       <c r="J54" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q54" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="55" spans="6:17" ht="15" customHeight="1">
       <c r="J55" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q55" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="57" spans="6:17" ht="15" customHeight="1">
       <c r="H57" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="59" spans="6:17" ht="15" customHeight="1">
       <c r="J59" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q59" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="60" spans="6:17" ht="15" customHeight="1">
       <c r="J60" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q60" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="62" spans="6:17" ht="15" customHeight="1">
       <c r="F62" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="64" spans="6:17" ht="15" customHeight="1">
       <c r="H64" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="65" spans="6:10" ht="15" customHeight="1">
       <c r="J65" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="66" spans="6:10" ht="15" customHeight="1">
       <c r="J66" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="68" spans="6:10" ht="15" customHeight="1">
       <c r="H68" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="69" spans="6:10" ht="15" customHeight="1">
       <c r="J69" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="70" spans="6:10" ht="15" customHeight="1">
       <c r="J70" s="31" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="71" spans="6:10" ht="15" customHeight="1">
       <c r="J71" s="31" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="72" spans="6:10" ht="15" customHeight="1">
@@ -9010,47 +9501,47 @@
     </row>
     <row r="73" spans="6:10" ht="15" customHeight="1">
       <c r="F73" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="75" spans="6:10" ht="15" customHeight="1">
       <c r="H75" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="77" spans="6:10" ht="15" customHeight="1">
       <c r="F77" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="106" spans="4:6" ht="15" customHeight="1">
       <c r="D106" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="108" spans="4:6" ht="15" customHeight="1">
       <c r="F108" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="109" spans="4:6" ht="15" customHeight="1">
       <c r="F109" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="110" spans="4:6" ht="15" customHeight="1">
       <c r="F110" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="130" spans="6:6" ht="15" customHeight="1">
       <c r="F130" s="45" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="131" spans="6:6" ht="15" customHeight="1">
       <c r="F131" s="45" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
     </row>
     <row r="132" spans="6:6" ht="15" customHeight="1">
@@ -9058,27 +9549,27 @@
     </row>
     <row r="133" spans="6:6" ht="15" customHeight="1">
       <c r="F133" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="134" spans="6:6" ht="15" customHeight="1">
       <c r="F134" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="169" spans="5:5" ht="15" customHeight="1">
       <c r="E169" s="30" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="177" spans="4:6" ht="15" customHeight="1">
       <c r="D177" s="5" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="179" spans="4:6" ht="15" customHeight="1">
       <c r="F179" s="33" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="180" spans="4:6" ht="15" customHeight="1">
@@ -9086,33 +9577,33 @@
     </row>
     <row r="181" spans="4:6" ht="15" customHeight="1">
       <c r="F181" s="49" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="182" spans="4:6" ht="15" customHeight="1">
       <c r="F182" s="33" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="193" spans="4:19" ht="15" customHeight="1">
       <c r="F193" s="49" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
     </row>
     <row r="196" spans="4:19" ht="15" customHeight="1">
       <c r="F196" s="49" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="S196" s="49" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
     </row>
     <row r="197" spans="4:19" ht="15" customHeight="1">
       <c r="F197" s="2" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="S197" s="33" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="198" spans="4:19" ht="15" customHeight="1">
@@ -9120,51 +9611,51 @@
     </row>
     <row r="200" spans="4:19" ht="15" customHeight="1">
       <c r="D200" s="5" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
     </row>
     <row r="202" spans="4:19" ht="15" customHeight="1">
       <c r="F202" s="35" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="203" spans="4:19" ht="15" customHeight="1">
       <c r="F203" s="35" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="204" spans="4:19" ht="15" customHeight="1">
       <c r="F204" s="45" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="226" spans="4:15" ht="15" customHeight="1">
       <c r="D226" s="5" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="228" spans="4:15" ht="15" customHeight="1">
       <c r="F228" s="36" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="O228" s="36" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="229" spans="4:15" ht="15" customHeight="1">
       <c r="F229" s="36" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="O229" s="36" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="230" spans="4:15" ht="15" customHeight="1">
       <c r="F230" s="36" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="O230" s="36" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
   </sheetData>
@@ -9197,87 +9688,87 @@
   <sheetData>
     <row r="3" spans="4:6">
       <c r="D3" s="5" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
     </row>
     <row r="5" spans="4:6">
       <c r="F5" s="45" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="6" spans="4:6">
       <c r="F6" s="45" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
     </row>
     <row r="7" spans="4:6">
       <c r="F7" s="45" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
     </row>
     <row r="17" spans="4:6">
       <c r="F17" s="45" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
     </row>
     <row r="18" spans="4:6">
       <c r="F18" s="45" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
     </row>
     <row r="19" spans="4:6">
       <c r="F19" s="45" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
     </row>
     <row r="20" spans="4:6">
       <c r="F20" s="49" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
     </row>
     <row r="21" spans="4:6">
       <c r="F21" s="45" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
     </row>
     <row r="22" spans="4:6">
       <c r="F22" s="49" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
     </row>
     <row r="24" spans="4:6">
       <c r="D24" s="5" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
     </row>
     <row r="26" spans="4:6">
       <c r="F26" s="45" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
     </row>
     <row r="27" spans="4:6">
       <c r="F27" s="45" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
     </row>
     <row r="28" spans="4:6">
       <c r="F28" s="45" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
     </row>
     <row r="29" spans="4:6">
       <c r="F29" s="45" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
     </row>
     <row r="32" spans="4:6">
       <c r="D32" s="5" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
     </row>
     <row r="34" spans="6:6">
       <c r="F34" s="28" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
     </row>
   </sheetData>
@@ -9304,126 +9795,126 @@
   <sheetData>
     <row r="3" spans="4:8" ht="15" customHeight="1">
       <c r="D3" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="4:8" ht="15" customHeight="1">
       <c r="F5" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="4:8" ht="15" customHeight="1">
       <c r="F7" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="4:8" ht="15" customHeight="1">
       <c r="H9" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="4:8" ht="15" customHeight="1">
       <c r="F11" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="4:8" ht="15" customHeight="1">
       <c r="H13" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="4:8" ht="15" customHeight="1">
       <c r="D15" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="6:8" ht="15" customHeight="1">
       <c r="F17" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="6:8" ht="15" customHeight="1">
       <c r="H19" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="6:8" ht="15" customHeight="1">
       <c r="F21" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="6:8" ht="15" customHeight="1">
       <c r="H23" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" spans="6:8" ht="15" customHeight="1">
       <c r="F25" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27" spans="6:8" ht="15" customHeight="1">
       <c r="H27" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29" spans="6:8" ht="15" customHeight="1">
       <c r="F29" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="31" spans="6:8" ht="15" customHeight="1">
       <c r="H31" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="33" spans="6:8" ht="15" customHeight="1">
       <c r="F33" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="35" spans="6:8" ht="15" customHeight="1">
       <c r="H35" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="37" spans="6:8" ht="15" customHeight="1">
       <c r="F37" s="29" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="39" spans="6:8" ht="15" customHeight="1">
       <c r="H39" s="29" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="53" spans="4:36" ht="15" customHeight="1">
       <c r="D53" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="55" spans="4:36" ht="15" customHeight="1">
       <c r="F55" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="56" spans="4:36" ht="15" customHeight="1">
       <c r="F56" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="58" spans="4:36" ht="15" customHeight="1">
       <c r="F58" s="25" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="X58" s="25" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="59" spans="4:36" ht="15" customHeight="1">
       <c r="F59" s="25"/>
       <c r="H59" s="25" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="X59" s="25"/>
       <c r="AJ59" s="25"/>
@@ -9436,16 +9927,16 @@
     </row>
     <row r="61" spans="4:36" ht="15" customHeight="1">
       <c r="F61" s="24" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="X61" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="62" spans="4:36" ht="15" customHeight="1">
       <c r="F62" s="24"/>
       <c r="H62" s="33" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="AJ62" s="25"/>
     </row>
@@ -9456,15 +9947,15 @@
     </row>
     <row r="64" spans="4:36" ht="15" customHeight="1">
       <c r="F64" s="27" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="X64" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="65" spans="4:36" ht="15" customHeight="1">
       <c r="H65" s="25" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="AJ65" s="25"/>
     </row>
@@ -9474,15 +9965,15 @@
     </row>
     <row r="67" spans="4:36" ht="15" customHeight="1">
       <c r="F67" s="27" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="X67" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="68" spans="4:36" ht="15" customHeight="1">
       <c r="H68" s="25" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="69" spans="4:36" ht="15" customHeight="1">
@@ -9491,112 +9982,112 @@
     </row>
     <row r="70" spans="4:36" ht="15" customHeight="1">
       <c r="D70" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="72" spans="4:36" ht="15" customHeight="1">
       <c r="F72" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="82" spans="4:6" ht="15" customHeight="1">
       <c r="F82" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="85" spans="4:6" ht="15" customHeight="1">
       <c r="D85" s="5" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="87" spans="4:6" ht="15" customHeight="1">
       <c r="F87" s="26" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="89" spans="4:6" ht="15" customHeight="1">
       <c r="F89" s="27" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="90" spans="4:6" ht="15" customHeight="1">
       <c r="F90" s="27" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="92" spans="4:6" ht="15" customHeight="1">
       <c r="F92" s="27" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="94" spans="4:6" ht="15" customHeight="1">
       <c r="F94" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="95" spans="4:6" ht="15" customHeight="1">
       <c r="F95" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="96" spans="4:6" ht="15" customHeight="1">
       <c r="F96" s="27" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="97" spans="6:6" ht="15" customHeight="1">
       <c r="F97" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="98" spans="6:6" ht="15" customHeight="1">
       <c r="F98" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="101" spans="6:6" ht="15" customHeight="1">
       <c r="F101" s="27" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="103" spans="6:6" ht="15" customHeight="1">
       <c r="F103" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="104" spans="6:6" ht="15" customHeight="1">
       <c r="F104" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="105" spans="6:6" ht="15" customHeight="1">
       <c r="F105" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="106" spans="6:6" ht="15" customHeight="1">
       <c r="F106" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="107" spans="6:6" ht="15" customHeight="1">
       <c r="F107" s="28" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="108" spans="6:6" ht="15" customHeight="1">
       <c r="F108" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="109" spans="6:6" ht="15" customHeight="1">
       <c r="F109" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="112" spans="6:6" ht="15" customHeight="1">
       <c r="F112" s="29" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
   </sheetData>
@@ -9626,887 +10117,887 @@
   <sheetData>
     <row r="3" spans="4:6" ht="15" customHeight="1">
       <c r="D3" s="5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5" spans="4:6" ht="15" customHeight="1">
       <c r="F5" s="6" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
     </row>
     <row r="6" spans="4:6" ht="15" customHeight="1">
       <c r="F6" s="6" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
     </row>
     <row r="7" spans="4:6" ht="15" customHeight="1">
       <c r="F7" s="6" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="8" spans="4:6" ht="15" customHeight="1">
       <c r="F8" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="4:6" ht="15" customHeight="1">
       <c r="F9" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="4:6" ht="15" customHeight="1">
       <c r="F10" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="4:6" ht="15" customHeight="1">
       <c r="F11" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="4:6" ht="15" customHeight="1">
       <c r="F13" s="6" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="14" spans="4:6" ht="15" customHeight="1">
       <c r="F14" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="4:6" ht="15" customHeight="1">
       <c r="F15" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16" spans="4:6" ht="15" customHeight="1">
       <c r="F16" s="6" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
     </row>
     <row r="17" spans="6:6" ht="15" customHeight="1">
       <c r="F17" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="6:6" ht="15" customHeight="1">
       <c r="F18" s="6" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
     </row>
     <row r="19" spans="6:6" ht="15" customHeight="1">
       <c r="F19" s="6" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
     </row>
     <row r="20" spans="6:6" ht="15" customHeight="1">
       <c r="F20" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21" spans="6:6" ht="15" customHeight="1">
       <c r="F21" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="23" spans="6:6" ht="15" customHeight="1">
       <c r="F23" s="6" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="24" spans="6:6" ht="15" customHeight="1">
       <c r="F24" s="6" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="25" spans="6:6" ht="15" customHeight="1">
       <c r="F25" s="6" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="26" spans="6:6" ht="15" customHeight="1">
       <c r="F26" s="6" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="27" spans="6:6" ht="15" customHeight="1">
       <c r="F27" s="6" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="28" spans="6:6" ht="15" customHeight="1">
       <c r="F28" s="6" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="30" spans="6:6" ht="15" customHeight="1">
       <c r="F30" s="6" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="31" spans="6:6" ht="15" customHeight="1">
       <c r="F31" s="6" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
     </row>
     <row r="32" spans="6:6" ht="15" customHeight="1">
       <c r="F32" s="6" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="33" spans="6:6" ht="15" customHeight="1">
       <c r="F33" s="6" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
     </row>
     <row r="34" spans="6:6" ht="15" customHeight="1">
       <c r="F34" s="6" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
     </row>
     <row r="36" spans="6:6" ht="15" customHeight="1">
       <c r="F36" s="6" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="37" spans="6:6" ht="15" customHeight="1">
       <c r="F37" s="6" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
     </row>
     <row r="38" spans="6:6" ht="15" customHeight="1">
       <c r="F38" s="6" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="39" spans="6:6" ht="15" customHeight="1">
       <c r="F39" s="6" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
     </row>
     <row r="40" spans="6:6" ht="15" customHeight="1">
       <c r="F40" s="6" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="41" spans="6:6" ht="15" customHeight="1">
       <c r="F41" s="6" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
     </row>
     <row r="42" spans="6:6" ht="15" customHeight="1">
       <c r="F42" s="6" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
     </row>
     <row r="43" spans="6:6" ht="15" customHeight="1">
       <c r="F43" s="6" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
     </row>
     <row r="44" spans="6:6" ht="15" customHeight="1">
       <c r="F44" s="6" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
     </row>
     <row r="45" spans="6:6" ht="15" customHeight="1">
       <c r="F45" s="6" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
     </row>
     <row r="47" spans="6:6" ht="15" customHeight="1">
       <c r="F47" s="6" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="48" spans="6:6" ht="15" customHeight="1">
       <c r="F48" s="6" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
     </row>
     <row r="49" spans="6:6" ht="15" customHeight="1">
       <c r="F49" s="6" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="50" spans="6:6" ht="15" customHeight="1">
       <c r="F50" s="6" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
     </row>
     <row r="51" spans="6:6" ht="15" customHeight="1">
       <c r="F51" s="6" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
     </row>
     <row r="53" spans="6:6" ht="15" customHeight="1">
       <c r="F53" s="6" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="54" spans="6:6" ht="15" customHeight="1">
       <c r="F54" s="6" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
     </row>
     <row r="55" spans="6:6" ht="15" customHeight="1">
       <c r="F55" s="6" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="56" spans="6:6" ht="15" customHeight="1">
       <c r="F56" s="6" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
     </row>
     <row r="57" spans="6:6" ht="15" customHeight="1">
       <c r="F57" s="6" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="58" spans="6:6" ht="15" customHeight="1">
       <c r="F58" s="6" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
     </row>
     <row r="60" spans="6:6" ht="15" customHeight="1">
       <c r="F60" s="6" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="61" spans="6:6" ht="15" customHeight="1">
       <c r="F61" s="6" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
     </row>
     <row r="62" spans="6:6" ht="15" customHeight="1">
       <c r="F62" s="6" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="63" spans="6:6" ht="15" customHeight="1">
       <c r="F63" s="6" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
     </row>
     <row r="64" spans="6:6" ht="15" customHeight="1">
       <c r="F64" s="6" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="65" spans="6:6" ht="15" customHeight="1">
       <c r="F65" s="6" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
     </row>
     <row r="66" spans="6:6" ht="15" customHeight="1">
       <c r="F66" s="6" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
     </row>
     <row r="67" spans="6:6" ht="15" customHeight="1">
       <c r="F67" s="6" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
     </row>
     <row r="69" spans="6:6" ht="15" customHeight="1">
       <c r="F69" s="6" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="70" spans="6:6" ht="15" customHeight="1">
       <c r="F70" s="6" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
     </row>
     <row r="71" spans="6:6" ht="15" customHeight="1">
       <c r="F71" s="6" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="72" spans="6:6" ht="15" customHeight="1">
       <c r="F72" s="6" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
     </row>
     <row r="73" spans="6:6" ht="15" customHeight="1">
       <c r="F73" s="6" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="74" spans="6:6" ht="15" customHeight="1">
       <c r="F74" s="6" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
     </row>
     <row r="75" spans="6:6" ht="15" customHeight="1">
       <c r="F75" s="6" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
     </row>
     <row r="77" spans="6:6" ht="15" customHeight="1">
       <c r="F77" s="6" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="78" spans="6:6" ht="15" customHeight="1">
       <c r="F78" s="6" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="79" spans="6:6" ht="15" customHeight="1">
       <c r="F79" s="6" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="80" spans="6:6" ht="15" customHeight="1">
       <c r="F80" s="6" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="81" spans="6:6" ht="15" customHeight="1">
       <c r="F81" s="6" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="82" spans="6:6" ht="15" customHeight="1">
       <c r="F82" s="6" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="84" spans="6:6" ht="15" customHeight="1">
       <c r="F84" s="6" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="85" spans="6:6" ht="15" customHeight="1">
       <c r="F85" s="6" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="86" spans="6:6" ht="15" customHeight="1">
       <c r="F86" s="6" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="87" spans="6:6" ht="15" customHeight="1">
       <c r="F87" s="6" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="88" spans="6:6" ht="15" customHeight="1">
       <c r="F88" s="6" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="89" spans="6:6" ht="15" customHeight="1">
       <c r="F89" s="6" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="91" spans="6:6" ht="15" customHeight="1">
       <c r="F91" s="6" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="92" spans="6:6" ht="15" customHeight="1">
       <c r="F92" s="6" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
     </row>
     <row r="93" spans="6:6" ht="15" customHeight="1">
       <c r="F93" s="6" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="94" spans="6:6" ht="15" customHeight="1">
       <c r="F94" s="6" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
     </row>
     <row r="95" spans="6:6" ht="15" customHeight="1">
       <c r="F95" s="6" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="96" spans="6:6" ht="15" customHeight="1">
       <c r="F96" s="6" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
     </row>
     <row r="97" spans="6:6" ht="15" customHeight="1">
       <c r="F97" s="6" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
     </row>
     <row r="99" spans="6:6" ht="15" customHeight="1">
       <c r="F99" s="6" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="100" spans="6:6" ht="15" customHeight="1">
       <c r="F100" s="6" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
     </row>
     <row r="101" spans="6:6" ht="15" customHeight="1">
       <c r="F101" s="6" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="102" spans="6:6" ht="15" customHeight="1">
       <c r="F102" s="6" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="103" spans="6:6" ht="15" customHeight="1">
       <c r="F103" s="6" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
     </row>
     <row r="104" spans="6:6" ht="15" customHeight="1">
       <c r="F104" s="6" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
     </row>
     <row r="106" spans="6:6" ht="15" customHeight="1">
       <c r="F106" s="6" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="107" spans="6:6" ht="15" customHeight="1">
       <c r="F107" s="6" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
     </row>
     <row r="108" spans="6:6" ht="15" customHeight="1">
       <c r="F108" s="6" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="109" spans="6:6" ht="15" customHeight="1">
       <c r="F109" s="6" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
     </row>
     <row r="110" spans="6:6" ht="15" customHeight="1">
       <c r="F110" s="6" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
     </row>
     <row r="111" spans="6:6" ht="15" customHeight="1">
       <c r="F111" s="6" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
     </row>
     <row r="113" spans="6:6" ht="15" customHeight="1">
       <c r="F113" s="6" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="114" spans="6:6" ht="15" customHeight="1">
       <c r="F114" s="6" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
     </row>
     <row r="115" spans="6:6" ht="15" customHeight="1">
       <c r="F115" s="6" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="116" spans="6:6" ht="15" customHeight="1">
       <c r="F116" s="6" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
     </row>
     <row r="117" spans="6:6" ht="15" customHeight="1">
       <c r="F117" s="6" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
     </row>
     <row r="118" spans="6:6" ht="15" customHeight="1">
       <c r="F118" s="6" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
     </row>
     <row r="120" spans="6:6" ht="15" customHeight="1">
       <c r="F120" s="6" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="121" spans="6:6" ht="15" customHeight="1">
       <c r="F121" s="6" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
     </row>
     <row r="122" spans="6:6" ht="15" customHeight="1">
       <c r="F122" s="6" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="123" spans="6:6" ht="15" customHeight="1">
       <c r="F123" s="6" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
     </row>
     <row r="124" spans="6:6" ht="15" customHeight="1">
       <c r="F124" s="6" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
     </row>
     <row r="126" spans="6:6" ht="15" customHeight="1">
       <c r="F126" s="6" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="127" spans="6:6" ht="15" customHeight="1">
       <c r="F127" s="6" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
     </row>
     <row r="128" spans="6:6" ht="15" customHeight="1">
       <c r="F128" s="6" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="129" spans="6:6" ht="15" customHeight="1">
       <c r="F129" s="6" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
     </row>
     <row r="130" spans="6:6" ht="15" customHeight="1">
       <c r="F130" s="6" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
     </row>
     <row r="131" spans="6:6" ht="15" customHeight="1">
       <c r="F131" s="6" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
     </row>
     <row r="133" spans="6:6" ht="15" customHeight="1">
       <c r="F133" s="6" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="134" spans="6:6" ht="15" customHeight="1">
       <c r="F134" s="6" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="135" spans="6:6" ht="15" customHeight="1">
       <c r="F135" s="6" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="136" spans="6:6" ht="15" customHeight="1">
       <c r="F136" s="6" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="137" spans="6:6" ht="15" customHeight="1">
       <c r="F137" s="6" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
     </row>
     <row r="138" spans="6:6" ht="15" customHeight="1">
       <c r="F138" s="6" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="140" spans="6:6" ht="15" customHeight="1">
       <c r="F140" s="6" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="141" spans="6:6" ht="15" customHeight="1">
       <c r="F141" s="6" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="142" spans="6:6" ht="15" customHeight="1">
       <c r="F142" s="6" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="143" spans="6:6" ht="15" customHeight="1">
       <c r="F143" s="6" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="144" spans="6:6" ht="15" customHeight="1">
       <c r="F144" s="6" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
     </row>
     <row r="145" spans="6:6" ht="15" customHeight="1">
       <c r="F145" s="6" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
     </row>
     <row r="147" spans="6:6" ht="15" customHeight="1">
       <c r="F147" s="6" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="148" spans="6:6" ht="15" customHeight="1">
       <c r="F148" s="6" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
     </row>
     <row r="149" spans="6:6" ht="15" customHeight="1">
       <c r="F149" s="6" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="150" spans="6:6" ht="15" customHeight="1">
       <c r="F150" s="6" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
     </row>
     <row r="151" spans="6:6" ht="15" customHeight="1">
       <c r="F151" s="6" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
     </row>
     <row r="152" spans="6:6" ht="15" customHeight="1">
       <c r="F152" s="6" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="154" spans="6:6" ht="15" customHeight="1">
       <c r="F154" s="6" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="155" spans="6:6" ht="15" customHeight="1">
       <c r="F155" s="6" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
     </row>
     <row r="156" spans="6:6" ht="15" customHeight="1">
       <c r="F156" s="6" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="157" spans="6:6" ht="15" customHeight="1">
       <c r="F157" s="6" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
     </row>
     <row r="158" spans="6:6" ht="15" customHeight="1">
       <c r="F158" s="6" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="159" spans="6:6" ht="15" customHeight="1">
       <c r="F159" s="6" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
     </row>
     <row r="160" spans="6:6" ht="15" customHeight="1">
       <c r="F160" s="6" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
     </row>
     <row r="162" spans="6:6" ht="15" customHeight="1">
       <c r="F162" s="6" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="163" spans="6:6" ht="15" customHeight="1">
       <c r="F163" s="6" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
     </row>
     <row r="164" spans="6:6" ht="15" customHeight="1">
       <c r="F164" s="6" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="165" spans="6:6" ht="15" customHeight="1">
       <c r="F165" s="6" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
     </row>
     <row r="166" spans="6:6" ht="15" customHeight="1">
       <c r="F166" s="6" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
     </row>
     <row r="168" spans="6:6" ht="15" customHeight="1">
       <c r="F168" s="6" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="169" spans="6:6" ht="15" customHeight="1">
       <c r="F169" s="6" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="170" spans="6:6" ht="15" customHeight="1">
       <c r="F170" s="6" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="171" spans="6:6" ht="15" customHeight="1">
       <c r="F171" s="6" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="172" spans="6:6" ht="15" customHeight="1">
       <c r="F172" s="6" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="174" spans="6:6" ht="15" customHeight="1">
       <c r="F174" s="6" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="175" spans="6:6" ht="15" customHeight="1">
       <c r="F175" s="6" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="176" spans="6:6" ht="15" customHeight="1">
       <c r="F176" s="6" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="177" spans="6:6" ht="15" customHeight="1">
       <c r="F177" s="6" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="178" spans="6:6" ht="15" customHeight="1">
       <c r="F178" s="6" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="179" spans="6:6" ht="15" customHeight="1">
       <c r="F179" s="6" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
     </row>
     <row r="180" spans="6:6" ht="15" customHeight="1">
       <c r="F180" s="6" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="182" spans="6:6" ht="15" customHeight="1">
       <c r="F182" s="6" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="183" spans="6:6" ht="15" customHeight="1">
       <c r="F183" s="6" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="184" spans="6:6" ht="15" customHeight="1">
       <c r="F184" s="6" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="185" spans="6:6" ht="15" customHeight="1">
       <c r="F185" s="6" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
     </row>
     <row r="188" spans="6:6" ht="15" customHeight="1">
       <c r="F188" s="6" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="189" spans="6:6" ht="15" customHeight="1">
       <c r="F189" s="6" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="190" spans="6:6" ht="15" customHeight="1">
       <c r="F190" s="6" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="191" spans="6:6" ht="15" customHeight="1">
       <c r="F191" s="6" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="192" spans="6:6" ht="15" customHeight="1">
       <c r="F192" s="6" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="193" spans="6:6" ht="15" customHeight="1">
       <c r="F193" s="6" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="194" spans="6:6" ht="15" customHeight="1">
       <c r="F194" s="6" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="196" spans="6:6" ht="15" customHeight="1">
       <c r="F196" s="6" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="197" spans="6:6" ht="15" customHeight="1">
       <c r="F197" s="6" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="198" spans="6:6" ht="15" customHeight="1">
       <c r="F198" s="6" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="199" spans="6:6" ht="15" customHeight="1">
       <c r="F199" s="6" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="201" spans="6:6" ht="15" customHeight="1">
       <c r="F201" s="6" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="202" spans="6:6" ht="15" customHeight="1">
       <c r="F202" s="6" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="203" spans="6:6" ht="15" customHeight="1">
       <c r="F203" s="6" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="204" spans="6:6" ht="15" customHeight="1">
       <c r="F204" s="6" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="205" spans="6:6" ht="15" customHeight="1">
       <c r="F205" s="6" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
     </row>
     <row r="207" spans="6:6" ht="15" customHeight="1">
       <c r="F207" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="208" spans="6:6" ht="15" customHeight="1">
       <c r="F208" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="209" spans="6:6" ht="15" customHeight="1">
       <c r="F209" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -10528,7 +11019,7 @@
   <sheetData>
     <row r="3" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D3" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F3" s="6"/>
     </row>
@@ -10539,13 +11030,13 @@
     <row r="5" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D5" s="5"/>
       <c r="F5" s="6" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="6" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D6" s="5"/>
       <c r="F6" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
@@ -10555,43 +11046,43 @@
     <row r="8" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D8" s="5"/>
       <c r="F8" s="6" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="9" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D9" s="5"/>
       <c r="F9" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D10" s="5"/>
       <c r="F10" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D11" s="5"/>
       <c r="F11" s="6" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="12" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D12" s="5"/>
       <c r="F12" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D13" s="5"/>
       <c r="F13" s="6" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="14" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D14" s="5"/>
       <c r="F14" s="6" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="15" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
@@ -10601,31 +11092,31 @@
     <row r="16" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D16" s="5"/>
       <c r="F16" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D17" s="5"/>
       <c r="F17" s="6" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="18" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D18" s="5"/>
       <c r="F18" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D19" s="5"/>
       <c r="F19" s="6" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="20" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D20" s="5"/>
       <c r="F20" s="6" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="21" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
@@ -10635,31 +11126,31 @@
     <row r="22" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D22" s="5"/>
       <c r="F22" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D23" s="5"/>
       <c r="F23" s="6" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="24" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D24" s="5"/>
       <c r="F24" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D25" s="5"/>
       <c r="F25" s="6" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="26" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D26" s="5"/>
       <c r="F26" s="6" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="27" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
@@ -10669,31 +11160,31 @@
     <row r="28" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D28" s="5"/>
       <c r="F28" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="29" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D29" s="5"/>
       <c r="F29" s="6" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="30" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D30" s="5"/>
       <c r="F30" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="31" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D31" s="5"/>
       <c r="F31" s="6" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="32" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D32" s="5"/>
       <c r="F32" s="6" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="33" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
@@ -10703,31 +11194,31 @@
     <row r="34" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D34" s="5"/>
       <c r="F34" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="35" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D35" s="5"/>
       <c r="F35" s="6" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="36" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D36" s="5"/>
       <c r="F36" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="37" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D37" s="5"/>
       <c r="F37" s="6" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="38" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D38" s="5"/>
       <c r="F38" s="6" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="39" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
@@ -10737,31 +11228,31 @@
     <row r="40" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D40" s="5"/>
       <c r="F40" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="41" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D41" s="5"/>
       <c r="F41" s="6" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="42" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D42" s="5"/>
       <c r="F42" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="43" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D43" s="5"/>
       <c r="F43" s="6" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="44" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D44" s="5"/>
       <c r="F44" s="6" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="45" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
@@ -10770,7 +11261,7 @@
     </row>
     <row r="46" spans="4:6">
       <c r="F46" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -10791,7 +11282,7 @@
   <sheetData>
     <row r="3" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D3" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F3" s="6"/>
     </row>
@@ -10806,7 +11297,7 @@
     <row r="6" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D6" s="5"/>
       <c r="F6" s="6" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
@@ -10816,7 +11307,7 @@
     <row r="8" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D8" s="5"/>
       <c r="F8" s="6" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
@@ -10826,7 +11317,7 @@
     <row r="10" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D10" s="5"/>
       <c r="F10" s="6" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
@@ -10836,49 +11327,49 @@
     <row r="12" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D12" s="5"/>
       <c r="F12" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D13" s="5"/>
       <c r="F13" s="6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="14" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D14" s="5"/>
       <c r="F14" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="15" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D15" s="5"/>
       <c r="F15" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="16" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D16" s="5"/>
       <c r="F16" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D17" s="5"/>
       <c r="F17" s="6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="18" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D18" s="5"/>
       <c r="F18" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="19" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D19" s="5"/>
       <c r="F19" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="20" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
@@ -10888,55 +11379,55 @@
     <row r="21" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D21" s="5"/>
       <c r="F21" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="22" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D22" s="5"/>
       <c r="F22" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="23" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D23" s="5"/>
       <c r="F23" s="6" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="24" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D24" s="5"/>
       <c r="F24" s="6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="25" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D25" s="5"/>
       <c r="F25" s="6" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="26" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D26" s="5"/>
       <c r="F26" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="27" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D27" s="5"/>
       <c r="F27" s="6" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="28" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D28" s="5"/>
       <c r="F28" s="6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="29" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D29" s="5"/>
       <c r="F29" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="30" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
@@ -10946,55 +11437,55 @@
     <row r="31" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D31" s="5"/>
       <c r="F31" s="6" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="32" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D32" s="5"/>
       <c r="F32" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="33" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D33" s="5"/>
       <c r="F33" s="6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="34" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D34" s="5"/>
       <c r="F34" s="6" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="35" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D35" s="5"/>
       <c r="F35" s="6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="36" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D36" s="5"/>
       <c r="F36" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="37" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D37" s="5"/>
       <c r="F37" s="6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="38" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D38" s="5"/>
       <c r="F38" s="6" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="39" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D39" s="5"/>
       <c r="F39" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="40" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
@@ -11004,55 +11495,55 @@
     <row r="41" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D41" s="5"/>
       <c r="F41" s="6" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="42" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D42" s="5"/>
       <c r="F42" s="6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="43" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D43" s="5"/>
       <c r="F43" s="6" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="44" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D44" s="5"/>
       <c r="F44" s="6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="45" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D45" s="5"/>
       <c r="F45" s="6" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="46" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D46" s="5"/>
       <c r="F46" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="47" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D47" s="5"/>
       <c r="F47" s="6" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="48" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D48" s="5"/>
       <c r="F48" s="6" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="49" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D49" s="5"/>
       <c r="F49" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="50" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
@@ -11062,55 +11553,55 @@
     <row r="51" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D51" s="5"/>
       <c r="F51" s="6" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="52" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D52" s="5"/>
       <c r="F52" s="6" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="53" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D53" s="5"/>
       <c r="F53" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="54" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D54" s="5"/>
       <c r="F54" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="55" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D55" s="5"/>
       <c r="F55" s="6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="56" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D56" s="5"/>
       <c r="F56" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="57" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D57" s="5"/>
       <c r="F57" s="6" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="58" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D58" s="5"/>
       <c r="F58" s="6" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="59" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D59" s="5"/>
       <c r="F59" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="60" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
@@ -11120,55 +11611,55 @@
     <row r="61" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D61" s="5"/>
       <c r="F61" s="6" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="62" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D62" s="5"/>
       <c r="F62" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="63" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D63" s="5"/>
       <c r="F63" s="6" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="64" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D64" s="5"/>
       <c r="F64" s="6" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="65" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D65" s="5"/>
       <c r="F65" s="6" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="66" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D66" s="5"/>
       <c r="F66" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="67" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D67" s="5"/>
       <c r="F67" s="6" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="68" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D68" s="5"/>
       <c r="F68" s="6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="69" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D69" s="5"/>
       <c r="F69" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="70" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
@@ -11178,55 +11669,55 @@
     <row r="71" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D71" s="5"/>
       <c r="F71" s="6" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="72" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D72" s="5"/>
       <c r="F72" s="6" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="73" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D73" s="5"/>
       <c r="F73" s="6" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="74" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D74" s="5"/>
       <c r="F74" s="6" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="75" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D75" s="5"/>
       <c r="F75" s="6" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="76" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D76" s="5"/>
       <c r="F76" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="77" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D77" s="5"/>
       <c r="F77" s="6" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="78" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D78" s="5"/>
       <c r="F78" s="6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="79" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D79" s="5"/>
       <c r="F79" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="80" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
@@ -11236,49 +11727,49 @@
     <row r="81" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D81" s="5"/>
       <c r="F81" s="6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="82" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D82" s="5"/>
       <c r="F82" s="6" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="83" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D83" s="5"/>
       <c r="F83" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="84" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D84" s="5"/>
       <c r="F84" s="6" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="85" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D85" s="5"/>
       <c r="F85" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="86" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D86" s="5"/>
       <c r="F86" s="6" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="87" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D87" s="5"/>
       <c r="F87" s="6" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="88" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D88" s="5"/>
       <c r="F88" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="89" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
@@ -11288,49 +11779,49 @@
     <row r="90" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D90" s="5"/>
       <c r="F90" s="6" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="91" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D91" s="5"/>
       <c r="F91" s="6" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="92" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D92" s="5"/>
       <c r="F92" s="6" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="93" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D93" s="5"/>
       <c r="F93" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="94" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D94" s="5"/>
       <c r="F94" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="95" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D95" s="5"/>
       <c r="F95" s="6" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="96" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D96" s="5"/>
       <c r="F96" s="6" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="97" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D97" s="5"/>
       <c r="F97" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="98" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
@@ -11340,49 +11831,49 @@
     <row r="99" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D99" s="5"/>
       <c r="F99" s="6" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="100" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D100" s="5"/>
       <c r="F100" s="6" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="101" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D101" s="5"/>
       <c r="F101" s="6" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="102" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D102" s="5"/>
       <c r="F102" s="6" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="103" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D103" s="5"/>
       <c r="F103" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="104" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D104" s="5"/>
       <c r="F104" s="6" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="105" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D105" s="5"/>
       <c r="F105" s="6" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="106" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D106" s="5"/>
       <c r="F106" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="107" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
@@ -11392,7 +11883,7 @@
     <row r="108" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D108" s="5"/>
       <c r="F108" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -11406,7 +11897,7 @@
   <dimension ref="D3:T121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AP12" sqref="AP12"/>
+      <selection activeCell="AG27" sqref="AG27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="18"/>
@@ -11418,124 +11909,124 @@
   <sheetData>
     <row r="3" spans="4:6">
       <c r="D3" s="5" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="5" spans="4:6">
       <c r="F5" s="44" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="6" spans="4:6">
       <c r="F6" s="44" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="8" spans="4:6">
       <c r="F8" s="45" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="24" spans="4:14">
       <c r="D24" s="5" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="26" spans="4:14">
       <c r="F26" s="44" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="31" spans="4:14">
       <c r="N31" s="44" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
     </row>
     <row r="46" spans="4:14">
       <c r="N46" s="44" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
     </row>
     <row r="48" spans="4:14">
       <c r="D48" s="5" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="50" spans="6:20">
       <c r="F50" s="44" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="52" spans="6:20">
       <c r="H52" s="44" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
     </row>
     <row r="56" spans="6:20">
       <c r="T56" s="44" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
     </row>
     <row r="64" spans="6:20">
       <c r="T64" s="44" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
     </row>
     <row r="67" spans="4:19" ht="16.5">
       <c r="D67" s="44"/>
       <c r="F67" s="44" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="68" spans="4:19" ht="16.5">
       <c r="D68" s="44"/>
       <c r="F68" s="44" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="69" spans="4:19" ht="16.5">
       <c r="D69" s="44"/>
       <c r="F69" s="44" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="70" spans="4:19" ht="16.5">
       <c r="D70" s="44"/>
       <c r="F70" s="31" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
     </row>
     <row r="71" spans="4:19" ht="16.5">
       <c r="D71" s="44"/>
       <c r="F71" s="44" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="72" spans="4:19" ht="16.5">
       <c r="D72" s="44"/>
       <c r="F72" s="44" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="73" spans="4:19" ht="16.5">
       <c r="D73" s="44"/>
       <c r="F73" s="44" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="75" spans="4:19">
       <c r="H75" s="28" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
     </row>
     <row r="76" spans="4:19">
       <c r="J76" s="28" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="77" spans="4:19">
       <c r="J77" s="28" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
     </row>
     <row r="78" spans="4:19">
@@ -11543,127 +12034,127 @@
     </row>
     <row r="79" spans="4:19">
       <c r="J79" s="44" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="S79" s="44" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
     </row>
     <row r="80" spans="4:19">
       <c r="J80" s="44" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="S80" s="44" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
     </row>
     <row r="81" spans="4:19">
       <c r="J81" s="44" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="S81" s="44" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
     </row>
     <row r="83" spans="4:19">
       <c r="H83" s="44" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
     </row>
     <row r="91" spans="4:19" ht="15.75" customHeight="1">
       <c r="D91" s="44"/>
       <c r="F91" s="44" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="92" spans="4:19" ht="16.5">
       <c r="D92" s="44"/>
       <c r="F92" s="44" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="93" spans="4:19" ht="16.5">
       <c r="D93" s="44"/>
       <c r="F93" s="44" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="94" spans="4:19" ht="16.5">
       <c r="D94" s="44"/>
       <c r="F94" s="31" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="95" spans="4:19" ht="16.5">
       <c r="D95" s="44"/>
       <c r="F95" s="44" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="96" spans="4:19" ht="16.5">
       <c r="D96" s="44"/>
       <c r="F96" s="44" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="97" spans="4:19" ht="16.5">
       <c r="D97" s="44"/>
       <c r="F97" s="44" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="100" spans="4:19">
       <c r="H100" s="28" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
     </row>
     <row r="101" spans="4:19">
       <c r="J101" s="28" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="102" spans="4:19">
       <c r="J102" s="28" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="104" spans="4:19">
       <c r="J104" s="44" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="S104" s="44" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
     </row>
     <row r="105" spans="4:19">
       <c r="J105" s="44" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="S105" s="44" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="106" spans="4:19">
       <c r="J106" s="44" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="S106" s="44" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
     </row>
     <row r="109" spans="4:19">
       <c r="H109" s="45" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
     </row>
     <row r="119" spans="4:6">
       <c r="D119" s="5" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
     </row>
     <row r="121" spans="4:6">
       <c r="F121" s="44" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
     </row>
   </sheetData>

--- a/DevKit/Help/开发辅助工具使用手册.xlsx
+++ b/DevKit/Help/开发辅助工具使用手册.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" firstSheet="10" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="目的" sheetId="1" r:id="rId1"/>
@@ -20,137 +20,138 @@
     <sheet name="数据表结构生成" sheetId="7" r:id="rId11"/>
     <sheet name="Struts2路由" sheetId="8" r:id="rId12"/>
     <sheet name="Struts2验证" sheetId="16" r:id="rId13"/>
-    <sheet name="Native2ASCII" sheetId="6" r:id="rId14"/>
-    <sheet name="代码片断" sheetId="9" r:id="rId15"/>
-    <sheet name="MVC5开发" sheetId="10" r:id="rId16"/>
+    <sheet name="LoginAction-validation.xml" sheetId="17" r:id="rId14"/>
+    <sheet name="Native2ASCII" sheetId="6" r:id="rId15"/>
+    <sheet name="代码片断" sheetId="9" r:id="rId16"/>
+    <sheet name="MVC5开发" sheetId="10" r:id="rId17"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="638">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="654">
   <si>
     <t>目的</t>
   </si>
   <si>
     <t>通过使用工具，提高工作效率，防止手工编码的低级错误，消减代码复查的工作时间。</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>工程</t>
   </si>
   <si>
     <t>新建工程</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>菜单 -&gt; 文件 -&gt; 新建工程</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>*暂时请不要使用Java</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>项目名称：</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>这个项目的名字，可以是任意文字</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>命名空间</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>新建工程后，系统将自动添加以下文件夹</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>\Model\Document</t>
   </si>
   <si>
     <t>数据模型设计书</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>\Model\SourceCode</t>
   </si>
   <si>
     <t>数据模型代码</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>枚举代码文件夹</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>*枚举代码文件夹中的文件将在枚举中介绍</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>同时，系统会生成 Project.xml文件</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>打开工程</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>菜单 -&gt; 文件 -&gt; 打开工程</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>数据模型</t>
   </si>
   <si>
     <t>工具通过将设计书直接转化为Model代码的方式，使得数据模型的编码环节做到自动化。</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>设计人员只需要填写完数据设计式样书，则工具可以完成代码的自动生成。</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>基本</t>
   </si>
   <si>
     <t>No</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>属性名</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>元数据类型</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>枚举类型</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>显示名称</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>编号，暂时没有什么作用</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>Model的变量名称，请使用符合C#变量名称的字符串</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>枚举类型的完整类型名称</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>这个项目在Web页显示时候的名称</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>校验</t>
@@ -160,197 +161,197 @@
   </si>
   <si>
     <t>是否为必须项目</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>错误信息</t>
   </si>
   <si>
     <t>错误信息</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>数值范围</t>
   </si>
   <si>
     <t>最大值</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>最小值</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>字符串长度</t>
   </si>
   <si>
     <t>模式</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>正则表达式</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>格式</t>
   </si>
   <si>
     <t>使用类型</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>显示模式</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>这个字段在使用的时候的类型，例如电子邮件，电话号码</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>这个字段在表示模式的时候，如何显示。</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>版本控制</t>
   </si>
   <si>
     <t>省略</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>项目是ID这样的，不希望直接被页面编辑的项目。</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>编号项目（布尔型）</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>是/否（布尔型）</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>*填写的时候，如果是 （布尔型） 的填写项，请在格子里面填写任意字符表示选中。</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>代码的生成</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>将设计书放在Document文件夹下，选择 菜单 -&gt; 工程 -&gt; 生成所有模型代码  系统将自动重新生成所有的代码。</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>生成的代码直接可以给VS使用，作为生成View的数据源头。</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>注意：Language这样的枚举，VS无法自动生成代码，需要手动添加</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>同时，旗标类型的枚举，需要其他的代码的配合，这个在枚举中介绍。</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>枚举类型分为普通枚举和旗标枚举</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>普通枚举：一个变量值只可能有一种枚举状态，则使用普通枚举。</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>旗标枚举：一个变量可能同时存在多种枚举状态，则使用旗标枚举。</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>例如：小明 同时会 日语 和 英语 ，则语言就是一个旗标枚举。</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>例如：如果一家超市，每周只有一天休息，则星期几休息就是一个一般枚举。</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>枚举</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>枚举类型</t>
   </si>
   <si>
     <t>数据模型设计书项目说明</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>枚举设计书项目说明</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>枚举名称：</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>Flag型  (布尔型）</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>是否为旗标枚举</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>枚举量</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>这个枚举的名称，必须符合C#变量名规则</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>表示某个枚举的变量，必须符合C#变量名规则</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>枚举显示名</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>枚举在画面上显示的名字</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>枚举值</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>枚举在系统内部的名字</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>Enum附加代码</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>VS系统将会把Enum类型作为数字处理，如果需要在画面显示的时候，将普通枚举作为下拉列表，旗标枚举作为多个复选框，</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>请将新建工程时候的Enum文件夹下面的代码放入VS的项目中。</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>Enum辅助代码</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>旗标枚举的模板</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>普通枚举的模板</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>using System;</t>
@@ -396,67 +397,67 @@
   </si>
   <si>
     <t>界面说明</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>适用范围</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>工具环境</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>版本情报</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>如果你只需要生成一个模型,则可以使用 菜单 -&gt; 工具 -&gt; 生成数据模型来生成指定数据模型.</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>允许的最大值</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>允许的最小值</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>允许的最大字符串长度</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>允许的最小字符串长度</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>(系统在编辑的时候,将通过浏览器内置的html5功能检查输入是否合法)</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>工具</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>指定枚举设计文档和源代码保存路径后,即可生成代码.</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>菜单 -&gt; 工具 -&gt; 生成枚举代码</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>目标计划</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>Java 系 Spring MVC4 JSR-349 验证标准的完善.</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>数据模型(Spring)</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>package HRSystemOnline;</t>
@@ -1023,97 +1024,97 @@
   </si>
   <si>
     <t>数据模型(ASP.NET)</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>Native2ASCII</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>Java中的Property文档,需要将本地语言转为机器语言,这个工具能够自动转换单个字符串.</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>菜单 -&gt; 工具 -&gt; Native2ASCII</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>变更履历</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>2014/12/19</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>增加了Native AscII 工具</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>这里支持 Native -&gt; ASCII 和 ASCII -&gt; Native 的双向转换.</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>请在Native或者ASCII里面填入内容.系统将自动判断转换方向.</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>如果需要批量转换,请先在Excel里填写好转换内容,再执行批量转换</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>*批量转换也支持双向转换,请按照需求填写内容.系统将自动转换直到 No 列为空.</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>2014/12/22</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>增加了Struts2的数据验证处理</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>2014/12/23</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>增加MySql建表语句功能</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>项目的NameSpace，以后生成的Model的命名空间会是 NameSpace.Models(.NET),Java的Package名称也在这里设定</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>数据表结构生成</t>
   </si>
   <si>
     <t>在数据设计书编辑后,可以通过工具自动生成数据库的CreateTable语句.</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>MySql篇</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>字符串</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>varchar</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>需要长度提示</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>整型</t>
   </si>
   <si>
     <t>int</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>布尔值</t>
@@ -1123,7 +1124,7 @@
   </si>
   <si>
     <t>日期(包含时间)</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>datetime</t>
@@ -1133,15 +1134,15 @@
   </si>
   <si>
     <t>*暂时默认有且只有一个主键,主键是数字自增主健.</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>&lt;考虑到旗标型枚举,所以将类型定义扩大为smallint.&gt;</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>自动生成代码示例</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>DROP TABLE IF EXISTS `test`.`Candidate`;</t>
@@ -1187,26 +1188,26 @@
   </si>
   <si>
     <t>增加 Struts2路由编辑</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>Struts2路由</t>
   </si>
   <si>
     <t>通过读取Excel文档自动生成Struts的路由配置部分内容.</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>菜单 -&gt; 工具 -&gt; Struts2路由</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>读入文件格式如下</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>生成文件</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>&lt;struts&gt;</t>
@@ -1261,38 +1262,38 @@
   </si>
   <si>
     <t>这里只是Struts的路由部分的配置,在实际使用中,需要进行一些修改.</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>2015/1/4</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>增加代码片断功能</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>代码片断</t>
   </si>
   <si>
     <t>将一些常用的代码或者知识,收集到一起,便于以后查阅和使用.</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>检索功能支持标题和描述,Tag检索</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>2015/1/30</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>增强了数据模型定义</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>EnumExtention.cs</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1308,7 +1309,7 @@
       </rPr>
       <t>\SourceCode</t>
     </r>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1334,19 +1335,19 @@
       </rPr>
       <t>\Document</t>
     </r>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>\Enum\ExtendSourceCode</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>枚举辅助代码</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>EnumDisplayNameAttribute.cs</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1362,23 +1363,23 @@
       </rPr>
       <t>isplayName属性代码</t>
     </r>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>放置在数据模型代码工程中</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>放置于\WebSite\Views\Shared\EditorTemplates中</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>Enum具体的编码</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>先确保所有的Enum附加代码放置在正确的文件夹,并且添加了适当的引用</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1424,15 +1425,15 @@
       </rPr>
       <t>,需要手动添加.</t>
     </r>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>添加的形式则和普通的字段一样.</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>Create视图的时候,请保证设定一个New过的模型到ViewData.Model,不然会发生Null引用错误.</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">        public ActionResult Create()</t>
@@ -1454,19 +1455,19 @@
       </rPr>
       <t>new Interview();</t>
     </r>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>EnumFlags.cs</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>Enum.cs</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>代码通过 UIHint属性来控制 字段使用的模板,所以自动生成的代码应该象这个样子:</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">            /// &lt;summary&gt;</t>
@@ -1530,11 +1531,11 @@
   </si>
   <si>
     <t>名字空间</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>该枚举的名字空间</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1561,43 +1562,43 @@
       </rPr>
       <t>在Enum生成代码中,请注意.</t>
     </r>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>注意,系统将自动添加 "0:"字符,所以这里填写的时候不要添加 "0:"</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>MongoDB的时候,日期将使用Local模式</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>2015/2/3</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>增加了MongoDB的支持</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>如果名字空间不填写的话,这里将自动使用工程的名字空间</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>2015/2/4</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>增加了类描述</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>增加了复制所有代码到真实工程</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>增加了元数据类型:列表</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1623,19 +1624,19 @@
       </rPr>
       <t>中,需要添加EnumDisplayNameAttibute的命名空间</t>
     </r>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>基类</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>系统支持 CompanyTable,MasterTable两种扩展数据模型</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>MasterTable,继承了CompanyTable,同时带有 Name名称和Description描述字段</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>MasterTable.cs</t>
@@ -1654,135 +1655,135 @@
       </rPr>
       <t>代码</t>
     </r>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>有时候MVC5.0的Js下面的一些验证相关的JS会被误删除造成验证无效。</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>这个时候可以新建一个MVC5.0的工程，然后将Js下面的文件全部复制过去即可。</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>关于自动添加的字段</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>CollectionName:</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>Prefix</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>MvcTitle</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>用作画面标题的字符</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>数据表名称(附加一个静态方法)</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>数据编号的前缀(附加一个静态方法)</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>2015/2/5</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>增加了MvcTitle字段</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>MVC5开发</t>
   </si>
   <si>
     <t>业务模型的设计</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>MasterTable</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>数据模型</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>普通的数据</t>
   </si>
   <si>
     <t>CompanyTable</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>选项列表</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>提供Master数据</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>固定的Master数据</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>模板的修改</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>标准模板</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>C:\Program Files (x86)\Microsoft Visual Studio 12.0\Common7\IDE\Extensions\Microsoft\Web\Mvc\Scaffolding\Templates</t>
   </si>
   <si>
     <t>将标准模板导入到工程中,建立CodeTemplates目录,MVC本地优先级高于标准模板</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>将模板进行本地化,同时使用 MvcTitle(本工具为每个模型自动添加)这样的标题字段,填充相应位置</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>例:</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>&lt;h2&gt;@&lt;#= ViewDataTypeName#&gt;.MvcTitle 列表&lt;/h2&gt;</t>
   </si>
   <si>
     <t>注意,日期形式的时候,html5的Date控件要求格式必须是 yyyy-MM-dd所以这里进行强制设定</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>关于自动导出到MVC的约定</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">这里约定将 </t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">枚举放入  </t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">数据模型放入 </t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>Master表放在</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1808,7 +1809,7 @@
       </rPr>
       <t>文件夹，</t>
     </r>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1844,27 +1845,27 @@
       </rPr>
       <t>文件夹,</t>
     </r>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>Master 文件夹</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>2015/2/11</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>日期型数据在HTML5控件中无法表示的对应</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>增加了Master表自动名字修正功能</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>将Master表和Model表分割开来</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1890,7 +1891,7 @@
       </rPr>
       <t>\Document</t>
     </r>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1916,15 +1917,15 @@
       </rPr>
       <t>\SourceCode</t>
     </r>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>辅助表设计书</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>辅助表代码</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1950,31 +1951,31 @@
       </rPr>
       <t>的工程，而是管理设计文档的工程，或者是WorkSpace这样的一个概念。</t>
     </r>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>2015/2/26</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>增加了修改工程属性的功能</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>修改了一些Bug</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>修改工程</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>菜单 -&gt; 数据定义 -&gt; 修改工程</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>打开工程后可以通过修改工程菜单对工程属性进行修改</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1990,7 +1991,7 @@
       </rPr>
       <t>.系统将自动载入目录结构,更新文件.</t>
     </r>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>using MongoDB.Bson.Serialization.Attributes;</t>
@@ -2358,38 +2359,38 @@
   </si>
   <si>
     <t>2015/4/3</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>增加了CreateOrEdit的CSHTML文件的自动生成</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>CreateOrEdit页面</t>
   </si>
   <si>
     <t>虽然MVC有T4模板，但是，内置的T4模板无法满足定制的要求。</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>工具将自动根据模型生成CreateOrEdit页面的Cshtml文件</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>日期型</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>日期型控件封装了 jQuery UI 的 DateTime组件</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>辅助表型</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>辅助表分为单值和多值两种类型。单值在UI上表现为一个下拉列表框，多值表现为一组CheckBox</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>@model TalentInfo</t>
@@ -2579,85 +2580,85 @@
   </si>
   <si>
     <t>初始状态</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>展开后</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>单值类型</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>多值类型</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>约定：</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>这里约定多值类型的辅助表，列表的名称为 MasterTableName去掉"M_"前缀，加上 List后缀</t>
   </si>
   <si>
     <t>同时为了统一代码，列表名称尽可能和项目名称保持一致。</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>MasterTableName：</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>M_MarketBG</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">                @(HtmlUIHelper.GetMultiValueUI&lt;M_MarketBG&gt;("MarketBGList", ViewBag.MarketBGList, Model.MarketBGList))</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>ViewBag.MarketBGList</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>MarketBGList</t>
   </si>
   <si>
     <t>列表名称：</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>项目名称：</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>同时为了统一代码，项目名称尽可能和MasterTableName保持一致。</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">                @(HtmlUIHelper.GetSingleValueUI&lt;M_TechniqueBG&gt;("TechniqueBG", ViewBag.TechniqueBGList, Model.TechniqueBG))</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>M_TechniqueBG</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>ViewBag.TechniqueBGList</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>TechniqueBG</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>布尔型</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>布尔型在实际使用时候，需要进行一些手工美化</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2683,70 +2684,70 @@
       </rPr>
       <t>）。</t>
     </r>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>辅助表</t>
   </si>
   <si>
     <t>辅助表（MasterTable）里面存放着一些序列。当我们输入数据的时候，为了便利性和防止输入错误，</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>我们将一些项目可能出现的值，以表格的形式保存起来，输入的时候，不能自由填写，只能从列表里面选择。</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>这样的列表是一种辅助性质的列表，所以我们约定称为辅助表。</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>辅助表中包含了一种专门用来表示状态的辅助表，我们称为状态辅助表。</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>这种表格能够定义数据的表示颜色，表示顺序，是对于辅助表的一种扩展。</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>辅助表和枚举</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>辅助表和枚举的区别是：枚举用户相对稳定的序列，例如一年四季的序列，HTTP的状态。</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>辅助表则是用于更新比较频繁的序列，当然，可以将枚举也看成一种辅助表。</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>在编码上，枚举可能更便利，辅助表在各种封装方法的帮助下，也可以做到很简洁。</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>另外，辅助表可以使用缓存系统进行加速，提高性能，枚举则完全在编译的时候变成程序的一部分，无需缓存。</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>约定</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>这里约定辅助表（MasterTable）以 "M_"为前缀</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>整个系统很大程度上需要各种辅助表的支持。对于停止使用的Master表，可以设置为 不启用</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>辅助表可以用在单个值的选取上，例如状态的选取，可以用在多个值得选取上，例如技能的选取。</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>带有评价的多项目</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2762,47 +2763,47 @@
       </rPr>
       <t>辅助表，辅助评价表</t>
     </r>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>列表型</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>可以设定元数据是不是List型。辅助评价表暂时只支持列表型</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>Flg</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>Flg分为Skip和Hidden两种，</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>Skip 将被系统忽略，如果该项目不需要了，但是又想保留完整履历，可以将项目设置为Skip</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>Hidden 标记一个项目为Hidden类型，例如ID这种自动设定的项目，就因该设置为Hidden</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>同时确认一下代码中是否添加了这些JS的引用。</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>关于验证失效的问题</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>数据模型可以在VS中在T4模板的作用在直接生成UI界面。</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>本工具也提供了功能更加强大的UI生成模块。</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2838,15 +2839,15 @@
       </rPr>
       <t>和报表界面.</t>
     </r>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>2015/4/13</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>Filter特性的追加</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2892,7 +2893,7 @@
       </rPr>
       <t>编号,Code项目编号主键</t>
     </r>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2908,23 +2909,23 @@
       </rPr>
       <t>Organization</t>
     </r>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>Organization.cs</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>Organization代码</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>在多个值的选取上，还可以支持五个级别的等级的选取。（参考：CreateOrEdit页面：带有评价的多项目）</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>如果列表还带有分类的话,可以使用CatalogMasterTable</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>using InfraStructure;</t>
@@ -3497,11 +3498,11 @@
   </si>
   <si>
     <t>ASP.NET MVC5的诸多功能,需要InfraStructure这个DLL的支持.数据库暂时支持无需ORM的MongoDB.</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>.Net Framework 4.5</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3527,15 +3528,15 @@
       </rPr>
       <t>。</t>
     </r>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>2015/6/26</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>强化了Struts2的数据验证处理</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3551,26 +3552,26 @@
       </rPr>
       <t>3.2</t>
     </r>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">CreateOrEdit - ASP.NET MVC5 </t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>Struts2验证</t>
   </si>
   <si>
     <t>通过读取验证设定文档,自动生成Struts2使用的Action单位的验证用XML.</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>验证设定文档和前面的ASP.NET MVC文档结构一致.</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>同时支持内联和外置两种错误信息表示方式.</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>&lt;?xml version="1.0" encoding="utf-8"?&gt;</t>
@@ -3634,13 +3635,1695 @@
   </si>
   <si>
     <t>LoginAction-validation.xml</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>validators</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>validator </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>="required"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>="com.opensymphony.xwork2.validator.validators.RequiredFieldValidator"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>validator </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>="requiredstring"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>="com.opensymphony.xwork2.validator.validators.RequiredStringValidator"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>validator </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>="int"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>="com.opensymphony.xwork2.validator.validators.IntRangeFieldValidator"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>validator </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>="double"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>="com.opensymphony.xwork2.validator.validators.DoubleRangeFieldValidator"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>validator </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>="date"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>="com.opensymphony.xwork2.validator.validators.DateRangeFieldValidator"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>validator </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>="expression"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>="com.opensymphony.xwork2.validator.validators.ExpressionValidator"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>validator </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>="fieldexpression"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>="com.opensymphony.xwork2.validator.validators.FieldExpressionValidator"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>validator </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>="email"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>="com.opensymphony.xwork2.validator.validators.EmailValidator"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>validator </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>="url"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>="com.opensymphony.xwork2.validator.validators.URLValidator"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>validator </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>="visitor"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>="com.opensymphony.xwork2.validator.validators.VisitorFieldValidator"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>validator </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>="conversion"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>="com.opensymphony.xwork2.validator.validators.ConversionErrorFieldValidator"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>validator </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>="stringlength"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>="com.opensymphony.xwork2.validator.validators.StringLengthFieldValidator"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>validator </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>="regex"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>="com.opensymphony.xwork2.validator.validators.RegexFieldValidator"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>validators</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>参考:Struts2内置的验证类型</t>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="34">
+  <fonts count="40">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3648,6 +5331,13 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -3887,6 +5577,36 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF4B4B4B"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF800000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -3996,11 +5716,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -4015,55 +5732,61 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="22" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
+    <xf numFmtId="14" fontId="23" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="19" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="20" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -4078,55 +5801,55 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -4135,10 +5858,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -4147,10 +5870,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -6216,7 +7945,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="D3:M75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+    <sheetView topLeftCell="A49" workbookViewId="0">
       <selection activeCell="AH58" sqref="AH58"/>
     </sheetView>
   </sheetViews>
@@ -6434,7 +8163,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="20" type="noConversion"/>
+  <phoneticPr fontId="21" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -7070,7 +8799,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="20" type="noConversion"/>
+  <phoneticPr fontId="21" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -7799,7 +9528,7 @@
       <c r="AQ35" s="21"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="20" type="noConversion"/>
+  <phoneticPr fontId="21" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -8445,7 +10174,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="20" type="noConversion"/>
+  <phoneticPr fontId="21" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -8453,10 +10182,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="D3:I75"/>
+  <dimension ref="D3:I38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AN17" sqref="AN17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="16.5"/>
@@ -8484,283 +10213,88 @@
         <v>616</v>
       </c>
     </row>
-    <row r="20" spans="7:9">
-      <c r="G20" s="50" t="s">
-        <v>637</v>
-      </c>
-    </row>
     <row r="22" spans="7:9">
-      <c r="I22" s="50" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="23" spans="7:9">
-      <c r="I23" s="50" t="s">
-        <v>618</v>
+      <c r="G22" s="52" t="s">
+        <v>653</v>
       </c>
     </row>
     <row r="24" spans="7:9">
-      <c r="I24" s="50" t="s">
-        <v>619</v>
+      <c r="I24" s="53" t="s">
+        <v>638</v>
       </c>
     </row>
     <row r="25" spans="7:9">
-      <c r="I25" s="50" t="s">
-        <v>620</v>
+      <c r="I25" s="54" t="s">
+        <v>639</v>
       </c>
     </row>
     <row r="26" spans="7:9">
-      <c r="I26" s="50" t="s">
-        <v>621</v>
+      <c r="I26" s="54" t="s">
+        <v>640</v>
       </c>
     </row>
     <row r="27" spans="7:9">
-      <c r="I27" s="50" t="s">
-        <v>622</v>
+      <c r="I27" s="54" t="s">
+        <v>641</v>
       </c>
     </row>
     <row r="28" spans="7:9">
-      <c r="I28" s="50" t="s">
-        <v>623</v>
+      <c r="I28" s="54" t="s">
+        <v>642</v>
       </c>
     </row>
     <row r="29" spans="7:9">
-      <c r="I29" s="50" t="s">
-        <v>624</v>
+      <c r="I29" s="54" t="s">
+        <v>643</v>
       </c>
     </row>
     <row r="30" spans="7:9">
-      <c r="I30" s="50" t="s">
-        <v>625</v>
+      <c r="I30" s="54" t="s">
+        <v>644</v>
       </c>
     </row>
     <row r="31" spans="7:9">
-      <c r="I31" s="50" t="s">
-        <v>621</v>
+      <c r="I31" s="54" t="s">
+        <v>645</v>
       </c>
     </row>
     <row r="32" spans="7:9">
-      <c r="I32" s="50" t="s">
-        <v>622</v>
+      <c r="I32" s="54" t="s">
+        <v>646</v>
       </c>
     </row>
     <row r="33" spans="9:9">
-      <c r="I33" s="50" t="s">
-        <v>623</v>
+      <c r="I33" s="54" t="s">
+        <v>647</v>
       </c>
     </row>
     <row r="34" spans="9:9">
-      <c r="I34" s="50" t="s">
-        <v>624</v>
+      <c r="I34" s="54" t="s">
+        <v>648</v>
       </c>
     </row>
     <row r="35" spans="9:9">
-      <c r="I35" s="50" t="s">
-        <v>626</v>
+      <c r="I35" s="54" t="s">
+        <v>649</v>
       </c>
     </row>
     <row r="36" spans="9:9">
-      <c r="I36" s="50" t="s">
-        <v>621</v>
+      <c r="I36" s="54" t="s">
+        <v>650</v>
       </c>
     </row>
     <row r="37" spans="9:9">
-      <c r="I37" s="50" t="s">
-        <v>622</v>
+      <c r="I37" s="54" t="s">
+        <v>651</v>
       </c>
     </row>
     <row r="38" spans="9:9">
-      <c r="I38" s="50" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="39" spans="9:9">
-      <c r="I39" s="50" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="40" spans="9:9">
-      <c r="I40" s="50" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="41" spans="9:9">
-      <c r="I41" s="50" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="42" spans="9:9">
-      <c r="I42" s="50" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="43" spans="9:9">
-      <c r="I43" s="50" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="44" spans="9:9">
-      <c r="I44" s="50" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="45" spans="9:9">
-      <c r="I45" s="50" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="46" spans="9:9">
-      <c r="I46" s="50" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="47" spans="9:9">
-      <c r="I47" s="50" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="48" spans="9:9">
-      <c r="I48" s="50" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="49" spans="9:9">
-      <c r="I49" s="50" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="50" spans="9:9">
-      <c r="I50" s="50" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="51" spans="9:9">
-      <c r="I51" s="50" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="52" spans="9:9">
-      <c r="I52" s="50" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="53" spans="9:9">
-      <c r="I53" s="50" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="54" spans="9:9">
-      <c r="I54" s="50" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="55" spans="9:9">
-      <c r="I55" s="50" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="56" spans="9:9">
-      <c r="I56" s="50" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="57" spans="9:9">
-      <c r="I57" s="50" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="58" spans="9:9">
-      <c r="I58" s="50" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="59" spans="9:9">
-      <c r="I59" s="50" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="60" spans="9:9">
-      <c r="I60" s="50" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="61" spans="9:9">
-      <c r="I61" s="50" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="62" spans="9:9">
-      <c r="I62" s="50" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="63" spans="9:9">
-      <c r="I63" s="50" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="64" spans="9:9">
-      <c r="I64" s="50" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="65" spans="9:9">
-      <c r="I65" s="50" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="66" spans="9:9">
-      <c r="I66" s="50" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="67" spans="9:9">
-      <c r="I67" s="50" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="68" spans="9:9">
-      <c r="I68" s="50" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="69" spans="9:9">
-      <c r="I69" s="50" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="70" spans="9:9">
-      <c r="I70" s="50" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="71" spans="9:9">
-      <c r="I71" s="50" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="72" spans="9:9">
-      <c r="I72" s="50" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="73" spans="9:9">
-      <c r="I73" s="50" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="74" spans="9:9">
-      <c r="I74" s="50" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="75" spans="9:9">
-      <c r="I75" s="50" t="s">
-        <v>636</v>
+      <c r="I38" s="53" t="s">
+        <v>652</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="20" type="noConversion"/>
+  <phoneticPr fontId="21" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -8768,6 +10302,298 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="G6:I61"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AJ29" sqref="AJ29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="6" spans="7:9" s="50" customFormat="1" ht="16.5">
+      <c r="G6" s="52" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="7" spans="7:9" s="50" customFormat="1" ht="16.5"/>
+    <row r="8" spans="7:9" s="50" customFormat="1" ht="16.5">
+      <c r="I8" s="50" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="9" spans="7:9" s="50" customFormat="1" ht="16.5">
+      <c r="I9" s="50" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="10" spans="7:9" s="50" customFormat="1" ht="16.5">
+      <c r="I10" s="50" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="11" spans="7:9" s="50" customFormat="1" ht="16.5">
+      <c r="I11" s="50" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="12" spans="7:9" s="50" customFormat="1" ht="16.5">
+      <c r="I12" s="50" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="13" spans="7:9" s="50" customFormat="1" ht="16.5">
+      <c r="I13" s="50" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="14" spans="7:9" s="50" customFormat="1" ht="16.5">
+      <c r="I14" s="50" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="15" spans="7:9" s="50" customFormat="1" ht="16.5">
+      <c r="I15" s="50" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="16" spans="7:9" s="50" customFormat="1" ht="16.5">
+      <c r="I16" s="50" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="17" spans="9:9" s="50" customFormat="1" ht="16.5">
+      <c r="I17" s="50" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="18" spans="9:9" s="50" customFormat="1" ht="16.5">
+      <c r="I18" s="50" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="19" spans="9:9" s="50" customFormat="1" ht="16.5">
+      <c r="I19" s="50" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="20" spans="9:9" s="50" customFormat="1" ht="16.5">
+      <c r="I20" s="50" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="21" spans="9:9" s="50" customFormat="1" ht="16.5">
+      <c r="I21" s="50" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="22" spans="9:9" s="50" customFormat="1" ht="16.5">
+      <c r="I22" s="50" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="23" spans="9:9" s="50" customFormat="1" ht="16.5">
+      <c r="I23" s="50" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="24" spans="9:9" s="50" customFormat="1" ht="16.5">
+      <c r="I24" s="50" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="25" spans="9:9" s="50" customFormat="1" ht="16.5">
+      <c r="I25" s="50" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="26" spans="9:9" s="50" customFormat="1" ht="16.5">
+      <c r="I26" s="50" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="27" spans="9:9" s="50" customFormat="1" ht="16.5">
+      <c r="I27" s="50" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="28" spans="9:9" s="50" customFormat="1" ht="16.5">
+      <c r="I28" s="50" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="29" spans="9:9" s="50" customFormat="1" ht="16.5">
+      <c r="I29" s="50" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="30" spans="9:9" s="50" customFormat="1" ht="16.5">
+      <c r="I30" s="50" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="31" spans="9:9" s="50" customFormat="1" ht="16.5">
+      <c r="I31" s="50" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="32" spans="9:9" s="50" customFormat="1" ht="16.5">
+      <c r="I32" s="50" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="33" spans="9:9" s="50" customFormat="1" ht="16.5">
+      <c r="I33" s="50" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="34" spans="9:9" s="50" customFormat="1" ht="16.5">
+      <c r="I34" s="50" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="35" spans="9:9" s="50" customFormat="1" ht="16.5">
+      <c r="I35" s="50" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="36" spans="9:9" s="50" customFormat="1" ht="16.5">
+      <c r="I36" s="50" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="37" spans="9:9" s="50" customFormat="1" ht="16.5">
+      <c r="I37" s="50" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="38" spans="9:9" s="50" customFormat="1" ht="16.5">
+      <c r="I38" s="50" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="39" spans="9:9" s="50" customFormat="1" ht="16.5">
+      <c r="I39" s="50" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="40" spans="9:9" s="50" customFormat="1" ht="16.5">
+      <c r="I40" s="50" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="41" spans="9:9" s="50" customFormat="1" ht="16.5">
+      <c r="I41" s="50" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="42" spans="9:9" s="50" customFormat="1" ht="16.5">
+      <c r="I42" s="50" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="43" spans="9:9" s="50" customFormat="1" ht="16.5">
+      <c r="I43" s="50" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="44" spans="9:9" s="50" customFormat="1" ht="16.5">
+      <c r="I44" s="50" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="45" spans="9:9" s="50" customFormat="1" ht="16.5">
+      <c r="I45" s="50" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="46" spans="9:9" s="50" customFormat="1" ht="16.5">
+      <c r="I46" s="50" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="47" spans="9:9" s="50" customFormat="1" ht="16.5">
+      <c r="I47" s="50" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="48" spans="9:9" s="50" customFormat="1" ht="16.5">
+      <c r="I48" s="50" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="49" spans="9:9" s="50" customFormat="1" ht="16.5">
+      <c r="I49" s="50" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="50" spans="9:9" s="50" customFormat="1" ht="16.5">
+      <c r="I50" s="50" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="51" spans="9:9" s="50" customFormat="1" ht="16.5">
+      <c r="I51" s="50" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="52" spans="9:9" s="50" customFormat="1" ht="16.5">
+      <c r="I52" s="50" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="53" spans="9:9" s="50" customFormat="1" ht="16.5">
+      <c r="I53" s="50" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="54" spans="9:9" s="50" customFormat="1" ht="16.5">
+      <c r="I54" s="50" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="55" spans="9:9" s="50" customFormat="1" ht="16.5">
+      <c r="I55" s="50" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="56" spans="9:9" s="50" customFormat="1" ht="16.5">
+      <c r="I56" s="50" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="57" spans="9:9" s="50" customFormat="1" ht="16.5">
+      <c r="I57" s="50" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="58" spans="9:9" s="50" customFormat="1" ht="16.5">
+      <c r="I58" s="50" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="59" spans="9:9" s="50" customFormat="1" ht="16.5">
+      <c r="I59" s="50" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="60" spans="9:9" s="50" customFormat="1" ht="16.5">
+      <c r="I60" s="50" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="61" spans="9:9" s="50" customFormat="1" ht="16.5">
+      <c r="I61" s="50" t="s">
+        <v>636</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="21" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="D3:F35"/>
   <sheetViews>
@@ -8816,14 +10642,14 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="20" type="noConversion"/>
+  <phoneticPr fontId="21" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="D3:F33"/>
   <sheetViews>
@@ -8852,14 +10678,14 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="20" type="noConversion"/>
+  <phoneticPr fontId="21" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="D3:Z19"/>
   <sheetViews>
@@ -8946,7 +10772,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="20" type="noConversion"/>
+  <phoneticPr fontId="21" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -9200,7 +11026,7 @@
       <c r="D126" s="5"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="20" type="noConversion"/>
+  <phoneticPr fontId="21" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -9659,7 +11485,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="20" type="noConversion"/>
+  <phoneticPr fontId="21" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I22:I28">
       <formula1>$AE$4:$AE$9</formula1>
@@ -9772,7 +11598,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="20" type="noConversion"/>
+  <phoneticPr fontId="21" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -10091,7 +11917,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="20" type="noConversion"/>
+  <phoneticPr fontId="21" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -11001,7 +12827,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="20" type="noConversion"/>
+  <phoneticPr fontId="21" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -11265,7 +13091,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="20" type="noConversion"/>
+  <phoneticPr fontId="21" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -11887,7 +13713,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="20" type="noConversion"/>
+  <phoneticPr fontId="21" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -12158,7 +13984,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="20" type="noConversion"/>
+  <phoneticPr fontId="21" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/DevKit/Help/开发辅助工具使用手册.xlsx
+++ b/DevKit/Help/开发辅助工具使用手册.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" firstSheet="10" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="目的" sheetId="1" r:id="rId1"/>
@@ -30,128 +30,128 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="654">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="884" uniqueCount="656">
   <si>
     <t>目的</t>
   </si>
   <si>
     <t>通过使用工具，提高工作效率，防止手工编码的低级错误，消减代码复查的工作时间。</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>工程</t>
   </si>
   <si>
     <t>新建工程</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>菜单 -&gt; 文件 -&gt; 新建工程</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>*暂时请不要使用Java</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>项目名称：</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>这个项目的名字，可以是任意文字</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>命名空间</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>新建工程后，系统将自动添加以下文件夹</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>\Model\Document</t>
   </si>
   <si>
     <t>数据模型设计书</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>\Model\SourceCode</t>
   </si>
   <si>
     <t>数据模型代码</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>枚举代码文件夹</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>*枚举代码文件夹中的文件将在枚举中介绍</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>同时，系统会生成 Project.xml文件</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>打开工程</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>菜单 -&gt; 文件 -&gt; 打开工程</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>数据模型</t>
   </si>
   <si>
     <t>工具通过将设计书直接转化为Model代码的方式，使得数据模型的编码环节做到自动化。</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>设计人员只需要填写完数据设计式样书，则工具可以完成代码的自动生成。</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>基本</t>
   </si>
   <si>
     <t>No</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>属性名</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>元数据类型</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>枚举类型</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>显示名称</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>编号，暂时没有什么作用</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>Model的变量名称，请使用符合C#变量名称的字符串</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>枚举类型的完整类型名称</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>这个项目在Web页显示时候的名称</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>校验</t>
@@ -161,197 +161,197 @@
   </si>
   <si>
     <t>是否为必须项目</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>错误信息</t>
   </si>
   <si>
     <t>错误信息</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>数值范围</t>
   </si>
   <si>
     <t>最大值</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>最小值</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>字符串长度</t>
   </si>
   <si>
     <t>模式</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>正则表达式</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>格式</t>
   </si>
   <si>
     <t>使用类型</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>显示模式</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>这个字段在使用的时候的类型，例如电子邮件，电话号码</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>这个字段在表示模式的时候，如何显示。</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>版本控制</t>
   </si>
   <si>
     <t>省略</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>项目是ID这样的，不希望直接被页面编辑的项目。</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>编号项目（布尔型）</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>是/否（布尔型）</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>*填写的时候，如果是 （布尔型） 的填写项，请在格子里面填写任意字符表示选中。</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>代码的生成</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>将设计书放在Document文件夹下，选择 菜单 -&gt; 工程 -&gt; 生成所有模型代码  系统将自动重新生成所有的代码。</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>生成的代码直接可以给VS使用，作为生成View的数据源头。</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>注意：Language这样的枚举，VS无法自动生成代码，需要手动添加</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>同时，旗标类型的枚举，需要其他的代码的配合，这个在枚举中介绍。</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>枚举类型分为普通枚举和旗标枚举</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>普通枚举：一个变量值只可能有一种枚举状态，则使用普通枚举。</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>旗标枚举：一个变量可能同时存在多种枚举状态，则使用旗标枚举。</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>例如：小明 同时会 日语 和 英语 ，则语言就是一个旗标枚举。</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>例如：如果一家超市，每周只有一天休息，则星期几休息就是一个一般枚举。</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>枚举</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>枚举类型</t>
   </si>
   <si>
     <t>数据模型设计书项目说明</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>枚举设计书项目说明</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>枚举名称：</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>Flag型  (布尔型）</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>是否为旗标枚举</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>枚举量</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>这个枚举的名称，必须符合C#变量名规则</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>表示某个枚举的变量，必须符合C#变量名规则</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>枚举显示名</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>枚举在画面上显示的名字</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>枚举值</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>枚举在系统内部的名字</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>Enum附加代码</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>VS系统将会把Enum类型作为数字处理，如果需要在画面显示的时候，将普通枚举作为下拉列表，旗标枚举作为多个复选框，</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>请将新建工程时候的Enum文件夹下面的代码放入VS的项目中。</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>Enum辅助代码</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>旗标枚举的模板</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>普通枚举的模板</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>using System;</t>
@@ -397,67 +397,67 @@
   </si>
   <si>
     <t>界面说明</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>适用范围</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>工具环境</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>版本情报</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>如果你只需要生成一个模型,则可以使用 菜单 -&gt; 工具 -&gt; 生成数据模型来生成指定数据模型.</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>允许的最大值</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>允许的最小值</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>允许的最大字符串长度</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>允许的最小字符串长度</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>(系统在编辑的时候,将通过浏览器内置的html5功能检查输入是否合法)</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>工具</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>指定枚举设计文档和源代码保存路径后,即可生成代码.</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>菜单 -&gt; 工具 -&gt; 生成枚举代码</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>目标计划</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>Java 系 Spring MVC4 JSR-349 验证标准的完善.</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>数据模型(Spring)</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>package HRSystemOnline;</t>
@@ -1024,97 +1024,97 @@
   </si>
   <si>
     <t>数据模型(ASP.NET)</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>Native2ASCII</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>Java中的Property文档,需要将本地语言转为机器语言,这个工具能够自动转换单个字符串.</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>菜单 -&gt; 工具 -&gt; Native2ASCII</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>变更履历</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>2014/12/19</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>增加了Native AscII 工具</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>这里支持 Native -&gt; ASCII 和 ASCII -&gt; Native 的双向转换.</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>请在Native或者ASCII里面填入内容.系统将自动判断转换方向.</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>如果需要批量转换,请先在Excel里填写好转换内容,再执行批量转换</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>*批量转换也支持双向转换,请按照需求填写内容.系统将自动转换直到 No 列为空.</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>2014/12/22</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>增加了Struts2的数据验证处理</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>2014/12/23</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>增加MySql建表语句功能</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>项目的NameSpace，以后生成的Model的命名空间会是 NameSpace.Models(.NET),Java的Package名称也在这里设定</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>数据表结构生成</t>
   </si>
   <si>
     <t>在数据设计书编辑后,可以通过工具自动生成数据库的CreateTable语句.</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>MySql篇</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>字符串</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>varchar</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>需要长度提示</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>整型</t>
   </si>
   <si>
     <t>int</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>布尔值</t>
@@ -1124,7 +1124,7 @@
   </si>
   <si>
     <t>日期(包含时间)</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>datetime</t>
@@ -1134,15 +1134,15 @@
   </si>
   <si>
     <t>*暂时默认有且只有一个主键,主键是数字自增主健.</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>&lt;考虑到旗标型枚举,所以将类型定义扩大为smallint.&gt;</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>自动生成代码示例</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>DROP TABLE IF EXISTS `test`.`Candidate`;</t>
@@ -1188,26 +1188,26 @@
   </si>
   <si>
     <t>增加 Struts2路由编辑</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>Struts2路由</t>
   </si>
   <si>
     <t>通过读取Excel文档自动生成Struts的路由配置部分内容.</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>菜单 -&gt; 工具 -&gt; Struts2路由</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>读入文件格式如下</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>生成文件</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>&lt;struts&gt;</t>
@@ -1262,38 +1262,38 @@
   </si>
   <si>
     <t>这里只是Struts的路由部分的配置,在实际使用中,需要进行一些修改.</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>2015/1/4</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>增加代码片断功能</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>代码片断</t>
   </si>
   <si>
     <t>将一些常用的代码或者知识,收集到一起,便于以后查阅和使用.</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>检索功能支持标题和描述,Tag检索</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>2015/1/30</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>增强了数据模型定义</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>EnumExtention.cs</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1309,7 +1309,7 @@
       </rPr>
       <t>\SourceCode</t>
     </r>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1335,19 +1335,19 @@
       </rPr>
       <t>\Document</t>
     </r>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>\Enum\ExtendSourceCode</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>枚举辅助代码</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>EnumDisplayNameAttribute.cs</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1363,23 +1363,23 @@
       </rPr>
       <t>isplayName属性代码</t>
     </r>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>放置在数据模型代码工程中</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>放置于\WebSite\Views\Shared\EditorTemplates中</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>Enum具体的编码</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>先确保所有的Enum附加代码放置在正确的文件夹,并且添加了适当的引用</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1425,15 +1425,15 @@
       </rPr>
       <t>,需要手动添加.</t>
     </r>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>添加的形式则和普通的字段一样.</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>Create视图的时候,请保证设定一个New过的模型到ViewData.Model,不然会发生Null引用错误.</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">        public ActionResult Create()</t>
@@ -1455,19 +1455,19 @@
       </rPr>
       <t>new Interview();</t>
     </r>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>EnumFlags.cs</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>Enum.cs</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>代码通过 UIHint属性来控制 字段使用的模板,所以自动生成的代码应该象这个样子:</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">            /// &lt;summary&gt;</t>
@@ -1531,11 +1531,11 @@
   </si>
   <si>
     <t>名字空间</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>该枚举的名字空间</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1562,43 +1562,43 @@
       </rPr>
       <t>在Enum生成代码中,请注意.</t>
     </r>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>注意,系统将自动添加 "0:"字符,所以这里填写的时候不要添加 "0:"</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>MongoDB的时候,日期将使用Local模式</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>2015/2/3</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>增加了MongoDB的支持</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>如果名字空间不填写的话,这里将自动使用工程的名字空间</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>2015/2/4</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>增加了类描述</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>增加了复制所有代码到真实工程</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>增加了元数据类型:列表</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1624,19 +1624,19 @@
       </rPr>
       <t>中,需要添加EnumDisplayNameAttibute的命名空间</t>
     </r>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>基类</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>系统支持 CompanyTable,MasterTable两种扩展数据模型</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>MasterTable,继承了CompanyTable,同时带有 Name名称和Description描述字段</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>MasterTable.cs</t>
@@ -1655,135 +1655,135 @@
       </rPr>
       <t>代码</t>
     </r>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>有时候MVC5.0的Js下面的一些验证相关的JS会被误删除造成验证无效。</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>这个时候可以新建一个MVC5.0的工程，然后将Js下面的文件全部复制过去即可。</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>关于自动添加的字段</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>CollectionName:</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>Prefix</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>MvcTitle</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>用作画面标题的字符</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>数据表名称(附加一个静态方法)</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>数据编号的前缀(附加一个静态方法)</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>2015/2/5</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>增加了MvcTitle字段</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>MVC5开发</t>
   </si>
   <si>
     <t>业务模型的设计</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>MasterTable</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>数据模型</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>普通的数据</t>
   </si>
   <si>
     <t>CompanyTable</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>选项列表</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>提供Master数据</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>固定的Master数据</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>模板的修改</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>标准模板</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>C:\Program Files (x86)\Microsoft Visual Studio 12.0\Common7\IDE\Extensions\Microsoft\Web\Mvc\Scaffolding\Templates</t>
   </si>
   <si>
     <t>将标准模板导入到工程中,建立CodeTemplates目录,MVC本地优先级高于标准模板</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>将模板进行本地化,同时使用 MvcTitle(本工具为每个模型自动添加)这样的标题字段,填充相应位置</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>例:</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>&lt;h2&gt;@&lt;#= ViewDataTypeName#&gt;.MvcTitle 列表&lt;/h2&gt;</t>
   </si>
   <si>
     <t>注意,日期形式的时候,html5的Date控件要求格式必须是 yyyy-MM-dd所以这里进行强制设定</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>关于自动导出到MVC的约定</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">这里约定将 </t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">枚举放入  </t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">数据模型放入 </t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>Master表放在</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1809,7 +1809,7 @@
       </rPr>
       <t>文件夹，</t>
     </r>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1845,27 +1845,27 @@
       </rPr>
       <t>文件夹,</t>
     </r>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>Master 文件夹</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>2015/2/11</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>日期型数据在HTML5控件中无法表示的对应</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>增加了Master表自动名字修正功能</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>将Master表和Model表分割开来</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1891,7 +1891,7 @@
       </rPr>
       <t>\Document</t>
     </r>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1917,15 +1917,15 @@
       </rPr>
       <t>\SourceCode</t>
     </r>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>辅助表设计书</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>辅助表代码</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1951,31 +1951,31 @@
       </rPr>
       <t>的工程，而是管理设计文档的工程，或者是WorkSpace这样的一个概念。</t>
     </r>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>2015/2/26</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>增加了修改工程属性的功能</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>修改了一些Bug</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>修改工程</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>菜单 -&gt; 数据定义 -&gt; 修改工程</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>打开工程后可以通过修改工程菜单对工程属性进行修改</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1991,7 +1991,7 @@
       </rPr>
       <t>.系统将自动载入目录结构,更新文件.</t>
     </r>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>using MongoDB.Bson.Serialization.Attributes;</t>
@@ -2359,38 +2359,38 @@
   </si>
   <si>
     <t>2015/4/3</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>增加了CreateOrEdit的CSHTML文件的自动生成</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>CreateOrEdit页面</t>
   </si>
   <si>
     <t>虽然MVC有T4模板，但是，内置的T4模板无法满足定制的要求。</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>工具将自动根据模型生成CreateOrEdit页面的Cshtml文件</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>日期型</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>日期型控件封装了 jQuery UI 的 DateTime组件</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>辅助表型</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>辅助表分为单值和多值两种类型。单值在UI上表现为一个下拉列表框，多值表现为一组CheckBox</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>@model TalentInfo</t>
@@ -2580,85 +2580,85 @@
   </si>
   <si>
     <t>初始状态</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>展开后</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>单值类型</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>多值类型</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>约定：</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>这里约定多值类型的辅助表，列表的名称为 MasterTableName去掉"M_"前缀，加上 List后缀</t>
   </si>
   <si>
     <t>同时为了统一代码，列表名称尽可能和项目名称保持一致。</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>MasterTableName：</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>M_MarketBG</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">                @(HtmlUIHelper.GetMultiValueUI&lt;M_MarketBG&gt;("MarketBGList", ViewBag.MarketBGList, Model.MarketBGList))</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>ViewBag.MarketBGList</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>MarketBGList</t>
   </si>
   <si>
     <t>列表名称：</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>项目名称：</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>同时为了统一代码，项目名称尽可能和MasterTableName保持一致。</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">                @(HtmlUIHelper.GetSingleValueUI&lt;M_TechniqueBG&gt;("TechniqueBG", ViewBag.TechniqueBGList, Model.TechniqueBG))</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>M_TechniqueBG</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>ViewBag.TechniqueBGList</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>TechniqueBG</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>布尔型</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>布尔型在实际使用时候，需要进行一些手工美化</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2684,70 +2684,70 @@
       </rPr>
       <t>）。</t>
     </r>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>辅助表</t>
   </si>
   <si>
     <t>辅助表（MasterTable）里面存放着一些序列。当我们输入数据的时候，为了便利性和防止输入错误，</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>我们将一些项目可能出现的值，以表格的形式保存起来，输入的时候，不能自由填写，只能从列表里面选择。</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>这样的列表是一种辅助性质的列表，所以我们约定称为辅助表。</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>辅助表中包含了一种专门用来表示状态的辅助表，我们称为状态辅助表。</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>这种表格能够定义数据的表示颜色，表示顺序，是对于辅助表的一种扩展。</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>辅助表和枚举</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>辅助表和枚举的区别是：枚举用户相对稳定的序列，例如一年四季的序列，HTTP的状态。</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>辅助表则是用于更新比较频繁的序列，当然，可以将枚举也看成一种辅助表。</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>在编码上，枚举可能更便利，辅助表在各种封装方法的帮助下，也可以做到很简洁。</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>另外，辅助表可以使用缓存系统进行加速，提高性能，枚举则完全在编译的时候变成程序的一部分，无需缓存。</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>约定</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>这里约定辅助表（MasterTable）以 "M_"为前缀</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>整个系统很大程度上需要各种辅助表的支持。对于停止使用的Master表，可以设置为 不启用</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>辅助表可以用在单个值的选取上，例如状态的选取，可以用在多个值得选取上，例如技能的选取。</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>带有评价的多项目</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2763,47 +2763,47 @@
       </rPr>
       <t>辅助表，辅助评价表</t>
     </r>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>列表型</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>可以设定元数据是不是List型。辅助评价表暂时只支持列表型</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>Flg</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>Flg分为Skip和Hidden两种，</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>Skip 将被系统忽略，如果该项目不需要了，但是又想保留完整履历，可以将项目设置为Skip</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>Hidden 标记一个项目为Hidden类型，例如ID这种自动设定的项目，就因该设置为Hidden</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>同时确认一下代码中是否添加了这些JS的引用。</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>关于验证失效的问题</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>数据模型可以在VS中在T4模板的作用在直接生成UI界面。</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>本工具也提供了功能更加强大的UI生成模块。</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2839,15 +2839,15 @@
       </rPr>
       <t>和报表界面.</t>
     </r>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>2015/4/13</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>Filter特性的追加</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2893,7 +2893,7 @@
       </rPr>
       <t>编号,Code项目编号主键</t>
     </r>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2909,23 +2909,23 @@
       </rPr>
       <t>Organization</t>
     </r>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>Organization.cs</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>Organization代码</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>在多个值的选取上，还可以支持五个级别的等级的选取。（参考：CreateOrEdit页面：带有评价的多项目）</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>如果列表还带有分类的话,可以使用CatalogMasterTable</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>using InfraStructure;</t>
@@ -3498,11 +3498,11 @@
   </si>
   <si>
     <t>ASP.NET MVC5的诸多功能,需要InfraStructure这个DLL的支持.数据库暂时支持无需ORM的MongoDB.</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>.Net Framework 4.5</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3528,15 +3528,1787 @@
       </rPr>
       <t>。</t>
     </r>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>2015/6/26</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>强化了Struts2的数据验证处理</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">CreateOrEdit - ASP.NET MVC5 </t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>Struts2验证</t>
+  </si>
+  <si>
+    <t>通过读取验证设定文档,自动生成Struts2使用的Action单位的验证用XML.</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证设定文档和前面的ASP.NET MVC文档结构一致.</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>同时支持内联和外置两种错误信息表示方式.</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;?xml version="1.0" encoding="utf-8"?&gt;</t>
+  </si>
+  <si>
+    <t>&lt;!DOCTYPE validators PUBLIC "-//OpenSymphony Group//XWork Validator 1.0.2//EN" "http://struts.apache.org/dtds/xwork-validator-1.0.2.dtd"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;validators&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;field name="DepartmentCode"&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;field-validator type="requiredstring"&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      &lt;message key="DepartmentCode.required" /&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;/field-validator&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;/field&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;field name="Name"&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;field name="EmploymentType"&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;field name="Target"&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;field-validator type="int"&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      &lt;param name="min"&gt;1&lt;/param&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      &lt;param name="max"&gt;99&lt;/param&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;field name="Location"&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;field name="JodDetails"&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;field name="SkillCatalogCode"&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;field name="IndustryBackgroundCode"&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;field name="OpenDate"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/validators&gt;</t>
+  </si>
+  <si>
+    <t>LoginAction-validation.xml</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>validators</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>validator </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>="required"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>="com.opensymphony.xwork2.validator.validators.RequiredFieldValidator"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>validator </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>="requiredstring"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>="com.opensymphony.xwork2.validator.validators.RequiredStringValidator"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>validator </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>="int"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>="com.opensymphony.xwork2.validator.validators.IntRangeFieldValidator"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>validator </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>="double"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>="com.opensymphony.xwork2.validator.validators.DoubleRangeFieldValidator"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>validator </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>="date"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>="com.opensymphony.xwork2.validator.validators.DateRangeFieldValidator"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>validator </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>="expression"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>="com.opensymphony.xwork2.validator.validators.ExpressionValidator"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>validator </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>="fieldexpression"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>="com.opensymphony.xwork2.validator.validators.FieldExpressionValidator"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>validator </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>="email"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>="com.opensymphony.xwork2.validator.validators.EmailValidator"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>validator </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>="url"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>="com.opensymphony.xwork2.validator.validators.URLValidator"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>validator </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>="visitor"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>="com.opensymphony.xwork2.validator.validators.VisitorFieldValidator"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>validator </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>="conversion"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>="com.opensymphony.xwork2.validator.validators.ConversionErrorFieldValidator"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>validator </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>="stringlength"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>="com.opensymphony.xwork2.validator.validators.StringLengthFieldValidator"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>validator </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>="regex"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>="com.opensymphony.xwork2.validator.validators.RegexFieldValidator"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>validators</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>参考:Struts2内置的验证类型</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015/7/10</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spring代码中HibernateORM的加入</t>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3550,1780 +5322,16 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>3.2</t>
-    </r>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">CreateOrEdit - ASP.NET MVC5 </t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t>Struts2验证</t>
-  </si>
-  <si>
-    <t>通过读取验证设定文档,自动生成Struts2使用的Action单位的验证用XML.</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t>验证设定文档和前面的ASP.NET MVC文档结构一致.</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t>同时支持内联和外置两种错误信息表示方式.</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;?xml version="1.0" encoding="utf-8"?&gt;</t>
-  </si>
-  <si>
-    <t>&lt;!DOCTYPE validators PUBLIC "-//OpenSymphony Group//XWork Validator 1.0.2//EN" "http://struts.apache.org/dtds/xwork-validator-1.0.2.dtd"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;validators&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;field name="DepartmentCode"&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    &lt;field-validator type="requiredstring"&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      &lt;message key="DepartmentCode.required" /&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    &lt;/field-validator&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;/field&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;field name="Name"&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;field name="EmploymentType"&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;field name="Target"&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    &lt;field-validator type="int"&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      &lt;param name="min"&gt;1&lt;/param&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      &lt;param name="max"&gt;99&lt;/param&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;field name="Location"&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;field name="JodDetails"&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;field name="SkillCatalogCode"&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;field name="IndustryBackgroundCode"&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;field name="OpenDate"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;/validators&gt;</t>
-  </si>
-  <si>
-    <t>LoginAction-validation.xml</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF4B4B4B"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF800000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>validators</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF4B4B4B"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF4B4B4B"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF4B4B4B"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF800000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>validator </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>name</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF4B4B4B"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>="required"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF4B4B4B"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>class</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF4B4B4B"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>="com.opensymphony.xwork2.validator.validators.RequiredFieldValidator"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF4B4B4B"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF4B4B4B"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF4B4B4B"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF800000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>validator </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>name</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF4B4B4B"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>="requiredstring"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF4B4B4B"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>class</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF4B4B4B"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>="com.opensymphony.xwork2.validator.validators.RequiredStringValidator"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF4B4B4B"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF4B4B4B"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF4B4B4B"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF800000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>validator </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>name</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF4B4B4B"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>="int"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF4B4B4B"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>class</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF4B4B4B"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>="com.opensymphony.xwork2.validator.validators.IntRangeFieldValidator"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF4B4B4B"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF4B4B4B"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF4B4B4B"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF800000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>validator </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>name</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF4B4B4B"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>="double"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF4B4B4B"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>class</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF4B4B4B"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>="com.opensymphony.xwork2.validator.validators.DoubleRangeFieldValidator"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF4B4B4B"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF4B4B4B"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF4B4B4B"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF800000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>validator </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>name</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF4B4B4B"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>="date"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF4B4B4B"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>class</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF4B4B4B"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>="com.opensymphony.xwork2.validator.validators.DateRangeFieldValidator"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF4B4B4B"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF4B4B4B"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF4B4B4B"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF800000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>validator </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>name</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF4B4B4B"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>="expression"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF4B4B4B"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>class</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF4B4B4B"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>="com.opensymphony.xwork2.validator.validators.ExpressionValidator"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF4B4B4B"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF4B4B4B"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF4B4B4B"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF800000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>validator </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>name</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF4B4B4B"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>="fieldexpression"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF4B4B4B"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>class</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF4B4B4B"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>="com.opensymphony.xwork2.validator.validators.FieldExpressionValidator"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF4B4B4B"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF4B4B4B"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF4B4B4B"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF800000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>validator </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>name</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF4B4B4B"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>="email"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF4B4B4B"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>class</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF4B4B4B"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>="com.opensymphony.xwork2.validator.validators.EmailValidator"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF4B4B4B"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF4B4B4B"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF4B4B4B"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF800000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>validator </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>name</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF4B4B4B"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>="url"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF4B4B4B"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>class</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF4B4B4B"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>="com.opensymphony.xwork2.validator.validators.URLValidator"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF4B4B4B"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF4B4B4B"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF4B4B4B"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF800000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>validator </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>name</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF4B4B4B"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>="visitor"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF4B4B4B"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>class</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF4B4B4B"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>="com.opensymphony.xwork2.validator.validators.VisitorFieldValidator"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF4B4B4B"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF4B4B4B"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF4B4B4B"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF800000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>validator </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>name</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF4B4B4B"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>="conversion"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF4B4B4B"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>class</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF4B4B4B"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>="com.opensymphony.xwork2.validator.validators.ConversionErrorFieldValidator"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF4B4B4B"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF4B4B4B"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF4B4B4B"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF800000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>validator </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>name</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF4B4B4B"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>="stringlength"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF4B4B4B"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>class</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF4B4B4B"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>="com.opensymphony.xwork2.validator.validators.StringLengthFieldValidator"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF4B4B4B"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF4B4B4B"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF4B4B4B"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF800000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>validator </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>name</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF4B4B4B"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>="regex"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF4B4B4B"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>class</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF4B4B4B"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>="com.opensymphony.xwork2.validator.validators.RegexFieldValidator"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF4B4B4B"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF4B4B4B"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>&lt;/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF4B4B4B"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF800000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>validators</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF4B4B4B"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>&gt;</t>
-    </r>
-  </si>
-  <si>
-    <t>参考:Struts2内置的验证类型</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+      <t>3.3</t>
+    </r>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="40">
+  <fonts count="41">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5331,6 +5339,13 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -5716,11 +5731,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -5735,55 +5747,61 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="23" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
+    <xf numFmtId="14" fontId="24" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="20" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="21" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -5798,55 +5816,55 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -5855,10 +5873,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -5867,19 +5885,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -6501,53 +6522,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>111</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>127</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="1000125" y="21145500"/>
-          <a:ext cx="6343650" cy="3219450"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="1">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
       <xdr:row>78</xdr:row>
@@ -6567,7 +6541,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
@@ -6614,7 +6588,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
@@ -6624,6 +6598,53 @@
         <a:xfrm>
           <a:off x="942975" y="25679400"/>
           <a:ext cx="4572000" cy="5953125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1000125" y="21145500"/>
+          <a:ext cx="6391275" cy="3219450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7943,10 +7964,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="D3:M75"/>
+  <dimension ref="D3:M76"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="AH58" sqref="AH58"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AN15" sqref="AN15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15" customHeight="1"/>
@@ -8004,8 +8025,8 @@
       </c>
     </row>
     <row r="20" spans="4:6" ht="15" customHeight="1">
-      <c r="F20" s="50" t="s">
-        <v>611</v>
+      <c r="F20" s="55" t="s">
+        <v>655</v>
       </c>
     </row>
     <row r="22" spans="4:6" ht="15" customHeight="1">
@@ -8162,8 +8183,16 @@
         <v>610</v>
       </c>
     </row>
+    <row r="76" spans="6:13" ht="15" customHeight="1">
+      <c r="F76" s="56" t="s">
+        <v>653</v>
+      </c>
+      <c r="M76" s="55" t="s">
+        <v>654</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="21" type="noConversion"/>
+  <phoneticPr fontId="22" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -8185,7 +8214,7 @@
   <sheetData>
     <row r="3" spans="4:6" ht="18">
       <c r="D3" s="5" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="5" spans="4:6">
@@ -8799,7 +8828,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="21" type="noConversion"/>
+  <phoneticPr fontId="22" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -9528,7 +9557,7 @@
       <c r="AQ35" s="21"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="21" type="noConversion"/>
+  <phoneticPr fontId="22" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -10174,7 +10203,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="21" type="noConversion"/>
+  <phoneticPr fontId="22" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -10184,7 +10213,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="D3:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
@@ -10195,106 +10224,106 @@
   <sheetData>
     <row r="3" spans="4:7">
       <c r="D3" s="1" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="16" spans="4:7">
       <c r="G16" s="50" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="17" spans="7:9">
       <c r="G17" s="50" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="18" spans="7:9">
       <c r="G18" s="50" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="22" spans="7:9">
       <c r="G22" s="52" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="24" spans="7:9">
       <c r="I24" s="53" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="25" spans="7:9">
       <c r="I25" s="54" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="26" spans="7:9">
       <c r="I26" s="54" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="27" spans="7:9">
       <c r="I27" s="54" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="28" spans="7:9">
       <c r="I28" s="54" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="29" spans="7:9">
       <c r="I29" s="54" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="30" spans="7:9">
       <c r="I30" s="54" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="31" spans="7:9">
       <c r="I31" s="54" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="32" spans="7:9">
       <c r="I32" s="54" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="33" spans="9:9">
       <c r="I33" s="54" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="34" spans="9:9">
       <c r="I34" s="54" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="35" spans="9:9">
       <c r="I35" s="54" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="36" spans="9:9">
       <c r="I36" s="54" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="37" spans="9:9">
       <c r="I37" s="54" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="38" spans="9:9">
       <c r="I38" s="53" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="21" type="noConversion"/>
+  <phoneticPr fontId="22" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -10313,282 +10342,282 @@
   <sheetData>
     <row r="6" spans="7:9" s="50" customFormat="1" ht="16.5">
       <c r="G6" s="52" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="7" spans="7:9" s="50" customFormat="1" ht="16.5"/>
     <row r="8" spans="7:9" s="50" customFormat="1" ht="16.5">
       <c r="I8" s="50" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="9" spans="7:9" s="50" customFormat="1" ht="16.5">
       <c r="I9" s="50" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="10" spans="7:9" s="50" customFormat="1" ht="16.5">
       <c r="I10" s="50" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="11" spans="7:9" s="50" customFormat="1" ht="16.5">
       <c r="I11" s="50" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="12" spans="7:9" s="50" customFormat="1" ht="16.5">
       <c r="I12" s="50" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="13" spans="7:9" s="50" customFormat="1" ht="16.5">
       <c r="I13" s="50" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="14" spans="7:9" s="50" customFormat="1" ht="16.5">
       <c r="I14" s="50" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="15" spans="7:9" s="50" customFormat="1" ht="16.5">
       <c r="I15" s="50" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="16" spans="7:9" s="50" customFormat="1" ht="16.5">
       <c r="I16" s="50" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="17" spans="9:9" s="50" customFormat="1" ht="16.5">
       <c r="I17" s="50" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="18" spans="9:9" s="50" customFormat="1" ht="16.5">
       <c r="I18" s="50" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="19" spans="9:9" s="50" customFormat="1" ht="16.5">
       <c r="I19" s="50" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="20" spans="9:9" s="50" customFormat="1" ht="16.5">
       <c r="I20" s="50" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="21" spans="9:9" s="50" customFormat="1" ht="16.5">
       <c r="I21" s="50" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="22" spans="9:9" s="50" customFormat="1" ht="16.5">
       <c r="I22" s="50" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="23" spans="9:9" s="50" customFormat="1" ht="16.5">
       <c r="I23" s="50" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="24" spans="9:9" s="50" customFormat="1" ht="16.5">
       <c r="I24" s="50" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="25" spans="9:9" s="50" customFormat="1" ht="16.5">
       <c r="I25" s="50" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="26" spans="9:9" s="50" customFormat="1" ht="16.5">
       <c r="I26" s="50" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="27" spans="9:9" s="50" customFormat="1" ht="16.5">
       <c r="I27" s="50" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="28" spans="9:9" s="50" customFormat="1" ht="16.5">
       <c r="I28" s="50" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="29" spans="9:9" s="50" customFormat="1" ht="16.5">
       <c r="I29" s="50" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="30" spans="9:9" s="50" customFormat="1" ht="16.5">
       <c r="I30" s="50" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="31" spans="9:9" s="50" customFormat="1" ht="16.5">
       <c r="I31" s="50" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="32" spans="9:9" s="50" customFormat="1" ht="16.5">
       <c r="I32" s="50" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="33" spans="9:9" s="50" customFormat="1" ht="16.5">
       <c r="I33" s="50" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="34" spans="9:9" s="50" customFormat="1" ht="16.5">
       <c r="I34" s="50" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="35" spans="9:9" s="50" customFormat="1" ht="16.5">
       <c r="I35" s="50" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="36" spans="9:9" s="50" customFormat="1" ht="16.5">
       <c r="I36" s="50" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="37" spans="9:9" s="50" customFormat="1" ht="16.5">
       <c r="I37" s="50" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="38" spans="9:9" s="50" customFormat="1" ht="16.5">
       <c r="I38" s="50" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="39" spans="9:9" s="50" customFormat="1" ht="16.5">
       <c r="I39" s="50" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="40" spans="9:9" s="50" customFormat="1" ht="16.5">
       <c r="I40" s="50" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="41" spans="9:9" s="50" customFormat="1" ht="16.5">
       <c r="I41" s="50" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="42" spans="9:9" s="50" customFormat="1" ht="16.5">
       <c r="I42" s="50" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="43" spans="9:9" s="50" customFormat="1" ht="16.5">
       <c r="I43" s="50" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="44" spans="9:9" s="50" customFormat="1" ht="16.5">
       <c r="I44" s="50" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="45" spans="9:9" s="50" customFormat="1" ht="16.5">
       <c r="I45" s="50" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="46" spans="9:9" s="50" customFormat="1" ht="16.5">
       <c r="I46" s="50" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="47" spans="9:9" s="50" customFormat="1" ht="16.5">
       <c r="I47" s="50" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="48" spans="9:9" s="50" customFormat="1" ht="16.5">
       <c r="I48" s="50" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="49" spans="9:9" s="50" customFormat="1" ht="16.5">
       <c r="I49" s="50" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="50" spans="9:9" s="50" customFormat="1" ht="16.5">
       <c r="I50" s="50" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="51" spans="9:9" s="50" customFormat="1" ht="16.5">
       <c r="I51" s="50" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="52" spans="9:9" s="50" customFormat="1" ht="16.5">
       <c r="I52" s="50" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="53" spans="9:9" s="50" customFormat="1" ht="16.5">
       <c r="I53" s="50" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="54" spans="9:9" s="50" customFormat="1" ht="16.5">
       <c r="I54" s="50" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="55" spans="9:9" s="50" customFormat="1" ht="16.5">
       <c r="I55" s="50" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="56" spans="9:9" s="50" customFormat="1" ht="16.5">
       <c r="I56" s="50" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="57" spans="9:9" s="50" customFormat="1" ht="16.5">
       <c r="I57" s="50" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="58" spans="9:9" s="50" customFormat="1" ht="16.5">
       <c r="I58" s="50" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="59" spans="9:9" s="50" customFormat="1" ht="16.5">
       <c r="I59" s="50" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="60" spans="9:9" s="50" customFormat="1" ht="16.5">
       <c r="I60" s="50" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="61" spans="9:9" s="50" customFormat="1" ht="16.5">
       <c r="I61" s="50" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="21" type="noConversion"/>
+  <phoneticPr fontId="22" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10642,7 +10671,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="21" type="noConversion"/>
+  <phoneticPr fontId="22" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -10678,7 +10707,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="21" type="noConversion"/>
+  <phoneticPr fontId="22" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -10772,7 +10801,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="21" type="noConversion"/>
+  <phoneticPr fontId="22" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -11026,7 +11055,7 @@
       <c r="D126" s="5"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="21" type="noConversion"/>
+  <phoneticPr fontId="22" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -11037,8 +11066,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="D3:S230"/>
   <sheetViews>
-    <sheetView topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="AH144" sqref="AH144"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AU122" sqref="AU122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15" customHeight="1"/>
@@ -11485,7 +11514,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="21" type="noConversion"/>
+  <phoneticPr fontId="22" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I22:I28">
       <formula1>$AE$4:$AE$9</formula1>
@@ -11598,7 +11627,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="21" type="noConversion"/>
+  <phoneticPr fontId="22" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -11917,7 +11946,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="21" type="noConversion"/>
+  <phoneticPr fontId="22" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -12827,7 +12856,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="21" type="noConversion"/>
+  <phoneticPr fontId="22" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -13091,7 +13120,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="21" type="noConversion"/>
+  <phoneticPr fontId="22" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -13101,7 +13130,7 @@
   <dimension ref="D3:F108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AI23" sqref="AI23"/>
+      <selection activeCell="AK23" sqref="AK23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5"/>
@@ -13713,7 +13742,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="21" type="noConversion"/>
+  <phoneticPr fontId="22" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -13984,7 +14013,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="21" type="noConversion"/>
+  <phoneticPr fontId="22" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/DevKit/Help/开发辅助工具使用手册.xlsx
+++ b/DevKit/Help/开发辅助工具使用手册.xlsx
@@ -15,143 +15,144 @@
     <sheet name="自动生成代码示例(ASP.NET MVC5)" sheetId="5" r:id="rId6"/>
     <sheet name="自动生成代码示例(C#枚举)" sheetId="12" r:id="rId7"/>
     <sheet name="自动生成代码示例(Spring)" sheetId="11" r:id="rId8"/>
-    <sheet name="CreateOrEdit页面" sheetId="13" r:id="rId9"/>
-    <sheet name="自动生成代码示例（CreateOrEdit）" sheetId="14" r:id="rId10"/>
-    <sheet name="数据表结构生成" sheetId="7" r:id="rId11"/>
-    <sheet name="Struts2路由" sheetId="8" r:id="rId12"/>
-    <sheet name="Struts2验证" sheetId="16" r:id="rId13"/>
-    <sheet name="LoginAction-validation.xml" sheetId="17" r:id="rId14"/>
-    <sheet name="Native2ASCII" sheetId="6" r:id="rId15"/>
-    <sheet name="代码片断" sheetId="9" r:id="rId16"/>
-    <sheet name="MVC5开发" sheetId="10" r:id="rId17"/>
+    <sheet name="自动生成代码示例(JFinal)" sheetId="18" r:id="rId9"/>
+    <sheet name="CreateOrEdit页面" sheetId="13" r:id="rId10"/>
+    <sheet name="自动生成代码示例（CreateOrEdit）" sheetId="14" r:id="rId11"/>
+    <sheet name="数据表结构生成" sheetId="7" r:id="rId12"/>
+    <sheet name="Struts2路由" sheetId="8" r:id="rId13"/>
+    <sheet name="Struts2验证" sheetId="16" r:id="rId14"/>
+    <sheet name="LoginAction-validation.xml" sheetId="17" r:id="rId15"/>
+    <sheet name="Native2ASCII" sheetId="6" r:id="rId16"/>
+    <sheet name="代码片断" sheetId="9" r:id="rId17"/>
+    <sheet name="MVC5开发" sheetId="10" r:id="rId18"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="884" uniqueCount="656">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1015" uniqueCount="756">
   <si>
     <t>目的</t>
   </si>
   <si>
     <t>通过使用工具，提高工作效率，防止手工编码的低级错误，消减代码复查的工作时间。</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>工程</t>
   </si>
   <si>
     <t>新建工程</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>菜单 -&gt; 文件 -&gt; 新建工程</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>*暂时请不要使用Java</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>项目名称：</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>这个项目的名字，可以是任意文字</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>命名空间</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>新建工程后，系统将自动添加以下文件夹</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>\Model\Document</t>
   </si>
   <si>
     <t>数据模型设计书</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>\Model\SourceCode</t>
   </si>
   <si>
     <t>数据模型代码</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>枚举代码文件夹</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>*枚举代码文件夹中的文件将在枚举中介绍</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>同时，系统会生成 Project.xml文件</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>打开工程</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>菜单 -&gt; 文件 -&gt; 打开工程</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>数据模型</t>
   </si>
   <si>
     <t>工具通过将设计书直接转化为Model代码的方式，使得数据模型的编码环节做到自动化。</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>设计人员只需要填写完数据设计式样书，则工具可以完成代码的自动生成。</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>基本</t>
   </si>
   <si>
     <t>No</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>属性名</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>元数据类型</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>枚举类型</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>显示名称</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>编号，暂时没有什么作用</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>Model的变量名称，请使用符合C#变量名称的字符串</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>枚举类型的完整类型名称</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>这个项目在Web页显示时候的名称</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>校验</t>
@@ -161,197 +162,197 @@
   </si>
   <si>
     <t>是否为必须项目</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>错误信息</t>
   </si>
   <si>
     <t>错误信息</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>数值范围</t>
   </si>
   <si>
     <t>最大值</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>最小值</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>字符串长度</t>
   </si>
   <si>
     <t>模式</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>正则表达式</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>格式</t>
   </si>
   <si>
     <t>使用类型</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>显示模式</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>这个字段在使用的时候的类型，例如电子邮件，电话号码</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>这个字段在表示模式的时候，如何显示。</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>版本控制</t>
   </si>
   <si>
     <t>省略</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>项目是ID这样的，不希望直接被页面编辑的项目。</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>编号项目（布尔型）</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>是/否（布尔型）</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>*填写的时候，如果是 （布尔型） 的填写项，请在格子里面填写任意字符表示选中。</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>代码的生成</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>将设计书放在Document文件夹下，选择 菜单 -&gt; 工程 -&gt; 生成所有模型代码  系统将自动重新生成所有的代码。</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>生成的代码直接可以给VS使用，作为生成View的数据源头。</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>注意：Language这样的枚举，VS无法自动生成代码，需要手动添加</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>同时，旗标类型的枚举，需要其他的代码的配合，这个在枚举中介绍。</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>枚举类型分为普通枚举和旗标枚举</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>普通枚举：一个变量值只可能有一种枚举状态，则使用普通枚举。</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>旗标枚举：一个变量可能同时存在多种枚举状态，则使用旗标枚举。</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>例如：小明 同时会 日语 和 英语 ，则语言就是一个旗标枚举。</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>例如：如果一家超市，每周只有一天休息，则星期几休息就是一个一般枚举。</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>枚举</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>枚举类型</t>
   </si>
   <si>
     <t>数据模型设计书项目说明</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>枚举设计书项目说明</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>枚举名称：</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>Flag型  (布尔型）</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>是否为旗标枚举</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>枚举量</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>这个枚举的名称，必须符合C#变量名规则</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>表示某个枚举的变量，必须符合C#变量名规则</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>枚举显示名</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>枚举在画面上显示的名字</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>枚举值</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>枚举在系统内部的名字</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>Enum附加代码</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>VS系统将会把Enum类型作为数字处理，如果需要在画面显示的时候，将普通枚举作为下拉列表，旗标枚举作为多个复选框，</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>请将新建工程时候的Enum文件夹下面的代码放入VS的项目中。</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>Enum辅助代码</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>旗标枚举的模板</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>普通枚举的模板</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>using System;</t>
@@ -397,67 +398,67 @@
   </si>
   <si>
     <t>界面说明</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>适用范围</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>工具环境</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>版本情报</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>如果你只需要生成一个模型,则可以使用 菜单 -&gt; 工具 -&gt; 生成数据模型来生成指定数据模型.</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>允许的最大值</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>允许的最小值</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>允许的最大字符串长度</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>允许的最小字符串长度</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>(系统在编辑的时候,将通过浏览器内置的html5功能检查输入是否合法)</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>工具</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>指定枚举设计文档和源代码保存路径后,即可生成代码.</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>菜单 -&gt; 工具 -&gt; 生成枚举代码</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>目标计划</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>Java 系 Spring MVC4 JSR-349 验证标准的完善.</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>数据模型(Spring)</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>package HRSystemOnline;</t>
@@ -1024,97 +1025,97 @@
   </si>
   <si>
     <t>数据模型(ASP.NET)</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>Native2ASCII</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>Java中的Property文档,需要将本地语言转为机器语言,这个工具能够自动转换单个字符串.</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>菜单 -&gt; 工具 -&gt; Native2ASCII</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>变更履历</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>2014/12/19</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>增加了Native AscII 工具</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>这里支持 Native -&gt; ASCII 和 ASCII -&gt; Native 的双向转换.</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>请在Native或者ASCII里面填入内容.系统将自动判断转换方向.</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>如果需要批量转换,请先在Excel里填写好转换内容,再执行批量转换</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>*批量转换也支持双向转换,请按照需求填写内容.系统将自动转换直到 No 列为空.</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>2014/12/22</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>增加了Struts2的数据验证处理</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>2014/12/23</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>增加MySql建表语句功能</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>项目的NameSpace，以后生成的Model的命名空间会是 NameSpace.Models(.NET),Java的Package名称也在这里设定</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>数据表结构生成</t>
   </si>
   <si>
     <t>在数据设计书编辑后,可以通过工具自动生成数据库的CreateTable语句.</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>MySql篇</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>字符串</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>varchar</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>需要长度提示</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>整型</t>
   </si>
   <si>
     <t>int</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>布尔值</t>
@@ -1124,7 +1125,7 @@
   </si>
   <si>
     <t>日期(包含时间)</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>datetime</t>
@@ -1134,15 +1135,15 @@
   </si>
   <si>
     <t>*暂时默认有且只有一个主键,主键是数字自增主健.</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>&lt;考虑到旗标型枚举,所以将类型定义扩大为smallint.&gt;</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>自动生成代码示例</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>DROP TABLE IF EXISTS `test`.`Candidate`;</t>
@@ -1188,26 +1189,26 @@
   </si>
   <si>
     <t>增加 Struts2路由编辑</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>Struts2路由</t>
   </si>
   <si>
     <t>通过读取Excel文档自动生成Struts的路由配置部分内容.</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>菜单 -&gt; 工具 -&gt; Struts2路由</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>读入文件格式如下</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>生成文件</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>&lt;struts&gt;</t>
@@ -1262,38 +1263,38 @@
   </si>
   <si>
     <t>这里只是Struts的路由部分的配置,在实际使用中,需要进行一些修改.</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>2015/1/4</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>增加代码片断功能</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>代码片断</t>
   </si>
   <si>
     <t>将一些常用的代码或者知识,收集到一起,便于以后查阅和使用.</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>检索功能支持标题和描述,Tag检索</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>2015/1/30</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>增强了数据模型定义</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>EnumExtention.cs</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1309,7 +1310,7 @@
       </rPr>
       <t>\SourceCode</t>
     </r>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1335,19 +1336,19 @@
       </rPr>
       <t>\Document</t>
     </r>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>\Enum\ExtendSourceCode</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>枚举辅助代码</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>EnumDisplayNameAttribute.cs</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1363,23 +1364,23 @@
       </rPr>
       <t>isplayName属性代码</t>
     </r>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>放置在数据模型代码工程中</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>放置于\WebSite\Views\Shared\EditorTemplates中</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>Enum具体的编码</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>先确保所有的Enum附加代码放置在正确的文件夹,并且添加了适当的引用</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1425,15 +1426,15 @@
       </rPr>
       <t>,需要手动添加.</t>
     </r>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>添加的形式则和普通的字段一样.</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>Create视图的时候,请保证设定一个New过的模型到ViewData.Model,不然会发生Null引用错误.</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">        public ActionResult Create()</t>
@@ -1455,19 +1456,19 @@
       </rPr>
       <t>new Interview();</t>
     </r>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>EnumFlags.cs</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>Enum.cs</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>代码通过 UIHint属性来控制 字段使用的模板,所以自动生成的代码应该象这个样子:</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">            /// &lt;summary&gt;</t>
@@ -1531,11 +1532,11 @@
   </si>
   <si>
     <t>名字空间</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>该枚举的名字空间</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1562,43 +1563,43 @@
       </rPr>
       <t>在Enum生成代码中,请注意.</t>
     </r>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>注意,系统将自动添加 "0:"字符,所以这里填写的时候不要添加 "0:"</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>MongoDB的时候,日期将使用Local模式</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>2015/2/3</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>增加了MongoDB的支持</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>如果名字空间不填写的话,这里将自动使用工程的名字空间</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>2015/2/4</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>增加了类描述</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>增加了复制所有代码到真实工程</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>增加了元数据类型:列表</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1624,19 +1625,19 @@
       </rPr>
       <t>中,需要添加EnumDisplayNameAttibute的命名空间</t>
     </r>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>基类</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>系统支持 CompanyTable,MasterTable两种扩展数据模型</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>MasterTable,继承了CompanyTable,同时带有 Name名称和Description描述字段</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>MasterTable.cs</t>
@@ -1655,135 +1656,135 @@
       </rPr>
       <t>代码</t>
     </r>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>有时候MVC5.0的Js下面的一些验证相关的JS会被误删除造成验证无效。</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>这个时候可以新建一个MVC5.0的工程，然后将Js下面的文件全部复制过去即可。</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>关于自动添加的字段</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>CollectionName:</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>Prefix</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>MvcTitle</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>用作画面标题的字符</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>数据表名称(附加一个静态方法)</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>数据编号的前缀(附加一个静态方法)</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>2015/2/5</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>增加了MvcTitle字段</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>MVC5开发</t>
   </si>
   <si>
     <t>业务模型的设计</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>MasterTable</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>数据模型</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>普通的数据</t>
   </si>
   <si>
     <t>CompanyTable</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>选项列表</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>提供Master数据</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>固定的Master数据</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>模板的修改</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>标准模板</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>C:\Program Files (x86)\Microsoft Visual Studio 12.0\Common7\IDE\Extensions\Microsoft\Web\Mvc\Scaffolding\Templates</t>
   </si>
   <si>
     <t>将标准模板导入到工程中,建立CodeTemplates目录,MVC本地优先级高于标准模板</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>将模板进行本地化,同时使用 MvcTitle(本工具为每个模型自动添加)这样的标题字段,填充相应位置</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>例:</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>&lt;h2&gt;@&lt;#= ViewDataTypeName#&gt;.MvcTitle 列表&lt;/h2&gt;</t>
   </si>
   <si>
     <t>注意,日期形式的时候,html5的Date控件要求格式必须是 yyyy-MM-dd所以这里进行强制设定</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>关于自动导出到MVC的约定</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">这里约定将 </t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">枚举放入  </t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">数据模型放入 </t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>Master表放在</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1809,7 +1810,7 @@
       </rPr>
       <t>文件夹，</t>
     </r>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1845,27 +1846,27 @@
       </rPr>
       <t>文件夹,</t>
     </r>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>Master 文件夹</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>2015/2/11</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>日期型数据在HTML5控件中无法表示的对应</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>增加了Master表自动名字修正功能</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>将Master表和Model表分割开来</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1891,7 +1892,7 @@
       </rPr>
       <t>\Document</t>
     </r>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1917,15 +1918,15 @@
       </rPr>
       <t>\SourceCode</t>
     </r>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>辅助表设计书</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>辅助表代码</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1951,31 +1952,31 @@
       </rPr>
       <t>的工程，而是管理设计文档的工程，或者是WorkSpace这样的一个概念。</t>
     </r>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>2015/2/26</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>增加了修改工程属性的功能</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>修改了一些Bug</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>修改工程</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>菜单 -&gt; 数据定义 -&gt; 修改工程</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>打开工程后可以通过修改工程菜单对工程属性进行修改</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1991,7 +1992,7 @@
       </rPr>
       <t>.系统将自动载入目录结构,更新文件.</t>
     </r>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>using MongoDB.Bson.Serialization.Attributes;</t>
@@ -2359,38 +2360,38 @@
   </si>
   <si>
     <t>2015/4/3</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>增加了CreateOrEdit的CSHTML文件的自动生成</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>CreateOrEdit页面</t>
   </si>
   <si>
     <t>虽然MVC有T4模板，但是，内置的T4模板无法满足定制的要求。</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>工具将自动根据模型生成CreateOrEdit页面的Cshtml文件</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>日期型</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>日期型控件封装了 jQuery UI 的 DateTime组件</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>辅助表型</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>辅助表分为单值和多值两种类型。单值在UI上表现为一个下拉列表框，多值表现为一组CheckBox</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>@model TalentInfo</t>
@@ -2580,85 +2581,85 @@
   </si>
   <si>
     <t>初始状态</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>展开后</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>单值类型</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>多值类型</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>约定：</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>这里约定多值类型的辅助表，列表的名称为 MasterTableName去掉"M_"前缀，加上 List后缀</t>
   </si>
   <si>
     <t>同时为了统一代码，列表名称尽可能和项目名称保持一致。</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>MasterTableName：</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>M_MarketBG</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">                @(HtmlUIHelper.GetMultiValueUI&lt;M_MarketBG&gt;("MarketBGList", ViewBag.MarketBGList, Model.MarketBGList))</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>ViewBag.MarketBGList</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>MarketBGList</t>
   </si>
   <si>
     <t>列表名称：</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>项目名称：</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>同时为了统一代码，项目名称尽可能和MasterTableName保持一致。</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">                @(HtmlUIHelper.GetSingleValueUI&lt;M_TechniqueBG&gt;("TechniqueBG", ViewBag.TechniqueBGList, Model.TechniqueBG))</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>M_TechniqueBG</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>ViewBag.TechniqueBGList</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>TechniqueBG</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>布尔型</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>布尔型在实际使用时候，需要进行一些手工美化</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2684,70 +2685,70 @@
       </rPr>
       <t>）。</t>
     </r>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>辅助表</t>
   </si>
   <si>
     <t>辅助表（MasterTable）里面存放着一些序列。当我们输入数据的时候，为了便利性和防止输入错误，</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>我们将一些项目可能出现的值，以表格的形式保存起来，输入的时候，不能自由填写，只能从列表里面选择。</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>这样的列表是一种辅助性质的列表，所以我们约定称为辅助表。</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>辅助表中包含了一种专门用来表示状态的辅助表，我们称为状态辅助表。</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>这种表格能够定义数据的表示颜色，表示顺序，是对于辅助表的一种扩展。</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>辅助表和枚举</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>辅助表和枚举的区别是：枚举用户相对稳定的序列，例如一年四季的序列，HTTP的状态。</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>辅助表则是用于更新比较频繁的序列，当然，可以将枚举也看成一种辅助表。</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>在编码上，枚举可能更便利，辅助表在各种封装方法的帮助下，也可以做到很简洁。</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>另外，辅助表可以使用缓存系统进行加速，提高性能，枚举则完全在编译的时候变成程序的一部分，无需缓存。</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>约定</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>这里约定辅助表（MasterTable）以 "M_"为前缀</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>整个系统很大程度上需要各种辅助表的支持。对于停止使用的Master表，可以设置为 不启用</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>辅助表可以用在单个值的选取上，例如状态的选取，可以用在多个值得选取上，例如技能的选取。</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>带有评价的多项目</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2763,47 +2764,47 @@
       </rPr>
       <t>辅助表，辅助评价表</t>
     </r>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>列表型</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>可以设定元数据是不是List型。辅助评价表暂时只支持列表型</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>Flg</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>Flg分为Skip和Hidden两种，</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>Skip 将被系统忽略，如果该项目不需要了，但是又想保留完整履历，可以将项目设置为Skip</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>Hidden 标记一个项目为Hidden类型，例如ID这种自动设定的项目，就因该设置为Hidden</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>同时确认一下代码中是否添加了这些JS的引用。</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>关于验证失效的问题</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>数据模型可以在VS中在T4模板的作用在直接生成UI界面。</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>本工具也提供了功能更加强大的UI生成模块。</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2839,15 +2840,15 @@
       </rPr>
       <t>和报表界面.</t>
     </r>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>2015/4/13</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>Filter特性的追加</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2893,7 +2894,7 @@
       </rPr>
       <t>编号,Code项目编号主键</t>
     </r>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2909,23 +2910,23 @@
       </rPr>
       <t>Organization</t>
     </r>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>Organization.cs</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>Organization代码</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>在多个值的选取上，还可以支持五个级别的等级的选取。（参考：CreateOrEdit页面：带有评价的多项目）</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>如果列表还带有分类的话,可以使用CatalogMasterTable</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>using InfraStructure;</t>
@@ -3498,15 +3499,1799 @@
   </si>
   <si>
     <t>ASP.NET MVC5的诸多功能,需要InfraStructure这个DLL的支持.数据库暂时支持无需ORM的MongoDB.</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>.Net Framework 4.5</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">ASP.NET MVC5 ,Spring MVC4 </t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015/6/26</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>强化了Struts2的数据验证处理</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">CreateOrEdit - ASP.NET MVC5 </t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>Struts2验证</t>
+  </si>
+  <si>
+    <t>通过读取验证设定文档,自动生成Struts2使用的Action单位的验证用XML.</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证设定文档和前面的ASP.NET MVC文档结构一致.</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>同时支持内联和外置两种错误信息表示方式.</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;?xml version="1.0" encoding="utf-8"?&gt;</t>
+  </si>
+  <si>
+    <t>&lt;!DOCTYPE validators PUBLIC "-//OpenSymphony Group//XWork Validator 1.0.2//EN" "http://struts.apache.org/dtds/xwork-validator-1.0.2.dtd"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;validators&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;field name="DepartmentCode"&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;field-validator type="requiredstring"&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      &lt;message key="DepartmentCode.required" /&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;/field-validator&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;/field&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;field name="Name"&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;field name="EmploymentType"&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;field name="Target"&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;field-validator type="int"&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      &lt;param name="min"&gt;1&lt;/param&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      &lt;param name="max"&gt;99&lt;/param&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;field name="Location"&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;field name="JodDetails"&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;field name="SkillCatalogCode"&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;field name="IndustryBackgroundCode"&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;field name="OpenDate"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/validators&gt;</t>
+  </si>
+  <si>
+    <t>LoginAction-validation.xml</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>validators</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>validator </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>="required"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>="com.opensymphony.xwork2.validator.validators.RequiredFieldValidator"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>validator </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>="requiredstring"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>="com.opensymphony.xwork2.validator.validators.RequiredStringValidator"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>validator </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>="int"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>="com.opensymphony.xwork2.validator.validators.IntRangeFieldValidator"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>validator </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>="double"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>="com.opensymphony.xwork2.validator.validators.DoubleRangeFieldValidator"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>validator </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>="date"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>="com.opensymphony.xwork2.validator.validators.DateRangeFieldValidator"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>validator </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>="expression"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>="com.opensymphony.xwork2.validator.validators.ExpressionValidator"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>validator </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>="fieldexpression"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>="com.opensymphony.xwork2.validator.validators.FieldExpressionValidator"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>validator </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>="email"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>="com.opensymphony.xwork2.validator.validators.EmailValidator"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>validator </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>="url"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>="com.opensymphony.xwork2.validator.validators.URLValidator"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>validator </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>="visitor"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>="com.opensymphony.xwork2.validator.validators.VisitorFieldValidator"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>validator </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>="conversion"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>="com.opensymphony.xwork2.validator.validators.ConversionErrorFieldValidator"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>validator </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>="stringlength"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>="com.opensymphony.xwork2.validator.validators.StringLengthFieldValidator"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>validator </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>="regex"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>="com.opensymphony.xwork2.validator.validators.RegexFieldValidator"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>validators</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>参考:Struts2内置的验证类型</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015/7/10</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spring代码中HibernateORM的加入</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015/7/24</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>J</t>
     </r>
     <r>
       <rPr>
@@ -3516,7 +5301,17 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>,Struts2</t>
+      <t>ava的属性中,布尔型的 getXXX -&gt; isXXX</t>
+    </r>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015/11/20</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>J</t>
     </r>
     <r>
       <rPr>
@@ -3526,1793 +5321,44 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>。</t>
-    </r>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t>2015/6/26</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t>强化了Struts2的数据验证处理</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">CreateOrEdit - ASP.NET MVC5 </t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t>Struts2验证</t>
-  </si>
-  <si>
-    <t>通过读取验证设定文档,自动生成Struts2使用的Action单位的验证用XML.</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t>验证设定文档和前面的ASP.NET MVC文档结构一致.</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t>同时支持内联和外置两种错误信息表示方式.</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;?xml version="1.0" encoding="utf-8"?&gt;</t>
-  </si>
-  <si>
-    <t>&lt;!DOCTYPE validators PUBLIC "-//OpenSymphony Group//XWork Validator 1.0.2//EN" "http://struts.apache.org/dtds/xwork-validator-1.0.2.dtd"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;validators&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;field name="DepartmentCode"&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    &lt;field-validator type="requiredstring"&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      &lt;message key="DepartmentCode.required" /&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    &lt;/field-validator&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;/field&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;field name="Name"&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;field name="EmploymentType"&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;field name="Target"&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    &lt;field-validator type="int"&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      &lt;param name="min"&gt;1&lt;/param&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      &lt;param name="max"&gt;99&lt;/param&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;field name="Location"&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;field name="JodDetails"&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;field name="SkillCatalogCode"&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;field name="IndustryBackgroundCode"&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;field name="OpenDate"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;/validators&gt;</t>
-  </si>
-  <si>
-    <t>LoginAction-validation.xml</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF4B4B4B"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF800000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>validators</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF4B4B4B"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF4B4B4B"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF4B4B4B"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF800000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>validator </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>name</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF4B4B4B"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>="required"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF4B4B4B"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>class</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF4B4B4B"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>="com.opensymphony.xwork2.validator.validators.RequiredFieldValidator"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF4B4B4B"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF4B4B4B"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF4B4B4B"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF800000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>validator </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>name</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF4B4B4B"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>="requiredstring"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF4B4B4B"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>class</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF4B4B4B"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>="com.opensymphony.xwork2.validator.validators.RequiredStringValidator"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF4B4B4B"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF4B4B4B"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF4B4B4B"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF800000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>validator </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>name</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF4B4B4B"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>="int"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF4B4B4B"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>class</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF4B4B4B"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>="com.opensymphony.xwork2.validator.validators.IntRangeFieldValidator"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF4B4B4B"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF4B4B4B"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF4B4B4B"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF800000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>validator </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>name</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF4B4B4B"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>="double"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF4B4B4B"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>class</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF4B4B4B"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>="com.opensymphony.xwork2.validator.validators.DoubleRangeFieldValidator"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF4B4B4B"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF4B4B4B"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF4B4B4B"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF800000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>validator </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>name</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF4B4B4B"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>="date"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF4B4B4B"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>class</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF4B4B4B"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>="com.opensymphony.xwork2.validator.validators.DateRangeFieldValidator"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF4B4B4B"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF4B4B4B"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF4B4B4B"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF800000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>validator </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>name</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF4B4B4B"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>="expression"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF4B4B4B"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>class</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF4B4B4B"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>="com.opensymphony.xwork2.validator.validators.ExpressionValidator"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF4B4B4B"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF4B4B4B"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF4B4B4B"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF800000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>validator </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>name</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF4B4B4B"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>="fieldexpression"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF4B4B4B"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>class</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF4B4B4B"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>="com.opensymphony.xwork2.validator.validators.FieldExpressionValidator"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF4B4B4B"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF4B4B4B"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF4B4B4B"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF800000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>validator </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>name</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF4B4B4B"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>="email"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF4B4B4B"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>class</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF4B4B4B"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>="com.opensymphony.xwork2.validator.validators.EmailValidator"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF4B4B4B"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF4B4B4B"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF4B4B4B"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF800000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>validator </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>name</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF4B4B4B"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>="url"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF4B4B4B"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>class</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF4B4B4B"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>="com.opensymphony.xwork2.validator.validators.URLValidator"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF4B4B4B"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF4B4B4B"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF4B4B4B"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF800000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>validator </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>name</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF4B4B4B"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>="visitor"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF4B4B4B"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>class</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF4B4B4B"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>="com.opensymphony.xwork2.validator.validators.VisitorFieldValidator"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF4B4B4B"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF4B4B4B"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF4B4B4B"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF800000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>validator </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>name</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF4B4B4B"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>="conversion"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF4B4B4B"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>class</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF4B4B4B"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>="com.opensymphony.xwork2.validator.validators.ConversionErrorFieldValidator"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF4B4B4B"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF4B4B4B"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF4B4B4B"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF800000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>validator </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>name</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF4B4B4B"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>="stringlength"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF4B4B4B"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>class</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF4B4B4B"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>="com.opensymphony.xwork2.validator.validators.StringLengthFieldValidator"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF4B4B4B"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF4B4B4B"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF4B4B4B"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF800000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>validator </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>name</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF4B4B4B"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>="regex"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF4B4B4B"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>class</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF4B4B4B"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>="com.opensymphony.xwork2.validator.validators.RegexFieldValidator"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF4B4B4B"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF4B4B4B"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>&lt;/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF4B4B4B"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF800000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>validators</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF4B4B4B"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>&gt;</t>
-    </r>
-  </si>
-  <si>
-    <t>参考:Struts2内置的验证类型</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t>2015/7/10</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t>Spring代码中HibernateORM的加入</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Ver 0.0.</t>
+      <t>final的Model代码生成功能的加入</t>
+    </r>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015/11/25</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>修正了Java中没有DateTime类型的BUG</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>SQL文做成的时候,添加了Schema的填写,修正了没有主键时候SQL错误</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据模型(JFinal)</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>package dao;</t>
+  </si>
+  <si>
+    <t>import java.util.List;</t>
+  </si>
+  <si>
+    <t>import java.util.Map;</t>
+  </si>
+  <si>
+    <t>import com.jfinal.plugin.activerecord.Model;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    private static final long serialVersionUID = 1L;</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ASP.NET MVC5 ,Spring MVC4 </t>
     </r>
     <r>
       <rPr>
@@ -5322,16 +5368,312 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>3.3</t>
-    </r>
-    <phoneticPr fontId="22" type="noConversion"/>
+      <t>,Struts2,JFinal。</t>
+    </r>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>J</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>final的简单ORM</t>
+    </r>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>import java.util.ArrayList;</t>
+  </si>
+  <si>
+    <t>import java.util.Map.Entry;</t>
+  </si>
+  <si>
+    <t>import java.util.HashMap;</t>
+  </si>
+  <si>
+    <t>public class student extends Model&lt;student&gt; {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    public static student dao = new student();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    //主键</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    public static final String KEY_ID = "id";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    public void setid(Integer id){</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        set(KEY_ID, id);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    public Integer getid(){</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        return getInt(KEY_ID);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    //学年</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    public static final String KEY_SCHOOLYEAR = "schoolYear";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    public void setschoolYear(Integer schoolYear){</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        set(KEY_SCHOOLYEAR, schoolYear);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    public Integer getschoolYear(){</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        return getInt(KEY_SCHOOLYEAR);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    //学籍号码</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    public static final String KEY_STUDENTIDNUM = "studentIDNum";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    public void setstudentIDNum(String studentIDNum){</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        set(KEY_STUDENTIDNUM, studentIDNum);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    public String getstudentIDNum(){</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        return getStr(KEY_STUDENTIDNUM);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    //性别</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    public static final String KEY_GENDER = "gender";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    public void setgender(Integer gender){</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        set(KEY_GENDER, gender);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    public Integer getgender(){</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        return getInt(KEY_GENDER);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    //数据表名称</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    public static String TableName = "course.student";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    //获得所有数据</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    public static List&lt;student&gt; findAllList(){</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        return dao.find("select * from " + TableName);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    //FindByExample</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    public static List&lt;student&gt; findByExample(student student){</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Map &lt;String, Object&gt; conds= new HashMap &lt;String, Object&gt;();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        //如果设置了id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        if (student.getid() != null)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            conds.put(KEY_ID, student.getid());</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        //如果设置了schoolYear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        if (student.getschoolYear() != null)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            conds.put(KEY_SCHOOLYEAR, student.getschoolYear());</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        //如果设置了studentIDNum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        if (student.getstudentIDNum() != null)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            conds.put(KEY_STUDENTIDNUM, student.getstudentIDNum());</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        //如果设置了gender</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        if (student.getgender() != null)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            conds.put(KEY_GENDER, student.getgender());</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        return search(conds);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    public static List&lt;student&gt; search(Map&lt;String, Object&gt; maps)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        return search(maps, "");</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    public static List&lt;student&gt; search(Map&lt;String, Object&gt; maps, String orderBy)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        StringBuilder sb = new StringBuilder();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        sb.append("select * from ").append(TableName).append(" where 1=1 ");</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        List&lt;Object&gt; values = new ArrayList&lt;Object&gt;();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        for (Entry&lt;String, Object&gt; entry:maps.entrySet())</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            if (entry.getValue() != null)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                sb.append(" and ").append(entry.getKey()).append("=?");</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                values.add(entry.getValue());</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        sb.append(" ").append(orderBy);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        return dao.find(sb.toString(), values.toArray());</t>
+  </si>
+  <si>
+    <t>使用方法</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>import com.jfinal.plugin.activerecord.ActiveRecordPlugin;</t>
+  </si>
+  <si>
+    <t>import com.jfinal.plugin.c3p0.C3p0Plugin;</t>
+  </si>
+  <si>
+    <t>public class ActiveRecordTest {</t>
+  </si>
+  <si>
+    <t>public static void main(String[] args) {</t>
+  </si>
+  <si>
+    <t>// TODO Auto-generated method stub</t>
+  </si>
+  <si>
+    <t>C3p0Plugin c3p0Plugin = new C3p0Plugin("jdbc:mysql://localhost:3306/course?characterEncoding=utf8", "root", "shchuwa");</t>
+  </si>
+  <si>
+    <t>c3p0Plugin.start();</t>
+  </si>
+  <si>
+    <t>ActiveRecordPlugin arp = new ActiveRecordPlugin(c3p0Plugin);</t>
+  </si>
+  <si>
+    <t>arp.addMapping("student", student.class);</t>
+  </si>
+  <si>
+    <t>arp.start();</t>
+  </si>
+  <si>
+    <t>student newStudent  = new student();</t>
+  </si>
+  <si>
+    <t>newStudent.setid(10);</t>
+  </si>
+  <si>
+    <t>List&lt;student&gt; studentList = student.findByExample(newStudent);</t>
+  </si>
+  <si>
+    <t>for(student stu : studentList){</t>
+  </si>
+  <si>
+    <t>stu.setschoolYear(2017);</t>
+  </si>
+  <si>
+    <t>stu.update();</t>
+  </si>
+  <si>
+    <t>System.out.println(stu);</t>
+  </si>
+  <si>
+    <t>2015/11/26</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加单个Excel文件包含多个数据模型的支持</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015/12/16</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>为Jfinal增加了浮点型的处理(其他暂时没有对应)</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加了模型版本号的概念</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Ver 0.0.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3.6</t>
+    </r>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="41">
+  <fonts count="48">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5339,6 +5681,48 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -5622,6 +6006,15 @@
       <name val="Verdana"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -5731,23 +6124,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -5756,13 +6134,7 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="24" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -5771,40 +6143,91 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="14" fontId="30" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="27" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="21" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -5813,10 +6236,13 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -5825,16 +6251,13 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="15" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -5843,13 +6266,10 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -5858,16 +6278,25 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -5882,19 +6311,19 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -5916,20 +6345,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>40</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
+      <xdr:colOff>66675</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="1025" name="Picture 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -5943,8 +6372,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="971550" y="3848100"/>
-          <a:ext cx="7067550" cy="4448175"/>
+          <a:off x="1000125" y="4381500"/>
+          <a:ext cx="7067550" cy="4514850"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6069,13 +6498,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>44</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>95</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6115,61 +6544,14 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="1466850" y="1790700"/>
-          <a:ext cx="4933950" cy="2847975"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="1">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6180,7 +6562,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
@@ -6210,13 +6592,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>116</xdr:row>
+      <xdr:row>119</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>125</xdr:row>
+      <xdr:row>128</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6227,7 +6609,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
@@ -6253,6 +6635,53 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4097" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1019175" y="1981200"/>
+          <a:ext cx="4886325" cy="3076575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -6262,13 +6691,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>170</xdr:row>
+      <xdr:row>173</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>173</xdr:row>
+      <xdr:row>176</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6309,13 +6738,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>184</xdr:row>
+      <xdr:row>187</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>186</xdr:row>
+      <xdr:row>189</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6365,13 +6794,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>185</xdr:row>
+      <xdr:row>188</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>66676</xdr:colOff>
-      <xdr:row>187</xdr:row>
+      <xdr:row>190</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6421,13 +6850,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>187</xdr:row>
+      <xdr:row>190</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>189</xdr:row>
+      <xdr:row>192</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6477,13 +6906,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>205</xdr:row>
+      <xdr:row>208</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>222</xdr:row>
+      <xdr:row>225</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6571,13 +7000,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>134</xdr:row>
+      <xdr:row>137</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>166</xdr:row>
+      <xdr:row>169</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6616,20 +7045,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>111</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>36</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>127</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 1"/>
+        <xdr:cNvPr id="3073" name="Picture 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -6643,8 +7072,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1000125" y="21145500"/>
-          <a:ext cx="6391275" cy="3219450"/>
+          <a:off x="981075" y="21116925"/>
+          <a:ext cx="6391275" cy="3810000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7964,11 +8393,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="D3:M76"/>
+  <dimension ref="D3:M84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AN15" sqref="AN15"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -8000,8 +8427,8 @@
       </c>
     </row>
     <row r="11" spans="4:6" ht="15" customHeight="1">
-      <c r="F11" s="50" t="s">
-        <v>608</v>
+      <c r="F11" s="61" t="s">
+        <v>667</v>
       </c>
     </row>
     <row r="12" spans="4:6" ht="15" customHeight="1">
@@ -8025,8 +8452,8 @@
       </c>
     </row>
     <row r="20" spans="4:6" ht="15" customHeight="1">
-      <c r="F20" s="55" t="s">
-        <v>655</v>
+      <c r="F20" s="67" t="s">
+        <v>755</v>
       </c>
     </row>
     <row r="22" spans="4:6" ht="15" customHeight="1">
@@ -8177,22 +8604,77 @@
     </row>
     <row r="75" spans="6:13" ht="15" customHeight="1">
       <c r="F75" s="51" t="s">
+        <v>608</v>
+      </c>
+      <c r="M75" s="50" t="s">
         <v>609</v>
-      </c>
-      <c r="M75" s="50" t="s">
-        <v>610</v>
       </c>
     </row>
     <row r="76" spans="6:13" ht="15" customHeight="1">
       <c r="F76" s="56" t="s">
+        <v>652</v>
+      </c>
+      <c r="M76" s="55" t="s">
         <v>653</v>
       </c>
-      <c r="M76" s="55" t="s">
+    </row>
+    <row r="77" spans="6:13" ht="15" customHeight="1">
+      <c r="F77" s="57" t="s">
         <v>654</v>
       </c>
+      <c r="M77" s="58" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="78" spans="6:13" ht="15" customHeight="1">
+      <c r="F78" s="59" t="s">
+        <v>656</v>
+      </c>
+      <c r="M78" s="60" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="79" spans="6:13" ht="15" customHeight="1">
+      <c r="F79" s="62" t="s">
+        <v>658</v>
+      </c>
+      <c r="M79" s="61" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="80" spans="6:13" ht="15" customHeight="1">
+      <c r="M80" s="61" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="81" spans="6:13" ht="15" customHeight="1">
+      <c r="M81" s="63" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="82" spans="6:13" ht="15" customHeight="1">
+      <c r="F82" s="66" t="s">
+        <v>750</v>
+      </c>
+      <c r="M82" s="65" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="83" spans="6:13" ht="15" customHeight="1">
+      <c r="F83" s="68" t="s">
+        <v>752</v>
+      </c>
+      <c r="M83" s="67" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="84" spans="6:13" ht="15" customHeight="1">
+      <c r="M84" s="67" t="s">
+        <v>754</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="22" type="noConversion"/>
+  <phoneticPr fontId="28" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -8200,6 +8682,278 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="D3:T121"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AG27" sqref="AG27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="3" width="2.625" style="44"/>
+    <col min="4" max="4" width="2.625" style="5"/>
+    <col min="5" max="16384" width="2.625" style="44"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="4:6">
+      <c r="D3" s="5" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="5" spans="4:6">
+      <c r="F5" s="44" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="6" spans="4:6">
+      <c r="F6" s="44" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="8" spans="4:6">
+      <c r="F8" s="45" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="24" spans="4:14">
+      <c r="D24" s="5" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="26" spans="4:14">
+      <c r="F26" s="44" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="31" spans="4:14">
+      <c r="N31" s="44" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="46" spans="4:14">
+      <c r="N46" s="44" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="48" spans="4:14">
+      <c r="D48" s="5" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="50" spans="6:20">
+      <c r="F50" s="44" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="52" spans="6:20">
+      <c r="H52" s="44" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="56" spans="6:20">
+      <c r="T56" s="44" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="64" spans="6:20">
+      <c r="T64" s="44" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="67" spans="4:19" ht="16.5">
+      <c r="D67" s="44"/>
+      <c r="F67" s="44" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="68" spans="4:19" ht="16.5">
+      <c r="D68" s="44"/>
+      <c r="F68" s="44" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="69" spans="4:19" ht="16.5">
+      <c r="D69" s="44"/>
+      <c r="F69" s="44" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="70" spans="4:19" ht="16.5">
+      <c r="D70" s="44"/>
+      <c r="F70" s="31" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="71" spans="4:19" ht="16.5">
+      <c r="D71" s="44"/>
+      <c r="F71" s="44" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="72" spans="4:19" ht="16.5">
+      <c r="D72" s="44"/>
+      <c r="F72" s="44" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="73" spans="4:19" ht="16.5">
+      <c r="D73" s="44"/>
+      <c r="F73" s="44" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="75" spans="4:19">
+      <c r="H75" s="28" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="76" spans="4:19">
+      <c r="J76" s="28" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="77" spans="4:19">
+      <c r="J77" s="28" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="78" spans="4:19">
+      <c r="J78" s="28"/>
+    </row>
+    <row r="79" spans="4:19">
+      <c r="J79" s="44" t="s">
+        <v>486</v>
+      </c>
+      <c r="S79" s="44" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="80" spans="4:19">
+      <c r="J80" s="44" t="s">
+        <v>491</v>
+      </c>
+      <c r="S80" s="44" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="81" spans="4:19">
+      <c r="J81" s="44" t="s">
+        <v>492</v>
+      </c>
+      <c r="S81" s="44" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="83" spans="4:19">
+      <c r="H83" s="44" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="91" spans="4:19" ht="15.75" customHeight="1">
+      <c r="D91" s="44"/>
+      <c r="F91" s="44" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="92" spans="4:19" ht="16.5">
+      <c r="D92" s="44"/>
+      <c r="F92" s="44" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="93" spans="4:19" ht="16.5">
+      <c r="D93" s="44"/>
+      <c r="F93" s="44" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="94" spans="4:19" ht="16.5">
+      <c r="D94" s="44"/>
+      <c r="F94" s="31" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="95" spans="4:19" ht="16.5">
+      <c r="D95" s="44"/>
+      <c r="F95" s="44" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="96" spans="4:19" ht="16.5">
+      <c r="D96" s="44"/>
+      <c r="F96" s="44" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="97" spans="4:19" ht="16.5">
+      <c r="D97" s="44"/>
+      <c r="F97" s="44" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="100" spans="4:19">
+      <c r="H100" s="28" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="101" spans="4:19">
+      <c r="J101" s="28" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="102" spans="4:19">
+      <c r="J102" s="28" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="104" spans="4:19">
+      <c r="J104" s="44" t="s">
+        <v>486</v>
+      </c>
+      <c r="S104" s="44" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="105" spans="4:19">
+      <c r="J105" s="44" t="s">
+        <v>491</v>
+      </c>
+      <c r="S105" s="44" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="106" spans="4:19">
+      <c r="J106" s="44" t="s">
+        <v>492</v>
+      </c>
+      <c r="S106" s="44" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="109" spans="4:19">
+      <c r="H109" s="45" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="119" spans="4:6">
+      <c r="D119" s="5" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="121" spans="4:6">
+      <c r="F121" s="44" t="s">
+        <v>499</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="28" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="D3:F139"/>
   <sheetViews>
@@ -8214,7 +8968,7 @@
   <sheetData>
     <row r="3" spans="4:6" ht="18">
       <c r="D3" s="5" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="5" spans="4:6">
@@ -8828,12 +9582,12 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="22" type="noConversion"/>
+  <phoneticPr fontId="28" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="D3:AQ35"/>
   <sheetViews>
@@ -9557,13 +10311,13 @@
       <c r="AQ35" s="21"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="22" type="noConversion"/>
+  <phoneticPr fontId="28" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="D3:AG60"/>
   <sheetViews>
@@ -10203,13 +10957,13 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="22" type="noConversion"/>
+  <phoneticPr fontId="28" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="D3:I38"/>
   <sheetViews>
@@ -10224,113 +10978,113 @@
   <sheetData>
     <row r="3" spans="4:7">
       <c r="D3" s="1" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="16" spans="4:7">
       <c r="G16" s="50" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="17" spans="7:9">
       <c r="G17" s="50" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="18" spans="7:9">
       <c r="G18" s="50" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="22" spans="7:9">
       <c r="G22" s="52" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="24" spans="7:9">
       <c r="I24" s="53" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="25" spans="7:9">
       <c r="I25" s="54" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="26" spans="7:9">
       <c r="I26" s="54" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="27" spans="7:9">
       <c r="I27" s="54" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="28" spans="7:9">
       <c r="I28" s="54" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="29" spans="7:9">
       <c r="I29" s="54" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="30" spans="7:9">
       <c r="I30" s="54" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="31" spans="7:9">
       <c r="I31" s="54" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="32" spans="7:9">
       <c r="I32" s="54" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="33" spans="9:9">
       <c r="I33" s="54" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="34" spans="9:9">
       <c r="I34" s="54" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="35" spans="9:9">
       <c r="I35" s="54" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="36" spans="9:9">
       <c r="I36" s="54" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="37" spans="9:9">
       <c r="I37" s="54" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="38" spans="9:9">
       <c r="I38" s="53" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="22" type="noConversion"/>
+  <phoneticPr fontId="28" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="G6:I61"/>
   <sheetViews>
@@ -10342,287 +11096,287 @@
   <sheetData>
     <row r="6" spans="7:9" s="50" customFormat="1" ht="16.5">
       <c r="G6" s="52" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="7" spans="7:9" s="50" customFormat="1" ht="16.5"/>
     <row r="8" spans="7:9" s="50" customFormat="1" ht="16.5">
       <c r="I8" s="50" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="9" spans="7:9" s="50" customFormat="1" ht="16.5">
       <c r="I9" s="50" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="10" spans="7:9" s="50" customFormat="1" ht="16.5">
       <c r="I10" s="50" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="11" spans="7:9" s="50" customFormat="1" ht="16.5">
       <c r="I11" s="50" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="12" spans="7:9" s="50" customFormat="1" ht="16.5">
       <c r="I12" s="50" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="13" spans="7:9" s="50" customFormat="1" ht="16.5">
       <c r="I13" s="50" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="14" spans="7:9" s="50" customFormat="1" ht="16.5">
       <c r="I14" s="50" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="15" spans="7:9" s="50" customFormat="1" ht="16.5">
       <c r="I15" s="50" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="16" spans="7:9" s="50" customFormat="1" ht="16.5">
       <c r="I16" s="50" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="17" spans="9:9" s="50" customFormat="1" ht="16.5">
       <c r="I17" s="50" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="18" spans="9:9" s="50" customFormat="1" ht="16.5">
       <c r="I18" s="50" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="19" spans="9:9" s="50" customFormat="1" ht="16.5">
       <c r="I19" s="50" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="20" spans="9:9" s="50" customFormat="1" ht="16.5">
       <c r="I20" s="50" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="21" spans="9:9" s="50" customFormat="1" ht="16.5">
       <c r="I21" s="50" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="22" spans="9:9" s="50" customFormat="1" ht="16.5">
       <c r="I22" s="50" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="23" spans="9:9" s="50" customFormat="1" ht="16.5">
       <c r="I23" s="50" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="24" spans="9:9" s="50" customFormat="1" ht="16.5">
       <c r="I24" s="50" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="25" spans="9:9" s="50" customFormat="1" ht="16.5">
       <c r="I25" s="50" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="26" spans="9:9" s="50" customFormat="1" ht="16.5">
       <c r="I26" s="50" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="27" spans="9:9" s="50" customFormat="1" ht="16.5">
       <c r="I27" s="50" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="28" spans="9:9" s="50" customFormat="1" ht="16.5">
       <c r="I28" s="50" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="29" spans="9:9" s="50" customFormat="1" ht="16.5">
       <c r="I29" s="50" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="30" spans="9:9" s="50" customFormat="1" ht="16.5">
       <c r="I30" s="50" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="31" spans="9:9" s="50" customFormat="1" ht="16.5">
       <c r="I31" s="50" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="32" spans="9:9" s="50" customFormat="1" ht="16.5">
       <c r="I32" s="50" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="33" spans="9:9" s="50" customFormat="1" ht="16.5">
       <c r="I33" s="50" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="34" spans="9:9" s="50" customFormat="1" ht="16.5">
       <c r="I34" s="50" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="35" spans="9:9" s="50" customFormat="1" ht="16.5">
       <c r="I35" s="50" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="36" spans="9:9" s="50" customFormat="1" ht="16.5">
       <c r="I36" s="50" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="37" spans="9:9" s="50" customFormat="1" ht="16.5">
       <c r="I37" s="50" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="38" spans="9:9" s="50" customFormat="1" ht="16.5">
       <c r="I38" s="50" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="39" spans="9:9" s="50" customFormat="1" ht="16.5">
       <c r="I39" s="50" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="40" spans="9:9" s="50" customFormat="1" ht="16.5">
       <c r="I40" s="50" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="41" spans="9:9" s="50" customFormat="1" ht="16.5">
       <c r="I41" s="50" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="42" spans="9:9" s="50" customFormat="1" ht="16.5">
       <c r="I42" s="50" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="43" spans="9:9" s="50" customFormat="1" ht="16.5">
       <c r="I43" s="50" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="44" spans="9:9" s="50" customFormat="1" ht="16.5">
       <c r="I44" s="50" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="45" spans="9:9" s="50" customFormat="1" ht="16.5">
       <c r="I45" s="50" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="46" spans="9:9" s="50" customFormat="1" ht="16.5">
       <c r="I46" s="50" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="47" spans="9:9" s="50" customFormat="1" ht="16.5">
       <c r="I47" s="50" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="48" spans="9:9" s="50" customFormat="1" ht="16.5">
       <c r="I48" s="50" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="49" spans="9:9" s="50" customFormat="1" ht="16.5">
       <c r="I49" s="50" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="50" spans="9:9" s="50" customFormat="1" ht="16.5">
       <c r="I50" s="50" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="51" spans="9:9" s="50" customFormat="1" ht="16.5">
       <c r="I51" s="50" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="52" spans="9:9" s="50" customFormat="1" ht="16.5">
       <c r="I52" s="50" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="53" spans="9:9" s="50" customFormat="1" ht="16.5">
       <c r="I53" s="50" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="54" spans="9:9" s="50" customFormat="1" ht="16.5">
       <c r="I54" s="50" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="55" spans="9:9" s="50" customFormat="1" ht="16.5">
       <c r="I55" s="50" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="56" spans="9:9" s="50" customFormat="1" ht="16.5">
       <c r="I56" s="50" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="57" spans="9:9" s="50" customFormat="1" ht="16.5">
       <c r="I57" s="50" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="58" spans="9:9" s="50" customFormat="1" ht="16.5">
       <c r="I58" s="50" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="59" spans="9:9" s="50" customFormat="1" ht="16.5">
       <c r="I59" s="50" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="60" spans="9:9" s="50" customFormat="1" ht="16.5">
       <c r="I60" s="50" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="61" spans="9:9" s="50" customFormat="1" ht="16.5">
       <c r="I61" s="50" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="22" type="noConversion"/>
+  <phoneticPr fontId="28" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="D3:F35"/>
   <sheetViews>
@@ -10671,14 +11425,14 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="22" type="noConversion"/>
+  <phoneticPr fontId="28" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="D3:F33"/>
   <sheetViews>
@@ -10707,14 +11461,14 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="22" type="noConversion"/>
+  <phoneticPr fontId="28" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="D3:Z19"/>
   <sheetViews>
@@ -10801,7 +11555,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="22" type="noConversion"/>
+  <phoneticPr fontId="28" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -10809,11 +11563,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="D3:T126"/>
+  <dimension ref="D3:T129"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AE122" sqref="AE122:AF122"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -10845,187 +11597,178 @@
     <row r="12" spans="4:6" ht="15" customHeight="1">
       <c r="F12" s="1"/>
     </row>
-    <row r="26" spans="6:8" ht="15" customHeight="1">
-      <c r="F26" s="3" t="s">
+    <row r="29" spans="6:6" ht="15" customHeight="1">
+      <c r="F29" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="6:8" ht="15" customHeight="1">
-      <c r="F28" s="2" t="s">
+    <row r="31" spans="6:6" ht="15" customHeight="1">
+      <c r="F31" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="6:8" ht="15" customHeight="1">
-      <c r="H30" s="2" t="s">
+    <row r="33" spans="6:8" ht="15" customHeight="1">
+      <c r="H33" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="6:8" ht="15" customHeight="1">
-      <c r="F32" s="2" t="s">
+    <row r="35" spans="6:8" ht="15" customHeight="1">
+      <c r="F35" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="8:8" ht="15" customHeight="1">
-      <c r="H34" s="2" t="s">
+    <row r="37" spans="6:8" ht="15" customHeight="1">
+      <c r="H37" s="2" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="52" spans="6:20" ht="15" customHeight="1">
-      <c r="F52" s="2" t="s">
+    <row r="55" spans="6:20" ht="15" customHeight="1">
+      <c r="F55" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="6:20" ht="15" customHeight="1">
-      <c r="H54" s="2" t="s">
+    <row r="57" spans="6:20" ht="15" customHeight="1">
+      <c r="H57" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="T54" s="2" t="s">
+      <c r="T57" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="55" spans="6:20" ht="15" customHeight="1">
-      <c r="H55" s="2" t="s">
+    <row r="58" spans="6:20" ht="15" customHeight="1">
+      <c r="H58" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="T55" s="2" t="s">
+      <c r="T58" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="56" spans="6:20" ht="15" customHeight="1">
-      <c r="H56" s="24" t="s">
+    <row r="59" spans="6:20" ht="15" customHeight="1">
+      <c r="H59" s="24" t="s">
         <v>262</v>
       </c>
-      <c r="T56" s="2" t="s">
+      <c r="T59" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="57" spans="6:20" ht="15" customHeight="1">
-      <c r="H57" s="24" t="s">
+    <row r="60" spans="6:20" ht="15" customHeight="1">
+      <c r="H60" s="24" t="s">
         <v>261</v>
       </c>
-      <c r="T57" s="2" t="s">
+      <c r="T60" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="58" spans="6:20" ht="15" customHeight="1">
-      <c r="H58" s="24" t="s">
+    <row r="61" spans="6:20" ht="15" customHeight="1">
+      <c r="H61" s="24" t="s">
         <v>263</v>
       </c>
-      <c r="T58" s="24" t="s">
+      <c r="T61" s="24" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="59" spans="6:20" ht="15" customHeight="1">
-      <c r="H59" s="40" t="s">
+    <row r="62" spans="6:20" ht="15" customHeight="1">
+      <c r="H62" s="40" t="s">
         <v>358</v>
       </c>
-      <c r="T59" s="40" t="s">
+      <c r="T62" s="40" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="60" spans="6:20" ht="15" customHeight="1">
-      <c r="H60" s="40" t="s">
+    <row r="63" spans="6:20" ht="15" customHeight="1">
+      <c r="H63" s="40" t="s">
         <v>359</v>
       </c>
-      <c r="T60" s="40" t="s">
+      <c r="T63" s="40" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="62" spans="6:20" ht="15" customHeight="1">
-      <c r="H62" s="3" t="s">
+    <row r="65" spans="6:8" ht="15" customHeight="1">
+      <c r="H65" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="63" spans="6:20" ht="15" customHeight="1">
-      <c r="H63" s="3"/>
-    </row>
-    <row r="64" spans="6:20" ht="15" customHeight="1">
-      <c r="F64" s="2" t="s">
+    <row r="66" spans="6:8" ht="15" customHeight="1">
+      <c r="H66" s="3"/>
+    </row>
+    <row r="67" spans="6:8" ht="15" customHeight="1">
+      <c r="F67" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="95" spans="4:4" ht="15" customHeight="1">
-      <c r="D95" s="5" t="s">
+    <row r="98" spans="4:6" ht="15" customHeight="1">
+      <c r="D98" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="97" spans="4:14" ht="15" customHeight="1">
-      <c r="F97" s="2" t="s">
+    <row r="100" spans="4:6" ht="15" customHeight="1">
+      <c r="F100" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="99" spans="4:14" ht="15" customHeight="1">
-      <c r="F99" s="41" t="s">
+    <row r="102" spans="4:6" ht="15" customHeight="1">
+      <c r="F102" s="41" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="101" spans="4:14" ht="15" customHeight="1">
-      <c r="D101" s="7" t="s">
+    <row r="104" spans="4:6" ht="15" customHeight="1">
+      <c r="D104" s="7" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="103" spans="4:14" ht="15" customHeight="1">
-      <c r="F103" s="41" t="s">
+    <row r="106" spans="4:6" ht="15" customHeight="1">
+      <c r="F106" s="41" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="105" spans="4:14" ht="15" customHeight="1">
-      <c r="F105" s="41" t="s">
+    <row r="108" spans="4:6" ht="15" customHeight="1">
+      <c r="F108" s="41" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="108" spans="4:14" ht="15" customHeight="1">
-      <c r="D108" s="5" t="s">
+    <row r="111" spans="4:6" ht="15" customHeight="1">
+      <c r="D111" s="5" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="109" spans="4:14" ht="15" customHeight="1">
-      <c r="D109" s="5"/>
-    </row>
-    <row r="110" spans="4:14" ht="15" customHeight="1">
-      <c r="D110" s="5"/>
-      <c r="F110" s="38" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="111" spans="4:14" ht="15" customHeight="1">
-      <c r="D111" s="5"/>
-    </row>
-    <row r="112" spans="4:14" ht="15" customHeight="1">
+    <row r="112" spans="4:6" ht="15" customHeight="1">
       <c r="D112" s="5"/>
-      <c r="H112" s="38" t="s">
-        <v>348</v>
-      </c>
-      <c r="N112" s="38" t="s">
-        <v>351</v>
-      </c>
     </row>
     <row r="113" spans="4:14" ht="15" customHeight="1">
       <c r="D113" s="5"/>
-      <c r="H113" s="38" t="s">
-        <v>349</v>
-      </c>
-      <c r="N113" s="38" t="s">
-        <v>352</v>
+      <c r="F113" s="38" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="114" spans="4:14" ht="15" customHeight="1">
       <c r="D114" s="5"/>
-      <c r="H114" s="38" t="s">
-        <v>350</v>
-      </c>
-      <c r="N114" s="38" t="s">
-        <v>353</v>
-      </c>
     </row>
     <row r="115" spans="4:14" ht="15" customHeight="1">
       <c r="D115" s="5"/>
+      <c r="H115" s="38" t="s">
+        <v>348</v>
+      </c>
+      <c r="N115" s="38" t="s">
+        <v>351</v>
+      </c>
     </row>
     <row r="116" spans="4:14" ht="15" customHeight="1">
       <c r="D116" s="5"/>
+      <c r="H116" s="38" t="s">
+        <v>349</v>
+      </c>
+      <c r="N116" s="38" t="s">
+        <v>352</v>
+      </c>
     </row>
     <row r="117" spans="4:14" ht="15" customHeight="1">
       <c r="D117" s="5"/>
+      <c r="H117" s="38" t="s">
+        <v>350</v>
+      </c>
+      <c r="N117" s="38" t="s">
+        <v>353</v>
+      </c>
     </row>
     <row r="118" spans="4:14" ht="15" customHeight="1">
       <c r="D118" s="5"/>
@@ -11054,8 +11797,17 @@
     <row r="126" spans="4:14" ht="15" customHeight="1">
       <c r="D126" s="5"/>
     </row>
+    <row r="127" spans="4:14" ht="15" customHeight="1">
+      <c r="D127" s="5"/>
+    </row>
+    <row r="128" spans="4:14" ht="15" customHeight="1">
+      <c r="D128" s="5"/>
+    </row>
+    <row r="129" spans="4:4" ht="15" customHeight="1">
+      <c r="D129" s="5"/>
+    </row>
   </sheetData>
-  <phoneticPr fontId="22" type="noConversion"/>
+  <phoneticPr fontId="28" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -11064,10 +11816,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="D3:S230"/>
+  <dimension ref="D3:S233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AU122" sqref="AU122"/>
+      <selection activeCell="AS123" sqref="AS123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15" customHeight="1"/>
@@ -11389,132 +12141,132 @@
         <v>102</v>
       </c>
     </row>
-    <row r="130" spans="6:6" ht="15" customHeight="1">
-      <c r="F130" s="45" t="s">
+    <row r="133" spans="6:6" ht="15" customHeight="1">
+      <c r="F133" s="45" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="131" spans="6:6" ht="15" customHeight="1">
-      <c r="F131" s="45" t="s">
+    <row r="134" spans="6:6" ht="15" customHeight="1">
+      <c r="F134" s="45" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="132" spans="6:6" ht="15" customHeight="1">
-      <c r="F132" s="45"/>
-    </row>
-    <row r="133" spans="6:6" ht="15" customHeight="1">
-      <c r="F133" s="3" t="s">
+    <row r="135" spans="6:6" ht="15" customHeight="1">
+      <c r="F135" s="45"/>
+    </row>
+    <row r="136" spans="6:6" ht="15" customHeight="1">
+      <c r="F136" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="134" spans="6:6" ht="15" customHeight="1">
-      <c r="F134" s="3" t="s">
+    <row r="137" spans="6:6" ht="15" customHeight="1">
+      <c r="F137" s="3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="169" spans="5:5" ht="15" customHeight="1">
-      <c r="E169" s="30" t="s">
+    <row r="172" spans="5:5" ht="15" customHeight="1">
+      <c r="E172" s="30" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="177" spans="4:6" ht="15" customHeight="1">
-      <c r="D177" s="5" t="s">
+    <row r="180" spans="4:6" ht="15" customHeight="1">
+      <c r="D180" s="5" t="s">
         <v>313</v>
-      </c>
-    </row>
-    <row r="179" spans="4:6" ht="15" customHeight="1">
-      <c r="F179" s="33" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="180" spans="4:6" ht="15" customHeight="1">
-      <c r="F180" s="33"/>
-    </row>
-    <row r="181" spans="4:6" ht="15" customHeight="1">
-      <c r="F181" s="49" t="s">
-        <v>531</v>
       </c>
     </row>
     <row r="182" spans="4:6" ht="15" customHeight="1">
       <c r="F182" s="33" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="183" spans="4:6" ht="15" customHeight="1">
+      <c r="F183" s="33"/>
+    </row>
+    <row r="184" spans="4:6" ht="15" customHeight="1">
+      <c r="F184" s="49" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="185" spans="4:6" ht="15" customHeight="1">
+      <c r="F185" s="33" t="s">
         <v>315</v>
-      </c>
-    </row>
-    <row r="193" spans="4:19" ht="15" customHeight="1">
-      <c r="F193" s="49" t="s">
-        <v>532</v>
       </c>
     </row>
     <row r="196" spans="4:19" ht="15" customHeight="1">
       <c r="F196" s="49" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="199" spans="4:19" ht="15" customHeight="1">
+      <c r="F199" s="49" t="s">
         <v>533</v>
       </c>
-      <c r="S196" s="49" t="s">
+      <c r="S199" s="49" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="197" spans="4:19" ht="15" customHeight="1">
-      <c r="F197" s="2" t="s">
+    <row r="200" spans="4:19" ht="15" customHeight="1">
+      <c r="F200" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="S197" s="33" t="s">
+      <c r="S200" s="33" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="198" spans="4:19" ht="15" customHeight="1">
-      <c r="H198" s="33"/>
-    </row>
-    <row r="200" spans="4:19" ht="15" customHeight="1">
-      <c r="D200" s="5" t="s">
+    <row r="201" spans="4:19" ht="15" customHeight="1">
+      <c r="H201" s="33"/>
+    </row>
+    <row r="203" spans="4:19" ht="15" customHeight="1">
+      <c r="D203" s="5" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="202" spans="4:19" ht="15" customHeight="1">
-      <c r="F202" s="35" t="s">
+    <row r="205" spans="4:19" ht="15" customHeight="1">
+      <c r="F205" s="35" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="203" spans="4:19" ht="15" customHeight="1">
-      <c r="F203" s="35" t="s">
+    <row r="206" spans="4:19" ht="15" customHeight="1">
+      <c r="F206" s="35" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="204" spans="4:19" ht="15" customHeight="1">
-      <c r="F204" s="45" t="s">
+    <row r="207" spans="4:19" ht="15" customHeight="1">
+      <c r="F207" s="45" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="226" spans="4:15" ht="15" customHeight="1">
-      <c r="D226" s="5" t="s">
+    <row r="229" spans="4:15" ht="15" customHeight="1">
+      <c r="D229" s="5" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="228" spans="4:15" ht="15" customHeight="1">
-      <c r="F228" s="36" t="s">
+    <row r="231" spans="4:15" ht="15" customHeight="1">
+      <c r="F231" s="36" t="s">
         <v>321</v>
       </c>
-      <c r="O228" s="36" t="s">
+      <c r="O231" s="36" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="229" spans="4:15" ht="15" customHeight="1">
-      <c r="F229" s="36" t="s">
+    <row r="232" spans="4:15" ht="15" customHeight="1">
+      <c r="F232" s="36" t="s">
         <v>322</v>
       </c>
-      <c r="O229" s="36" t="s">
+      <c r="O232" s="36" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="230" spans="4:15" ht="15" customHeight="1">
-      <c r="F230" s="36" t="s">
+    <row r="233" spans="4:15" ht="15" customHeight="1">
+      <c r="F233" s="36" t="s">
         <v>323</v>
       </c>
-      <c r="O230" s="36" t="s">
+      <c r="O233" s="36" t="s">
         <v>324</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="22" type="noConversion"/>
+  <phoneticPr fontId="28" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I22:I28">
       <formula1>$AE$4:$AE$9</formula1>
@@ -11627,7 +12379,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="22" type="noConversion"/>
+  <phoneticPr fontId="28" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -11946,7 +12698,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="22" type="noConversion"/>
+  <phoneticPr fontId="28" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -12856,7 +13608,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="22" type="noConversion"/>
+  <phoneticPr fontId="28" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -13120,7 +13872,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="22" type="noConversion"/>
+  <phoneticPr fontId="28" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -13130,7 +13882,7 @@
   <dimension ref="D3:F108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AK23" sqref="AK23"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5"/>
@@ -13742,279 +14494,612 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="22" type="noConversion"/>
+  <phoneticPr fontId="28" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="D3:T121"/>
+  <dimension ref="D3:I142"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AG27" sqref="AG27"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="18"/>
-  <cols>
-    <col min="1" max="3" width="2.625" style="44"/>
-    <col min="4" max="4" width="2.625" style="5"/>
-    <col min="5" max="16384" width="2.625" style="44"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="3" spans="4:6">
+    <row r="3" spans="4:6" ht="18">
       <c r="D3" s="5" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="5" spans="4:6">
-      <c r="F5" s="44" t="s">
-        <v>411</v>
+        <v>661</v>
       </c>
     </row>
     <row r="6" spans="4:6">
-      <c r="F6" s="44" t="s">
-        <v>412</v>
+      <c r="F6" t="s">
+        <v>662</v>
       </c>
     </row>
     <row r="8" spans="4:6">
-      <c r="F8" s="45" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="24" spans="4:14">
-      <c r="D24" s="5" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="26" spans="4:14">
-      <c r="F26" s="44" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="31" spans="4:14">
-      <c r="N31" s="44" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="46" spans="4:14">
-      <c r="N46" s="44" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="48" spans="4:14">
-      <c r="D48" s="5" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="50" spans="6:20">
-      <c r="F50" s="44" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="52" spans="6:20">
-      <c r="H52" s="44" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="56" spans="6:20">
-      <c r="T56" s="44" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="64" spans="6:20">
-      <c r="T64" s="44" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="67" spans="4:19" ht="16.5">
-      <c r="D67" s="44"/>
-      <c r="F67" s="44" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="68" spans="4:19" ht="16.5">
-      <c r="D68" s="44"/>
-      <c r="F68" s="44" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="69" spans="4:19" ht="16.5">
-      <c r="D69" s="44"/>
-      <c r="F69" s="44" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="70" spans="4:19" ht="16.5">
-      <c r="D70" s="44"/>
-      <c r="F70" s="31" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="71" spans="4:19" ht="16.5">
-      <c r="D71" s="44"/>
-      <c r="F71" s="44" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="72" spans="4:19" ht="16.5">
-      <c r="D72" s="44"/>
-      <c r="F72" s="44" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="73" spans="4:19" ht="16.5">
-      <c r="D73" s="44"/>
-      <c r="F73" s="44" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="75" spans="4:19">
-      <c r="H75" s="28" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="76" spans="4:19">
-      <c r="J76" s="28" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="77" spans="4:19">
-      <c r="J77" s="28" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="78" spans="4:19">
-      <c r="J78" s="28"/>
-    </row>
-    <row r="79" spans="4:19">
-      <c r="J79" s="44" t="s">
-        <v>486</v>
-      </c>
-      <c r="S79" s="44" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="80" spans="4:19">
-      <c r="J80" s="44" t="s">
-        <v>491</v>
-      </c>
-      <c r="S80" s="44" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="81" spans="4:19">
-      <c r="J81" s="44" t="s">
-        <v>492</v>
-      </c>
-      <c r="S81" s="44" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="83" spans="4:19">
-      <c r="H83" s="44" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="91" spans="4:19" ht="15.75" customHeight="1">
-      <c r="D91" s="44"/>
-      <c r="F91" s="44" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="92" spans="4:19" ht="16.5">
-      <c r="D92" s="44"/>
-      <c r="F92" s="44" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="93" spans="4:19" ht="16.5">
-      <c r="D93" s="44"/>
-      <c r="F93" s="44" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="94" spans="4:19" ht="16.5">
-      <c r="D94" s="44"/>
-      <c r="F94" s="31" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="95" spans="4:19" ht="16.5">
-      <c r="D95" s="44"/>
-      <c r="F95" s="44" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="96" spans="4:19" ht="16.5">
-      <c r="D96" s="44"/>
-      <c r="F96" s="44" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="97" spans="4:19" ht="16.5">
-      <c r="D97" s="44"/>
-      <c r="F97" s="44" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="100" spans="4:19">
-      <c r="H100" s="28" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="101" spans="4:19">
-      <c r="J101" s="28" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="102" spans="4:19">
-      <c r="J102" s="28" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="104" spans="4:19">
-      <c r="J104" s="44" t="s">
-        <v>486</v>
-      </c>
-      <c r="S104" s="44" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="105" spans="4:19">
-      <c r="J105" s="44" t="s">
-        <v>491</v>
-      </c>
-      <c r="S105" s="44" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="106" spans="4:19">
-      <c r="J106" s="44" t="s">
-        <v>492</v>
-      </c>
-      <c r="S106" s="44" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="109" spans="4:19">
-      <c r="H109" s="45" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="119" spans="4:6">
-      <c r="D119" s="5" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="121" spans="4:6">
-      <c r="F121" s="44" t="s">
-        <v>499</v>
+      <c r="F8" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="9" spans="4:6">
+      <c r="F9" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="10" spans="4:6">
+      <c r="F10" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="11" spans="4:6">
+      <c r="F11" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="12" spans="4:6">
+      <c r="F12" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="13" spans="4:6">
+      <c r="F13" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="15" spans="4:6">
+      <c r="F15" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="17" spans="6:6">
+      <c r="F17" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="18" spans="6:6">
+      <c r="F18" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="19" spans="6:6">
+      <c r="F19" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="20" spans="6:6">
+      <c r="F20" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="21" spans="6:6">
+      <c r="F21" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="22" spans="6:6">
+      <c r="F22" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="23" spans="6:6">
+      <c r="F23" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="24" spans="6:6">
+      <c r="F24" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="25" spans="6:6">
+      <c r="F25" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="26" spans="6:6">
+      <c r="F26" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="28" spans="6:6">
+      <c r="F28" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="29" spans="6:6">
+      <c r="F29" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="30" spans="6:6">
+      <c r="F30" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="31" spans="6:6">
+      <c r="F31" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="32" spans="6:6">
+      <c r="F32" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="33" spans="6:6">
+      <c r="F33" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="34" spans="6:6">
+      <c r="F34" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="35" spans="6:6">
+      <c r="F35" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="37" spans="6:6">
+      <c r="F37" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="38" spans="6:6">
+      <c r="F38" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="39" spans="6:6">
+      <c r="F39" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="40" spans="6:6">
+      <c r="F40" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="41" spans="6:6">
+      <c r="F41" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="42" spans="6:6">
+      <c r="F42" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="43" spans="6:6">
+      <c r="F43" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="44" spans="6:6">
+      <c r="F44" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="46" spans="6:6">
+      <c r="F46" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="47" spans="6:6">
+      <c r="F47" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="48" spans="6:6">
+      <c r="F48" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="49" spans="6:6">
+      <c r="F49" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="50" spans="6:6">
+      <c r="F50" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="51" spans="6:6">
+      <c r="F51" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="52" spans="6:6">
+      <c r="F52" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="53" spans="6:6">
+      <c r="F53" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="55" spans="6:6">
+      <c r="F55" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="56" spans="6:6">
+      <c r="F56" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="58" spans="6:6">
+      <c r="F58" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="59" spans="6:6">
+      <c r="F59" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="60" spans="6:6">
+      <c r="F60" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="61" spans="6:6">
+      <c r="F61" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="63" spans="6:6">
+      <c r="F63" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="64" spans="6:6">
+      <c r="F64" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="65" spans="6:6">
+      <c r="F65" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="66" spans="6:6">
+      <c r="F66" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="67" spans="6:6">
+      <c r="F67" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="68" spans="6:6">
+      <c r="F68" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="69" spans="6:6">
+      <c r="F69" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="70" spans="6:6">
+      <c r="F70" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="71" spans="6:6">
+      <c r="F71" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="72" spans="6:6">
+      <c r="F72" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="73" spans="6:6">
+      <c r="F73" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="74" spans="6:6">
+      <c r="F74" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="75" spans="6:6">
+      <c r="F75" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="76" spans="6:6">
+      <c r="F76" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="77" spans="6:6">
+      <c r="F77" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="78" spans="6:6">
+      <c r="F78" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="79" spans="6:6">
+      <c r="F79" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="80" spans="6:6">
+      <c r="F80" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="81" spans="6:6">
+      <c r="F81" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="82" spans="6:6">
+      <c r="F82" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="83" spans="6:6">
+      <c r="F83" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="84" spans="6:6">
+      <c r="F84" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="85" spans="6:6">
+      <c r="F85" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="86" spans="6:6">
+      <c r="F86" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="87" spans="6:6">
+      <c r="F87" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="89" spans="6:6">
+      <c r="F89" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="90" spans="6:6">
+      <c r="F90" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="91" spans="6:6">
+      <c r="F91" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="92" spans="6:6">
+      <c r="F92" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="94" spans="6:6">
+      <c r="F94" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="95" spans="6:6">
+      <c r="F95" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="96" spans="6:6">
+      <c r="F96" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="97" spans="6:6">
+      <c r="F97" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="98" spans="6:6">
+      <c r="F98" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="99" spans="6:6">
+      <c r="F99" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="100" spans="6:6">
+      <c r="F100" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="101" spans="6:6">
+      <c r="F101" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="102" spans="6:6">
+      <c r="F102" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="103" spans="6:6">
+      <c r="F103" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="104" spans="6:6">
+      <c r="F104" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="105" spans="6:6">
+      <c r="F105" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="106" spans="6:6">
+      <c r="F106" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="107" spans="6:6">
+      <c r="F107" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="108" spans="6:6">
+      <c r="F108" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="109" spans="6:6">
+      <c r="F109" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="110" spans="6:6">
+      <c r="F110" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="114" spans="4:8" ht="18">
+      <c r="D114" s="5" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="117" spans="4:8">
+      <c r="F117" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="118" spans="4:8">
+      <c r="F118" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="120" spans="4:8">
+      <c r="F120" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="121" spans="4:8">
+      <c r="F121" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="123" spans="4:8">
+      <c r="F123" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="124" spans="4:8">
+      <c r="G124" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="125" spans="4:8">
+      <c r="H125" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="126" spans="4:8">
+      <c r="H126" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="127" spans="4:8">
+      <c r="H127" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="128" spans="4:8">
+      <c r="H128" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="129" spans="6:9">
+      <c r="H129" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="130" spans="6:9">
+      <c r="H130" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="132" spans="6:9">
+      <c r="H132" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="133" spans="6:9">
+      <c r="H133" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="135" spans="6:9">
+      <c r="H135" s="64" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="136" spans="6:9">
+      <c r="H136" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="137" spans="6:9">
+      <c r="I137" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="138" spans="6:9">
+      <c r="I138" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="139" spans="6:9">
+      <c r="I139" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="140" spans="6:9">
+      <c r="H140" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="141" spans="6:9">
+      <c r="G141" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="142" spans="6:9">
+      <c r="F142" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="22" type="noConversion"/>
+  <phoneticPr fontId="28" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/DevKit/Help/开发辅助工具使用手册.xlsx
+++ b/DevKit/Help/开发辅助工具使用手册.xlsx
@@ -31,128 +31,128 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1015" uniqueCount="756">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1018" uniqueCount="758">
   <si>
     <t>目的</t>
   </si>
   <si>
     <t>通过使用工具，提高工作效率，防止手工编码的低级错误，消减代码复查的工作时间。</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>工程</t>
   </si>
   <si>
     <t>新建工程</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>菜单 -&gt; 文件 -&gt; 新建工程</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>*暂时请不要使用Java</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>项目名称：</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>这个项目的名字，可以是任意文字</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>命名空间</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>新建工程后，系统将自动添加以下文件夹</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>\Model\Document</t>
   </si>
   <si>
     <t>数据模型设计书</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>\Model\SourceCode</t>
   </si>
   <si>
     <t>数据模型代码</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>枚举代码文件夹</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>*枚举代码文件夹中的文件将在枚举中介绍</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>同时，系统会生成 Project.xml文件</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>打开工程</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>菜单 -&gt; 文件 -&gt; 打开工程</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>数据模型</t>
   </si>
   <si>
     <t>工具通过将设计书直接转化为Model代码的方式，使得数据模型的编码环节做到自动化。</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>设计人员只需要填写完数据设计式样书，则工具可以完成代码的自动生成。</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>基本</t>
   </si>
   <si>
     <t>No</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>属性名</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>元数据类型</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>枚举类型</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>显示名称</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>编号，暂时没有什么作用</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>Model的变量名称，请使用符合C#变量名称的字符串</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>枚举类型的完整类型名称</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>这个项目在Web页显示时候的名称</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>校验</t>
@@ -162,197 +162,197 @@
   </si>
   <si>
     <t>是否为必须项目</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>错误信息</t>
   </si>
   <si>
     <t>错误信息</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>数值范围</t>
   </si>
   <si>
     <t>最大值</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>最小值</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>字符串长度</t>
   </si>
   <si>
     <t>模式</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>正则表达式</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>格式</t>
   </si>
   <si>
     <t>使用类型</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>显示模式</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>这个字段在使用的时候的类型，例如电子邮件，电话号码</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>这个字段在表示模式的时候，如何显示。</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>版本控制</t>
   </si>
   <si>
     <t>省略</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>项目是ID这样的，不希望直接被页面编辑的项目。</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>编号项目（布尔型）</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>是/否（布尔型）</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>*填写的时候，如果是 （布尔型） 的填写项，请在格子里面填写任意字符表示选中。</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>代码的生成</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>将设计书放在Document文件夹下，选择 菜单 -&gt; 工程 -&gt; 生成所有模型代码  系统将自动重新生成所有的代码。</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>生成的代码直接可以给VS使用，作为生成View的数据源头。</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>注意：Language这样的枚举，VS无法自动生成代码，需要手动添加</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>同时，旗标类型的枚举，需要其他的代码的配合，这个在枚举中介绍。</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>枚举类型分为普通枚举和旗标枚举</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>普通枚举：一个变量值只可能有一种枚举状态，则使用普通枚举。</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>旗标枚举：一个变量可能同时存在多种枚举状态，则使用旗标枚举。</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>例如：小明 同时会 日语 和 英语 ，则语言就是一个旗标枚举。</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>例如：如果一家超市，每周只有一天休息，则星期几休息就是一个一般枚举。</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>枚举</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>枚举类型</t>
   </si>
   <si>
     <t>数据模型设计书项目说明</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>枚举设计书项目说明</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>枚举名称：</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>Flag型  (布尔型）</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>是否为旗标枚举</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>枚举量</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>这个枚举的名称，必须符合C#变量名规则</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>表示某个枚举的变量，必须符合C#变量名规则</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>枚举显示名</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>枚举在画面上显示的名字</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>枚举值</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>枚举在系统内部的名字</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>Enum附加代码</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>VS系统将会把Enum类型作为数字处理，如果需要在画面显示的时候，将普通枚举作为下拉列表，旗标枚举作为多个复选框，</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>请将新建工程时候的Enum文件夹下面的代码放入VS的项目中。</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>Enum辅助代码</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>旗标枚举的模板</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>普通枚举的模板</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>using System;</t>
@@ -398,67 +398,67 @@
   </si>
   <si>
     <t>界面说明</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>适用范围</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>工具环境</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>版本情报</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>如果你只需要生成一个模型,则可以使用 菜单 -&gt; 工具 -&gt; 生成数据模型来生成指定数据模型.</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>允许的最大值</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>允许的最小值</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>允许的最大字符串长度</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>允许的最小字符串长度</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>(系统在编辑的时候,将通过浏览器内置的html5功能检查输入是否合法)</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>工具</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>指定枚举设计文档和源代码保存路径后,即可生成代码.</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>菜单 -&gt; 工具 -&gt; 生成枚举代码</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>目标计划</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>Java 系 Spring MVC4 JSR-349 验证标准的完善.</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>数据模型(Spring)</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>package HRSystemOnline;</t>
@@ -1025,97 +1025,97 @@
   </si>
   <si>
     <t>数据模型(ASP.NET)</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>Native2ASCII</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>Java中的Property文档,需要将本地语言转为机器语言,这个工具能够自动转换单个字符串.</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>菜单 -&gt; 工具 -&gt; Native2ASCII</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>变更履历</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>2014/12/19</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>增加了Native AscII 工具</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>这里支持 Native -&gt; ASCII 和 ASCII -&gt; Native 的双向转换.</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>请在Native或者ASCII里面填入内容.系统将自动判断转换方向.</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>如果需要批量转换,请先在Excel里填写好转换内容,再执行批量转换</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>*批量转换也支持双向转换,请按照需求填写内容.系统将自动转换直到 No 列为空.</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>2014/12/22</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>增加了Struts2的数据验证处理</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>2014/12/23</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>增加MySql建表语句功能</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>项目的NameSpace，以后生成的Model的命名空间会是 NameSpace.Models(.NET),Java的Package名称也在这里设定</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>数据表结构生成</t>
   </si>
   <si>
     <t>在数据设计书编辑后,可以通过工具自动生成数据库的CreateTable语句.</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>MySql篇</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>字符串</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>varchar</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>需要长度提示</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>整型</t>
   </si>
   <si>
     <t>int</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>布尔值</t>
@@ -1125,7 +1125,7 @@
   </si>
   <si>
     <t>日期(包含时间)</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>datetime</t>
@@ -1135,15 +1135,15 @@
   </si>
   <si>
     <t>*暂时默认有且只有一个主键,主键是数字自增主健.</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>&lt;考虑到旗标型枚举,所以将类型定义扩大为smallint.&gt;</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>自动生成代码示例</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>DROP TABLE IF EXISTS `test`.`Candidate`;</t>
@@ -1189,26 +1189,26 @@
   </si>
   <si>
     <t>增加 Struts2路由编辑</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>Struts2路由</t>
   </si>
   <si>
     <t>通过读取Excel文档自动生成Struts的路由配置部分内容.</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>菜单 -&gt; 工具 -&gt; Struts2路由</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>读入文件格式如下</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>生成文件</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>&lt;struts&gt;</t>
@@ -1263,38 +1263,38 @@
   </si>
   <si>
     <t>这里只是Struts的路由部分的配置,在实际使用中,需要进行一些修改.</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>2015/1/4</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>增加代码片断功能</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>代码片断</t>
   </si>
   <si>
     <t>将一些常用的代码或者知识,收集到一起,便于以后查阅和使用.</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>检索功能支持标题和描述,Tag检索</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>2015/1/30</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>增强了数据模型定义</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>EnumExtention.cs</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1310,7 +1310,7 @@
       </rPr>
       <t>\SourceCode</t>
     </r>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1336,19 +1336,19 @@
       </rPr>
       <t>\Document</t>
     </r>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>\Enum\ExtendSourceCode</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>枚举辅助代码</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>EnumDisplayNameAttribute.cs</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1364,23 +1364,23 @@
       </rPr>
       <t>isplayName属性代码</t>
     </r>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>放置在数据模型代码工程中</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>放置于\WebSite\Views\Shared\EditorTemplates中</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>Enum具体的编码</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>先确保所有的Enum附加代码放置在正确的文件夹,并且添加了适当的引用</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1426,15 +1426,15 @@
       </rPr>
       <t>,需要手动添加.</t>
     </r>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>添加的形式则和普通的字段一样.</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>Create视图的时候,请保证设定一个New过的模型到ViewData.Model,不然会发生Null引用错误.</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">        public ActionResult Create()</t>
@@ -1456,19 +1456,19 @@
       </rPr>
       <t>new Interview();</t>
     </r>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>EnumFlags.cs</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>Enum.cs</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>代码通过 UIHint属性来控制 字段使用的模板,所以自动生成的代码应该象这个样子:</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">            /// &lt;summary&gt;</t>
@@ -1532,11 +1532,11 @@
   </si>
   <si>
     <t>名字空间</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>该枚举的名字空间</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1563,43 +1563,43 @@
       </rPr>
       <t>在Enum生成代码中,请注意.</t>
     </r>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>注意,系统将自动添加 "0:"字符,所以这里填写的时候不要添加 "0:"</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>MongoDB的时候,日期将使用Local模式</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>2015/2/3</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>增加了MongoDB的支持</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>如果名字空间不填写的话,这里将自动使用工程的名字空间</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>2015/2/4</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>增加了类描述</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>增加了复制所有代码到真实工程</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>增加了元数据类型:列表</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1625,19 +1625,19 @@
       </rPr>
       <t>中,需要添加EnumDisplayNameAttibute的命名空间</t>
     </r>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>基类</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>系统支持 CompanyTable,MasterTable两种扩展数据模型</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>MasterTable,继承了CompanyTable,同时带有 Name名称和Description描述字段</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>MasterTable.cs</t>
@@ -1656,135 +1656,135 @@
       </rPr>
       <t>代码</t>
     </r>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>有时候MVC5.0的Js下面的一些验证相关的JS会被误删除造成验证无效。</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>这个时候可以新建一个MVC5.0的工程，然后将Js下面的文件全部复制过去即可。</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>关于自动添加的字段</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>CollectionName:</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>Prefix</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>MvcTitle</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>用作画面标题的字符</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>数据表名称(附加一个静态方法)</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>数据编号的前缀(附加一个静态方法)</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>2015/2/5</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>增加了MvcTitle字段</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>MVC5开发</t>
   </si>
   <si>
     <t>业务模型的设计</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>MasterTable</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>数据模型</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>普通的数据</t>
   </si>
   <si>
     <t>CompanyTable</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>选项列表</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>提供Master数据</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>固定的Master数据</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>模板的修改</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>标准模板</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>C:\Program Files (x86)\Microsoft Visual Studio 12.0\Common7\IDE\Extensions\Microsoft\Web\Mvc\Scaffolding\Templates</t>
   </si>
   <si>
     <t>将标准模板导入到工程中,建立CodeTemplates目录,MVC本地优先级高于标准模板</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>将模板进行本地化,同时使用 MvcTitle(本工具为每个模型自动添加)这样的标题字段,填充相应位置</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>例:</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>&lt;h2&gt;@&lt;#= ViewDataTypeName#&gt;.MvcTitle 列表&lt;/h2&gt;</t>
   </si>
   <si>
     <t>注意,日期形式的时候,html5的Date控件要求格式必须是 yyyy-MM-dd所以这里进行强制设定</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>关于自动导出到MVC的约定</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">这里约定将 </t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">枚举放入  </t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">数据模型放入 </t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>Master表放在</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1810,7 +1810,7 @@
       </rPr>
       <t>文件夹，</t>
     </r>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1846,27 +1846,27 @@
       </rPr>
       <t>文件夹,</t>
     </r>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>Master 文件夹</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>2015/2/11</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>日期型数据在HTML5控件中无法表示的对应</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>增加了Master表自动名字修正功能</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>将Master表和Model表分割开来</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1892,7 +1892,7 @@
       </rPr>
       <t>\Document</t>
     </r>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1918,15 +1918,15 @@
       </rPr>
       <t>\SourceCode</t>
     </r>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>辅助表设计书</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>辅助表代码</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1952,31 +1952,31 @@
       </rPr>
       <t>的工程，而是管理设计文档的工程，或者是WorkSpace这样的一个概念。</t>
     </r>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>2015/2/26</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>增加了修改工程属性的功能</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>修改了一些Bug</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>修改工程</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>菜单 -&gt; 数据定义 -&gt; 修改工程</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>打开工程后可以通过修改工程菜单对工程属性进行修改</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1992,7 +1992,7 @@
       </rPr>
       <t>.系统将自动载入目录结构,更新文件.</t>
     </r>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>using MongoDB.Bson.Serialization.Attributes;</t>
@@ -2360,38 +2360,38 @@
   </si>
   <si>
     <t>2015/4/3</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>增加了CreateOrEdit的CSHTML文件的自动生成</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>CreateOrEdit页面</t>
   </si>
   <si>
     <t>虽然MVC有T4模板，但是，内置的T4模板无法满足定制的要求。</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>工具将自动根据模型生成CreateOrEdit页面的Cshtml文件</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>日期型</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>日期型控件封装了 jQuery UI 的 DateTime组件</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>辅助表型</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>辅助表分为单值和多值两种类型。单值在UI上表现为一个下拉列表框，多值表现为一组CheckBox</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>@model TalentInfo</t>
@@ -2581,85 +2581,85 @@
   </si>
   <si>
     <t>初始状态</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>展开后</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>单值类型</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>多值类型</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>约定：</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>这里约定多值类型的辅助表，列表的名称为 MasterTableName去掉"M_"前缀，加上 List后缀</t>
   </si>
   <si>
     <t>同时为了统一代码，列表名称尽可能和项目名称保持一致。</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>MasterTableName：</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>M_MarketBG</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">                @(HtmlUIHelper.GetMultiValueUI&lt;M_MarketBG&gt;("MarketBGList", ViewBag.MarketBGList, Model.MarketBGList))</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>ViewBag.MarketBGList</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>MarketBGList</t>
   </si>
   <si>
     <t>列表名称：</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>项目名称：</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>同时为了统一代码，项目名称尽可能和MasterTableName保持一致。</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">                @(HtmlUIHelper.GetSingleValueUI&lt;M_TechniqueBG&gt;("TechniqueBG", ViewBag.TechniqueBGList, Model.TechniqueBG))</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>M_TechniqueBG</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>ViewBag.TechniqueBGList</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>TechniqueBG</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>布尔型</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>布尔型在实际使用时候，需要进行一些手工美化</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2685,70 +2685,70 @@
       </rPr>
       <t>）。</t>
     </r>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>辅助表</t>
   </si>
   <si>
     <t>辅助表（MasterTable）里面存放着一些序列。当我们输入数据的时候，为了便利性和防止输入错误，</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>我们将一些项目可能出现的值，以表格的形式保存起来，输入的时候，不能自由填写，只能从列表里面选择。</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>这样的列表是一种辅助性质的列表，所以我们约定称为辅助表。</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>辅助表中包含了一种专门用来表示状态的辅助表，我们称为状态辅助表。</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>这种表格能够定义数据的表示颜色，表示顺序，是对于辅助表的一种扩展。</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>辅助表和枚举</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>辅助表和枚举的区别是：枚举用户相对稳定的序列，例如一年四季的序列，HTTP的状态。</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>辅助表则是用于更新比较频繁的序列，当然，可以将枚举也看成一种辅助表。</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>在编码上，枚举可能更便利，辅助表在各种封装方法的帮助下，也可以做到很简洁。</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>另外，辅助表可以使用缓存系统进行加速，提高性能，枚举则完全在编译的时候变成程序的一部分，无需缓存。</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>约定</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>这里约定辅助表（MasterTable）以 "M_"为前缀</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>整个系统很大程度上需要各种辅助表的支持。对于停止使用的Master表，可以设置为 不启用</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>辅助表可以用在单个值的选取上，例如状态的选取，可以用在多个值得选取上，例如技能的选取。</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>带有评价的多项目</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2764,47 +2764,47 @@
       </rPr>
       <t>辅助表，辅助评价表</t>
     </r>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>列表型</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>可以设定元数据是不是List型。辅助评价表暂时只支持列表型</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>Flg</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>Flg分为Skip和Hidden两种，</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>Skip 将被系统忽略，如果该项目不需要了，但是又想保留完整履历，可以将项目设置为Skip</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>Hidden 标记一个项目为Hidden类型，例如ID这种自动设定的项目，就因该设置为Hidden</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>同时确认一下代码中是否添加了这些JS的引用。</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>关于验证失效的问题</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>数据模型可以在VS中在T4模板的作用在直接生成UI界面。</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>本工具也提供了功能更加强大的UI生成模块。</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2840,15 +2840,15 @@
       </rPr>
       <t>和报表界面.</t>
     </r>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>2015/4/13</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>Filter特性的追加</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2894,7 +2894,7 @@
       </rPr>
       <t>编号,Code项目编号主键</t>
     </r>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2910,23 +2910,23 @@
       </rPr>
       <t>Organization</t>
     </r>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>Organization.cs</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>Organization代码</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>在多个值的选取上，还可以支持五个级别的等级的选取。（参考：CreateOrEdit页面：带有评价的多项目）</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>如果列表还带有分类的话,可以使用CatalogMasterTable</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>using InfraStructure;</t>
@@ -3499,38 +3499,38 @@
   </si>
   <si>
     <t>ASP.NET MVC5的诸多功能,需要InfraStructure这个DLL的支持.数据库暂时支持无需ORM的MongoDB.</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>.Net Framework 4.5</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>2015/6/26</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>强化了Struts2的数据验证处理</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">CreateOrEdit - ASP.NET MVC5 </t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>Struts2验证</t>
   </si>
   <si>
     <t>通过读取验证设定文档,自动生成Struts2使用的Action单位的验证用XML.</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>验证设定文档和前面的ASP.NET MVC文档结构一致.</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>同时支持内联和外置两种错误信息表示方式.</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>&lt;?xml version="1.0" encoding="utf-8"?&gt;</t>
@@ -3594,7 +3594,7 @@
   </si>
   <si>
     <t>LoginAction-validation.xml</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5275,19 +5275,19 @@
   </si>
   <si>
     <t>参考:Struts2内置的验证类型</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>2015/7/10</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>Spring代码中HibernateORM的加入</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>2015/7/24</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5303,11 +5303,11 @@
       </rPr>
       <t>ava的属性中,布尔型的 getXXX -&gt; isXXX</t>
     </r>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>2015/11/20</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5323,23 +5323,23 @@
       </rPr>
       <t>final的Model代码生成功能的加入</t>
     </r>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>2015/11/25</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>修正了Java中没有DateTime类型的BUG</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>SQL文做成的时候,添加了Schema的填写,修正了没有主键时候SQL错误</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>数据模型(JFinal)</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>package dao;</t>
@@ -5370,7 +5370,7 @@
       </rPr>
       <t>,Struts2,JFinal。</t>
     </r>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5386,7 +5386,7 @@
       </rPr>
       <t>final的简单ORM</t>
     </r>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>import java.util.ArrayList;</t>
@@ -5579,7 +5579,7 @@
   </si>
   <si>
     <t>使用方法</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>import com.jfinal.plugin.activerecord.ActiveRecordPlugin;</t>
@@ -5634,23 +5634,23 @@
   </si>
   <si>
     <t>2015/11/26</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>增加单个Excel文件包含多个数据模型的支持</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>2015/12/16</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>为Jfinal增加了浮点型的处理(其他暂时没有对应)</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>增加了模型版本号的概念</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5666,14 +5666,64 @@
       </rPr>
       <t>3.6</t>
     </r>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015/12/22</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>N</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>et</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>增加了浮点型的处理</t>
+    </r>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="48">
+  <fonts count="49">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5681,6 +5731,13 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -6124,11 +6181,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -6143,55 +6197,61 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="30" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
+    <xf numFmtId="14" fontId="31" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="27" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="28" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -6206,55 +6266,55 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="22" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="21" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="14" fontId="19" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -6263,10 +6323,10 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -6275,25 +6335,28 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1">
@@ -6302,22 +6365,22 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -8393,9 +8456,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="D3:M84"/>
+  <dimension ref="D3:M86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AS78" sqref="AS78"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -8664,7 +8729,7 @@
       <c r="F83" s="68" t="s">
         <v>752</v>
       </c>
-      <c r="M83" s="67" t="s">
+      <c r="M83" s="69" t="s">
         <v>753</v>
       </c>
     </row>
@@ -8673,8 +8738,21 @@
         <v>754</v>
       </c>
     </row>
+    <row r="85" spans="6:13" ht="15" customHeight="1">
+      <c r="F85" s="70" t="s">
+        <v>756</v>
+      </c>
+      <c r="M85" s="69" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="86" spans="6:13" ht="15" customHeight="1">
+      <c r="M86" s="69" t="s">
+        <v>365</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="28" type="noConversion"/>
+  <phoneticPr fontId="29" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -8947,7 +9025,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="28" type="noConversion"/>
+  <phoneticPr fontId="29" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -9582,7 +9660,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="28" type="noConversion"/>
+  <phoneticPr fontId="29" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10311,7 +10389,7 @@
       <c r="AQ35" s="21"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="28" type="noConversion"/>
+  <phoneticPr fontId="29" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -10957,7 +11035,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="28" type="noConversion"/>
+  <phoneticPr fontId="29" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -11077,7 +11155,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="28" type="noConversion"/>
+  <phoneticPr fontId="29" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -11371,7 +11449,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="28" type="noConversion"/>
+  <phoneticPr fontId="29" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -11425,7 +11503,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="28" type="noConversion"/>
+  <phoneticPr fontId="29" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -11461,7 +11539,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="28" type="noConversion"/>
+  <phoneticPr fontId="29" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -11555,7 +11633,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="28" type="noConversion"/>
+  <phoneticPr fontId="29" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -11807,7 +11885,7 @@
       <c r="D129" s="5"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="28" type="noConversion"/>
+  <phoneticPr fontId="29" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -12266,7 +12344,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="28" type="noConversion"/>
+  <phoneticPr fontId="29" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I22:I28">
       <formula1>$AE$4:$AE$9</formula1>
@@ -12379,7 +12457,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="28" type="noConversion"/>
+  <phoneticPr fontId="29" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -12698,7 +12776,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="28" type="noConversion"/>
+  <phoneticPr fontId="29" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -13608,7 +13686,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="28" type="noConversion"/>
+  <phoneticPr fontId="29" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -13872,7 +13950,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="28" type="noConversion"/>
+  <phoneticPr fontId="29" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -14494,7 +14572,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="28" type="noConversion"/>
+  <phoneticPr fontId="29" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -15098,7 +15176,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="28" type="noConversion"/>
+  <phoneticPr fontId="29" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/DevKit/Help/开发辅助工具使用手册.xlsx
+++ b/DevKit/Help/开发辅助工具使用手册.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" firstSheet="13" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="目的" sheetId="1" r:id="rId1"/>
@@ -25,134 +25,135 @@
     <sheet name="Native2ASCII" sheetId="6" r:id="rId16"/>
     <sheet name="代码片断" sheetId="9" r:id="rId17"/>
     <sheet name="MVC5开发" sheetId="10" r:id="rId18"/>
+    <sheet name="MVC5迁移MVC6工具" sheetId="19" r:id="rId19"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1018" uniqueCount="758">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="762">
   <si>
     <t>目的</t>
   </si>
   <si>
     <t>通过使用工具，提高工作效率，防止手工编码的低级错误，消减代码复查的工作时间。</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>工程</t>
   </si>
   <si>
     <t>新建工程</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>菜单 -&gt; 文件 -&gt; 新建工程</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>*暂时请不要使用Java</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>项目名称：</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>这个项目的名字，可以是任意文字</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>命名空间</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>新建工程后，系统将自动添加以下文件夹</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>\Model\Document</t>
   </si>
   <si>
     <t>数据模型设计书</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>\Model\SourceCode</t>
   </si>
   <si>
     <t>数据模型代码</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>枚举代码文件夹</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>*枚举代码文件夹中的文件将在枚举中介绍</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>同时，系统会生成 Project.xml文件</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>打开工程</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>菜单 -&gt; 文件 -&gt; 打开工程</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>数据模型</t>
   </si>
   <si>
     <t>工具通过将设计书直接转化为Model代码的方式，使得数据模型的编码环节做到自动化。</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>设计人员只需要填写完数据设计式样书，则工具可以完成代码的自动生成。</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>基本</t>
   </si>
   <si>
     <t>No</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>属性名</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>元数据类型</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>枚举类型</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>显示名称</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>编号，暂时没有什么作用</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>Model的变量名称，请使用符合C#变量名称的字符串</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>枚举类型的完整类型名称</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>这个项目在Web页显示时候的名称</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>校验</t>
@@ -162,197 +163,197 @@
   </si>
   <si>
     <t>是否为必须项目</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>错误信息</t>
   </si>
   <si>
     <t>错误信息</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>数值范围</t>
   </si>
   <si>
     <t>最大值</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>最小值</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>字符串长度</t>
   </si>
   <si>
     <t>模式</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>正则表达式</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>格式</t>
   </si>
   <si>
     <t>使用类型</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>显示模式</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>这个字段在使用的时候的类型，例如电子邮件，电话号码</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>这个字段在表示模式的时候，如何显示。</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>版本控制</t>
   </si>
   <si>
     <t>省略</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>项目是ID这样的，不希望直接被页面编辑的项目。</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>编号项目（布尔型）</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>是/否（布尔型）</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>*填写的时候，如果是 （布尔型） 的填写项，请在格子里面填写任意字符表示选中。</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>代码的生成</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>将设计书放在Document文件夹下，选择 菜单 -&gt; 工程 -&gt; 生成所有模型代码  系统将自动重新生成所有的代码。</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>生成的代码直接可以给VS使用，作为生成View的数据源头。</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>注意：Language这样的枚举，VS无法自动生成代码，需要手动添加</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>同时，旗标类型的枚举，需要其他的代码的配合，这个在枚举中介绍。</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>枚举类型分为普通枚举和旗标枚举</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>普通枚举：一个变量值只可能有一种枚举状态，则使用普通枚举。</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>旗标枚举：一个变量可能同时存在多种枚举状态，则使用旗标枚举。</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>例如：小明 同时会 日语 和 英语 ，则语言就是一个旗标枚举。</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>例如：如果一家超市，每周只有一天休息，则星期几休息就是一个一般枚举。</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>枚举</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>枚举类型</t>
   </si>
   <si>
     <t>数据模型设计书项目说明</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>枚举设计书项目说明</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>枚举名称：</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>Flag型  (布尔型）</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>是否为旗标枚举</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>枚举量</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>这个枚举的名称，必须符合C#变量名规则</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>表示某个枚举的变量，必须符合C#变量名规则</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>枚举显示名</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>枚举在画面上显示的名字</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>枚举值</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>枚举在系统内部的名字</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>Enum附加代码</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>VS系统将会把Enum类型作为数字处理，如果需要在画面显示的时候，将普通枚举作为下拉列表，旗标枚举作为多个复选框，</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>请将新建工程时候的Enum文件夹下面的代码放入VS的项目中。</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>Enum辅助代码</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>旗标枚举的模板</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>普通枚举的模板</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>using System;</t>
@@ -398,67 +399,67 @@
   </si>
   <si>
     <t>界面说明</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>适用范围</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>工具环境</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>版本情报</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>如果你只需要生成一个模型,则可以使用 菜单 -&gt; 工具 -&gt; 生成数据模型来生成指定数据模型.</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>允许的最大值</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>允许的最小值</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>允许的最大字符串长度</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>允许的最小字符串长度</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>(系统在编辑的时候,将通过浏览器内置的html5功能检查输入是否合法)</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>工具</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>指定枚举设计文档和源代码保存路径后,即可生成代码.</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>菜单 -&gt; 工具 -&gt; 生成枚举代码</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>目标计划</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>Java 系 Spring MVC4 JSR-349 验证标准的完善.</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>数据模型(Spring)</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>package HRSystemOnline;</t>
@@ -1025,97 +1026,97 @@
   </si>
   <si>
     <t>数据模型(ASP.NET)</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>Native2ASCII</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>Java中的Property文档,需要将本地语言转为机器语言,这个工具能够自动转换单个字符串.</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>菜单 -&gt; 工具 -&gt; Native2ASCII</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>变更履历</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>2014/12/19</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>增加了Native AscII 工具</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>这里支持 Native -&gt; ASCII 和 ASCII -&gt; Native 的双向转换.</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>请在Native或者ASCII里面填入内容.系统将自动判断转换方向.</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>如果需要批量转换,请先在Excel里填写好转换内容,再执行批量转换</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>*批量转换也支持双向转换,请按照需求填写内容.系统将自动转换直到 No 列为空.</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>2014/12/22</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>增加了Struts2的数据验证处理</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>2014/12/23</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>增加MySql建表语句功能</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>项目的NameSpace，以后生成的Model的命名空间会是 NameSpace.Models(.NET),Java的Package名称也在这里设定</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>数据表结构生成</t>
   </si>
   <si>
     <t>在数据设计书编辑后,可以通过工具自动生成数据库的CreateTable语句.</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>MySql篇</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>字符串</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>varchar</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>需要长度提示</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>整型</t>
   </si>
   <si>
     <t>int</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>布尔值</t>
@@ -1125,7 +1126,7 @@
   </si>
   <si>
     <t>日期(包含时间)</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>datetime</t>
@@ -1135,15 +1136,15 @@
   </si>
   <si>
     <t>*暂时默认有且只有一个主键,主键是数字自增主健.</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>&lt;考虑到旗标型枚举,所以将类型定义扩大为smallint.&gt;</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>自动生成代码示例</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>DROP TABLE IF EXISTS `test`.`Candidate`;</t>
@@ -1189,26 +1190,26 @@
   </si>
   <si>
     <t>增加 Struts2路由编辑</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>Struts2路由</t>
   </si>
   <si>
     <t>通过读取Excel文档自动生成Struts的路由配置部分内容.</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>菜单 -&gt; 工具 -&gt; Struts2路由</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>读入文件格式如下</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>生成文件</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>&lt;struts&gt;</t>
@@ -1263,38 +1264,38 @@
   </si>
   <si>
     <t>这里只是Struts的路由部分的配置,在实际使用中,需要进行一些修改.</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>2015/1/4</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>增加代码片断功能</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>代码片断</t>
   </si>
   <si>
     <t>将一些常用的代码或者知识,收集到一起,便于以后查阅和使用.</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>检索功能支持标题和描述,Tag检索</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>2015/1/30</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>增强了数据模型定义</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>EnumExtention.cs</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1310,7 +1311,7 @@
       </rPr>
       <t>\SourceCode</t>
     </r>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1336,19 +1337,19 @@
       </rPr>
       <t>\Document</t>
     </r>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>\Enum\ExtendSourceCode</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>枚举辅助代码</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>EnumDisplayNameAttribute.cs</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1364,23 +1365,23 @@
       </rPr>
       <t>isplayName属性代码</t>
     </r>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>放置在数据模型代码工程中</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>放置于\WebSite\Views\Shared\EditorTemplates中</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>Enum具体的编码</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>先确保所有的Enum附加代码放置在正确的文件夹,并且添加了适当的引用</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1426,15 +1427,15 @@
       </rPr>
       <t>,需要手动添加.</t>
     </r>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>添加的形式则和普通的字段一样.</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>Create视图的时候,请保证设定一个New过的模型到ViewData.Model,不然会发生Null引用错误.</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">        public ActionResult Create()</t>
@@ -1456,19 +1457,19 @@
       </rPr>
       <t>new Interview();</t>
     </r>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>EnumFlags.cs</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>Enum.cs</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>代码通过 UIHint属性来控制 字段使用的模板,所以自动生成的代码应该象这个样子:</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">            /// &lt;summary&gt;</t>
@@ -1532,11 +1533,11 @@
   </si>
   <si>
     <t>名字空间</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>该枚举的名字空间</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1563,43 +1564,43 @@
       </rPr>
       <t>在Enum生成代码中,请注意.</t>
     </r>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>注意,系统将自动添加 "0:"字符,所以这里填写的时候不要添加 "0:"</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>MongoDB的时候,日期将使用Local模式</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>2015/2/3</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>增加了MongoDB的支持</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>如果名字空间不填写的话,这里将自动使用工程的名字空间</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>2015/2/4</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>增加了类描述</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>增加了复制所有代码到真实工程</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>增加了元数据类型:列表</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1625,19 +1626,19 @@
       </rPr>
       <t>中,需要添加EnumDisplayNameAttibute的命名空间</t>
     </r>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>基类</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>系统支持 CompanyTable,MasterTable两种扩展数据模型</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>MasterTable,继承了CompanyTable,同时带有 Name名称和Description描述字段</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>MasterTable.cs</t>
@@ -1656,135 +1657,135 @@
       </rPr>
       <t>代码</t>
     </r>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>有时候MVC5.0的Js下面的一些验证相关的JS会被误删除造成验证无效。</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>这个时候可以新建一个MVC5.0的工程，然后将Js下面的文件全部复制过去即可。</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>关于自动添加的字段</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>CollectionName:</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>Prefix</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>MvcTitle</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>用作画面标题的字符</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>数据表名称(附加一个静态方法)</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>数据编号的前缀(附加一个静态方法)</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>2015/2/5</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>增加了MvcTitle字段</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>MVC5开发</t>
   </si>
   <si>
     <t>业务模型的设计</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>MasterTable</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>数据模型</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>普通的数据</t>
   </si>
   <si>
     <t>CompanyTable</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>选项列表</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>提供Master数据</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>固定的Master数据</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>模板的修改</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>标准模板</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>C:\Program Files (x86)\Microsoft Visual Studio 12.0\Common7\IDE\Extensions\Microsoft\Web\Mvc\Scaffolding\Templates</t>
   </si>
   <si>
     <t>将标准模板导入到工程中,建立CodeTemplates目录,MVC本地优先级高于标准模板</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>将模板进行本地化,同时使用 MvcTitle(本工具为每个模型自动添加)这样的标题字段,填充相应位置</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>例:</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>&lt;h2&gt;@&lt;#= ViewDataTypeName#&gt;.MvcTitle 列表&lt;/h2&gt;</t>
   </si>
   <si>
     <t>注意,日期形式的时候,html5的Date控件要求格式必须是 yyyy-MM-dd所以这里进行强制设定</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>关于自动导出到MVC的约定</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">这里约定将 </t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">枚举放入  </t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">数据模型放入 </t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>Master表放在</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1810,7 +1811,7 @@
       </rPr>
       <t>文件夹，</t>
     </r>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1846,27 +1847,27 @@
       </rPr>
       <t>文件夹,</t>
     </r>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>Master 文件夹</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>2015/2/11</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>日期型数据在HTML5控件中无法表示的对应</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>增加了Master表自动名字修正功能</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>将Master表和Model表分割开来</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1892,7 +1893,7 @@
       </rPr>
       <t>\Document</t>
     </r>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1918,15 +1919,15 @@
       </rPr>
       <t>\SourceCode</t>
     </r>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>辅助表设计书</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>辅助表代码</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1952,31 +1953,31 @@
       </rPr>
       <t>的工程，而是管理设计文档的工程，或者是WorkSpace这样的一个概念。</t>
     </r>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>2015/2/26</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>增加了修改工程属性的功能</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>修改了一些Bug</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>修改工程</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>菜单 -&gt; 数据定义 -&gt; 修改工程</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>打开工程后可以通过修改工程菜单对工程属性进行修改</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1992,7 +1993,7 @@
       </rPr>
       <t>.系统将自动载入目录结构,更新文件.</t>
     </r>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>using MongoDB.Bson.Serialization.Attributes;</t>
@@ -2360,38 +2361,38 @@
   </si>
   <si>
     <t>2015/4/3</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>增加了CreateOrEdit的CSHTML文件的自动生成</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>CreateOrEdit页面</t>
   </si>
   <si>
     <t>虽然MVC有T4模板，但是，内置的T4模板无法满足定制的要求。</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>工具将自动根据模型生成CreateOrEdit页面的Cshtml文件</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>日期型</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>日期型控件封装了 jQuery UI 的 DateTime组件</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>辅助表型</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>辅助表分为单值和多值两种类型。单值在UI上表现为一个下拉列表框，多值表现为一组CheckBox</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>@model TalentInfo</t>
@@ -2581,85 +2582,85 @@
   </si>
   <si>
     <t>初始状态</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>展开后</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>单值类型</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>多值类型</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>约定：</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>这里约定多值类型的辅助表，列表的名称为 MasterTableName去掉"M_"前缀，加上 List后缀</t>
   </si>
   <si>
     <t>同时为了统一代码，列表名称尽可能和项目名称保持一致。</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>MasterTableName：</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>M_MarketBG</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">                @(HtmlUIHelper.GetMultiValueUI&lt;M_MarketBG&gt;("MarketBGList", ViewBag.MarketBGList, Model.MarketBGList))</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>ViewBag.MarketBGList</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>MarketBGList</t>
   </si>
   <si>
     <t>列表名称：</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>项目名称：</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>同时为了统一代码，项目名称尽可能和MasterTableName保持一致。</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">                @(HtmlUIHelper.GetSingleValueUI&lt;M_TechniqueBG&gt;("TechniqueBG", ViewBag.TechniqueBGList, Model.TechniqueBG))</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>M_TechniqueBG</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>ViewBag.TechniqueBGList</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>TechniqueBG</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>布尔型</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>布尔型在实际使用时候，需要进行一些手工美化</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2685,70 +2686,70 @@
       </rPr>
       <t>）。</t>
     </r>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>辅助表</t>
   </si>
   <si>
     <t>辅助表（MasterTable）里面存放着一些序列。当我们输入数据的时候，为了便利性和防止输入错误，</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>我们将一些项目可能出现的值，以表格的形式保存起来，输入的时候，不能自由填写，只能从列表里面选择。</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>这样的列表是一种辅助性质的列表，所以我们约定称为辅助表。</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>辅助表中包含了一种专门用来表示状态的辅助表，我们称为状态辅助表。</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>这种表格能够定义数据的表示颜色，表示顺序，是对于辅助表的一种扩展。</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>辅助表和枚举</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>辅助表和枚举的区别是：枚举用户相对稳定的序列，例如一年四季的序列，HTTP的状态。</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>辅助表则是用于更新比较频繁的序列，当然，可以将枚举也看成一种辅助表。</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>在编码上，枚举可能更便利，辅助表在各种封装方法的帮助下，也可以做到很简洁。</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>另外，辅助表可以使用缓存系统进行加速，提高性能，枚举则完全在编译的时候变成程序的一部分，无需缓存。</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>约定</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>这里约定辅助表（MasterTable）以 "M_"为前缀</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>整个系统很大程度上需要各种辅助表的支持。对于停止使用的Master表，可以设置为 不启用</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>辅助表可以用在单个值的选取上，例如状态的选取，可以用在多个值得选取上，例如技能的选取。</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>带有评价的多项目</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2764,47 +2765,47 @@
       </rPr>
       <t>辅助表，辅助评价表</t>
     </r>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>列表型</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>可以设定元数据是不是List型。辅助评价表暂时只支持列表型</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>Flg</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>Flg分为Skip和Hidden两种，</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>Skip 将被系统忽略，如果该项目不需要了，但是又想保留完整履历，可以将项目设置为Skip</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>Hidden 标记一个项目为Hidden类型，例如ID这种自动设定的项目，就因该设置为Hidden</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>同时确认一下代码中是否添加了这些JS的引用。</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>关于验证失效的问题</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>数据模型可以在VS中在T4模板的作用在直接生成UI界面。</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>本工具也提供了功能更加强大的UI生成模块。</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2840,15 +2841,15 @@
       </rPr>
       <t>和报表界面.</t>
     </r>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>2015/4/13</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>Filter特性的追加</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2894,7 +2895,7 @@
       </rPr>
       <t>编号,Code项目编号主键</t>
     </r>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2910,23 +2911,23 @@
       </rPr>
       <t>Organization</t>
     </r>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>Organization.cs</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>Organization代码</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>在多个值的选取上，还可以支持五个级别的等级的选取。（参考：CreateOrEdit页面：带有评价的多项目）</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>如果列表还带有分类的话,可以使用CatalogMasterTable</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>using InfraStructure;</t>
@@ -3499,38 +3500,38 @@
   </si>
   <si>
     <t>ASP.NET MVC5的诸多功能,需要InfraStructure这个DLL的支持.数据库暂时支持无需ORM的MongoDB.</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>.Net Framework 4.5</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>2015/6/26</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>强化了Struts2的数据验证处理</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">CreateOrEdit - ASP.NET MVC5 </t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>Struts2验证</t>
   </si>
   <si>
     <t>通过读取验证设定文档,自动生成Struts2使用的Action单位的验证用XML.</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>验证设定文档和前面的ASP.NET MVC文档结构一致.</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>同时支持内联和外置两种错误信息表示方式.</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>&lt;?xml version="1.0" encoding="utf-8"?&gt;</t>
@@ -3594,7 +3595,7 @@
   </si>
   <si>
     <t>LoginAction-validation.xml</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5275,19 +5276,19 @@
   </si>
   <si>
     <t>参考:Struts2内置的验证类型</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>2015/7/10</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>Spring代码中HibernateORM的加入</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>2015/7/24</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5303,11 +5304,11 @@
       </rPr>
       <t>ava的属性中,布尔型的 getXXX -&gt; isXXX</t>
     </r>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>2015/11/20</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5323,23 +5324,23 @@
       </rPr>
       <t>final的Model代码生成功能的加入</t>
     </r>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>2015/11/25</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>修正了Java中没有DateTime类型的BUG</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>SQL文做成的时候,添加了Schema的填写,修正了没有主键时候SQL错误</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>数据模型(JFinal)</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>package dao;</t>
@@ -5370,7 +5371,7 @@
       </rPr>
       <t>,Struts2,JFinal。</t>
     </r>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5386,7 +5387,7 @@
       </rPr>
       <t>final的简单ORM</t>
     </r>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>import java.util.ArrayList;</t>
@@ -5579,7 +5580,7 @@
   </si>
   <si>
     <t>使用方法</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>import com.jfinal.plugin.activerecord.ActiveRecordPlugin;</t>
@@ -5634,23 +5635,23 @@
   </si>
   <si>
     <t>2015/11/26</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>增加单个Excel文件包含多个数据模型的支持</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>2015/12/16</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>为Jfinal增加了浮点型的处理(其他暂时没有对应)</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>增加了模型版本号的概念</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5666,11 +5667,11 @@
       </rPr>
       <t>3.6</t>
     </r>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>2015/12/22</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5716,14 +5717,41 @@
       </rPr>
       <t>增加了浮点型的处理</t>
     </r>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016/1/14</t>
+    <phoneticPr fontId="31" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>M</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>VC5 -&gt; MVC6 Tool KiffOff</t>
+    </r>
+    <phoneticPr fontId="31" type="noConversion"/>
+  </si>
+  <si>
+    <t>MVC5迁移MVC6工具</t>
+  </si>
+  <si>
+    <t>具体升级步骤如下</t>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="49">
+  <fonts count="51">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5731,6 +5759,20 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -6181,14 +6223,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -6200,55 +6236,67 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="31" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="14" fontId="33" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="28" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="30" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -6260,40 +6308,43 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="24" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="22" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
+    <xf numFmtId="14" fontId="21" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="19" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -6302,19 +6353,19 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="15" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -6323,58 +6374,61 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -6390,9 +6444,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -6536,6 +6587,58 @@
         <a:xfrm>
           <a:off x="1400175" y="7153275"/>
           <a:ext cx="3695700" cy="4857750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1025" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1057275" y="1028700"/>
+          <a:ext cx="6677025" cy="2381250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8456,10 +8559,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="D3:M86"/>
+  <dimension ref="D3:M87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AS78" sqref="AS78"/>
+    <sheetView topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="M89" sqref="M89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15" customHeight="1"/>
@@ -8751,8 +8854,16 @@
         <v>365</v>
       </c>
     </row>
+    <row r="87" spans="6:13" ht="15" customHeight="1">
+      <c r="F87" s="72" t="s">
+        <v>758</v>
+      </c>
+      <c r="M87" s="71" t="s">
+        <v>759</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="29" type="noConversion"/>
+  <phoneticPr fontId="31" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -9025,7 +9136,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="29" type="noConversion"/>
+  <phoneticPr fontId="31" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -9660,7 +9771,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="29" type="noConversion"/>
+  <phoneticPr fontId="31" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10389,7 +10500,7 @@
       <c r="AQ35" s="21"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="29" type="noConversion"/>
+  <phoneticPr fontId="31" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -11035,7 +11146,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="29" type="noConversion"/>
+  <phoneticPr fontId="31" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -11155,7 +11266,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="29" type="noConversion"/>
+  <phoneticPr fontId="31" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -11449,7 +11560,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="29" type="noConversion"/>
+  <phoneticPr fontId="31" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -11503,7 +11614,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="29" type="noConversion"/>
+  <phoneticPr fontId="31" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -11539,7 +11650,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="29" type="noConversion"/>
+  <phoneticPr fontId="31" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -11551,7 +11662,7 @@
   <dimension ref="D3:Z19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Z31" sqref="Z31"/>
+      <selection activeCell="AE28" sqref="AE28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="16.5"/>
@@ -11633,9 +11744,40 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="29" type="noConversion"/>
+  <phoneticPr fontId="31" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="D3:G20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="16384" width="2.625" style="73"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="4:4">
+      <c r="D3" s="1" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="20" spans="7:7">
+      <c r="G20" s="73" t="s">
+        <v>761</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="31" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -11885,7 +12027,7 @@
       <c r="D129" s="5"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="29" type="noConversion"/>
+  <phoneticPr fontId="31" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -12344,7 +12486,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="29" type="noConversion"/>
+  <phoneticPr fontId="31" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I22:I28">
       <formula1>$AE$4:$AE$9</formula1>
@@ -12457,7 +12599,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="29" type="noConversion"/>
+  <phoneticPr fontId="31" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -12776,7 +12918,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="29" type="noConversion"/>
+  <phoneticPr fontId="31" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -13686,7 +13828,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="29" type="noConversion"/>
+  <phoneticPr fontId="31" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -13950,7 +14092,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="29" type="noConversion"/>
+  <phoneticPr fontId="31" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -14572,7 +14714,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="29" type="noConversion"/>
+  <phoneticPr fontId="31" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -15176,7 +15318,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="29" type="noConversion"/>
+  <phoneticPr fontId="31" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/DevKit/Help/开发辅助工具使用手册.xlsx
+++ b/DevKit/Help/开发辅助工具使用手册.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" firstSheet="13" activeTab="18"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="目的" sheetId="1" r:id="rId1"/>
@@ -32,128 +32,128 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="762">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="768">
   <si>
     <t>目的</t>
   </si>
   <si>
     <t>通过使用工具，提高工作效率，防止手工编码的低级错误，消减代码复查的工作时间。</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>工程</t>
   </si>
   <si>
     <t>新建工程</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>菜单 -&gt; 文件 -&gt; 新建工程</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>*暂时请不要使用Java</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>项目名称：</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>这个项目的名字，可以是任意文字</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>命名空间</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>新建工程后，系统将自动添加以下文件夹</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>\Model\Document</t>
   </si>
   <si>
     <t>数据模型设计书</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>\Model\SourceCode</t>
   </si>
   <si>
     <t>数据模型代码</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>枚举代码文件夹</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>*枚举代码文件夹中的文件将在枚举中介绍</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>同时，系统会生成 Project.xml文件</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>打开工程</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>菜单 -&gt; 文件 -&gt; 打开工程</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>数据模型</t>
   </si>
   <si>
     <t>工具通过将设计书直接转化为Model代码的方式，使得数据模型的编码环节做到自动化。</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>设计人员只需要填写完数据设计式样书，则工具可以完成代码的自动生成。</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>基本</t>
   </si>
   <si>
     <t>No</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>属性名</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>元数据类型</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>枚举类型</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>显示名称</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>编号，暂时没有什么作用</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>Model的变量名称，请使用符合C#变量名称的字符串</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>枚举类型的完整类型名称</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>这个项目在Web页显示时候的名称</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>校验</t>
@@ -163,197 +163,197 @@
   </si>
   <si>
     <t>是否为必须项目</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>错误信息</t>
   </si>
   <si>
     <t>错误信息</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>数值范围</t>
   </si>
   <si>
     <t>最大值</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>最小值</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>字符串长度</t>
   </si>
   <si>
     <t>模式</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>正则表达式</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>格式</t>
   </si>
   <si>
     <t>使用类型</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>显示模式</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>这个字段在使用的时候的类型，例如电子邮件，电话号码</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>这个字段在表示模式的时候，如何显示。</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>版本控制</t>
   </si>
   <si>
     <t>省略</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>项目是ID这样的，不希望直接被页面编辑的项目。</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>编号项目（布尔型）</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>是/否（布尔型）</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>*填写的时候，如果是 （布尔型） 的填写项，请在格子里面填写任意字符表示选中。</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>代码的生成</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>将设计书放在Document文件夹下，选择 菜单 -&gt; 工程 -&gt; 生成所有模型代码  系统将自动重新生成所有的代码。</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>生成的代码直接可以给VS使用，作为生成View的数据源头。</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>注意：Language这样的枚举，VS无法自动生成代码，需要手动添加</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>同时，旗标类型的枚举，需要其他的代码的配合，这个在枚举中介绍。</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>枚举类型分为普通枚举和旗标枚举</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>普通枚举：一个变量值只可能有一种枚举状态，则使用普通枚举。</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>旗标枚举：一个变量可能同时存在多种枚举状态，则使用旗标枚举。</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>例如：小明 同时会 日语 和 英语 ，则语言就是一个旗标枚举。</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>例如：如果一家超市，每周只有一天休息，则星期几休息就是一个一般枚举。</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>枚举</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>枚举类型</t>
   </si>
   <si>
     <t>数据模型设计书项目说明</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>枚举设计书项目说明</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>枚举名称：</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>Flag型  (布尔型）</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>是否为旗标枚举</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>枚举量</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>这个枚举的名称，必须符合C#变量名规则</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>表示某个枚举的变量，必须符合C#变量名规则</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>枚举显示名</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>枚举在画面上显示的名字</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>枚举值</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>枚举在系统内部的名字</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>Enum附加代码</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>VS系统将会把Enum类型作为数字处理，如果需要在画面显示的时候，将普通枚举作为下拉列表，旗标枚举作为多个复选框，</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>请将新建工程时候的Enum文件夹下面的代码放入VS的项目中。</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>Enum辅助代码</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>旗标枚举的模板</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>普通枚举的模板</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>using System;</t>
@@ -399,67 +399,67 @@
   </si>
   <si>
     <t>界面说明</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>适用范围</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>工具环境</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>版本情报</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>如果你只需要生成一个模型,则可以使用 菜单 -&gt; 工具 -&gt; 生成数据模型来生成指定数据模型.</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>允许的最大值</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>允许的最小值</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>允许的最大字符串长度</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>允许的最小字符串长度</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>(系统在编辑的时候,将通过浏览器内置的html5功能检查输入是否合法)</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>工具</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>指定枚举设计文档和源代码保存路径后,即可生成代码.</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>菜单 -&gt; 工具 -&gt; 生成枚举代码</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>目标计划</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>Java 系 Spring MVC4 JSR-349 验证标准的完善.</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>数据模型(Spring)</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>package HRSystemOnline;</t>
@@ -1026,97 +1026,97 @@
   </si>
   <si>
     <t>数据模型(ASP.NET)</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>Native2ASCII</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>Java中的Property文档,需要将本地语言转为机器语言,这个工具能够自动转换单个字符串.</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>菜单 -&gt; 工具 -&gt; Native2ASCII</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>变更履历</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>2014/12/19</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>增加了Native AscII 工具</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>这里支持 Native -&gt; ASCII 和 ASCII -&gt; Native 的双向转换.</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>请在Native或者ASCII里面填入内容.系统将自动判断转换方向.</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>如果需要批量转换,请先在Excel里填写好转换内容,再执行批量转换</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>*批量转换也支持双向转换,请按照需求填写内容.系统将自动转换直到 No 列为空.</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>2014/12/22</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>增加了Struts2的数据验证处理</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>2014/12/23</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>增加MySql建表语句功能</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>项目的NameSpace，以后生成的Model的命名空间会是 NameSpace.Models(.NET),Java的Package名称也在这里设定</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>数据表结构生成</t>
   </si>
   <si>
     <t>在数据设计书编辑后,可以通过工具自动生成数据库的CreateTable语句.</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>MySql篇</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>字符串</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>varchar</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>需要长度提示</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>整型</t>
   </si>
   <si>
     <t>int</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>布尔值</t>
@@ -1126,7 +1126,7 @@
   </si>
   <si>
     <t>日期(包含时间)</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>datetime</t>
@@ -1136,15 +1136,15 @@
   </si>
   <si>
     <t>*暂时默认有且只有一个主键,主键是数字自增主健.</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>&lt;考虑到旗标型枚举,所以将类型定义扩大为smallint.&gt;</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>自动生成代码示例</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>DROP TABLE IF EXISTS `test`.`Candidate`;</t>
@@ -1190,26 +1190,26 @@
   </si>
   <si>
     <t>增加 Struts2路由编辑</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>Struts2路由</t>
   </si>
   <si>
     <t>通过读取Excel文档自动生成Struts的路由配置部分内容.</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>菜单 -&gt; 工具 -&gt; Struts2路由</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>读入文件格式如下</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>生成文件</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>&lt;struts&gt;</t>
@@ -1264,38 +1264,38 @@
   </si>
   <si>
     <t>这里只是Struts的路由部分的配置,在实际使用中,需要进行一些修改.</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>2015/1/4</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>增加代码片断功能</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>代码片断</t>
   </si>
   <si>
     <t>将一些常用的代码或者知识,收集到一起,便于以后查阅和使用.</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>检索功能支持标题和描述,Tag检索</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>2015/1/30</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>增强了数据模型定义</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>EnumExtention.cs</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1311,7 +1311,7 @@
       </rPr>
       <t>\SourceCode</t>
     </r>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1337,19 +1337,19 @@
       </rPr>
       <t>\Document</t>
     </r>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>\Enum\ExtendSourceCode</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>枚举辅助代码</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>EnumDisplayNameAttribute.cs</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1365,23 +1365,23 @@
       </rPr>
       <t>isplayName属性代码</t>
     </r>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>放置在数据模型代码工程中</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>放置于\WebSite\Views\Shared\EditorTemplates中</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>Enum具体的编码</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>先确保所有的Enum附加代码放置在正确的文件夹,并且添加了适当的引用</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1427,15 +1427,15 @@
       </rPr>
       <t>,需要手动添加.</t>
     </r>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>添加的形式则和普通的字段一样.</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>Create视图的时候,请保证设定一个New过的模型到ViewData.Model,不然会发生Null引用错误.</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">        public ActionResult Create()</t>
@@ -1457,19 +1457,19 @@
       </rPr>
       <t>new Interview();</t>
     </r>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>EnumFlags.cs</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>Enum.cs</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>代码通过 UIHint属性来控制 字段使用的模板,所以自动生成的代码应该象这个样子:</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">            /// &lt;summary&gt;</t>
@@ -1533,11 +1533,11 @@
   </si>
   <si>
     <t>名字空间</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>该枚举的名字空间</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1564,43 +1564,43 @@
       </rPr>
       <t>在Enum生成代码中,请注意.</t>
     </r>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>注意,系统将自动添加 "0:"字符,所以这里填写的时候不要添加 "0:"</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>MongoDB的时候,日期将使用Local模式</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>2015/2/3</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>增加了MongoDB的支持</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>如果名字空间不填写的话,这里将自动使用工程的名字空间</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>2015/2/4</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>增加了类描述</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>增加了复制所有代码到真实工程</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>增加了元数据类型:列表</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1626,19 +1626,11 @@
       </rPr>
       <t>中,需要添加EnumDisplayNameAttibute的命名空间</t>
     </r>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>基类</t>
-    <phoneticPr fontId="31" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统支持 CompanyTable,MasterTable两种扩展数据模型</t>
-    <phoneticPr fontId="31" type="noConversion"/>
-  </si>
-  <si>
-    <t>MasterTable,继承了CompanyTable,同时带有 Name名称和Description描述字段</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>MasterTable.cs</t>
@@ -1657,135 +1649,135 @@
       </rPr>
       <t>代码</t>
     </r>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>有时候MVC5.0的Js下面的一些验证相关的JS会被误删除造成验证无效。</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>这个时候可以新建一个MVC5.0的工程，然后将Js下面的文件全部复制过去即可。</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>关于自动添加的字段</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>CollectionName:</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>Prefix</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>MvcTitle</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>用作画面标题的字符</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>数据表名称(附加一个静态方法)</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>数据编号的前缀(附加一个静态方法)</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>2015/2/5</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>增加了MvcTitle字段</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>MVC5开发</t>
   </si>
   <si>
     <t>业务模型的设计</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>MasterTable</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>数据模型</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>普通的数据</t>
   </si>
   <si>
     <t>CompanyTable</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>选项列表</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>提供Master数据</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>固定的Master数据</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>模板的修改</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>标准模板</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>C:\Program Files (x86)\Microsoft Visual Studio 12.0\Common7\IDE\Extensions\Microsoft\Web\Mvc\Scaffolding\Templates</t>
   </si>
   <si>
     <t>将标准模板导入到工程中,建立CodeTemplates目录,MVC本地优先级高于标准模板</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>将模板进行本地化,同时使用 MvcTitle(本工具为每个模型自动添加)这样的标题字段,填充相应位置</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>例:</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>&lt;h2&gt;@&lt;#= ViewDataTypeName#&gt;.MvcTitle 列表&lt;/h2&gt;</t>
   </si>
   <si>
     <t>注意,日期形式的时候,html5的Date控件要求格式必须是 yyyy-MM-dd所以这里进行强制设定</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>关于自动导出到MVC的约定</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">这里约定将 </t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">枚举放入  </t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">数据模型放入 </t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>Master表放在</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1811,7 +1803,7 @@
       </rPr>
       <t>文件夹，</t>
     </r>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1847,27 +1839,27 @@
       </rPr>
       <t>文件夹,</t>
     </r>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>Master 文件夹</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>2015/2/11</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>日期型数据在HTML5控件中无法表示的对应</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>增加了Master表自动名字修正功能</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>将Master表和Model表分割开来</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1893,7 +1885,7 @@
       </rPr>
       <t>\Document</t>
     </r>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1919,15 +1911,15 @@
       </rPr>
       <t>\SourceCode</t>
     </r>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>辅助表设计书</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>辅助表代码</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1953,31 +1945,31 @@
       </rPr>
       <t>的工程，而是管理设计文档的工程，或者是WorkSpace这样的一个概念。</t>
     </r>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>2015/2/26</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>增加了修改工程属性的功能</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>修改了一些Bug</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>修改工程</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>菜单 -&gt; 数据定义 -&gt; 修改工程</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>打开工程后可以通过修改工程菜单对工程属性进行修改</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1993,7 +1985,7 @@
       </rPr>
       <t>.系统将自动载入目录结构,更新文件.</t>
     </r>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>using MongoDB.Bson.Serialization.Attributes;</t>
@@ -2361,38 +2353,38 @@
   </si>
   <si>
     <t>2015/4/3</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>增加了CreateOrEdit的CSHTML文件的自动生成</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>CreateOrEdit页面</t>
   </si>
   <si>
     <t>虽然MVC有T4模板，但是，内置的T4模板无法满足定制的要求。</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>工具将自动根据模型生成CreateOrEdit页面的Cshtml文件</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>日期型</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>日期型控件封装了 jQuery UI 的 DateTime组件</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>辅助表型</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>辅助表分为单值和多值两种类型。单值在UI上表现为一个下拉列表框，多值表现为一组CheckBox</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>@model TalentInfo</t>
@@ -2582,85 +2574,85 @@
   </si>
   <si>
     <t>初始状态</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>展开后</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>单值类型</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>多值类型</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>约定：</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>这里约定多值类型的辅助表，列表的名称为 MasterTableName去掉"M_"前缀，加上 List后缀</t>
   </si>
   <si>
     <t>同时为了统一代码，列表名称尽可能和项目名称保持一致。</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>MasterTableName：</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>M_MarketBG</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">                @(HtmlUIHelper.GetMultiValueUI&lt;M_MarketBG&gt;("MarketBGList", ViewBag.MarketBGList, Model.MarketBGList))</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>ViewBag.MarketBGList</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>MarketBGList</t>
   </si>
   <si>
     <t>列表名称：</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>项目名称：</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>同时为了统一代码，项目名称尽可能和MasterTableName保持一致。</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">                @(HtmlUIHelper.GetSingleValueUI&lt;M_TechniqueBG&gt;("TechniqueBG", ViewBag.TechniqueBGList, Model.TechniqueBG))</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>M_TechniqueBG</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>ViewBag.TechniqueBGList</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>TechniqueBG</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>布尔型</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>布尔型在实际使用时候，需要进行一些手工美化</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2686,70 +2678,70 @@
       </rPr>
       <t>）。</t>
     </r>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>辅助表</t>
   </si>
   <si>
     <t>辅助表（MasterTable）里面存放着一些序列。当我们输入数据的时候，为了便利性和防止输入错误，</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>我们将一些项目可能出现的值，以表格的形式保存起来，输入的时候，不能自由填写，只能从列表里面选择。</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>这样的列表是一种辅助性质的列表，所以我们约定称为辅助表。</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>辅助表中包含了一种专门用来表示状态的辅助表，我们称为状态辅助表。</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>这种表格能够定义数据的表示颜色，表示顺序，是对于辅助表的一种扩展。</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>辅助表和枚举</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>辅助表和枚举的区别是：枚举用户相对稳定的序列，例如一年四季的序列，HTTP的状态。</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>辅助表则是用于更新比较频繁的序列，当然，可以将枚举也看成一种辅助表。</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>在编码上，枚举可能更便利，辅助表在各种封装方法的帮助下，也可以做到很简洁。</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>另外，辅助表可以使用缓存系统进行加速，提高性能，枚举则完全在编译的时候变成程序的一部分，无需缓存。</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>约定</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>这里约定辅助表（MasterTable）以 "M_"为前缀</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>整个系统很大程度上需要各种辅助表的支持。对于停止使用的Master表，可以设置为 不启用</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>辅助表可以用在单个值的选取上，例如状态的选取，可以用在多个值得选取上，例如技能的选取。</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>带有评价的多项目</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2765,47 +2757,47 @@
       </rPr>
       <t>辅助表，辅助评价表</t>
     </r>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>列表型</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>可以设定元数据是不是List型。辅助评价表暂时只支持列表型</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>Flg</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>Flg分为Skip和Hidden两种，</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>Skip 将被系统忽略，如果该项目不需要了，但是又想保留完整履历，可以将项目设置为Skip</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>Hidden 标记一个项目为Hidden类型，例如ID这种自动设定的项目，就因该设置为Hidden</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>同时确认一下代码中是否添加了这些JS的引用。</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>关于验证失效的问题</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>数据模型可以在VS中在T4模板的作用在直接生成UI界面。</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>本工具也提供了功能更加强大的UI生成模块。</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2841,19 +2833,19 @@
       </rPr>
       <t>和报表界面.</t>
     </r>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>2015/4/13</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>Filter特性的追加</t>
-    <phoneticPr fontId="31" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Organization,自带一个</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>数据模型可以选择任意一个基类,由于C#不允许多继承,所以暂时让MasterTable继承与</t>
     </r>
     <r>
       <rPr>
@@ -2865,69 +2857,15 @@
       </rPr>
       <t>Organization</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">Id </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>组织</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>编号,Code项目编号主键</t>
-    </r>
-    <phoneticPr fontId="31" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>数据模型可以选择任意一个基类,由于C#不允许多继承,所以暂时让MasterTable继承与</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Organization</t>
-    </r>
-    <phoneticPr fontId="31" type="noConversion"/>
-  </si>
-  <si>
-    <t>Organization.cs</t>
-    <phoneticPr fontId="31" type="noConversion"/>
-  </si>
-  <si>
-    <t>Organization代码</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>在多个值的选取上，还可以支持五个级别的等级的选取。（参考：CreateOrEdit页面：带有评价的多项目）</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>如果列表还带有分类的话,可以使用CatalogMasterTable</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>using InfraStructure;</t>
@@ -3500,38 +3438,38 @@
   </si>
   <si>
     <t>ASP.NET MVC5的诸多功能,需要InfraStructure这个DLL的支持.数据库暂时支持无需ORM的MongoDB.</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>.Net Framework 4.5</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>2015/6/26</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>强化了Struts2的数据验证处理</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">CreateOrEdit - ASP.NET MVC5 </t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>Struts2验证</t>
   </si>
   <si>
     <t>通过读取验证设定文档,自动生成Struts2使用的Action单位的验证用XML.</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>验证设定文档和前面的ASP.NET MVC文档结构一致.</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>同时支持内联和外置两种错误信息表示方式.</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>&lt;?xml version="1.0" encoding="utf-8"?&gt;</t>
@@ -3595,7 +3533,7 @@
   </si>
   <si>
     <t>LoginAction-validation.xml</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5276,19 +5214,19 @@
   </si>
   <si>
     <t>参考:Struts2内置的验证类型</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>2015/7/10</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>Spring代码中HibernateORM的加入</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>2015/7/24</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5304,11 +5242,11 @@
       </rPr>
       <t>ava的属性中,布尔型的 getXXX -&gt; isXXX</t>
     </r>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>2015/11/20</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5324,23 +5262,23 @@
       </rPr>
       <t>final的Model代码生成功能的加入</t>
     </r>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>2015/11/25</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>修正了Java中没有DateTime类型的BUG</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>SQL文做成的时候,添加了Schema的填写,修正了没有主键时候SQL错误</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>数据模型(JFinal)</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>package dao;</t>
@@ -5371,7 +5309,7 @@
       </rPr>
       <t>,Struts2,JFinal。</t>
     </r>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5387,7 +5325,7 @@
       </rPr>
       <t>final的简单ORM</t>
     </r>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>import java.util.ArrayList;</t>
@@ -5580,7 +5518,7 @@
   </si>
   <si>
     <t>使用方法</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>import com.jfinal.plugin.activerecord.ActiveRecordPlugin;</t>
@@ -5635,23 +5573,23 @@
   </si>
   <si>
     <t>2015/11/26</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>增加单个Excel文件包含多个数据模型的支持</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>2015/12/16</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>为Jfinal增加了浮点型的处理(其他暂时没有对应)</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>增加了模型版本号的概念</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5667,11 +5605,11 @@
       </rPr>
       <t>3.6</t>
     </r>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>2015/12/22</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5717,11 +5655,11 @@
       </rPr>
       <t>增加了浮点型的处理</t>
     </r>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>2016/1/14</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5737,21 +5675,133 @@
       </rPr>
       <t>VC5 -&gt; MVC6 Tool KiffOff</t>
     </r>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>MVC5迁移MVC6工具</t>
   </si>
   <si>
     <t>具体升级步骤如下</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016/2/16</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ompanyTable -&gt; OwnerTable</t>
+    </r>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>C#的MVC,Model生成的文件名字改为 [ModelName]_Model.cs,保证相同的文件夹下面可以包括同一个Model的定义和方法两部分</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016/2/17</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>SharpModel去除特性模式</t>
+    </r>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>MongoDB中,静态字段不用BsonIgnore特性标签</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>MasterTable,继承了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Owner</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Table,同时带有 Name名称和Description描述字段</t>
+    </r>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>OwnerTable</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,自带一个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>OwerId 组织编号,Code项目编号主键</t>
+    </r>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>OwnerTable.cs</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>OwnerTable代码</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统支持OwnerTable,MasterTable两种扩展数据模型</t>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="51">
+  <fonts count="53">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5759,6 +5809,20 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -6223,14 +6287,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -6242,55 +6300,67 @@
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="33" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="14" fontId="35" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="30" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="32" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -6302,40 +6372,43 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="26" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="24" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
+    <xf numFmtId="14" fontId="23" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="21" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -6344,19 +6417,19 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="19" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="14" fontId="16" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -6365,58 +6438,61 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -6434,9 +6510,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -6444,6 +6517,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -6857,13 +6933,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>173</xdr:row>
+      <xdr:row>177</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>176</xdr:row>
+      <xdr:row>180</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6904,13 +6980,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>187</xdr:row>
+      <xdr:row>191</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>189</xdr:row>
+      <xdr:row>193</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6960,13 +7036,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>188</xdr:row>
+      <xdr:row>192</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>66676</xdr:colOff>
-      <xdr:row>190</xdr:row>
+      <xdr:row>194</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7004,7 +7080,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>Organization</a:t>
+            <a:t>OwnerTable</a:t>
           </a:r>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
         </a:p>
@@ -7016,13 +7092,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>190</xdr:row>
+      <xdr:row>194</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>192</xdr:row>
+      <xdr:row>196</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7072,13 +7148,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>208</xdr:row>
+      <xdr:row>212</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>225</xdr:row>
+      <xdr:row>229</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7166,13 +7242,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>137</xdr:row>
+      <xdr:row>141</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>169</xdr:row>
+      <xdr:row>173</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7211,20 +7287,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>110</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>130</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3073" name="Picture 1"/>
+        <xdr:cNvPr id="2049" name="Picture 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -7238,8 +7314,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="981075" y="21116925"/>
-          <a:ext cx="6391275" cy="3810000"/>
+          <a:off x="1028700" y="21155025"/>
+          <a:ext cx="6391275" cy="4514850"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8559,10 +8635,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="D3:M87"/>
+  <dimension ref="D3:M91"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="M89" sqref="M89"/>
+    <sheetView topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="AE94" sqref="AE94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15" customHeight="1"/>
@@ -8586,7 +8662,7 @@
     </row>
     <row r="6" spans="4:6" ht="15" customHeight="1">
       <c r="F6" s="46" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="9" spans="4:6" ht="15" customHeight="1">
@@ -8596,12 +8672,12 @@
     </row>
     <row r="11" spans="4:6" ht="15" customHeight="1">
       <c r="F11" s="61" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
     </row>
     <row r="12" spans="4:6" ht="15" customHeight="1">
       <c r="F12" s="28" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
     </row>
     <row r="14" spans="4:6" ht="15" customHeight="1">
@@ -8611,7 +8687,7 @@
     </row>
     <row r="16" spans="4:6" ht="15" customHeight="1">
       <c r="F16" s="50" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
     </row>
     <row r="18" spans="4:6" ht="15" customHeight="1">
@@ -8621,7 +8697,7 @@
     </row>
     <row r="20" spans="4:6" ht="15" customHeight="1">
       <c r="F20" s="67" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
     </row>
     <row r="22" spans="4:6" ht="15" customHeight="1">
@@ -8717,153 +8793,179 @@
     </row>
     <row r="67" spans="6:13" ht="15" customHeight="1">
       <c r="F67" s="37" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="M67" s="38" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="68" spans="6:13" ht="15" customHeight="1">
       <c r="F68" s="39" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="M68" s="38" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="69" spans="6:13" ht="15" customHeight="1">
       <c r="M69" s="38" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="70" spans="6:13" ht="15" customHeight="1">
       <c r="M70" s="40" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="71" spans="6:13" ht="15" customHeight="1">
       <c r="F71" s="42" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="M71" s="41" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="72" spans="6:13" ht="15" customHeight="1">
       <c r="M72" s="41" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="73" spans="6:13" ht="15" customHeight="1">
       <c r="F73" s="43" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="M73" s="44" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="74" spans="6:13" ht="15" customHeight="1">
       <c r="F74" s="47" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="M74" s="48" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="75" spans="6:13" ht="15" customHeight="1">
       <c r="F75" s="51" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="M75" s="50" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
     </row>
     <row r="76" spans="6:13" ht="15" customHeight="1">
       <c r="F76" s="56" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="M76" s="55" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
     </row>
     <row r="77" spans="6:13" ht="15" customHeight="1">
       <c r="F77" s="57" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="M77" s="58" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
     </row>
     <row r="78" spans="6:13" ht="15" customHeight="1">
       <c r="F78" s="59" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="M78" s="60" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
     </row>
     <row r="79" spans="6:13" ht="15" customHeight="1">
       <c r="F79" s="62" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="M79" s="61" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
     </row>
     <row r="80" spans="6:13" ht="15" customHeight="1">
       <c r="M80" s="61" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
     </row>
     <row r="81" spans="6:13" ht="15" customHeight="1">
       <c r="M81" s="63" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
     </row>
     <row r="82" spans="6:13" ht="15" customHeight="1">
       <c r="F82" s="66" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="M82" s="65" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
     </row>
     <row r="83" spans="6:13" ht="15" customHeight="1">
       <c r="F83" s="68" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="M83" s="69" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
     </row>
     <row r="84" spans="6:13" ht="15" customHeight="1">
       <c r="M84" s="67" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
     </row>
     <row r="85" spans="6:13" ht="15" customHeight="1">
       <c r="F85" s="70" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="M85" s="69" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
     </row>
     <row r="86" spans="6:13" ht="15" customHeight="1">
       <c r="M86" s="69" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="87" spans="6:13" ht="15" customHeight="1">
       <c r="F87" s="72" t="s">
+        <v>753</v>
+      </c>
+      <c r="M87" s="71" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="88" spans="6:13" ht="15" customHeight="1">
+      <c r="F88" s="75" t="s">
+        <v>757</v>
+      </c>
+      <c r="M88" s="74" t="s">
         <v>758</v>
       </c>
-      <c r="M87" s="71" t="s">
+    </row>
+    <row r="89" spans="6:13" ht="15" customHeight="1">
+      <c r="M89" s="74" t="s">
         <v>759</v>
       </c>
     </row>
+    <row r="90" spans="6:13" ht="15" customHeight="1">
+      <c r="F90" s="77" t="s">
+        <v>760</v>
+      </c>
+      <c r="M90" s="76" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="91" spans="6:13" ht="15" customHeight="1">
+      <c r="M91" s="76" t="s">
+        <v>762</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="31" type="noConversion"/>
+  <phoneticPr fontId="33" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -8887,124 +8989,124 @@
   <sheetData>
     <row r="3" spans="4:6">
       <c r="D3" s="5" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="5" spans="4:6">
       <c r="F5" s="44" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="6" spans="4:6">
       <c r="F6" s="44" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="8" spans="4:6">
       <c r="F8" s="45" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="24" spans="4:14">
       <c r="D24" s="5" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="26" spans="4:14">
       <c r="F26" s="44" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="31" spans="4:14">
       <c r="N31" s="44" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="46" spans="4:14">
       <c r="N46" s="44" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="48" spans="4:14">
       <c r="D48" s="5" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="50" spans="6:20">
       <c r="F50" s="44" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="52" spans="6:20">
       <c r="H52" s="44" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="56" spans="6:20">
       <c r="T56" s="44" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="64" spans="6:20">
       <c r="T64" s="44" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="67" spans="4:19" ht="16.5">
       <c r="D67" s="44"/>
       <c r="F67" s="44" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="68" spans="4:19" ht="16.5">
       <c r="D68" s="44"/>
       <c r="F68" s="44" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="69" spans="4:19" ht="16.5">
       <c r="D69" s="44"/>
       <c r="F69" s="44" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="70" spans="4:19" ht="16.5">
       <c r="D70" s="44"/>
       <c r="F70" s="31" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="71" spans="4:19" ht="16.5">
       <c r="D71" s="44"/>
       <c r="F71" s="44" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="72" spans="4:19" ht="16.5">
       <c r="D72" s="44"/>
       <c r="F72" s="44" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="73" spans="4:19" ht="16.5">
       <c r="D73" s="44"/>
       <c r="F73" s="44" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="75" spans="4:19">
       <c r="H75" s="28" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="76" spans="4:19">
       <c r="J76" s="28" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="77" spans="4:19">
       <c r="J77" s="28" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="78" spans="4:19">
@@ -9012,131 +9114,131 @@
     </row>
     <row r="79" spans="4:19">
       <c r="J79" s="44" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="S79" s="44" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="80" spans="4:19">
       <c r="J80" s="44" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="S80" s="44" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="81" spans="4:19">
       <c r="J81" s="44" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="S81" s="44" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="83" spans="4:19">
       <c r="H83" s="44" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="91" spans="4:19" ht="15.75" customHeight="1">
       <c r="D91" s="44"/>
       <c r="F91" s="44" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="92" spans="4:19" ht="16.5">
       <c r="D92" s="44"/>
       <c r="F92" s="44" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="93" spans="4:19" ht="16.5">
       <c r="D93" s="44"/>
       <c r="F93" s="44" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="94" spans="4:19" ht="16.5">
       <c r="D94" s="44"/>
       <c r="F94" s="31" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="95" spans="4:19" ht="16.5">
       <c r="D95" s="44"/>
       <c r="F95" s="44" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="96" spans="4:19" ht="16.5">
       <c r="D96" s="44"/>
       <c r="F96" s="44" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="97" spans="4:19" ht="16.5">
       <c r="D97" s="44"/>
       <c r="F97" s="44" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="100" spans="4:19">
       <c r="H100" s="28" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="101" spans="4:19">
       <c r="J101" s="28" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="102" spans="4:19">
       <c r="J102" s="28" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="104" spans="4:19">
       <c r="J104" s="44" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="S104" s="44" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="105" spans="4:19">
       <c r="J105" s="44" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="S105" s="44" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="106" spans="4:19">
       <c r="J106" s="44" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="S106" s="44" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="109" spans="4:19">
       <c r="H109" s="45" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="119" spans="4:6">
       <c r="D119" s="5" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="121" spans="4:6">
       <c r="F121" s="44" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="31" type="noConversion"/>
+  <phoneticPr fontId="33" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -9157,22 +9259,22 @@
   <sheetData>
     <row r="3" spans="4:6" ht="18">
       <c r="D3" s="5" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
     </row>
     <row r="5" spans="4:6">
       <c r="F5" s="44" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="6" spans="4:6">
       <c r="F6" s="44" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="7" spans="4:6">
       <c r="F7" s="44" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="8" spans="4:6">
@@ -9182,7 +9284,7 @@
     </row>
     <row r="9" spans="4:6">
       <c r="F9" s="44" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="10" spans="4:6">
@@ -9192,7 +9294,7 @@
     </row>
     <row r="11" spans="4:6">
       <c r="F11" s="44" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="12" spans="4:6">
@@ -9202,7 +9304,7 @@
     </row>
     <row r="13" spans="4:6">
       <c r="F13" s="44" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="14" spans="4:6">
@@ -9212,7 +9314,7 @@
     </row>
     <row r="15" spans="4:6">
       <c r="F15" s="44" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="16" spans="4:6">
@@ -9222,7 +9324,7 @@
     </row>
     <row r="17" spans="6:6">
       <c r="F17" s="44" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="18" spans="6:6">
@@ -9232,537 +9334,537 @@
     </row>
     <row r="19" spans="6:6">
       <c r="F19" s="44" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="20" spans="6:6">
       <c r="F20" s="44" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="21" spans="6:6">
       <c r="F21" s="44" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="22" spans="6:6">
       <c r="F22" s="44" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="23" spans="6:6">
       <c r="F23" s="44" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="24" spans="6:6">
       <c r="F24" s="44" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="25" spans="6:6">
       <c r="F25" s="44" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="26" spans="6:6">
       <c r="F26" s="44" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="27" spans="6:6">
       <c r="F27" s="44" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="29" spans="6:6">
       <c r="F29" s="44" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="30" spans="6:6">
       <c r="F30" s="44" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="31" spans="6:6">
       <c r="F31" s="44" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="32" spans="6:6">
       <c r="F32" s="44" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="33" spans="6:6">
       <c r="F33" s="44" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="34" spans="6:6">
       <c r="F34" s="44" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="35" spans="6:6">
       <c r="F35" s="44" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="37" spans="6:6">
       <c r="F37" s="44" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="38" spans="6:6">
       <c r="F38" s="44" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="39" spans="6:6">
       <c r="F39" s="44" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="40" spans="6:6">
       <c r="F40" s="44" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="41" spans="6:6">
       <c r="F41" s="44" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="42" spans="6:6">
       <c r="F42" s="44" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="43" spans="6:6">
       <c r="F43" s="44" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="45" spans="6:6">
       <c r="F45" s="44" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="46" spans="6:6">
       <c r="F46" s="44" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="47" spans="6:6">
       <c r="F47" s="44" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="48" spans="6:6">
       <c r="F48" s="44" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="49" spans="6:6">
       <c r="F49" s="44" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="50" spans="6:6">
       <c r="F50" s="44" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="51" spans="6:6">
       <c r="F51" s="44" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="53" spans="6:6">
       <c r="F53" s="44" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="54" spans="6:6">
       <c r="F54" s="44" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="55" spans="6:6">
       <c r="F55" s="44" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="56" spans="6:6">
       <c r="F56" s="44" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="57" spans="6:6">
       <c r="F57" s="44" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="58" spans="6:6">
       <c r="F58" s="44" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="59" spans="6:6">
       <c r="F59" s="44" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="61" spans="6:6">
       <c r="F61" s="44" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="62" spans="6:6">
       <c r="F62" s="44" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="63" spans="6:6">
       <c r="F63" s="44" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="64" spans="6:6">
       <c r="F64" s="44" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="65" spans="6:6">
       <c r="F65" s="44" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="66" spans="6:6">
       <c r="F66" s="44" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="67" spans="6:6">
       <c r="F67" s="44" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="69" spans="6:6">
       <c r="F69" s="44" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="70" spans="6:6">
       <c r="F70" s="44" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="71" spans="6:6">
       <c r="F71" s="44" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="72" spans="6:6">
       <c r="F72" s="44" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="73" spans="6:6">
       <c r="F73" s="44" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="74" spans="6:6">
       <c r="F74" s="44" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="75" spans="6:6">
       <c r="F75" s="44" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="77" spans="6:6" ht="15.75" customHeight="1">
       <c r="F77" s="44" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="78" spans="6:6">
       <c r="F78" s="44" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="79" spans="6:6">
       <c r="F79" s="44" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="80" spans="6:6">
       <c r="F80" s="31" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="81" spans="6:6">
       <c r="F81" s="44" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="82" spans="6:6">
       <c r="F82" s="44" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="83" spans="6:6">
       <c r="F83" s="44" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="85" spans="6:6">
       <c r="F85" s="44" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="86" spans="6:6">
       <c r="F86" s="44" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="87" spans="6:6">
       <c r="F87" s="44" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="88" spans="6:6">
       <c r="F88" s="31" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="89" spans="6:6">
       <c r="F89" s="44" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="90" spans="6:6">
       <c r="F90" s="44" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="91" spans="6:6">
       <c r="F91" s="44" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="93" spans="6:6">
       <c r="F93" s="44" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="94" spans="6:6">
       <c r="F94" s="44" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="95" spans="6:6">
       <c r="F95" s="44" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="96" spans="6:6">
       <c r="F96" s="44" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="97" spans="6:6">
       <c r="F97" s="44" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="98" spans="6:6">
       <c r="F98" s="44" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="99" spans="6:6">
       <c r="F99" s="44" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="101" spans="6:6">
       <c r="F101" s="44" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="102" spans="6:6">
       <c r="F102" s="44" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="103" spans="6:6">
       <c r="F103" s="44" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="104" spans="6:6">
       <c r="F104" s="44" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="105" spans="6:6">
       <c r="F105" s="44" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="106" spans="6:6">
       <c r="F106" s="44" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="107" spans="6:6">
       <c r="F107" s="44" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="109" spans="6:6">
       <c r="F109" s="44" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="110" spans="6:6">
       <c r="F110" s="44" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="111" spans="6:6">
       <c r="F111" s="44" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="112" spans="6:6">
       <c r="F112" s="44" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="113" spans="6:6">
       <c r="F113" s="44" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="114" spans="6:6">
       <c r="F114" s="44" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="115" spans="6:6">
       <c r="F115" s="44" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="117" spans="6:6">
       <c r="F117" s="44" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="118" spans="6:6">
       <c r="F118" s="44" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="119" spans="6:6">
       <c r="F119" s="44" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="120" spans="6:6">
       <c r="F120" s="31" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="121" spans="6:6">
       <c r="F121" s="44" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="122" spans="6:6">
       <c r="F122" s="44" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="123" spans="6:6">
       <c r="F123" s="44" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="125" spans="6:6">
       <c r="F125" s="44" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="126" spans="6:6">
       <c r="F126" s="44" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="127" spans="6:6">
       <c r="F127" s="44" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="128" spans="6:6">
       <c r="F128" s="44" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="129" spans="6:6">
       <c r="F129" s="44" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="130" spans="6:6">
       <c r="F130" s="44" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="131" spans="6:6">
       <c r="F131" s="44" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="132" spans="6:6">
       <c r="F132" s="44" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="133" spans="6:6">
       <c r="F133" s="44" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="134" spans="6:6">
       <c r="F134" s="44" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="135" spans="6:6">
       <c r="F135" s="44" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="136" spans="6:6">
       <c r="F136" s="44" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="137" spans="6:6">
       <c r="F137" s="44" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="138" spans="6:6">
       <c r="F138" s="44" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="139" spans="6:6">
@@ -9771,7 +9873,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="31" type="noConversion"/>
+  <phoneticPr fontId="33" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10500,7 +10602,7 @@
       <c r="AQ35" s="21"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="31" type="noConversion"/>
+  <phoneticPr fontId="33" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -11146,7 +11248,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="31" type="noConversion"/>
+  <phoneticPr fontId="33" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -11167,106 +11269,106 @@
   <sheetData>
     <row r="3" spans="4:7">
       <c r="D3" s="1" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
     </row>
     <row r="16" spans="4:7">
       <c r="G16" s="50" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
     </row>
     <row r="17" spans="7:9">
       <c r="G17" s="50" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
     </row>
     <row r="18" spans="7:9">
       <c r="G18" s="50" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
     </row>
     <row r="22" spans="7:9">
       <c r="G22" s="52" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
     </row>
     <row r="24" spans="7:9">
       <c r="I24" s="53" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
     </row>
     <row r="25" spans="7:9">
       <c r="I25" s="54" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
     </row>
     <row r="26" spans="7:9">
       <c r="I26" s="54" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
     </row>
     <row r="27" spans="7:9">
       <c r="I27" s="54" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
     </row>
     <row r="28" spans="7:9">
       <c r="I28" s="54" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
     </row>
     <row r="29" spans="7:9">
       <c r="I29" s="54" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
     </row>
     <row r="30" spans="7:9">
       <c r="I30" s="54" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
     </row>
     <row r="31" spans="7:9">
       <c r="I31" s="54" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
     </row>
     <row r="32" spans="7:9">
       <c r="I32" s="54" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
     </row>
     <row r="33" spans="9:9">
       <c r="I33" s="54" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
     </row>
     <row r="34" spans="9:9">
       <c r="I34" s="54" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
     </row>
     <row r="35" spans="9:9">
       <c r="I35" s="54" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
     </row>
     <row r="36" spans="9:9">
       <c r="I36" s="54" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
     </row>
     <row r="37" spans="9:9">
       <c r="I37" s="54" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
     </row>
     <row r="38" spans="9:9">
       <c r="I38" s="53" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="31" type="noConversion"/>
+  <phoneticPr fontId="33" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -11285,282 +11387,282 @@
   <sheetData>
     <row r="6" spans="7:9" s="50" customFormat="1" ht="16.5">
       <c r="G6" s="52" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
     </row>
     <row r="7" spans="7:9" s="50" customFormat="1" ht="16.5"/>
     <row r="8" spans="7:9" s="50" customFormat="1" ht="16.5">
       <c r="I8" s="50" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
     </row>
     <row r="9" spans="7:9" s="50" customFormat="1" ht="16.5">
       <c r="I9" s="50" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
     </row>
     <row r="10" spans="7:9" s="50" customFormat="1" ht="16.5">
       <c r="I10" s="50" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
     </row>
     <row r="11" spans="7:9" s="50" customFormat="1" ht="16.5">
       <c r="I11" s="50" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
     </row>
     <row r="12" spans="7:9" s="50" customFormat="1" ht="16.5">
       <c r="I12" s="50" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
     </row>
     <row r="13" spans="7:9" s="50" customFormat="1" ht="16.5">
       <c r="I13" s="50" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
     </row>
     <row r="14" spans="7:9" s="50" customFormat="1" ht="16.5">
       <c r="I14" s="50" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
     </row>
     <row r="15" spans="7:9" s="50" customFormat="1" ht="16.5">
       <c r="I15" s="50" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
     </row>
     <row r="16" spans="7:9" s="50" customFormat="1" ht="16.5">
       <c r="I16" s="50" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
     </row>
     <row r="17" spans="9:9" s="50" customFormat="1" ht="16.5">
       <c r="I17" s="50" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
     </row>
     <row r="18" spans="9:9" s="50" customFormat="1" ht="16.5">
       <c r="I18" s="50" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
     </row>
     <row r="19" spans="9:9" s="50" customFormat="1" ht="16.5">
       <c r="I19" s="50" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
     </row>
     <row r="20" spans="9:9" s="50" customFormat="1" ht="16.5">
       <c r="I20" s="50" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
     </row>
     <row r="21" spans="9:9" s="50" customFormat="1" ht="16.5">
       <c r="I21" s="50" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
     </row>
     <row r="22" spans="9:9" s="50" customFormat="1" ht="16.5">
       <c r="I22" s="50" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
     </row>
     <row r="23" spans="9:9" s="50" customFormat="1" ht="16.5">
       <c r="I23" s="50" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
     </row>
     <row r="24" spans="9:9" s="50" customFormat="1" ht="16.5">
       <c r="I24" s="50" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
     </row>
     <row r="25" spans="9:9" s="50" customFormat="1" ht="16.5">
       <c r="I25" s="50" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
     </row>
     <row r="26" spans="9:9" s="50" customFormat="1" ht="16.5">
       <c r="I26" s="50" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
     </row>
     <row r="27" spans="9:9" s="50" customFormat="1" ht="16.5">
       <c r="I27" s="50" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
     </row>
     <row r="28" spans="9:9" s="50" customFormat="1" ht="16.5">
       <c r="I28" s="50" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
     </row>
     <row r="29" spans="9:9" s="50" customFormat="1" ht="16.5">
       <c r="I29" s="50" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
     </row>
     <row r="30" spans="9:9" s="50" customFormat="1" ht="16.5">
       <c r="I30" s="50" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
     </row>
     <row r="31" spans="9:9" s="50" customFormat="1" ht="16.5">
       <c r="I31" s="50" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
     </row>
     <row r="32" spans="9:9" s="50" customFormat="1" ht="16.5">
       <c r="I32" s="50" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
     </row>
     <row r="33" spans="9:9" s="50" customFormat="1" ht="16.5">
       <c r="I33" s="50" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
     </row>
     <row r="34" spans="9:9" s="50" customFormat="1" ht="16.5">
       <c r="I34" s="50" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
     </row>
     <row r="35" spans="9:9" s="50" customFormat="1" ht="16.5">
       <c r="I35" s="50" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
     </row>
     <row r="36" spans="9:9" s="50" customFormat="1" ht="16.5">
       <c r="I36" s="50" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
     </row>
     <row r="37" spans="9:9" s="50" customFormat="1" ht="16.5">
       <c r="I37" s="50" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
     </row>
     <row r="38" spans="9:9" s="50" customFormat="1" ht="16.5">
       <c r="I38" s="50" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
     </row>
     <row r="39" spans="9:9" s="50" customFormat="1" ht="16.5">
       <c r="I39" s="50" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
     </row>
     <row r="40" spans="9:9" s="50" customFormat="1" ht="16.5">
       <c r="I40" s="50" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
     </row>
     <row r="41" spans="9:9" s="50" customFormat="1" ht="16.5">
       <c r="I41" s="50" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
     </row>
     <row r="42" spans="9:9" s="50" customFormat="1" ht="16.5">
       <c r="I42" s="50" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
     </row>
     <row r="43" spans="9:9" s="50" customFormat="1" ht="16.5">
       <c r="I43" s="50" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
     </row>
     <row r="44" spans="9:9" s="50" customFormat="1" ht="16.5">
       <c r="I44" s="50" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
     </row>
     <row r="45" spans="9:9" s="50" customFormat="1" ht="16.5">
       <c r="I45" s="50" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
     </row>
     <row r="46" spans="9:9" s="50" customFormat="1" ht="16.5">
       <c r="I46" s="50" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
     </row>
     <row r="47" spans="9:9" s="50" customFormat="1" ht="16.5">
       <c r="I47" s="50" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
     </row>
     <row r="48" spans="9:9" s="50" customFormat="1" ht="16.5">
       <c r="I48" s="50" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
     </row>
     <row r="49" spans="9:9" s="50" customFormat="1" ht="16.5">
       <c r="I49" s="50" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
     </row>
     <row r="50" spans="9:9" s="50" customFormat="1" ht="16.5">
       <c r="I50" s="50" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
     </row>
     <row r="51" spans="9:9" s="50" customFormat="1" ht="16.5">
       <c r="I51" s="50" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
     </row>
     <row r="52" spans="9:9" s="50" customFormat="1" ht="16.5">
       <c r="I52" s="50" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
     </row>
     <row r="53" spans="9:9" s="50" customFormat="1" ht="16.5">
       <c r="I53" s="50" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
     </row>
     <row r="54" spans="9:9" s="50" customFormat="1" ht="16.5">
       <c r="I54" s="50" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
     </row>
     <row r="55" spans="9:9" s="50" customFormat="1" ht="16.5">
       <c r="I55" s="50" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
     </row>
     <row r="56" spans="9:9" s="50" customFormat="1" ht="16.5">
       <c r="I56" s="50" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
     </row>
     <row r="57" spans="9:9" s="50" customFormat="1" ht="16.5">
       <c r="I57" s="50" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
     </row>
     <row r="58" spans="9:9" s="50" customFormat="1" ht="16.5">
       <c r="I58" s="50" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
     </row>
     <row r="59" spans="9:9" s="50" customFormat="1" ht="16.5">
       <c r="I59" s="50" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
     </row>
     <row r="60" spans="9:9" s="50" customFormat="1" ht="16.5">
       <c r="I60" s="50" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
     </row>
     <row r="61" spans="9:9" s="50" customFormat="1" ht="16.5">
       <c r="I61" s="50" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="31" type="noConversion"/>
+  <phoneticPr fontId="33" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -11614,7 +11716,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="31" type="noConversion"/>
+  <phoneticPr fontId="33" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -11650,7 +11752,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="31" type="noConversion"/>
+  <phoneticPr fontId="33" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -11672,34 +11774,34 @@
   <sheetData>
     <row r="3" spans="4:26">
       <c r="D3" s="1" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="5" spans="4:26">
       <c r="F5" s="36" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="7" spans="4:26">
       <c r="H7" s="36" t="s">
+        <v>330</v>
+      </c>
+      <c r="P7" s="36" t="s">
         <v>332</v>
       </c>
-      <c r="P7" s="36" t="s">
-        <v>334</v>
-      </c>
       <c r="Z7" s="36" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="8" spans="4:26">
       <c r="H8" s="36" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="P8" s="36" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="Z8" s="36" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="9" spans="4:26">
@@ -11707,44 +11809,44 @@
         <v>64</v>
       </c>
       <c r="Z9" s="36" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="11" spans="4:26">
       <c r="F11" s="36" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="13" spans="4:26">
       <c r="H13" s="36" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="14" spans="4:26">
       <c r="J14" s="36" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="16" spans="4:26">
       <c r="H16" s="36" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="17" spans="8:11">
       <c r="H17" s="36" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="19" spans="8:11">
       <c r="H19" s="36" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="K19" s="36" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="31" type="noConversion"/>
+  <phoneticPr fontId="33" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -11754,7 +11856,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="D3:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
@@ -11765,16 +11867,16 @@
   <sheetData>
     <row r="3" spans="4:4">
       <c r="D3" s="1" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
     </row>
     <row r="20" spans="7:7">
       <c r="G20" s="73" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="31" type="noConversion"/>
+  <phoneticPr fontId="33" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -11801,7 +11903,7 @@
     </row>
     <row r="5" spans="4:6" ht="15" customHeight="1">
       <c r="F5" s="40" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="7" spans="4:6" ht="15" customHeight="1">
@@ -11889,18 +11991,18 @@
     </row>
     <row r="62" spans="6:20" ht="15" customHeight="1">
       <c r="H62" s="40" t="s">
+        <v>356</v>
+      </c>
+      <c r="T62" s="40" t="s">
         <v>358</v>
-      </c>
-      <c r="T62" s="40" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="63" spans="6:20" ht="15" customHeight="1">
       <c r="H63" s="40" t="s">
+        <v>357</v>
+      </c>
+      <c r="T63" s="40" t="s">
         <v>359</v>
-      </c>
-      <c r="T63" s="40" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="65" spans="6:8" ht="15" customHeight="1">
@@ -11928,27 +12030,27 @@
     </row>
     <row r="102" spans="4:6" ht="15" customHeight="1">
       <c r="F102" s="41" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="104" spans="4:6" ht="15" customHeight="1">
       <c r="D104" s="7" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="106" spans="4:6" ht="15" customHeight="1">
       <c r="F106" s="41" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="108" spans="4:6" ht="15" customHeight="1">
       <c r="F108" s="41" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="111" spans="4:6" ht="15" customHeight="1">
       <c r="D111" s="5" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="112" spans="4:6" ht="15" customHeight="1">
@@ -11957,7 +12059,7 @@
     <row r="113" spans="4:14" ht="15" customHeight="1">
       <c r="D113" s="5"/>
       <c r="F113" s="38" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="114" spans="4:14" ht="15" customHeight="1">
@@ -11966,28 +12068,28 @@
     <row r="115" spans="4:14" ht="15" customHeight="1">
       <c r="D115" s="5"/>
       <c r="H115" s="38" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="N115" s="38" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="116" spans="4:14" ht="15" customHeight="1">
       <c r="D116" s="5"/>
       <c r="H116" s="38" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="N116" s="38" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="117" spans="4:14" ht="15" customHeight="1">
       <c r="D117" s="5"/>
       <c r="H117" s="38" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="N117" s="38" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="118" spans="4:14" ht="15" customHeight="1">
@@ -12027,7 +12129,7 @@
       <c r="D129" s="5"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="31" type="noConversion"/>
+  <phoneticPr fontId="33" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -12036,10 +12138,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="D3:S233"/>
+  <dimension ref="D3:S237"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AS123" sqref="AS123"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AS187" sqref="AS187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15" customHeight="1"/>
@@ -12077,25 +12179,25 @@
     <row r="11" spans="4:10" ht="15" customHeight="1">
       <c r="F11" s="1"/>
       <c r="H11" s="45" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="12" spans="4:10" ht="15" customHeight="1">
       <c r="F12" s="1"/>
       <c r="J12" s="45" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="13" spans="4:10" ht="15" customHeight="1">
       <c r="F13" s="1"/>
       <c r="J13" s="45" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="14" spans="4:10" ht="15" customHeight="1">
       <c r="F14" s="1"/>
       <c r="J14" s="45" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="16" spans="4:10" ht="15" customHeight="1">
@@ -12125,7 +12227,7 @@
     </row>
     <row r="23" spans="8:10" ht="15" customHeight="1">
       <c r="J23" s="45" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="24" spans="8:10" ht="15" customHeight="1">
@@ -12138,14 +12240,14 @@
     </row>
     <row r="26" spans="8:10" ht="15" customHeight="1">
       <c r="H26" s="45" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="J26" s="30"/>
     </row>
     <row r="27" spans="8:10" ht="15" customHeight="1">
       <c r="H27" s="45"/>
       <c r="J27" s="45" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="29" spans="8:10" ht="15" customHeight="1">
@@ -12320,7 +12422,7 @@
     </row>
     <row r="71" spans="6:10" ht="15" customHeight="1">
       <c r="J71" s="31" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="72" spans="6:10" ht="15" customHeight="1">
@@ -12361,132 +12463,132 @@
         <v>102</v>
       </c>
     </row>
-    <row r="133" spans="6:6" ht="15" customHeight="1">
-      <c r="F133" s="45" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="134" spans="6:6" ht="15" customHeight="1">
-      <c r="F134" s="45" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="135" spans="6:6" ht="15" customHeight="1">
-      <c r="F135" s="45"/>
-    </row>
-    <row r="136" spans="6:6" ht="15" customHeight="1">
-      <c r="F136" s="3" t="s">
+    <row r="137" spans="6:6" ht="15" customHeight="1">
+      <c r="F137" s="45" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="138" spans="6:6" ht="15" customHeight="1">
+      <c r="F138" s="45" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="139" spans="6:6" ht="15" customHeight="1">
+      <c r="F139" s="45"/>
+    </row>
+    <row r="140" spans="6:6" ht="15" customHeight="1">
+      <c r="F140" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="137" spans="6:6" ht="15" customHeight="1">
-      <c r="F137" s="3" t="s">
+    <row r="141" spans="6:6" ht="15" customHeight="1">
+      <c r="F141" s="3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="172" spans="5:5" ht="15" customHeight="1">
-      <c r="E172" s="30" t="s">
+    <row r="176" spans="5:5" ht="15" customHeight="1">
+      <c r="E176" s="30" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="180" spans="4:6" ht="15" customHeight="1">
-      <c r="D180" s="5" t="s">
+    <row r="184" spans="4:6" ht="15" customHeight="1">
+      <c r="D184" s="5" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="182" spans="4:6" ht="15" customHeight="1">
-      <c r="F182" s="33" t="s">
+    <row r="186" spans="4:6" ht="15" customHeight="1">
+      <c r="F186" s="76" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="187" spans="4:6" ht="15" customHeight="1">
+      <c r="F187" s="33"/>
+    </row>
+    <row r="188" spans="4:6" ht="15" customHeight="1">
+      <c r="F188" s="76" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="189" spans="4:6" ht="15" customHeight="1">
+      <c r="F189" s="76" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="200" spans="4:19" ht="15" customHeight="1">
+      <c r="F200" s="49" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="203" spans="4:19" ht="15" customHeight="1">
+      <c r="F203" s="76" t="s">
+        <v>765</v>
+      </c>
+      <c r="S203" s="76" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="204" spans="4:19" ht="15" customHeight="1">
+      <c r="F204" s="2" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="183" spans="4:6" ht="15" customHeight="1">
-      <c r="F183" s="33"/>
-    </row>
-    <row r="184" spans="4:6" ht="15" customHeight="1">
-      <c r="F184" s="49" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="185" spans="4:6" ht="15" customHeight="1">
-      <c r="F185" s="33" t="s">
+      <c r="S204" s="33" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="196" spans="4:19" ht="15" customHeight="1">
-      <c r="F196" s="49" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="199" spans="4:19" ht="15" customHeight="1">
-      <c r="F199" s="49" t="s">
-        <v>533</v>
-      </c>
-      <c r="S199" s="49" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="200" spans="4:19" ht="15" customHeight="1">
-      <c r="F200" s="2" t="s">
+    <row r="205" spans="4:19" ht="15" customHeight="1">
+      <c r="H205" s="33"/>
+    </row>
+    <row r="207" spans="4:19" ht="15" customHeight="1">
+      <c r="D207" s="5" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="209" spans="6:6" ht="15" customHeight="1">
+      <c r="F209" s="35" t="s">
         <v>316</v>
       </c>
-      <c r="S200" s="33" t="s">
+    </row>
+    <row r="210" spans="6:6" ht="15" customHeight="1">
+      <c r="F210" s="35" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="201" spans="4:19" ht="15" customHeight="1">
-      <c r="H201" s="33"/>
-    </row>
-    <row r="203" spans="4:19" ht="15" customHeight="1">
-      <c r="D203" s="5" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="205" spans="4:19" ht="15" customHeight="1">
-      <c r="F205" s="35" t="s">
+    <row r="211" spans="6:6" ht="15" customHeight="1">
+      <c r="F211" s="45" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="233" spans="4:15" ht="15" customHeight="1">
+      <c r="D233" s="5" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="206" spans="4:19" ht="15" customHeight="1">
-      <c r="F206" s="35" t="s">
+    <row r="235" spans="4:15" ht="15" customHeight="1">
+      <c r="F235" s="36" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="207" spans="4:19" ht="15" customHeight="1">
-      <c r="F207" s="45" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="229" spans="4:15" ht="15" customHeight="1">
-      <c r="D229" s="5" t="s">
+      <c r="O235" s="36" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="236" spans="4:15" ht="15" customHeight="1">
+      <c r="F236" s="36" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="231" spans="4:15" ht="15" customHeight="1">
-      <c r="F231" s="36" t="s">
+      <c r="O236" s="36" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="237" spans="4:15" ht="15" customHeight="1">
+      <c r="F237" s="36" t="s">
         <v>321</v>
       </c>
-      <c r="O231" s="36" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="232" spans="4:15" ht="15" customHeight="1">
-      <c r="F232" s="36" t="s">
+      <c r="O237" s="36" t="s">
         <v>322</v>
       </c>
-      <c r="O232" s="36" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="233" spans="4:15" ht="15" customHeight="1">
-      <c r="F233" s="36" t="s">
-        <v>323</v>
-      </c>
-      <c r="O233" s="36" t="s">
-        <v>324</v>
-      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="31" type="noConversion"/>
+  <phoneticPr fontId="33" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I22:I28">
       <formula1>$AE$4:$AE$9</formula1>
@@ -12515,91 +12617,91 @@
   <sheetData>
     <row r="3" spans="4:6">
       <c r="D3" s="5" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="5" spans="4:6">
       <c r="F5" s="45" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="6" spans="4:6">
       <c r="F6" s="45" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="7" spans="4:6">
       <c r="F7" s="45" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="17" spans="4:6">
       <c r="F17" s="45" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="18" spans="4:6">
       <c r="F18" s="45" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="19" spans="4:6">
       <c r="F19" s="45" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="20" spans="4:6">
       <c r="F20" s="49" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
     </row>
     <row r="21" spans="4:6">
       <c r="F21" s="45" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="22" spans="4:6">
       <c r="F22" s="49" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
     </row>
     <row r="24" spans="4:6">
       <c r="D24" s="5" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="26" spans="4:6">
       <c r="F26" s="45" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="27" spans="4:6">
       <c r="F27" s="45" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="28" spans="4:6">
       <c r="F28" s="45" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="29" spans="4:6">
       <c r="F29" s="45" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="32" spans="4:6">
       <c r="D32" s="5" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="34" spans="6:6">
       <c r="F34" s="28" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="31" type="noConversion"/>
+  <phoneticPr fontId="33" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -12918,7 +13020,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="31" type="noConversion"/>
+  <phoneticPr fontId="33" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -12949,17 +13051,17 @@
     </row>
     <row r="5" spans="4:6" ht="15" customHeight="1">
       <c r="F5" s="6" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
     </row>
     <row r="6" spans="4:6" ht="15" customHeight="1">
       <c r="F6" s="6" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
     </row>
     <row r="7" spans="4:6" ht="15" customHeight="1">
       <c r="F7" s="6" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="8" spans="4:6" ht="15" customHeight="1">
@@ -12984,7 +13086,7 @@
     </row>
     <row r="13" spans="4:6" ht="15" customHeight="1">
       <c r="F13" s="6" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="14" spans="4:6" ht="15" customHeight="1">
@@ -12999,7 +13101,7 @@
     </row>
     <row r="16" spans="4:6" ht="15" customHeight="1">
       <c r="F16" s="6" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
     </row>
     <row r="17" spans="6:6" ht="15" customHeight="1">
@@ -13009,12 +13111,12 @@
     </row>
     <row r="18" spans="6:6" ht="15" customHeight="1">
       <c r="F18" s="6" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
     </row>
     <row r="19" spans="6:6" ht="15" customHeight="1">
       <c r="F19" s="6" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
     </row>
     <row r="20" spans="6:6" ht="15" customHeight="1">
@@ -13034,7 +13136,7 @@
     </row>
     <row r="24" spans="6:6" ht="15" customHeight="1">
       <c r="F24" s="6" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="25" spans="6:6" ht="15" customHeight="1">
@@ -13044,7 +13146,7 @@
     </row>
     <row r="26" spans="6:6" ht="15" customHeight="1">
       <c r="F26" s="6" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="27" spans="6:6" ht="15" customHeight="1">
@@ -13054,7 +13156,7 @@
     </row>
     <row r="28" spans="6:6" ht="15" customHeight="1">
       <c r="F28" s="6" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="30" spans="6:6" ht="15" customHeight="1">
@@ -13064,7 +13166,7 @@
     </row>
     <row r="31" spans="6:6" ht="15" customHeight="1">
       <c r="F31" s="6" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
     </row>
     <row r="32" spans="6:6" ht="15" customHeight="1">
@@ -13074,12 +13176,12 @@
     </row>
     <row r="33" spans="6:6" ht="15" customHeight="1">
       <c r="F33" s="6" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
     </row>
     <row r="34" spans="6:6" ht="15" customHeight="1">
       <c r="F34" s="6" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
     </row>
     <row r="36" spans="6:6" ht="15" customHeight="1">
@@ -13089,7 +13191,7 @@
     </row>
     <row r="37" spans="6:6" ht="15" customHeight="1">
       <c r="F37" s="6" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
     </row>
     <row r="38" spans="6:6" ht="15" customHeight="1">
@@ -13099,7 +13201,7 @@
     </row>
     <row r="39" spans="6:6" ht="15" customHeight="1">
       <c r="F39" s="6" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
     </row>
     <row r="40" spans="6:6" ht="15" customHeight="1">
@@ -13109,27 +13211,27 @@
     </row>
     <row r="41" spans="6:6" ht="15" customHeight="1">
       <c r="F41" s="6" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
     </row>
     <row r="42" spans="6:6" ht="15" customHeight="1">
       <c r="F42" s="6" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
     </row>
     <row r="43" spans="6:6" ht="15" customHeight="1">
       <c r="F43" s="6" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
     </row>
     <row r="44" spans="6:6" ht="15" customHeight="1">
       <c r="F44" s="6" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
     </row>
     <row r="45" spans="6:6" ht="15" customHeight="1">
       <c r="F45" s="6" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
     </row>
     <row r="47" spans="6:6" ht="15" customHeight="1">
@@ -13139,7 +13241,7 @@
     </row>
     <row r="48" spans="6:6" ht="15" customHeight="1">
       <c r="F48" s="6" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
     </row>
     <row r="49" spans="6:6" ht="15" customHeight="1">
@@ -13149,12 +13251,12 @@
     </row>
     <row r="50" spans="6:6" ht="15" customHeight="1">
       <c r="F50" s="6" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
     </row>
     <row r="51" spans="6:6" ht="15" customHeight="1">
       <c r="F51" s="6" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
     </row>
     <row r="53" spans="6:6" ht="15" customHeight="1">
@@ -13164,7 +13266,7 @@
     </row>
     <row r="54" spans="6:6" ht="15" customHeight="1">
       <c r="F54" s="6" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
     </row>
     <row r="55" spans="6:6" ht="15" customHeight="1">
@@ -13174,7 +13276,7 @@
     </row>
     <row r="56" spans="6:6" ht="15" customHeight="1">
       <c r="F56" s="6" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
     </row>
     <row r="57" spans="6:6" ht="15" customHeight="1">
@@ -13184,7 +13286,7 @@
     </row>
     <row r="58" spans="6:6" ht="15" customHeight="1">
       <c r="F58" s="6" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
     </row>
     <row r="60" spans="6:6" ht="15" customHeight="1">
@@ -13194,7 +13296,7 @@
     </row>
     <row r="61" spans="6:6" ht="15" customHeight="1">
       <c r="F61" s="6" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
     </row>
     <row r="62" spans="6:6" ht="15" customHeight="1">
@@ -13204,7 +13306,7 @@
     </row>
     <row r="63" spans="6:6" ht="15" customHeight="1">
       <c r="F63" s="6" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
     </row>
     <row r="64" spans="6:6" ht="15" customHeight="1">
@@ -13214,17 +13316,17 @@
     </row>
     <row r="65" spans="6:6" ht="15" customHeight="1">
       <c r="F65" s="6" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
     </row>
     <row r="66" spans="6:6" ht="15" customHeight="1">
       <c r="F66" s="6" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
     </row>
     <row r="67" spans="6:6" ht="15" customHeight="1">
       <c r="F67" s="6" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
     </row>
     <row r="69" spans="6:6" ht="15" customHeight="1">
@@ -13234,7 +13336,7 @@
     </row>
     <row r="70" spans="6:6" ht="15" customHeight="1">
       <c r="F70" s="6" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
     </row>
     <row r="71" spans="6:6" ht="15" customHeight="1">
@@ -13244,7 +13346,7 @@
     </row>
     <row r="72" spans="6:6" ht="15" customHeight="1">
       <c r="F72" s="6" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
     </row>
     <row r="73" spans="6:6" ht="15" customHeight="1">
@@ -13254,12 +13356,12 @@
     </row>
     <row r="74" spans="6:6" ht="15" customHeight="1">
       <c r="F74" s="6" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
     </row>
     <row r="75" spans="6:6" ht="15" customHeight="1">
       <c r="F75" s="6" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
     </row>
     <row r="77" spans="6:6" ht="15" customHeight="1">
@@ -13269,7 +13371,7 @@
     </row>
     <row r="78" spans="6:6" ht="15" customHeight="1">
       <c r="F78" s="6" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="79" spans="6:6" ht="15" customHeight="1">
@@ -13279,7 +13381,7 @@
     </row>
     <row r="80" spans="6:6" ht="15" customHeight="1">
       <c r="F80" s="6" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="81" spans="6:6" ht="15" customHeight="1">
@@ -13289,7 +13391,7 @@
     </row>
     <row r="82" spans="6:6" ht="15" customHeight="1">
       <c r="F82" s="6" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="84" spans="6:6" ht="15" customHeight="1">
@@ -13299,7 +13401,7 @@
     </row>
     <row r="85" spans="6:6" ht="15" customHeight="1">
       <c r="F85" s="6" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="86" spans="6:6" ht="15" customHeight="1">
@@ -13309,7 +13411,7 @@
     </row>
     <row r="87" spans="6:6" ht="15" customHeight="1">
       <c r="F87" s="6" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="88" spans="6:6" ht="15" customHeight="1">
@@ -13319,7 +13421,7 @@
     </row>
     <row r="89" spans="6:6" ht="15" customHeight="1">
       <c r="F89" s="6" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="91" spans="6:6" ht="15" customHeight="1">
@@ -13329,7 +13431,7 @@
     </row>
     <row r="92" spans="6:6" ht="15" customHeight="1">
       <c r="F92" s="6" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
     </row>
     <row r="93" spans="6:6" ht="15" customHeight="1">
@@ -13339,7 +13441,7 @@
     </row>
     <row r="94" spans="6:6" ht="15" customHeight="1">
       <c r="F94" s="6" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
     </row>
     <row r="95" spans="6:6" ht="15" customHeight="1">
@@ -13349,12 +13451,12 @@
     </row>
     <row r="96" spans="6:6" ht="15" customHeight="1">
       <c r="F96" s="6" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
     </row>
     <row r="97" spans="6:6" ht="15" customHeight="1">
       <c r="F97" s="6" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
     </row>
     <row r="99" spans="6:6" ht="15" customHeight="1">
@@ -13364,7 +13466,7 @@
     </row>
     <row r="100" spans="6:6" ht="15" customHeight="1">
       <c r="F100" s="6" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
     </row>
     <row r="101" spans="6:6" ht="15" customHeight="1">
@@ -13374,17 +13476,17 @@
     </row>
     <row r="102" spans="6:6" ht="15" customHeight="1">
       <c r="F102" s="6" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
     </row>
     <row r="103" spans="6:6" ht="15" customHeight="1">
       <c r="F103" s="6" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
     </row>
     <row r="104" spans="6:6" ht="15" customHeight="1">
       <c r="F104" s="6" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
     </row>
     <row r="106" spans="6:6" ht="15" customHeight="1">
@@ -13394,7 +13496,7 @@
     </row>
     <row r="107" spans="6:6" ht="15" customHeight="1">
       <c r="F107" s="6" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
     </row>
     <row r="108" spans="6:6" ht="15" customHeight="1">
@@ -13404,17 +13506,17 @@
     </row>
     <row r="109" spans="6:6" ht="15" customHeight="1">
       <c r="F109" s="6" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
     </row>
     <row r="110" spans="6:6" ht="15" customHeight="1">
       <c r="F110" s="6" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
     </row>
     <row r="111" spans="6:6" ht="15" customHeight="1">
       <c r="F111" s="6" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
     </row>
     <row r="113" spans="6:6" ht="15" customHeight="1">
@@ -13424,7 +13526,7 @@
     </row>
     <row r="114" spans="6:6" ht="15" customHeight="1">
       <c r="F114" s="6" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
     </row>
     <row r="115" spans="6:6" ht="15" customHeight="1">
@@ -13434,17 +13536,17 @@
     </row>
     <row r="116" spans="6:6" ht="15" customHeight="1">
       <c r="F116" s="6" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
     </row>
     <row r="117" spans="6:6" ht="15" customHeight="1">
       <c r="F117" s="6" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
     </row>
     <row r="118" spans="6:6" ht="15" customHeight="1">
       <c r="F118" s="6" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
     </row>
     <row r="120" spans="6:6" ht="15" customHeight="1">
@@ -13454,7 +13556,7 @@
     </row>
     <row r="121" spans="6:6" ht="15" customHeight="1">
       <c r="F121" s="6" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
     </row>
     <row r="122" spans="6:6" ht="15" customHeight="1">
@@ -13464,12 +13566,12 @@
     </row>
     <row r="123" spans="6:6" ht="15" customHeight="1">
       <c r="F123" s="6" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
     </row>
     <row r="124" spans="6:6" ht="15" customHeight="1">
       <c r="F124" s="6" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
     </row>
     <row r="126" spans="6:6" ht="15" customHeight="1">
@@ -13479,7 +13581,7 @@
     </row>
     <row r="127" spans="6:6" ht="15" customHeight="1">
       <c r="F127" s="6" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
     </row>
     <row r="128" spans="6:6" ht="15" customHeight="1">
@@ -13489,17 +13591,17 @@
     </row>
     <row r="129" spans="6:6" ht="15" customHeight="1">
       <c r="F129" s="6" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
     </row>
     <row r="130" spans="6:6" ht="15" customHeight="1">
       <c r="F130" s="6" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
     </row>
     <row r="131" spans="6:6" ht="15" customHeight="1">
       <c r="F131" s="6" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
     </row>
     <row r="133" spans="6:6" ht="15" customHeight="1">
@@ -13509,7 +13611,7 @@
     </row>
     <row r="134" spans="6:6" ht="15" customHeight="1">
       <c r="F134" s="6" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="135" spans="6:6" ht="15" customHeight="1">
@@ -13519,17 +13621,17 @@
     </row>
     <row r="136" spans="6:6" ht="15" customHeight="1">
       <c r="F136" s="6" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="137" spans="6:6" ht="15" customHeight="1">
       <c r="F137" s="6" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
     </row>
     <row r="138" spans="6:6" ht="15" customHeight="1">
       <c r="F138" s="6" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="140" spans="6:6" ht="15" customHeight="1">
@@ -13539,7 +13641,7 @@
     </row>
     <row r="141" spans="6:6" ht="15" customHeight="1">
       <c r="F141" s="6" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="142" spans="6:6" ht="15" customHeight="1">
@@ -13549,17 +13651,17 @@
     </row>
     <row r="143" spans="6:6" ht="15" customHeight="1">
       <c r="F143" s="6" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="144" spans="6:6" ht="15" customHeight="1">
       <c r="F144" s="6" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
     </row>
     <row r="145" spans="6:6" ht="15" customHeight="1">
       <c r="F145" s="6" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
     </row>
     <row r="147" spans="6:6" ht="15" customHeight="1">
@@ -13569,7 +13671,7 @@
     </row>
     <row r="148" spans="6:6" ht="15" customHeight="1">
       <c r="F148" s="6" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
     </row>
     <row r="149" spans="6:6" ht="15" customHeight="1">
@@ -13579,17 +13681,17 @@
     </row>
     <row r="150" spans="6:6" ht="15" customHeight="1">
       <c r="F150" s="6" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
     </row>
     <row r="151" spans="6:6" ht="15" customHeight="1">
       <c r="F151" s="6" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
     </row>
     <row r="152" spans="6:6" ht="15" customHeight="1">
       <c r="F152" s="6" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
     </row>
     <row r="154" spans="6:6" ht="15" customHeight="1">
@@ -13599,7 +13701,7 @@
     </row>
     <row r="155" spans="6:6" ht="15" customHeight="1">
       <c r="F155" s="6" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
     </row>
     <row r="156" spans="6:6" ht="15" customHeight="1">
@@ -13609,7 +13711,7 @@
     </row>
     <row r="157" spans="6:6" ht="15" customHeight="1">
       <c r="F157" s="6" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
     </row>
     <row r="158" spans="6:6" ht="15" customHeight="1">
@@ -13619,12 +13721,12 @@
     </row>
     <row r="159" spans="6:6" ht="15" customHeight="1">
       <c r="F159" s="6" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
     </row>
     <row r="160" spans="6:6" ht="15" customHeight="1">
       <c r="F160" s="6" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
     </row>
     <row r="162" spans="6:6" ht="15" customHeight="1">
@@ -13634,7 +13736,7 @@
     </row>
     <row r="163" spans="6:6" ht="15" customHeight="1">
       <c r="F163" s="6" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
     </row>
     <row r="164" spans="6:6" ht="15" customHeight="1">
@@ -13644,12 +13746,12 @@
     </row>
     <row r="165" spans="6:6" ht="15" customHeight="1">
       <c r="F165" s="6" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
     </row>
     <row r="166" spans="6:6" ht="15" customHeight="1">
       <c r="F166" s="6" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
     </row>
     <row r="168" spans="6:6" ht="15" customHeight="1">
@@ -13659,7 +13761,7 @@
     </row>
     <row r="169" spans="6:6" ht="15" customHeight="1">
       <c r="F169" s="6" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="170" spans="6:6" ht="15" customHeight="1">
@@ -13669,12 +13771,12 @@
     </row>
     <row r="171" spans="6:6" ht="15" customHeight="1">
       <c r="F171" s="6" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="172" spans="6:6" ht="15" customHeight="1">
       <c r="F172" s="6" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="174" spans="6:6" ht="15" customHeight="1">
@@ -13684,7 +13786,7 @@
     </row>
     <row r="175" spans="6:6" ht="15" customHeight="1">
       <c r="F175" s="6" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="176" spans="6:6" ht="15" customHeight="1">
@@ -13694,22 +13796,22 @@
     </row>
     <row r="177" spans="6:6" ht="15" customHeight="1">
       <c r="F177" s="6" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="178" spans="6:6" ht="15" customHeight="1">
       <c r="F178" s="6" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="179" spans="6:6" ht="15" customHeight="1">
       <c r="F179" s="6" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
     </row>
     <row r="180" spans="6:6" ht="15" customHeight="1">
       <c r="F180" s="6" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="182" spans="6:6" ht="15" customHeight="1">
@@ -13719,7 +13821,7 @@
     </row>
     <row r="183" spans="6:6" ht="15" customHeight="1">
       <c r="F183" s="6" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="184" spans="6:6" ht="15" customHeight="1">
@@ -13729,7 +13831,7 @@
     </row>
     <row r="185" spans="6:6" ht="15" customHeight="1">
       <c r="F185" s="6" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
     </row>
     <row r="188" spans="6:6" ht="15" customHeight="1">
@@ -13739,7 +13841,7 @@
     </row>
     <row r="189" spans="6:6" ht="15" customHeight="1">
       <c r="F189" s="6" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="190" spans="6:6" ht="15" customHeight="1">
@@ -13749,22 +13851,22 @@
     </row>
     <row r="191" spans="6:6" ht="15" customHeight="1">
       <c r="F191" s="6" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="192" spans="6:6" ht="15" customHeight="1">
       <c r="F192" s="6" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="193" spans="6:6" ht="15" customHeight="1">
       <c r="F193" s="6" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="194" spans="6:6" ht="15" customHeight="1">
       <c r="F194" s="6" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="196" spans="6:6" ht="15" customHeight="1">
@@ -13774,7 +13876,7 @@
     </row>
     <row r="197" spans="6:6" ht="15" customHeight="1">
       <c r="F197" s="6" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="198" spans="6:6" ht="15" customHeight="1">
@@ -13784,7 +13886,7 @@
     </row>
     <row r="199" spans="6:6" ht="15" customHeight="1">
       <c r="F199" s="6" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="201" spans="6:6" ht="15" customHeight="1">
@@ -13794,7 +13896,7 @@
     </row>
     <row r="202" spans="6:6" ht="15" customHeight="1">
       <c r="F202" s="6" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="203" spans="6:6" ht="15" customHeight="1">
@@ -13804,12 +13906,12 @@
     </row>
     <row r="204" spans="6:6" ht="15" customHeight="1">
       <c r="F204" s="6" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="205" spans="6:6" ht="15" customHeight="1">
       <c r="F205" s="6" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
     </row>
     <row r="207" spans="6:6" ht="15" customHeight="1">
@@ -13828,7 +13930,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="31" type="noConversion"/>
+  <phoneticPr fontId="33" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -13857,7 +13959,7 @@
     <row r="5" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D5" s="5"/>
       <c r="F5" s="6" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="6" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
@@ -13909,7 +14011,7 @@
     <row r="14" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D14" s="5"/>
       <c r="F14" s="6" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="15" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
@@ -13943,7 +14045,7 @@
     <row r="20" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D20" s="5"/>
       <c r="F20" s="6" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="21" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
@@ -13977,7 +14079,7 @@
     <row r="26" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D26" s="5"/>
       <c r="F26" s="6" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="27" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
@@ -14011,7 +14113,7 @@
     <row r="32" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D32" s="5"/>
       <c r="F32" s="6" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="33" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
@@ -14045,7 +14147,7 @@
     <row r="38" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D38" s="5"/>
       <c r="F38" s="6" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="39" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
@@ -14079,7 +14181,7 @@
     <row r="44" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D44" s="5"/>
       <c r="F44" s="6" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="45" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
@@ -14092,7 +14194,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="31" type="noConversion"/>
+  <phoneticPr fontId="33" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -14714,7 +14816,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="31" type="noConversion"/>
+  <phoneticPr fontId="33" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -14729,77 +14831,77 @@
   <sheetData>
     <row r="3" spans="4:6" ht="18">
       <c r="D3" s="5" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
     </row>
     <row r="6" spans="4:6">
       <c r="F6" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
     </row>
     <row r="8" spans="4:6">
       <c r="F8" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
     </row>
     <row r="9" spans="4:6">
       <c r="F9" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
     </row>
     <row r="10" spans="4:6">
       <c r="F10" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
     </row>
     <row r="11" spans="4:6">
       <c r="F11" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
     </row>
     <row r="12" spans="4:6">
       <c r="F12" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
     </row>
     <row r="13" spans="4:6">
       <c r="F13" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
     </row>
     <row r="15" spans="4:6">
       <c r="F15" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
     </row>
     <row r="17" spans="6:6">
       <c r="F17" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
     </row>
     <row r="18" spans="6:6">
       <c r="F18" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
     </row>
     <row r="19" spans="6:6">
       <c r="F19" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
     </row>
     <row r="20" spans="6:6">
       <c r="F20" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
     </row>
     <row r="21" spans="6:6">
       <c r="F21" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
     </row>
     <row r="22" spans="6:6">
       <c r="F22" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
     </row>
     <row r="23" spans="6:6">
@@ -14809,12 +14911,12 @@
     </row>
     <row r="24" spans="6:6">
       <c r="F24" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
     </row>
     <row r="25" spans="6:6">
       <c r="F25" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
     </row>
     <row r="26" spans="6:6">
@@ -14824,22 +14926,22 @@
     </row>
     <row r="28" spans="6:6">
       <c r="F28" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
     </row>
     <row r="29" spans="6:6">
       <c r="F29" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
     </row>
     <row r="30" spans="6:6">
       <c r="F30" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
     </row>
     <row r="31" spans="6:6">
       <c r="F31" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
     </row>
     <row r="32" spans="6:6">
@@ -14849,12 +14951,12 @@
     </row>
     <row r="33" spans="6:6">
       <c r="F33" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
     </row>
     <row r="34" spans="6:6">
       <c r="F34" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
     </row>
     <row r="35" spans="6:6">
@@ -14864,22 +14966,22 @@
     </row>
     <row r="37" spans="6:6">
       <c r="F37" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
     </row>
     <row r="38" spans="6:6">
       <c r="F38" t="s">
-        <v>687</v>
+        <v>682</v>
       </c>
     </row>
     <row r="39" spans="6:6">
       <c r="F39" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
     </row>
     <row r="40" spans="6:6">
       <c r="F40" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
     </row>
     <row r="41" spans="6:6">
@@ -14889,12 +14991,12 @@
     </row>
     <row r="42" spans="6:6">
       <c r="F42" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
     </row>
     <row r="43" spans="6:6">
       <c r="F43" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
     </row>
     <row r="44" spans="6:6">
@@ -14904,22 +15006,22 @@
     </row>
     <row r="46" spans="6:6">
       <c r="F46" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
     </row>
     <row r="47" spans="6:6">
       <c r="F47" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
     </row>
     <row r="48" spans="6:6">
       <c r="F48" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
     </row>
     <row r="49" spans="6:6">
       <c r="F49" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
     </row>
     <row r="50" spans="6:6">
@@ -14929,12 +15031,12 @@
     </row>
     <row r="51" spans="6:6">
       <c r="F51" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
     </row>
     <row r="52" spans="6:6">
       <c r="F52" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
     </row>
     <row r="53" spans="6:6">
@@ -14944,57 +15046,57 @@
     </row>
     <row r="55" spans="6:6">
       <c r="F55" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
     </row>
     <row r="56" spans="6:6">
       <c r="F56" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="58" spans="6:6">
       <c r="F58" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
     </row>
     <row r="59" spans="6:6">
       <c r="F59" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
     </row>
     <row r="60" spans="6:6">
       <c r="F60" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
     </row>
     <row r="61" spans="6:6">
       <c r="F61" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="63" spans="6:6">
       <c r="F63" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
     </row>
     <row r="64" spans="6:6">
       <c r="F64" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
     </row>
     <row r="65" spans="6:6">
       <c r="F65" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
     </row>
     <row r="66" spans="6:6">
       <c r="F66" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
     </row>
     <row r="67" spans="6:6">
       <c r="F67" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
     </row>
     <row r="68" spans="6:6">
@@ -15004,7 +15106,7 @@
     </row>
     <row r="69" spans="6:6">
       <c r="F69" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
     </row>
     <row r="70" spans="6:6">
@@ -15014,12 +15116,12 @@
     </row>
     <row r="71" spans="6:6">
       <c r="F71" t="s">
-        <v>710</v>
+        <v>705</v>
       </c>
     </row>
     <row r="72" spans="6:6">
       <c r="F72" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
     </row>
     <row r="73" spans="6:6">
@@ -15029,7 +15131,7 @@
     </row>
     <row r="74" spans="6:6">
       <c r="F74" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
     </row>
     <row r="75" spans="6:6">
@@ -15039,12 +15141,12 @@
     </row>
     <row r="76" spans="6:6">
       <c r="F76" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
     </row>
     <row r="77" spans="6:6">
       <c r="F77" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
     </row>
     <row r="78" spans="6:6">
@@ -15054,7 +15156,7 @@
     </row>
     <row r="79" spans="6:6">
       <c r="F79" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
     </row>
     <row r="80" spans="6:6">
@@ -15064,12 +15166,12 @@
     </row>
     <row r="81" spans="6:6">
       <c r="F81" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
     </row>
     <row r="82" spans="6:6">
       <c r="F82" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
     </row>
     <row r="83" spans="6:6">
@@ -15079,7 +15181,7 @@
     </row>
     <row r="84" spans="6:6">
       <c r="F84" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
     </row>
     <row r="85" spans="6:6">
@@ -15089,17 +15191,17 @@
     </row>
     <row r="86" spans="6:6">
       <c r="F86" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
     </row>
     <row r="87" spans="6:6">
       <c r="F87" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="89" spans="6:6">
       <c r="F89" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
     </row>
     <row r="90" spans="6:6">
@@ -15109,7 +15211,7 @@
     </row>
     <row r="91" spans="6:6">
       <c r="F91" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
     </row>
     <row r="92" spans="6:6">
@@ -15119,7 +15221,7 @@
     </row>
     <row r="94" spans="6:6">
       <c r="F94" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
     </row>
     <row r="95" spans="6:6">
@@ -15129,22 +15231,22 @@
     </row>
     <row r="96" spans="6:6">
       <c r="F96" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
     </row>
     <row r="97" spans="6:6">
       <c r="F97" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
     </row>
     <row r="98" spans="6:6">
       <c r="F98" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
     </row>
     <row r="99" spans="6:6">
       <c r="F99" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
     </row>
     <row r="100" spans="6:6">
@@ -15154,27 +15256,27 @@
     </row>
     <row r="101" spans="6:6">
       <c r="F101" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
     </row>
     <row r="102" spans="6:6">
       <c r="F102" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="103" spans="6:6">
       <c r="F103" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
     </row>
     <row r="104" spans="6:6">
       <c r="F104" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
     </row>
     <row r="105" spans="6:6">
       <c r="F105" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="106" spans="6:6">
@@ -15184,12 +15286,12 @@
     </row>
     <row r="107" spans="6:6">
       <c r="F107" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
     </row>
     <row r="108" spans="6:6">
       <c r="F108" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
     </row>
     <row r="109" spans="6:6">
@@ -15204,102 +15306,102 @@
     </row>
     <row r="114" spans="4:8" ht="18">
       <c r="D114" s="5" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
     </row>
     <row r="117" spans="4:8">
       <c r="F117" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
     </row>
     <row r="118" spans="4:8">
       <c r="F118" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
     </row>
     <row r="120" spans="4:8">
       <c r="F120" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
     </row>
     <row r="121" spans="4:8">
       <c r="F121" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
     </row>
     <row r="123" spans="4:8">
       <c r="F123" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
     </row>
     <row r="124" spans="4:8">
       <c r="G124" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
     </row>
     <row r="125" spans="4:8">
       <c r="H125" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
     </row>
     <row r="126" spans="4:8">
       <c r="H126" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
     </row>
     <row r="127" spans="4:8">
       <c r="H127" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
     </row>
     <row r="128" spans="4:8">
       <c r="H128" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
     </row>
     <row r="129" spans="6:9">
       <c r="H129" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
     </row>
     <row r="130" spans="6:9">
       <c r="H130" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
     </row>
     <row r="132" spans="6:9">
       <c r="H132" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
     </row>
     <row r="133" spans="6:9">
       <c r="H133" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
     </row>
     <row r="135" spans="6:9">
       <c r="H135" s="64" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
     </row>
     <row r="136" spans="6:9">
       <c r="H136" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
     </row>
     <row r="137" spans="6:9">
       <c r="I137" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
     </row>
     <row r="138" spans="6:9">
       <c r="I138" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
     </row>
     <row r="139" spans="6:9">
       <c r="I139" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
     </row>
     <row r="140" spans="6:9">
@@ -15318,7 +15420,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="31" type="noConversion"/>
+  <phoneticPr fontId="33" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/DevKit/Help/开发辅助工具使用手册.xlsx
+++ b/DevKit/Help/开发辅助工具使用手册.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" firstSheet="8" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="目的" sheetId="1" r:id="rId1"/>
@@ -38,122 +38,118 @@
   </si>
   <si>
     <t>通过使用工具，提高工作效率，防止手工编码的低级错误，消减代码复查的工作时间。</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>工程</t>
   </si>
   <si>
     <t>新建工程</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>菜单 -&gt; 文件 -&gt; 新建工程</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>*暂时请不要使用Java</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>项目名称：</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>这个项目的名字，可以是任意文字</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>命名空间</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>新建工程后，系统将自动添加以下文件夹</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>\Model\Document</t>
   </si>
   <si>
     <t>数据模型设计书</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>\Model\SourceCode</t>
   </si>
   <si>
     <t>数据模型代码</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>枚举代码文件夹</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>*枚举代码文件夹中的文件将在枚举中介绍</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>同时，系统会生成 Project.xml文件</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>打开工程</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>菜单 -&gt; 文件 -&gt; 打开工程</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>数据模型</t>
   </si>
   <si>
     <t>工具通过将设计书直接转化为Model代码的方式，使得数据模型的编码环节做到自动化。</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>设计人员只需要填写完数据设计式样书，则工具可以完成代码的自动生成。</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>基本</t>
   </si>
   <si>
     <t>No</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>属性名</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>元数据类型</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>枚举类型</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>显示名称</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>编号，暂时没有什么作用</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>Model的变量名称，请使用符合C#变量名称的字符串</t>
-    <phoneticPr fontId="35" type="noConversion"/>
-  </si>
-  <si>
-    <t>枚举类型的完整类型名称</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>这个项目在Web页显示时候的名称</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>校验</t>
@@ -163,197 +159,197 @@
   </si>
   <si>
     <t>是否为必须项目</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>错误信息</t>
   </si>
   <si>
     <t>错误信息</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>数值范围</t>
   </si>
   <si>
     <t>最大值</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>最小值</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>字符串长度</t>
   </si>
   <si>
     <t>模式</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>正则表达式</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>格式</t>
   </si>
   <si>
     <t>使用类型</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>显示模式</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>这个字段在使用的时候的类型，例如电子邮件，电话号码</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>这个字段在表示模式的时候，如何显示。</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>版本控制</t>
   </si>
   <si>
     <t>省略</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>项目是ID这样的，不希望直接被页面编辑的项目。</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>编号项目（布尔型）</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>是/否（布尔型）</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>*填写的时候，如果是 （布尔型） 的填写项，请在格子里面填写任意字符表示选中。</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>代码的生成</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>将设计书放在Document文件夹下，选择 菜单 -&gt; 工程 -&gt; 生成所有模型代码  系统将自动重新生成所有的代码。</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>生成的代码直接可以给VS使用，作为生成View的数据源头。</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>注意：Language这样的枚举，VS无法自动生成代码，需要手动添加</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>同时，旗标类型的枚举，需要其他的代码的配合，这个在枚举中介绍。</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>枚举类型分为普通枚举和旗标枚举</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>普通枚举：一个变量值只可能有一种枚举状态，则使用普通枚举。</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>旗标枚举：一个变量可能同时存在多种枚举状态，则使用旗标枚举。</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>例如：小明 同时会 日语 和 英语 ，则语言就是一个旗标枚举。</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>例如：如果一家超市，每周只有一天休息，则星期几休息就是一个一般枚举。</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>枚举</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>枚举类型</t>
   </si>
   <si>
     <t>数据模型设计书项目说明</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>枚举设计书项目说明</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>枚举名称：</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>Flag型  (布尔型）</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>是否为旗标枚举</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>枚举量</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>这个枚举的名称，必须符合C#变量名规则</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>表示某个枚举的变量，必须符合C#变量名规则</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>枚举显示名</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>枚举在画面上显示的名字</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>枚举值</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>枚举在系统内部的名字</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>Enum附加代码</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>VS系统将会把Enum类型作为数字处理，如果需要在画面显示的时候，将普通枚举作为下拉列表，旗标枚举作为多个复选框，</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>请将新建工程时候的Enum文件夹下面的代码放入VS的项目中。</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>Enum辅助代码</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>旗标枚举的模板</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>普通枚举的模板</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>using System;</t>
@@ -399,67 +395,67 @@
   </si>
   <si>
     <t>界面说明</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>适用范围</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>工具环境</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>版本情报</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>如果你只需要生成一个模型,则可以使用 菜单 -&gt; 工具 -&gt; 生成数据模型来生成指定数据模型.</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>允许的最大值</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>允许的最小值</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>允许的最大字符串长度</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>允许的最小字符串长度</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>(系统在编辑的时候,将通过浏览器内置的html5功能检查输入是否合法)</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>工具</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>指定枚举设计文档和源代码保存路径后,即可生成代码.</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>菜单 -&gt; 工具 -&gt; 生成枚举代码</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>目标计划</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>Java 系 Spring MVC4 JSR-349 验证标准的完善.</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>数据模型(Spring)</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>package HRSystemOnline;</t>
@@ -1026,97 +1022,97 @@
   </si>
   <si>
     <t>数据模型(ASP.NET)</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>Native2ASCII</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>Java中的Property文档,需要将本地语言转为机器语言,这个工具能够自动转换单个字符串.</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>菜单 -&gt; 工具 -&gt; Native2ASCII</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>变更履历</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>2014/12/19</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>增加了Native AscII 工具</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>这里支持 Native -&gt; ASCII 和 ASCII -&gt; Native 的双向转换.</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>请在Native或者ASCII里面填入内容.系统将自动判断转换方向.</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>如果需要批量转换,请先在Excel里填写好转换内容,再执行批量转换</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>*批量转换也支持双向转换,请按照需求填写内容.系统将自动转换直到 No 列为空.</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>2014/12/22</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>增加了Struts2的数据验证处理</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>2014/12/23</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>增加MySql建表语句功能</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>项目的NameSpace，以后生成的Model的命名空间会是 NameSpace.Models(.NET),Java的Package名称也在这里设定</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>数据表结构生成</t>
   </si>
   <si>
     <t>在数据设计书编辑后,可以通过工具自动生成数据库的CreateTable语句.</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>MySql篇</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>字符串</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>varchar</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>需要长度提示</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>整型</t>
   </si>
   <si>
     <t>int</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>布尔值</t>
@@ -1126,7 +1122,7 @@
   </si>
   <si>
     <t>日期(包含时间)</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>datetime</t>
@@ -1136,15 +1132,15 @@
   </si>
   <si>
     <t>*暂时默认有且只有一个主键,主键是数字自增主健.</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>&lt;考虑到旗标型枚举,所以将类型定义扩大为smallint.&gt;</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>自动生成代码示例</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>DROP TABLE IF EXISTS `test`.`Candidate`;</t>
@@ -1190,26 +1186,26 @@
   </si>
   <si>
     <t>增加 Struts2路由编辑</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>Struts2路由</t>
   </si>
   <si>
     <t>通过读取Excel文档自动生成Struts的路由配置部分内容.</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>菜单 -&gt; 工具 -&gt; Struts2路由</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>读入文件格式如下</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>生成文件</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>&lt;struts&gt;</t>
@@ -1264,38 +1260,38 @@
   </si>
   <si>
     <t>这里只是Struts的路由部分的配置,在实际使用中,需要进行一些修改.</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>2015/1/4</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>增加代码片断功能</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>代码片断</t>
   </si>
   <si>
     <t>将一些常用的代码或者知识,收集到一起,便于以后查阅和使用.</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>检索功能支持标题和描述,Tag检索</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>2015/1/30</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>增强了数据模型定义</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>EnumExtention.cs</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1311,7 +1307,7 @@
       </rPr>
       <t>\SourceCode</t>
     </r>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1337,19 +1333,19 @@
       </rPr>
       <t>\Document</t>
     </r>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>\Enum\ExtendSourceCode</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>枚举辅助代码</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>EnumDisplayNameAttribute.cs</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1365,23 +1361,23 @@
       </rPr>
       <t>isplayName属性代码</t>
     </r>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>放置在数据模型代码工程中</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>放置于\WebSite\Views\Shared\EditorTemplates中</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>Enum具体的编码</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>先确保所有的Enum附加代码放置在正确的文件夹,并且添加了适当的引用</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1427,15 +1423,15 @@
       </rPr>
       <t>,需要手动添加.</t>
     </r>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>添加的形式则和普通的字段一样.</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>Create视图的时候,请保证设定一个New过的模型到ViewData.Model,不然会发生Null引用错误.</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">        public ActionResult Create()</t>
@@ -1457,19 +1453,19 @@
       </rPr>
       <t>new Interview();</t>
     </r>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>EnumFlags.cs</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>Enum.cs</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>代码通过 UIHint属性来控制 字段使用的模板,所以自动生成的代码应该象这个样子:</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">            /// &lt;summary&gt;</t>
@@ -1533,11 +1529,11 @@
   </si>
   <si>
     <t>名字空间</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>该枚举的名字空间</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1564,43 +1560,43 @@
       </rPr>
       <t>在Enum生成代码中,请注意.</t>
     </r>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>注意,系统将自动添加 "0:"字符,所以这里填写的时候不要添加 "0:"</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>MongoDB的时候,日期将使用Local模式</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>2015/2/3</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>增加了MongoDB的支持</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>如果名字空间不填写的话,这里将自动使用工程的名字空间</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>2015/2/4</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>增加了类描述</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>增加了复制所有代码到真实工程</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>增加了元数据类型:列表</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1626,11 +1622,11 @@
       </rPr>
       <t>中,需要添加EnumDisplayNameAttibute的命名空间</t>
     </r>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>基类</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>MasterTable.cs</t>
@@ -1649,135 +1645,135 @@
       </rPr>
       <t>代码</t>
     </r>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>有时候MVC5.0的Js下面的一些验证相关的JS会被误删除造成验证无效。</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>这个时候可以新建一个MVC5.0的工程，然后将Js下面的文件全部复制过去即可。</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>关于自动添加的字段</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>CollectionName:</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>Prefix</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>MvcTitle</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>用作画面标题的字符</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>数据表名称(附加一个静态方法)</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>数据编号的前缀(附加一个静态方法)</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>2015/2/5</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>增加了MvcTitle字段</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>MVC5开发</t>
   </si>
   <si>
     <t>业务模型的设计</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>MasterTable</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>数据模型</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>普通的数据</t>
   </si>
   <si>
     <t>CompanyTable</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>选项列表</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>提供Master数据</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>固定的Master数据</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>模板的修改</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>标准模板</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>C:\Program Files (x86)\Microsoft Visual Studio 12.0\Common7\IDE\Extensions\Microsoft\Web\Mvc\Scaffolding\Templates</t>
   </si>
   <si>
     <t>将标准模板导入到工程中,建立CodeTemplates目录,MVC本地优先级高于标准模板</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>将模板进行本地化,同时使用 MvcTitle(本工具为每个模型自动添加)这样的标题字段,填充相应位置</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>例:</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>&lt;h2&gt;@&lt;#= ViewDataTypeName#&gt;.MvcTitle 列表&lt;/h2&gt;</t>
   </si>
   <si>
     <t>注意,日期形式的时候,html5的Date控件要求格式必须是 yyyy-MM-dd所以这里进行强制设定</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>关于自动导出到MVC的约定</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">这里约定将 </t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">枚举放入  </t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">数据模型放入 </t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>Master表放在</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1803,7 +1799,7 @@
       </rPr>
       <t>文件夹，</t>
     </r>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1839,27 +1835,27 @@
       </rPr>
       <t>文件夹,</t>
     </r>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>Master 文件夹</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>2015/2/11</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>日期型数据在HTML5控件中无法表示的对应</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>增加了Master表自动名字修正功能</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>将Master表和Model表分割开来</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1885,7 +1881,7 @@
       </rPr>
       <t>\Document</t>
     </r>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1911,15 +1907,15 @@
       </rPr>
       <t>\SourceCode</t>
     </r>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>辅助表设计书</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>辅助表代码</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1945,31 +1941,31 @@
       </rPr>
       <t>的工程，而是管理设计文档的工程，或者是WorkSpace这样的一个概念。</t>
     </r>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>2015/2/26</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>增加了修改工程属性的功能</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>修改了一些Bug</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>修改工程</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>菜单 -&gt; 数据定义 -&gt; 修改工程</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>打开工程后可以通过修改工程菜单对工程属性进行修改</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1985,7 +1981,7 @@
       </rPr>
       <t>.系统将自动载入目录结构,更新文件.</t>
     </r>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>using MongoDB.Bson.Serialization.Attributes;</t>
@@ -2347,38 +2343,38 @@
   </si>
   <si>
     <t>2015/4/3</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>增加了CreateOrEdit的CSHTML文件的自动生成</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>CreateOrEdit页面</t>
   </si>
   <si>
     <t>虽然MVC有T4模板，但是，内置的T4模板无法满足定制的要求。</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>工具将自动根据模型生成CreateOrEdit页面的Cshtml文件</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>日期型</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>日期型控件封装了 jQuery UI 的 DateTime组件</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>辅助表型</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>辅助表分为单值和多值两种类型。单值在UI上表现为一个下拉列表框，多值表现为一组CheckBox</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>@model TalentInfo</t>
@@ -2568,85 +2564,85 @@
   </si>
   <si>
     <t>初始状态</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>展开后</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>单值类型</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>多值类型</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>约定：</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>这里约定多值类型的辅助表，列表的名称为 MasterTableName去掉"M_"前缀，加上 List后缀</t>
   </si>
   <si>
     <t>同时为了统一代码，列表名称尽可能和项目名称保持一致。</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>MasterTableName：</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>M_MarketBG</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">                @(HtmlUIHelper.GetMultiValueUI&lt;M_MarketBG&gt;("MarketBGList", ViewBag.MarketBGList, Model.MarketBGList))</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>ViewBag.MarketBGList</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>MarketBGList</t>
   </si>
   <si>
     <t>列表名称：</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>项目名称：</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>同时为了统一代码，项目名称尽可能和MasterTableName保持一致。</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">                @(HtmlUIHelper.GetSingleValueUI&lt;M_TechniqueBG&gt;("TechniqueBG", ViewBag.TechniqueBGList, Model.TechniqueBG))</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>M_TechniqueBG</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>ViewBag.TechniqueBGList</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>TechniqueBG</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>布尔型</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>布尔型在实际使用时候，需要进行一些手工美化</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2672,70 +2668,70 @@
       </rPr>
       <t>）。</t>
     </r>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>辅助表</t>
   </si>
   <si>
     <t>辅助表（MasterTable）里面存放着一些序列。当我们输入数据的时候，为了便利性和防止输入错误，</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>我们将一些项目可能出现的值，以表格的形式保存起来，输入的时候，不能自由填写，只能从列表里面选择。</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>这样的列表是一种辅助性质的列表，所以我们约定称为辅助表。</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>辅助表中包含了一种专门用来表示状态的辅助表，我们称为状态辅助表。</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>这种表格能够定义数据的表示颜色，表示顺序，是对于辅助表的一种扩展。</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>辅助表和枚举</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>辅助表和枚举的区别是：枚举用户相对稳定的序列，例如一年四季的序列，HTTP的状态。</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>辅助表则是用于更新比较频繁的序列，当然，可以将枚举也看成一种辅助表。</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>在编码上，枚举可能更便利，辅助表在各种封装方法的帮助下，也可以做到很简洁。</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>另外，辅助表可以使用缓存系统进行加速，提高性能，枚举则完全在编译的时候变成程序的一部分，无需缓存。</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>约定</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>这里约定辅助表（MasterTable）以 "M_"为前缀</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>整个系统很大程度上需要各种辅助表的支持。对于停止使用的Master表，可以设置为 不启用</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>辅助表可以用在单个值的选取上，例如状态的选取，可以用在多个值得选取上，例如技能的选取。</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>带有评价的多项目</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2751,47 +2747,47 @@
       </rPr>
       <t>辅助表，辅助评价表</t>
     </r>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>列表型</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>可以设定元数据是不是List型。辅助评价表暂时只支持列表型</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>Flg</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>Flg分为Skip和Hidden两种，</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>Skip 将被系统忽略，如果该项目不需要了，但是又想保留完整履历，可以将项目设置为Skip</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>Hidden 标记一个项目为Hidden类型，例如ID这种自动设定的项目，就因该设置为Hidden</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>同时确认一下代码中是否添加了这些JS的引用。</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>关于验证失效的问题</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>数据模型可以在VS中在T4模板的作用在直接生成UI界面。</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>本工具也提供了功能更加强大的UI生成模块。</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2827,15 +2823,15 @@
       </rPr>
       <t>和报表界面.</t>
     </r>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>2015/4/13</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>Filter特性的追加</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2851,15 +2847,15 @@
       </rPr>
       <t>Organization</t>
     </r>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>在多个值的选取上，还可以支持五个级别的等级的选取。（参考：CreateOrEdit页面：带有评价的多项目）</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>如果列表还带有分类的话,可以使用CatalogMasterTable</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>using InfraStructure.FilterSet;</t>
@@ -3395,38 +3391,38 @@
   </si>
   <si>
     <t>ASP.NET MVC5的诸多功能,需要InfraStructure这个DLL的支持.数据库暂时支持无需ORM的MongoDB.</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>.Net Framework 4.5</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>2015/6/26</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>强化了Struts2的数据验证处理</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">CreateOrEdit - ASP.NET MVC5 </t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>Struts2验证</t>
   </si>
   <si>
     <t>通过读取验证设定文档,自动生成Struts2使用的Action单位的验证用XML.</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>验证设定文档和前面的ASP.NET MVC文档结构一致.</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>同时支持内联和外置两种错误信息表示方式.</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>&lt;?xml version="1.0" encoding="utf-8"?&gt;</t>
@@ -3490,7 +3486,7 @@
   </si>
   <si>
     <t>LoginAction-validation.xml</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5171,19 +5167,19 @@
   </si>
   <si>
     <t>参考:Struts2内置的验证类型</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>2015/7/10</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>Spring代码中HibernateORM的加入</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>2015/7/24</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5199,11 +5195,11 @@
       </rPr>
       <t>ava的属性中,布尔型的 getXXX -&gt; isXXX</t>
     </r>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>2015/11/20</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5219,23 +5215,23 @@
       </rPr>
       <t>final的Model代码生成功能的加入</t>
     </r>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>2015/11/25</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>修正了Java中没有DateTime类型的BUG</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>SQL文做成的时候,添加了Schema的填写,修正了没有主键时候SQL错误</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>数据模型(JFinal)</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>package dao;</t>
@@ -5266,7 +5262,7 @@
       </rPr>
       <t>,Struts2,JFinal。</t>
     </r>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5282,7 +5278,7 @@
       </rPr>
       <t>final的简单ORM</t>
     </r>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>import java.util.ArrayList;</t>
@@ -5475,7 +5471,7 @@
   </si>
   <si>
     <t>使用方法</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>import com.jfinal.plugin.activerecord.ActiveRecordPlugin;</t>
@@ -5530,27 +5526,27 @@
   </si>
   <si>
     <t>2015/11/26</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>增加单个Excel文件包含多个数据模型的支持</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>2015/12/16</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>为Jfinal增加了浮点型的处理(其他暂时没有对应)</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>增加了模型版本号的概念</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>2015/12/22</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5596,11 +5592,11 @@
       </rPr>
       <t>增加了浮点型的处理</t>
     </r>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>2016/1/14</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5616,18 +5612,18 @@
       </rPr>
       <t>VC5 -&gt; MVC6 Tool KiffOff</t>
     </r>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>MVC5迁移MVC6工具</t>
   </si>
   <si>
     <t>具体升级步骤如下</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>2016/2/16</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5643,15 +5639,15 @@
       </rPr>
       <t>ompanyTable -&gt; OwnerTable</t>
     </r>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>C#的MVC,Model生成的文件名字改为 [ModelName]_Model.cs,保证相同的文件夹下面可以包括同一个Model的定义和方法两部分</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>2016/2/17</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5667,11 +5663,11 @@
       </rPr>
       <t>SharpModel去除特性模式</t>
     </r>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>MongoDB中,静态字段不用BsonIgnore特性标签</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5697,7 +5693,7 @@
       </rPr>
       <t>Table,同时带有 Name名称和Description描述字段</t>
     </r>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5723,31 +5719,31 @@
       </rPr>
       <t>OwerId 组织编号,Code项目编号主键</t>
     </r>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>OwnerTable.cs</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>OwnerTable代码</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>系统支持OwnerTable,MasterTable两种扩展数据模型</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>2016/2/25</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>Csharp，单文档模式，加入枚举</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>增加Sheet页标识符，区别每个页面的数据类型</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5763,11 +5759,11 @@
       </rPr>
       <t>3.7</t>
     </r>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>增加CSharp模型的基础增删改操作</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>using InfraStructure.DataBase;</t>
@@ -5954,12 +5950,28 @@
   <si>
     <t xml:space="preserve">                MongoDbRepository.UpdateRec(OldTalentInfo);</t>
   </si>
+  <si>
+    <r>
+      <t>枚举类型的完整类型名称(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>实际可以是任何类型名称)</t>
+    </r>
+    <phoneticPr fontId="36" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="55">
+  <fonts count="56">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5967,6 +5979,13 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -6459,11 +6478,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -6478,55 +6494,61 @@
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="37" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
+    <xf numFmtId="14" fontId="38" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="34" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="35" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -6541,55 +6563,55 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="29" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="28" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="14" fontId="26" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="25" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
+    <xf numFmtId="14" fontId="22" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="21" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -6598,10 +6620,10 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="14" fontId="19" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -6610,25 +6632,28 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="16" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1">
@@ -6637,22 +6662,22 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -6676,10 +6701,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -6695,9 +6720,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -7469,19 +7491,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>111</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
       <xdr:row>134</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2049" name="Picture 1"/>
+        <xdr:cNvPr id="3" name="Picture 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -7495,7 +7517,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1028700" y="21155025"/>
+          <a:off x="1000125" y="21145500"/>
           <a:ext cx="6391275" cy="4514850"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8818,7 +8840,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="D3:M94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M95" sqref="M95"/>
     </sheetView>
   </sheetViews>
@@ -8843,328 +8865,328 @@
     </row>
     <row r="6" spans="4:6" ht="15" customHeight="1">
       <c r="F6" s="46" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="9" spans="4:6" ht="15" customHeight="1">
       <c r="D9" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="4:6" ht="15" customHeight="1">
       <c r="F11" s="61" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="12" spans="4:6" ht="15" customHeight="1">
       <c r="F12" s="28" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="14" spans="4:6" ht="15" customHeight="1">
       <c r="D14" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="4:6" ht="15" customHeight="1">
       <c r="F16" s="50" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="18" spans="4:6" ht="15" customHeight="1">
       <c r="D18" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="4:6" ht="15" customHeight="1">
       <c r="F20" s="78" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="22" spans="4:6" ht="15" customHeight="1">
       <c r="D22" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="50" spans="4:13" ht="15" customHeight="1">
       <c r="D50" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="52" spans="4:13" ht="15" customHeight="1">
       <c r="F52" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="55" spans="4:13" ht="15" customHeight="1">
       <c r="D55" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="57" spans="4:13" ht="15" customHeight="1">
       <c r="F57" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="M57" s="2" t="s">
         <v>188</v>
-      </c>
-      <c r="M57" s="2" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="58" spans="4:13" ht="15" customHeight="1">
       <c r="F58" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="M58" s="2" t="s">
         <v>194</v>
-      </c>
-      <c r="M58" s="2" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="59" spans="4:13" ht="15" customHeight="1">
       <c r="F59" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="M59" s="2" t="s">
         <v>196</v>
-      </c>
-      <c r="M59" s="2" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="60" spans="4:13" ht="15" customHeight="1">
       <c r="M60" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="61" spans="4:13" ht="15" customHeight="1">
       <c r="F61" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="M61" s="2" t="s">
         <v>253</v>
-      </c>
-      <c r="M61" s="2" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="62" spans="4:13" ht="15" customHeight="1">
       <c r="F62" s="22" t="s">
+        <v>257</v>
+      </c>
+      <c r="M62" s="23" t="s">
         <v>258</v>
-      </c>
-      <c r="M62" s="23" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="63" spans="4:13" ht="15" customHeight="1">
       <c r="F63" s="32" t="s">
+        <v>304</v>
+      </c>
+      <c r="M63" s="30" t="s">
         <v>305</v>
-      </c>
-      <c r="M63" s="30" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="64" spans="4:13" ht="15" customHeight="1">
       <c r="F64" s="34" t="s">
+        <v>307</v>
+      </c>
+      <c r="M64" s="33" t="s">
         <v>308</v>
-      </c>
-      <c r="M64" s="33" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="65" spans="6:13" ht="15" customHeight="1">
       <c r="M65" s="33" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="66" spans="6:13" ht="15" customHeight="1">
       <c r="M66" s="33" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="67" spans="6:13" ht="15" customHeight="1">
       <c r="F67" s="37" t="s">
+        <v>324</v>
+      </c>
+      <c r="M67" s="38" t="s">
         <v>325</v>
-      </c>
-      <c r="M67" s="38" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="68" spans="6:13" ht="15" customHeight="1">
       <c r="F68" s="39" t="s">
+        <v>351</v>
+      </c>
+      <c r="M68" s="38" t="s">
         <v>352</v>
-      </c>
-      <c r="M68" s="38" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="69" spans="6:13" ht="15" customHeight="1">
       <c r="M69" s="38" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="70" spans="6:13" ht="15" customHeight="1">
       <c r="M70" s="40" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="71" spans="6:13" ht="15" customHeight="1">
       <c r="F71" s="42" t="s">
+        <v>360</v>
+      </c>
+      <c r="M71" s="41" t="s">
         <v>361</v>
-      </c>
-      <c r="M71" s="41" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="72" spans="6:13" ht="15" customHeight="1">
       <c r="M72" s="41" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="73" spans="6:13" ht="15" customHeight="1">
       <c r="F73" s="43" t="s">
+        <v>403</v>
+      </c>
+      <c r="M73" s="44" t="s">
         <v>404</v>
-      </c>
-      <c r="M73" s="44" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="74" spans="6:13" ht="15" customHeight="1">
       <c r="F74" s="47" t="s">
+        <v>524</v>
+      </c>
+      <c r="M74" s="48" t="s">
         <v>525</v>
-      </c>
-      <c r="M74" s="48" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="75" spans="6:13" ht="15" customHeight="1">
       <c r="F75" s="51" t="s">
+        <v>595</v>
+      </c>
+      <c r="M75" s="50" t="s">
         <v>596</v>
-      </c>
-      <c r="M75" s="50" t="s">
-        <v>597</v>
       </c>
     </row>
     <row r="76" spans="6:13" ht="15" customHeight="1">
       <c r="F76" s="56" t="s">
+        <v>639</v>
+      </c>
+      <c r="M76" s="55" t="s">
         <v>640</v>
-      </c>
-      <c r="M76" s="55" t="s">
-        <v>641</v>
       </c>
     </row>
     <row r="77" spans="6:13" ht="15" customHeight="1">
       <c r="F77" s="57" t="s">
+        <v>641</v>
+      </c>
+      <c r="M77" s="58" t="s">
         <v>642</v>
-      </c>
-      <c r="M77" s="58" t="s">
-        <v>643</v>
       </c>
     </row>
     <row r="78" spans="6:13" ht="15" customHeight="1">
       <c r="F78" s="59" t="s">
+        <v>643</v>
+      </c>
+      <c r="M78" s="60" t="s">
         <v>644</v>
-      </c>
-      <c r="M78" s="60" t="s">
-        <v>645</v>
       </c>
     </row>
     <row r="79" spans="6:13" ht="15" customHeight="1">
       <c r="F79" s="62" t="s">
+        <v>645</v>
+      </c>
+      <c r="M79" s="61" t="s">
         <v>646</v>
-      </c>
-      <c r="M79" s="61" t="s">
-        <v>647</v>
       </c>
     </row>
     <row r="80" spans="6:13" ht="15" customHeight="1">
       <c r="M80" s="61" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="81" spans="6:13" ht="15" customHeight="1">
       <c r="M81" s="63" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="82" spans="6:13" ht="15" customHeight="1">
       <c r="F82" s="66" t="s">
+        <v>737</v>
+      </c>
+      <c r="M82" s="65" t="s">
         <v>738</v>
-      </c>
-      <c r="M82" s="65" t="s">
-        <v>739</v>
       </c>
     </row>
     <row r="83" spans="6:13" ht="15" customHeight="1">
       <c r="F83" s="68" t="s">
+        <v>739</v>
+      </c>
+      <c r="M83" s="69" t="s">
         <v>740</v>
-      </c>
-      <c r="M83" s="69" t="s">
-        <v>741</v>
       </c>
     </row>
     <row r="84" spans="6:13" ht="15" customHeight="1">
       <c r="M84" s="67" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="85" spans="6:13" ht="15" customHeight="1">
       <c r="F85" s="70" t="s">
+        <v>742</v>
+      </c>
+      <c r="M85" s="69" t="s">
         <v>743</v>
-      </c>
-      <c r="M85" s="69" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="86" spans="6:13" ht="15" customHeight="1">
       <c r="M86" s="69" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="87" spans="6:13" ht="15" customHeight="1">
       <c r="F87" s="72" t="s">
+        <v>744</v>
+      </c>
+      <c r="M87" s="71" t="s">
         <v>745</v>
-      </c>
-      <c r="M87" s="71" t="s">
-        <v>746</v>
       </c>
     </row>
     <row r="88" spans="6:13" ht="15" customHeight="1">
       <c r="F88" s="75" t="s">
+        <v>748</v>
+      </c>
+      <c r="M88" s="74" t="s">
         <v>749</v>
-      </c>
-      <c r="M88" s="74" t="s">
-        <v>750</v>
       </c>
     </row>
     <row r="89" spans="6:13" ht="15" customHeight="1">
       <c r="M89" s="74" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="90" spans="6:13" ht="15" customHeight="1">
       <c r="F90" s="77" t="s">
+        <v>751</v>
+      </c>
+      <c r="M90" s="76" t="s">
         <v>752</v>
-      </c>
-      <c r="M90" s="76" t="s">
-        <v>753</v>
       </c>
     </row>
     <row r="91" spans="6:13" ht="15" customHeight="1">
       <c r="M91" s="76" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="92" spans="6:13" ht="15" customHeight="1">
       <c r="F92" s="79" t="s">
+        <v>759</v>
+      </c>
+      <c r="M92" s="78" t="s">
         <v>760</v>
-      </c>
-      <c r="M92" s="78" t="s">
-        <v>761</v>
       </c>
     </row>
     <row r="93" spans="6:13" ht="15" customHeight="1">
       <c r="M93" s="78" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="94" spans="6:13" ht="15" customHeight="1">
       <c r="M94" s="80" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="35" type="noConversion"/>
+  <phoneticPr fontId="36" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -9176,7 +9198,7 @@
   <dimension ref="D3:T121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AG27" sqref="AG27"/>
+      <selection activeCell="AE31" sqref="AE31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="18"/>
@@ -9188,124 +9210,124 @@
   <sheetData>
     <row r="3" spans="4:6">
       <c r="D3" s="5" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="5" spans="4:6">
       <c r="F5" s="44" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="6" spans="4:6">
       <c r="F6" s="44" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="8" spans="4:6">
       <c r="F8" s="45" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="24" spans="4:14">
       <c r="D24" s="5" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="26" spans="4:14">
       <c r="F26" s="44" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="31" spans="4:14">
       <c r="N31" s="44" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="46" spans="4:14">
       <c r="N46" s="44" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="48" spans="4:14">
       <c r="D48" s="5" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="50" spans="6:20">
       <c r="F50" s="44" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="52" spans="6:20">
       <c r="H52" s="44" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="56" spans="6:20">
       <c r="T56" s="44" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="64" spans="6:20">
       <c r="T64" s="44" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="67" spans="4:19" ht="16.5">
       <c r="D67" s="44"/>
       <c r="F67" s="44" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="68" spans="4:19" ht="16.5">
       <c r="D68" s="44"/>
       <c r="F68" s="44" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="69" spans="4:19" ht="16.5">
       <c r="D69" s="44"/>
       <c r="F69" s="44" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="70" spans="4:19" ht="16.5">
       <c r="D70" s="44"/>
       <c r="F70" s="31" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="71" spans="4:19" ht="16.5">
       <c r="D71" s="44"/>
       <c r="F71" s="44" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="72" spans="4:19" ht="16.5">
       <c r="D72" s="44"/>
       <c r="F72" s="44" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="73" spans="4:19" ht="16.5">
       <c r="D73" s="44"/>
       <c r="F73" s="44" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="75" spans="4:19">
       <c r="H75" s="28" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="76" spans="4:19">
       <c r="J76" s="28" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="77" spans="4:19">
       <c r="J77" s="28" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="78" spans="4:19">
@@ -9313,131 +9335,131 @@
     </row>
     <row r="79" spans="4:19">
       <c r="J79" s="44" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="S79" s="44" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="80" spans="4:19">
       <c r="J80" s="44" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="S80" s="44" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="81" spans="4:19">
       <c r="J81" s="44" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="S81" s="44" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="83" spans="4:19">
       <c r="H83" s="44" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="91" spans="4:19" ht="15.75" customHeight="1">
       <c r="D91" s="44"/>
       <c r="F91" s="44" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="92" spans="4:19" ht="16.5">
       <c r="D92" s="44"/>
       <c r="F92" s="44" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="93" spans="4:19" ht="16.5">
       <c r="D93" s="44"/>
       <c r="F93" s="44" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="94" spans="4:19" ht="16.5">
       <c r="D94" s="44"/>
       <c r="F94" s="31" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="95" spans="4:19" ht="16.5">
       <c r="D95" s="44"/>
       <c r="F95" s="44" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="96" spans="4:19" ht="16.5">
       <c r="D96" s="44"/>
       <c r="F96" s="44" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="97" spans="4:19" ht="16.5">
       <c r="D97" s="44"/>
       <c r="F97" s="44" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="100" spans="4:19">
       <c r="H100" s="28" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="101" spans="4:19">
       <c r="J101" s="28" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="102" spans="4:19">
       <c r="J102" s="28" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="104" spans="4:19">
       <c r="J104" s="44" t="s">
+        <v>481</v>
+      </c>
+      <c r="S104" s="44" t="s">
         <v>482</v>
-      </c>
-      <c r="S104" s="44" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="105" spans="4:19">
       <c r="J105" s="44" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="S105" s="44" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="106" spans="4:19">
       <c r="J106" s="44" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="S106" s="44" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="109" spans="4:19">
       <c r="H109" s="45" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="119" spans="4:6">
       <c r="D119" s="5" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="121" spans="4:6">
       <c r="F121" s="44" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="35" type="noConversion"/>
+  <phoneticPr fontId="36" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -9458,621 +9480,621 @@
   <sheetData>
     <row r="3" spans="4:6" ht="18">
       <c r="D3" s="5" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="5" spans="4:6">
       <c r="F5" s="44" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="6" spans="4:6">
       <c r="F6" s="44" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="7" spans="4:6">
       <c r="F7" s="44" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="8" spans="4:6">
       <c r="F8" s="44" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="4:6">
       <c r="F9" s="44" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="10" spans="4:6">
       <c r="F10" s="44" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="4:6">
       <c r="F11" s="44" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="12" spans="4:6">
       <c r="F12" s="44" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="4:6">
       <c r="F13" s="44" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="14" spans="4:6">
       <c r="F14" s="44" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="4:6">
       <c r="F15" s="44" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="16" spans="4:6">
       <c r="F16" s="44" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="6:6">
       <c r="F17" s="44" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="18" spans="6:6">
       <c r="F18" s="44" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19" spans="6:6">
       <c r="F19" s="44" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="20" spans="6:6">
       <c r="F20" s="44" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="21" spans="6:6">
       <c r="F21" s="44" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="22" spans="6:6">
       <c r="F22" s="44" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="23" spans="6:6">
       <c r="F23" s="44" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="24" spans="6:6">
       <c r="F24" s="44" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="25" spans="6:6">
       <c r="F25" s="44" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="26" spans="6:6">
       <c r="F26" s="44" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="27" spans="6:6">
       <c r="F27" s="44" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="29" spans="6:6">
       <c r="F29" s="44" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="30" spans="6:6">
       <c r="F30" s="44" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="31" spans="6:6">
       <c r="F31" s="44" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="32" spans="6:6">
       <c r="F32" s="44" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="33" spans="6:6">
       <c r="F33" s="44" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="34" spans="6:6">
       <c r="F34" s="44" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="35" spans="6:6">
       <c r="F35" s="44" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="37" spans="6:6">
       <c r="F37" s="44" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="38" spans="6:6">
       <c r="F38" s="44" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="39" spans="6:6">
       <c r="F39" s="44" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="40" spans="6:6">
       <c r="F40" s="44" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="41" spans="6:6">
       <c r="F41" s="44" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="42" spans="6:6">
       <c r="F42" s="44" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="43" spans="6:6">
       <c r="F43" s="44" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="45" spans="6:6">
       <c r="F45" s="44" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="46" spans="6:6">
       <c r="F46" s="44" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="47" spans="6:6">
       <c r="F47" s="44" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="48" spans="6:6">
       <c r="F48" s="44" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="49" spans="6:6">
       <c r="F49" s="44" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="50" spans="6:6">
       <c r="F50" s="44" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="51" spans="6:6">
       <c r="F51" s="44" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="53" spans="6:6">
       <c r="F53" s="44" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="54" spans="6:6">
       <c r="F54" s="44" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="55" spans="6:6">
       <c r="F55" s="44" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="56" spans="6:6">
       <c r="F56" s="44" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="57" spans="6:6">
       <c r="F57" s="44" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="58" spans="6:6">
       <c r="F58" s="44" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="59" spans="6:6">
       <c r="F59" s="44" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="61" spans="6:6">
       <c r="F61" s="44" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="62" spans="6:6">
       <c r="F62" s="44" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="63" spans="6:6">
       <c r="F63" s="44" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="64" spans="6:6">
       <c r="F64" s="44" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="65" spans="6:6">
       <c r="F65" s="44" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="66" spans="6:6">
       <c r="F66" s="44" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="67" spans="6:6">
       <c r="F67" s="44" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="69" spans="6:6">
       <c r="F69" s="44" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="70" spans="6:6">
       <c r="F70" s="44" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="71" spans="6:6">
       <c r="F71" s="44" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="72" spans="6:6">
       <c r="F72" s="44" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="73" spans="6:6">
       <c r="F73" s="44" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="74" spans="6:6">
       <c r="F74" s="44" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="75" spans="6:6">
       <c r="F75" s="44" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="77" spans="6:6" ht="15.75" customHeight="1">
       <c r="F77" s="44" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="78" spans="6:6">
       <c r="F78" s="44" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="79" spans="6:6">
       <c r="F79" s="44" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="80" spans="6:6">
       <c r="F80" s="31" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="81" spans="6:6">
       <c r="F81" s="44" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="82" spans="6:6">
       <c r="F82" s="44" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="83" spans="6:6">
       <c r="F83" s="44" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="85" spans="6:6">
       <c r="F85" s="44" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="86" spans="6:6">
       <c r="F86" s="44" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="87" spans="6:6">
       <c r="F87" s="44" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="88" spans="6:6">
       <c r="F88" s="31" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="89" spans="6:6">
       <c r="F89" s="44" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="90" spans="6:6">
       <c r="F90" s="44" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="91" spans="6:6">
       <c r="F91" s="44" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="93" spans="6:6">
       <c r="F93" s="44" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="94" spans="6:6">
       <c r="F94" s="44" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="95" spans="6:6">
       <c r="F95" s="44" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="96" spans="6:6">
       <c r="F96" s="44" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="97" spans="6:6">
       <c r="F97" s="44" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="98" spans="6:6">
       <c r="F98" s="44" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="99" spans="6:6">
       <c r="F99" s="44" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="101" spans="6:6">
       <c r="F101" s="44" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="102" spans="6:6">
       <c r="F102" s="44" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="103" spans="6:6">
       <c r="F103" s="44" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="104" spans="6:6">
       <c r="F104" s="44" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="105" spans="6:6">
       <c r="F105" s="44" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="106" spans="6:6">
       <c r="F106" s="44" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="107" spans="6:6">
       <c r="F107" s="44" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="109" spans="6:6">
       <c r="F109" s="44" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="110" spans="6:6">
       <c r="F110" s="44" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="111" spans="6:6">
       <c r="F111" s="44" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="112" spans="6:6">
       <c r="F112" s="44" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="113" spans="6:6">
       <c r="F113" s="44" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="114" spans="6:6">
       <c r="F114" s="44" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="115" spans="6:6">
       <c r="F115" s="44" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="117" spans="6:6">
       <c r="F117" s="44" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="118" spans="6:6">
       <c r="F118" s="44" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="119" spans="6:6">
       <c r="F119" s="44" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="120" spans="6:6">
       <c r="F120" s="31" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="121" spans="6:6">
       <c r="F121" s="44" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="122" spans="6:6">
       <c r="F122" s="44" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="123" spans="6:6">
       <c r="F123" s="44" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="125" spans="6:6">
       <c r="F125" s="44" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="126" spans="6:6">
       <c r="F126" s="44" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="127" spans="6:6">
       <c r="F127" s="44" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="128" spans="6:6">
       <c r="F128" s="44" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="129" spans="6:6">
       <c r="F129" s="44" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="130" spans="6:6">
       <c r="F130" s="44" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="131" spans="6:6">
       <c r="F131" s="44" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="132" spans="6:6">
       <c r="F132" s="44" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="133" spans="6:6">
       <c r="F133" s="44" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="134" spans="6:6">
       <c r="F134" s="44" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="135" spans="6:6">
       <c r="F135" s="44" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="136" spans="6:6">
       <c r="F136" s="44" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="137" spans="6:6">
       <c r="F137" s="44" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="138" spans="6:6">
       <c r="F138" s="44" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="139" spans="6:6">
       <c r="F139" s="44" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="35" type="noConversion"/>
+  <phoneticPr fontId="36" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10092,76 +10114,76 @@
   <sheetData>
     <row r="3" spans="4:21">
       <c r="D3" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="5" spans="4:21">
       <c r="H5" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="7" spans="4:21">
       <c r="F7" s="11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9" spans="4:21">
       <c r="H9" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="M9" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="M9" s="2" t="s">
+      <c r="U9" s="2" t="s">
         <v>203</v>
-      </c>
-      <c r="U9" s="2" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="10" spans="4:21">
       <c r="H10" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="M10" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="M10" s="2" t="s">
-        <v>206</v>
-      </c>
       <c r="U10" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="11" spans="4:21">
       <c r="H11" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="M11" s="2" t="s">
         <v>207</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="12" spans="4:21">
       <c r="H12" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="M12" s="2" t="s">
         <v>209</v>
-      </c>
-      <c r="M12" s="2" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="13" spans="4:21">
       <c r="H13" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="U13" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="15" spans="4:21">
       <c r="H15" s="12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="18" spans="6:43">
       <c r="F18" s="11" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="20" spans="6:43">
@@ -10206,7 +10228,7 @@
       <c r="H21" s="16"/>
       <c r="I21" s="17"/>
       <c r="J21" s="17" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="K21" s="17"/>
       <c r="L21" s="17"/>
@@ -10246,7 +10268,7 @@
       <c r="H22" s="16"/>
       <c r="I22" s="17"/>
       <c r="J22" s="17" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K22" s="17"/>
       <c r="L22" s="17"/>
@@ -10286,7 +10308,7 @@
       <c r="H23" s="16"/>
       <c r="I23" s="17"/>
       <c r="J23" s="17" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K23" s="17"/>
       <c r="L23" s="17"/>
@@ -10326,7 +10348,7 @@
       <c r="H24" s="16"/>
       <c r="I24" s="17"/>
       <c r="J24" s="17" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K24" s="17"/>
       <c r="L24" s="17"/>
@@ -10366,7 +10388,7 @@
       <c r="H25" s="16"/>
       <c r="I25" s="17"/>
       <c r="J25" s="17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K25" s="17"/>
       <c r="L25" s="17"/>
@@ -10406,7 +10428,7 @@
       <c r="H26" s="16"/>
       <c r="I26" s="17"/>
       <c r="J26" s="17" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="K26" s="17"/>
       <c r="L26" s="17"/>
@@ -10446,7 +10468,7 @@
       <c r="H27" s="16"/>
       <c r="I27" s="17"/>
       <c r="J27" s="17" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K27" s="17"/>
       <c r="L27" s="17"/>
@@ -10486,7 +10508,7 @@
       <c r="H28" s="16"/>
       <c r="I28" s="17"/>
       <c r="J28" s="17" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="K28" s="17"/>
       <c r="L28" s="17"/>
@@ -10526,7 +10548,7 @@
       <c r="H29" s="16"/>
       <c r="I29" s="17"/>
       <c r="J29" s="17" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K29" s="17"/>
       <c r="L29" s="17"/>
@@ -10566,7 +10588,7 @@
       <c r="H30" s="16"/>
       <c r="I30" s="17"/>
       <c r="J30" s="17" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K30" s="17"/>
       <c r="L30" s="17"/>
@@ -10606,7 +10628,7 @@
       <c r="H31" s="16"/>
       <c r="I31" s="17"/>
       <c r="J31" s="17" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K31" s="17"/>
       <c r="L31" s="17"/>
@@ -10646,7 +10668,7 @@
       <c r="H32" s="16"/>
       <c r="I32" s="17"/>
       <c r="J32" s="17" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K32" s="17"/>
       <c r="L32" s="17"/>
@@ -10686,7 +10708,7 @@
       <c r="H33" s="16"/>
       <c r="I33" s="17"/>
       <c r="J33" s="17" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K33" s="17"/>
       <c r="L33" s="17"/>
@@ -10726,7 +10748,7 @@
       <c r="H34" s="16"/>
       <c r="I34" s="17"/>
       <c r="J34" s="17" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="K34" s="17"/>
       <c r="L34" s="17"/>
@@ -10801,7 +10823,7 @@
       <c r="AQ35" s="21"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="35" type="noConversion"/>
+  <phoneticPr fontId="36" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -10822,27 +10844,27 @@
   <sheetData>
     <row r="3" spans="4:6">
       <c r="D3" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="5" spans="4:6">
       <c r="F5" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="7" spans="4:6">
       <c r="F7" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="18" spans="6:6">
       <c r="F18" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="37" spans="6:33">
       <c r="F37" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="39" spans="6:33">
@@ -10877,7 +10899,7 @@
       <c r="H40" s="16"/>
       <c r="I40" s="17"/>
       <c r="J40" s="17" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K40" s="17"/>
       <c r="L40" s="17"/>
@@ -10907,7 +10929,7 @@
       <c r="H41" s="16"/>
       <c r="I41" s="17"/>
       <c r="J41" s="17" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K41" s="17"/>
       <c r="L41" s="17"/>
@@ -10937,7 +10959,7 @@
       <c r="H42" s="16"/>
       <c r="I42" s="17"/>
       <c r="J42" s="17" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K42" s="17"/>
       <c r="L42" s="17"/>
@@ -10967,7 +10989,7 @@
       <c r="H43" s="16"/>
       <c r="I43" s="17"/>
       <c r="J43" s="17" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K43" s="17"/>
       <c r="L43" s="17"/>
@@ -10997,7 +11019,7 @@
       <c r="H44" s="16"/>
       <c r="I44" s="17"/>
       <c r="J44" s="17" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K44" s="17"/>
       <c r="L44" s="17"/>
@@ -11027,7 +11049,7 @@
       <c r="H45" s="16"/>
       <c r="I45" s="17"/>
       <c r="J45" s="17" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K45" s="17"/>
       <c r="L45" s="17"/>
@@ -11057,7 +11079,7 @@
       <c r="H46" s="16"/>
       <c r="I46" s="17"/>
       <c r="J46" s="17" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K46" s="17"/>
       <c r="L46" s="17"/>
@@ -11087,7 +11109,7 @@
       <c r="H47" s="16"/>
       <c r="I47" s="17"/>
       <c r="J47" s="17" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="K47" s="17"/>
       <c r="L47" s="17"/>
@@ -11117,7 +11139,7 @@
       <c r="H48" s="16"/>
       <c r="I48" s="17"/>
       <c r="J48" s="17" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="K48" s="17"/>
       <c r="L48" s="17"/>
@@ -11147,7 +11169,7 @@
       <c r="H49" s="16"/>
       <c r="I49" s="17"/>
       <c r="J49" s="17" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="K49" s="17"/>
       <c r="L49" s="17"/>
@@ -11177,7 +11199,7 @@
       <c r="H50" s="16"/>
       <c r="I50" s="17"/>
       <c r="J50" s="17" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="K50" s="17"/>
       <c r="L50" s="17"/>
@@ -11207,7 +11229,7 @@
       <c r="H51" s="16"/>
       <c r="I51" s="17"/>
       <c r="J51" s="17" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="K51" s="17"/>
       <c r="L51" s="17"/>
@@ -11237,7 +11259,7 @@
       <c r="H52" s="16"/>
       <c r="I52" s="17"/>
       <c r="J52" s="17" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K52" s="17"/>
       <c r="L52" s="17"/>
@@ -11267,7 +11289,7 @@
       <c r="H53" s="16"/>
       <c r="I53" s="17"/>
       <c r="J53" s="17" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="K53" s="17"/>
       <c r="L53" s="17"/>
@@ -11297,7 +11319,7 @@
       <c r="H54" s="16"/>
       <c r="I54" s="17"/>
       <c r="J54" s="17" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K54" s="17"/>
       <c r="L54" s="17"/>
@@ -11327,7 +11349,7 @@
       <c r="H55" s="16"/>
       <c r="I55" s="17"/>
       <c r="J55" s="17" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="K55" s="17"/>
       <c r="L55" s="17"/>
@@ -11357,7 +11379,7 @@
       <c r="H56" s="16"/>
       <c r="I56" s="17"/>
       <c r="J56" s="17" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="K56" s="17"/>
       <c r="L56" s="17"/>
@@ -11387,7 +11409,7 @@
       <c r="H57" s="16"/>
       <c r="I57" s="17"/>
       <c r="J57" s="17" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K57" s="17"/>
       <c r="L57" s="17"/>
@@ -11443,11 +11465,11 @@
     </row>
     <row r="60" spans="8:33">
       <c r="H60" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="35" type="noConversion"/>
+  <phoneticPr fontId="36" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -11468,106 +11490,106 @@
   <sheetData>
     <row r="3" spans="4:7">
       <c r="D3" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="16" spans="4:7">
       <c r="G16" s="50" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="17" spans="7:9">
       <c r="G17" s="50" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="18" spans="7:9">
       <c r="G18" s="50" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="22" spans="7:9">
       <c r="G22" s="52" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="24" spans="7:9">
       <c r="I24" s="53" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="25" spans="7:9">
       <c r="I25" s="54" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="26" spans="7:9">
       <c r="I26" s="54" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="27" spans="7:9">
       <c r="I27" s="54" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="28" spans="7:9">
       <c r="I28" s="54" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="29" spans="7:9">
       <c r="I29" s="54" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="30" spans="7:9">
       <c r="I30" s="54" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="31" spans="7:9">
       <c r="I31" s="54" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="32" spans="7:9">
       <c r="I32" s="54" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="33" spans="9:9">
       <c r="I33" s="54" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="34" spans="9:9">
       <c r="I34" s="54" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="35" spans="9:9">
       <c r="I35" s="54" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="36" spans="9:9">
       <c r="I36" s="54" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="37" spans="9:9">
       <c r="I37" s="54" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="38" spans="9:9">
       <c r="I38" s="53" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="35" type="noConversion"/>
+  <phoneticPr fontId="36" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -11586,282 +11608,282 @@
   <sheetData>
     <row r="6" spans="7:9" s="50" customFormat="1" ht="16.5">
       <c r="G6" s="52" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="7" spans="7:9" s="50" customFormat="1" ht="16.5"/>
     <row r="8" spans="7:9" s="50" customFormat="1" ht="16.5">
       <c r="I8" s="50" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="9" spans="7:9" s="50" customFormat="1" ht="16.5">
       <c r="I9" s="50" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="10" spans="7:9" s="50" customFormat="1" ht="16.5">
       <c r="I10" s="50" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="11" spans="7:9" s="50" customFormat="1" ht="16.5">
       <c r="I11" s="50" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="12" spans="7:9" s="50" customFormat="1" ht="16.5">
       <c r="I12" s="50" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="13" spans="7:9" s="50" customFormat="1" ht="16.5">
       <c r="I13" s="50" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="14" spans="7:9" s="50" customFormat="1" ht="16.5">
       <c r="I14" s="50" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="15" spans="7:9" s="50" customFormat="1" ht="16.5">
       <c r="I15" s="50" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="16" spans="7:9" s="50" customFormat="1" ht="16.5">
       <c r="I16" s="50" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="17" spans="9:9" s="50" customFormat="1" ht="16.5">
       <c r="I17" s="50" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="18" spans="9:9" s="50" customFormat="1" ht="16.5">
       <c r="I18" s="50" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="19" spans="9:9" s="50" customFormat="1" ht="16.5">
       <c r="I19" s="50" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="20" spans="9:9" s="50" customFormat="1" ht="16.5">
       <c r="I20" s="50" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="21" spans="9:9" s="50" customFormat="1" ht="16.5">
       <c r="I21" s="50" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="22" spans="9:9" s="50" customFormat="1" ht="16.5">
       <c r="I22" s="50" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="23" spans="9:9" s="50" customFormat="1" ht="16.5">
       <c r="I23" s="50" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="24" spans="9:9" s="50" customFormat="1" ht="16.5">
       <c r="I24" s="50" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="25" spans="9:9" s="50" customFormat="1" ht="16.5">
       <c r="I25" s="50" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="26" spans="9:9" s="50" customFormat="1" ht="16.5">
       <c r="I26" s="50" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="27" spans="9:9" s="50" customFormat="1" ht="16.5">
       <c r="I27" s="50" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="28" spans="9:9" s="50" customFormat="1" ht="16.5">
       <c r="I28" s="50" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="29" spans="9:9" s="50" customFormat="1" ht="16.5">
       <c r="I29" s="50" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="30" spans="9:9" s="50" customFormat="1" ht="16.5">
       <c r="I30" s="50" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="31" spans="9:9" s="50" customFormat="1" ht="16.5">
       <c r="I31" s="50" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="32" spans="9:9" s="50" customFormat="1" ht="16.5">
       <c r="I32" s="50" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="33" spans="9:9" s="50" customFormat="1" ht="16.5">
       <c r="I33" s="50" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="34" spans="9:9" s="50" customFormat="1" ht="16.5">
       <c r="I34" s="50" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="35" spans="9:9" s="50" customFormat="1" ht="16.5">
       <c r="I35" s="50" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="36" spans="9:9" s="50" customFormat="1" ht="16.5">
       <c r="I36" s="50" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="37" spans="9:9" s="50" customFormat="1" ht="16.5">
       <c r="I37" s="50" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="38" spans="9:9" s="50" customFormat="1" ht="16.5">
       <c r="I38" s="50" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="39" spans="9:9" s="50" customFormat="1" ht="16.5">
       <c r="I39" s="50" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="40" spans="9:9" s="50" customFormat="1" ht="16.5">
       <c r="I40" s="50" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="41" spans="9:9" s="50" customFormat="1" ht="16.5">
       <c r="I41" s="50" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="42" spans="9:9" s="50" customFormat="1" ht="16.5">
       <c r="I42" s="50" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="43" spans="9:9" s="50" customFormat="1" ht="16.5">
       <c r="I43" s="50" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="44" spans="9:9" s="50" customFormat="1" ht="16.5">
       <c r="I44" s="50" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="45" spans="9:9" s="50" customFormat="1" ht="16.5">
       <c r="I45" s="50" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="46" spans="9:9" s="50" customFormat="1" ht="16.5">
       <c r="I46" s="50" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="47" spans="9:9" s="50" customFormat="1" ht="16.5">
       <c r="I47" s="50" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="48" spans="9:9" s="50" customFormat="1" ht="16.5">
       <c r="I48" s="50" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="49" spans="9:9" s="50" customFormat="1" ht="16.5">
       <c r="I49" s="50" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="50" spans="9:9" s="50" customFormat="1" ht="16.5">
       <c r="I50" s="50" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="51" spans="9:9" s="50" customFormat="1" ht="16.5">
       <c r="I51" s="50" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="52" spans="9:9" s="50" customFormat="1" ht="16.5">
       <c r="I52" s="50" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="53" spans="9:9" s="50" customFormat="1" ht="16.5">
       <c r="I53" s="50" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="54" spans="9:9" s="50" customFormat="1" ht="16.5">
       <c r="I54" s="50" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="55" spans="9:9" s="50" customFormat="1" ht="16.5">
       <c r="I55" s="50" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="56" spans="9:9" s="50" customFormat="1" ht="16.5">
       <c r="I56" s="50" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="57" spans="9:9" s="50" customFormat="1" ht="16.5">
       <c r="I57" s="50" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="58" spans="9:9" s="50" customFormat="1" ht="16.5">
       <c r="I58" s="50" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="59" spans="9:9" s="50" customFormat="1" ht="16.5">
       <c r="I59" s="50" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="60" spans="9:9" s="50" customFormat="1" ht="16.5">
       <c r="I60" s="50" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="61" spans="9:9" s="50" customFormat="1" ht="16.5">
       <c r="I61" s="50" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="35" type="noConversion"/>
+  <phoneticPr fontId="36" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -11881,41 +11903,41 @@
   <sheetData>
     <row r="3" spans="4:6">
       <c r="D3" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5" spans="4:6">
       <c r="F5" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="7" spans="4:6">
       <c r="F7" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="21" spans="6:6">
       <c r="F21" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="22" spans="6:6">
       <c r="F22" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="24" spans="6:6">
       <c r="F24" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="35" spans="6:6">
       <c r="F35" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="35" type="noConversion"/>
+  <phoneticPr fontId="36" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -11937,21 +11959,21 @@
   <sheetData>
     <row r="3" spans="4:6">
       <c r="D3" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="5" spans="4:6">
       <c r="F5" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="33" spans="6:6">
       <c r="F33" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="35" type="noConversion"/>
+  <phoneticPr fontId="36" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -11973,79 +11995,79 @@
   <sheetData>
     <row r="3" spans="4:26">
       <c r="D3" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="5" spans="4:26">
       <c r="F5" s="36" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="7" spans="4:26">
       <c r="H7" s="36" t="s">
+        <v>329</v>
+      </c>
+      <c r="P7" s="36" t="s">
+        <v>331</v>
+      </c>
+      <c r="Z7" s="36" t="s">
         <v>330</v>
-      </c>
-      <c r="P7" s="36" t="s">
-        <v>332</v>
-      </c>
-      <c r="Z7" s="36" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="8" spans="4:26">
       <c r="H8" s="36" t="s">
+        <v>332</v>
+      </c>
+      <c r="P8" s="36" t="s">
+        <v>328</v>
+      </c>
+      <c r="Z8" s="36" t="s">
         <v>333</v>
-      </c>
-      <c r="P8" s="36" t="s">
-        <v>329</v>
-      </c>
-      <c r="Z8" s="36" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="9" spans="4:26">
       <c r="H9" s="36" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Z9" s="36" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="11" spans="4:26">
       <c r="F11" s="36" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="13" spans="4:26">
       <c r="H13" s="36" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="14" spans="4:26">
       <c r="J14" s="36" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="16" spans="4:26">
       <c r="H16" s="36" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="17" spans="8:11">
       <c r="H17" s="36" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="19" spans="8:11">
       <c r="H19" s="36" t="s">
+        <v>340</v>
+      </c>
+      <c r="K19" s="36" t="s">
         <v>341</v>
       </c>
-      <c r="K19" s="36" t="s">
-        <v>342</v>
-      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="35" type="noConversion"/>
+  <phoneticPr fontId="36" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -12066,16 +12088,16 @@
   <sheetData>
     <row r="3" spans="4:4">
       <c r="D3" s="1" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="20" spans="7:7">
       <c r="G20" s="73" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="35" type="noConversion"/>
+  <phoneticPr fontId="36" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -12102,7 +12124,7 @@
     </row>
     <row r="5" spans="4:6" ht="15" customHeight="1">
       <c r="F5" s="40" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="7" spans="4:6" ht="15" customHeight="1">
@@ -12140,7 +12162,7 @@
     </row>
     <row r="37" spans="6:8" ht="15" customHeight="1">
       <c r="H37" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="55" spans="6:20" ht="15" customHeight="1">
@@ -12166,7 +12188,7 @@
     </row>
     <row r="59" spans="6:20" ht="15" customHeight="1">
       <c r="H59" s="24" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="T59" s="2" t="s">
         <v>11</v>
@@ -12174,7 +12196,7 @@
     </row>
     <row r="60" spans="6:20" ht="15" customHeight="1">
       <c r="H60" s="24" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="T60" s="2" t="s">
         <v>14</v>
@@ -12182,26 +12204,26 @@
     </row>
     <row r="61" spans="6:20" ht="15" customHeight="1">
       <c r="H61" s="24" t="s">
+        <v>262</v>
+      </c>
+      <c r="T61" s="24" t="s">
         <v>263</v>
-      </c>
-      <c r="T61" s="24" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="62" spans="6:20" ht="15" customHeight="1">
       <c r="H62" s="40" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="T62" s="40" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="63" spans="6:20" ht="15" customHeight="1">
       <c r="H63" s="40" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="T63" s="40" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="65" spans="6:8" ht="15" customHeight="1">
@@ -12229,27 +12251,27 @@
     </row>
     <row r="102" spans="4:6" ht="15" customHeight="1">
       <c r="F102" s="41" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="104" spans="4:6" ht="15" customHeight="1">
       <c r="D104" s="7" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="106" spans="4:6" ht="15" customHeight="1">
       <c r="F106" s="41" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="108" spans="4:6" ht="15" customHeight="1">
       <c r="F108" s="41" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="111" spans="4:6" ht="15" customHeight="1">
       <c r="D111" s="5" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="112" spans="4:6" ht="15" customHeight="1">
@@ -12258,7 +12280,7 @@
     <row r="113" spans="4:14" ht="15" customHeight="1">
       <c r="D113" s="5"/>
       <c r="F113" s="38" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="114" spans="4:14" ht="15" customHeight="1">
@@ -12267,28 +12289,28 @@
     <row r="115" spans="4:14" ht="15" customHeight="1">
       <c r="D115" s="5"/>
       <c r="H115" s="38" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="N115" s="38" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="116" spans="4:14" ht="15" customHeight="1">
       <c r="D116" s="5"/>
       <c r="H116" s="38" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="N116" s="38" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="117" spans="4:14" ht="15" customHeight="1">
       <c r="D117" s="5"/>
       <c r="H117" s="38" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="N117" s="38" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="118" spans="4:14" ht="15" customHeight="1">
@@ -12328,7 +12350,7 @@
       <c r="D129" s="5"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="35" type="noConversion"/>
+  <phoneticPr fontId="36" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -12339,8 +12361,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="D3:S237"/>
   <sheetViews>
-    <sheetView topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="AS187" sqref="AS187"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AI35" sqref="AI35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15" customHeight="1"/>
@@ -12367,7 +12389,7 @@
     </row>
     <row r="8" spans="4:10" ht="15" customHeight="1">
       <c r="D8" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="4:10" ht="15" customHeight="1">
@@ -12378,25 +12400,25 @@
     <row r="11" spans="4:10" ht="15" customHeight="1">
       <c r="F11" s="1"/>
       <c r="H11" s="45" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="12" spans="4:10" ht="15" customHeight="1">
       <c r="F12" s="1"/>
       <c r="J12" s="45" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="13" spans="4:10" ht="15" customHeight="1">
       <c r="F13" s="1"/>
       <c r="J13" s="45" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="14" spans="4:10" ht="15" customHeight="1">
       <c r="F14" s="1"/>
       <c r="J14" s="45" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="16" spans="4:10" ht="15" customHeight="1">
@@ -12426,12 +12448,12 @@
     </row>
     <row r="23" spans="8:10" ht="15" customHeight="1">
       <c r="J23" s="45" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="24" spans="8:10" ht="15" customHeight="1">
       <c r="J24" s="30" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="25" spans="8:10" ht="15" customHeight="1">
@@ -12439,14 +12461,14 @@
     </row>
     <row r="26" spans="8:10" ht="15" customHeight="1">
       <c r="H26" s="45" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="J26" s="30"/>
     </row>
     <row r="27" spans="8:10" ht="15" customHeight="1">
       <c r="H27" s="45"/>
       <c r="J27" s="45" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="29" spans="8:10" ht="15" customHeight="1">
@@ -12455,8 +12477,8 @@
       </c>
     </row>
     <row r="30" spans="8:10" ht="15" customHeight="1">
-      <c r="J30" s="2" t="s">
-        <v>30</v>
+      <c r="J30" s="81" t="s">
+        <v>789</v>
       </c>
     </row>
     <row r="32" spans="8:10" ht="15" customHeight="1">
@@ -12466,162 +12488,162 @@
     </row>
     <row r="33" spans="6:17" ht="15" customHeight="1">
       <c r="J33" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" spans="6:17" ht="15" customHeight="1">
       <c r="H35" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36" spans="6:17" ht="15" customHeight="1">
       <c r="J36" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="6:17" ht="15" customHeight="1">
       <c r="F38" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="40" spans="6:17" ht="15" customHeight="1">
       <c r="H40" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="42" spans="6:17" ht="15" customHeight="1">
       <c r="J42" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Q42" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="43" spans="6:17" ht="15" customHeight="1">
       <c r="J43" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q43" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="45" spans="6:17" ht="15" customHeight="1">
       <c r="H45" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="47" spans="6:17" ht="15" customHeight="1">
       <c r="J47" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Q47" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="48" spans="6:17" ht="15" customHeight="1">
       <c r="J48" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q48" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="49" spans="6:17" ht="15" customHeight="1">
       <c r="J49" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q49" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="51" spans="6:17" ht="15" customHeight="1">
       <c r="H51" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="53" spans="6:17" ht="15" customHeight="1">
       <c r="J53" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Q53" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="54" spans="6:17" ht="15" customHeight="1">
       <c r="J54" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q54" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="55" spans="6:17" ht="15" customHeight="1">
       <c r="J55" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q55" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="57" spans="6:17" ht="15" customHeight="1">
       <c r="H57" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="59" spans="6:17" ht="15" customHeight="1">
       <c r="J59" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q59" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="60" spans="6:17" ht="15" customHeight="1">
       <c r="J60" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q60" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="62" spans="6:17" ht="15" customHeight="1">
       <c r="F62" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="64" spans="6:17" ht="15" customHeight="1">
       <c r="H64" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="65" spans="6:10" ht="15" customHeight="1">
       <c r="J65" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="66" spans="6:10" ht="15" customHeight="1">
       <c r="J66" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="68" spans="6:10" ht="15" customHeight="1">
       <c r="H68" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="69" spans="6:10" ht="15" customHeight="1">
       <c r="J69" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="70" spans="6:10" ht="15" customHeight="1">
       <c r="J70" s="31" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="71" spans="6:10" ht="15" customHeight="1">
       <c r="J71" s="31" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="72" spans="6:10" ht="15" customHeight="1">
@@ -12629,47 +12651,47 @@
     </row>
     <row r="73" spans="6:10" ht="15" customHeight="1">
       <c r="F73" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="75" spans="6:10" ht="15" customHeight="1">
       <c r="H75" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="77" spans="6:10" ht="15" customHeight="1">
       <c r="F77" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="106" spans="4:6" ht="15" customHeight="1">
       <c r="D106" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="108" spans="4:6" ht="15" customHeight="1">
       <c r="F108" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="109" spans="4:6" ht="15" customHeight="1">
       <c r="F109" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="110" spans="4:6" ht="15" customHeight="1">
       <c r="F110" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="137" spans="6:6" ht="15" customHeight="1">
       <c r="F137" s="45" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="138" spans="6:6" ht="15" customHeight="1">
       <c r="F138" s="45" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="139" spans="6:6" ht="15" customHeight="1">
@@ -12677,27 +12699,27 @@
     </row>
     <row r="140" spans="6:6" ht="15" customHeight="1">
       <c r="F140" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="141" spans="6:6" ht="15" customHeight="1">
       <c r="F141" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="176" spans="5:5" ht="15" customHeight="1">
       <c r="E176" s="30" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="184" spans="4:6" ht="15" customHeight="1">
       <c r="D184" s="5" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="186" spans="4:6" ht="15" customHeight="1">
       <c r="F186" s="76" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="187" spans="4:6" ht="15" customHeight="1">
@@ -12705,33 +12727,33 @@
     </row>
     <row r="188" spans="4:6" ht="15" customHeight="1">
       <c r="F188" s="76" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="189" spans="4:6" ht="15" customHeight="1">
       <c r="F189" s="76" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="200" spans="4:19" ht="15" customHeight="1">
       <c r="F200" s="49" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="203" spans="4:19" ht="15" customHeight="1">
       <c r="F203" s="76" t="s">
+        <v>756</v>
+      </c>
+      <c r="S203" s="76" t="s">
         <v>757</v>
-      </c>
-      <c r="S203" s="76" t="s">
-        <v>758</v>
       </c>
     </row>
     <row r="204" spans="4:19" ht="15" customHeight="1">
       <c r="F204" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="S204" s="33" t="s">
         <v>314</v>
-      </c>
-      <c r="S204" s="33" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="205" spans="4:19" ht="15" customHeight="1">
@@ -12739,55 +12761,55 @@
     </row>
     <row r="207" spans="4:19" ht="15" customHeight="1">
       <c r="D207" s="5" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="209" spans="6:6" ht="15" customHeight="1">
       <c r="F209" s="35" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="210" spans="6:6" ht="15" customHeight="1">
       <c r="F210" s="35" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="211" spans="6:6" ht="15" customHeight="1">
       <c r="F211" s="45" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="233" spans="4:15" ht="15" customHeight="1">
       <c r="D233" s="5" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="235" spans="4:15" ht="15" customHeight="1">
       <c r="F235" s="36" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="O235" s="36" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="236" spans="4:15" ht="15" customHeight="1">
       <c r="F236" s="36" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="O236" s="36" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="237" spans="4:15" ht="15" customHeight="1">
       <c r="F237" s="36" t="s">
+        <v>320</v>
+      </c>
+      <c r="O237" s="36" t="s">
         <v>321</v>
       </c>
-      <c r="O237" s="36" t="s">
-        <v>322</v>
-      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="35" type="noConversion"/>
+  <phoneticPr fontId="36" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I22:I28">
       <formula1>$AE$4:$AE$9</formula1>
@@ -12803,7 +12825,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="D3:F34"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AC14" sqref="AC14"/>
     </sheetView>
   </sheetViews>
@@ -12816,91 +12838,91 @@
   <sheetData>
     <row r="3" spans="4:6">
       <c r="D3" s="5" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="5" spans="4:6">
       <c r="F5" s="45" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="6" spans="4:6">
       <c r="F6" s="45" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="7" spans="4:6">
       <c r="F7" s="45" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="17" spans="4:6">
       <c r="F17" s="45" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="18" spans="4:6">
       <c r="F18" s="45" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="19" spans="4:6">
       <c r="F19" s="45" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="20" spans="4:6">
       <c r="F20" s="49" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="21" spans="4:6">
       <c r="F21" s="45" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="22" spans="4:6">
       <c r="F22" s="49" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="24" spans="4:6">
       <c r="D24" s="5" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="26" spans="4:6">
       <c r="F26" s="45" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="27" spans="4:6">
       <c r="F27" s="45" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="28" spans="4:6">
       <c r="F28" s="45" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="29" spans="4:6">
       <c r="F29" s="45" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="32" spans="4:6">
       <c r="D32" s="5" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="34" spans="6:6">
       <c r="F34" s="28" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="35" type="noConversion"/>
+  <phoneticPr fontId="36" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -12910,7 +12932,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="D3:AJ112"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AM70" sqref="AM70"/>
     </sheetView>
   </sheetViews>
@@ -12923,126 +12945,126 @@
   <sheetData>
     <row r="3" spans="4:8" ht="15" customHeight="1">
       <c r="D3" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="4:8" ht="15" customHeight="1">
       <c r="F5" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="4:8" ht="15" customHeight="1">
       <c r="F7" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="4:8" ht="15" customHeight="1">
       <c r="H9" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="4:8" ht="15" customHeight="1">
       <c r="F11" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="4:8" ht="15" customHeight="1">
       <c r="H13" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="4:8" ht="15" customHeight="1">
       <c r="D15" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="6:8" ht="15" customHeight="1">
       <c r="F17" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="6:8" ht="15" customHeight="1">
       <c r="H19" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21" spans="6:8" ht="15" customHeight="1">
       <c r="F21" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="6:8" ht="15" customHeight="1">
       <c r="H23" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25" spans="6:8" ht="15" customHeight="1">
       <c r="F25" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27" spans="6:8" ht="15" customHeight="1">
       <c r="H27" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="29" spans="6:8" ht="15" customHeight="1">
       <c r="F29" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="31" spans="6:8" ht="15" customHeight="1">
       <c r="H31" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="33" spans="6:8" ht="15" customHeight="1">
       <c r="F33" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="35" spans="6:8" ht="15" customHeight="1">
       <c r="H35" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="37" spans="6:8" ht="15" customHeight="1">
       <c r="F37" s="29" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="39" spans="6:8" ht="15" customHeight="1">
       <c r="H39" s="29" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="53" spans="4:36" ht="15" customHeight="1">
       <c r="D53" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="55" spans="4:36" ht="15" customHeight="1">
       <c r="F55" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="56" spans="4:36" ht="15" customHeight="1">
       <c r="F56" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="58" spans="4:36" ht="15" customHeight="1">
       <c r="F58" s="25" t="s">
+        <v>264</v>
+      </c>
+      <c r="X58" s="25" t="s">
         <v>265</v>
-      </c>
-      <c r="X58" s="25" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="59" spans="4:36" ht="15" customHeight="1">
       <c r="F59" s="25"/>
       <c r="H59" s="25" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="X59" s="25"/>
       <c r="AJ59" s="25"/>
@@ -13055,16 +13077,16 @@
     </row>
     <row r="61" spans="4:36" ht="15" customHeight="1">
       <c r="F61" s="24" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="X61" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="62" spans="4:36" ht="15" customHeight="1">
       <c r="F62" s="24"/>
       <c r="H62" s="33" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AJ62" s="25"/>
     </row>
@@ -13075,15 +13097,15 @@
     </row>
     <row r="64" spans="4:36" ht="15" customHeight="1">
       <c r="F64" s="27" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="X64" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="65" spans="4:36" ht="15" customHeight="1">
       <c r="H65" s="25" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AJ65" s="25"/>
     </row>
@@ -13093,15 +13115,15 @@
     </row>
     <row r="67" spans="4:36" ht="15" customHeight="1">
       <c r="F67" s="27" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="X67" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="68" spans="4:36" ht="15" customHeight="1">
       <c r="H68" s="25" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="69" spans="4:36" ht="15" customHeight="1">
@@ -13110,116 +13132,116 @@
     </row>
     <row r="70" spans="4:36" ht="15" customHeight="1">
       <c r="D70" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="72" spans="4:36" ht="15" customHeight="1">
       <c r="F72" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="82" spans="4:6" ht="15" customHeight="1">
       <c r="F82" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="85" spans="4:6" ht="15" customHeight="1">
       <c r="D85" s="5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="87" spans="4:6" ht="15" customHeight="1">
       <c r="F87" s="26" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="89" spans="4:6" ht="15" customHeight="1">
       <c r="F89" s="27" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="90" spans="4:6" ht="15" customHeight="1">
       <c r="F90" s="27" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="92" spans="4:6" ht="15" customHeight="1">
       <c r="F92" s="27" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="94" spans="4:6" ht="15" customHeight="1">
       <c r="F94" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="95" spans="4:6" ht="15" customHeight="1">
       <c r="F95" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="96" spans="4:6" ht="15" customHeight="1">
       <c r="F96" s="27" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="97" spans="6:6" ht="15" customHeight="1">
       <c r="F97" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="98" spans="6:6" ht="15" customHeight="1">
       <c r="F98" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="101" spans="6:6" ht="15" customHeight="1">
       <c r="F101" s="27" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="103" spans="6:6" ht="15" customHeight="1">
       <c r="F103" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="104" spans="6:6" ht="15" customHeight="1">
       <c r="F104" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="105" spans="6:6" ht="15" customHeight="1">
       <c r="F105" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="106" spans="6:6" ht="15" customHeight="1">
       <c r="F106" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="107" spans="6:6" ht="15" customHeight="1">
       <c r="F107" s="28" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="108" spans="6:6" ht="15" customHeight="1">
       <c r="F108" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="109" spans="6:6" ht="15" customHeight="1">
       <c r="F109" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="112" spans="6:6" ht="15" customHeight="1">
       <c r="F112" s="29" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="35" type="noConversion"/>
+  <phoneticPr fontId="36" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -13245,1061 +13267,1061 @@
   <sheetData>
     <row r="3" spans="4:6" ht="15" customHeight="1">
       <c r="D3" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="4:6" ht="15" customHeight="1">
       <c r="F5" s="6" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="6" spans="4:6" ht="15" customHeight="1">
       <c r="F6" s="6" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="7" spans="4:6" ht="15" customHeight="1">
       <c r="F7" s="6" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="8" spans="4:6" ht="15" customHeight="1">
       <c r="F8" s="6" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="9" spans="4:6" ht="15" customHeight="1">
       <c r="F9" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="4:6" ht="15" customHeight="1">
       <c r="F10" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="4:6" ht="15" customHeight="1">
       <c r="F11" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="4:6" ht="15" customHeight="1">
       <c r="F12" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="4:6" ht="15" customHeight="1">
       <c r="F14" s="6" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="15" spans="4:6" ht="15" customHeight="1">
       <c r="F15" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="4:6" ht="15" customHeight="1">
       <c r="F16" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="6:6" ht="15" customHeight="1">
       <c r="F17" s="6" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="18" spans="6:6" ht="15" customHeight="1">
       <c r="F18" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19" spans="6:6" ht="15" customHeight="1">
       <c r="F19" s="6" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="20" spans="6:6" ht="15" customHeight="1">
       <c r="F20" s="6" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="21" spans="6:6" ht="15" customHeight="1">
       <c r="F21" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="22" spans="6:6" ht="15" customHeight="1">
       <c r="F22" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="24" spans="6:6" ht="15" customHeight="1">
       <c r="F24" s="6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="25" spans="6:6" ht="15" customHeight="1">
       <c r="F25" s="6" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="26" spans="6:6" ht="15" customHeight="1">
       <c r="F26" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="27" spans="6:6" ht="15" customHeight="1">
       <c r="F27" s="6" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="28" spans="6:6" ht="15" customHeight="1">
       <c r="F28" s="6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="29" spans="6:6" ht="15" customHeight="1">
       <c r="F29" s="6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="31" spans="6:6" ht="15" customHeight="1">
       <c r="F31" s="6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="32" spans="6:6" ht="15" customHeight="1">
       <c r="F32" s="6" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="33" spans="6:6" ht="15" customHeight="1">
       <c r="F33" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="34" spans="6:6" ht="15" customHeight="1">
       <c r="F34" s="6" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="35" spans="6:6" ht="15" customHeight="1">
       <c r="F35" s="6" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="37" spans="6:6" ht="15" customHeight="1">
       <c r="F37" s="6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="38" spans="6:6" ht="15" customHeight="1">
       <c r="F38" s="6" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="39" spans="6:6" ht="15" customHeight="1">
       <c r="F39" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="40" spans="6:6" ht="15" customHeight="1">
       <c r="F40" s="6" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="41" spans="6:6" ht="15" customHeight="1">
       <c r="F41" s="6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="42" spans="6:6" ht="15" customHeight="1">
       <c r="F42" s="6" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="43" spans="6:6" ht="15" customHeight="1">
       <c r="F43" s="6" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="44" spans="6:6" ht="15" customHeight="1">
       <c r="F44" s="6" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="45" spans="6:6" ht="15" customHeight="1">
       <c r="F45" s="6" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="46" spans="6:6" ht="15" customHeight="1">
       <c r="F46" s="6" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="48" spans="6:6" ht="15" customHeight="1">
       <c r="F48" s="6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="49" spans="6:6" ht="15" customHeight="1">
       <c r="F49" s="6" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="50" spans="6:6" ht="15" customHeight="1">
       <c r="F50" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="51" spans="6:6" ht="15" customHeight="1">
       <c r="F51" s="6" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="52" spans="6:6" ht="15" customHeight="1">
       <c r="F52" s="6" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="54" spans="6:6" ht="15" customHeight="1">
       <c r="F54" s="6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="55" spans="6:6" ht="15" customHeight="1">
       <c r="F55" s="6" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="56" spans="6:6" ht="15" customHeight="1">
       <c r="F56" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="57" spans="6:6" ht="15" customHeight="1">
       <c r="F57" s="6" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="58" spans="6:6" ht="15" customHeight="1">
       <c r="F58" s="6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="59" spans="6:6" ht="15" customHeight="1">
       <c r="F59" s="6" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="61" spans="6:6" ht="15" customHeight="1">
       <c r="F61" s="6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="62" spans="6:6" ht="15" customHeight="1">
       <c r="F62" s="6" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="63" spans="6:6" ht="15" customHeight="1">
       <c r="F63" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="64" spans="6:6" ht="15" customHeight="1">
       <c r="F64" s="6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="65" spans="6:6" ht="15" customHeight="1">
       <c r="F65" s="6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="66" spans="6:6" ht="15" customHeight="1">
       <c r="F66" s="6" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="67" spans="6:6" ht="15" customHeight="1">
       <c r="F67" s="6" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="68" spans="6:6" ht="15" customHeight="1">
       <c r="F68" s="6" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="70" spans="6:6" ht="15" customHeight="1">
       <c r="F70" s="6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="71" spans="6:6" ht="15" customHeight="1">
       <c r="F71" s="6" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="72" spans="6:6" ht="15" customHeight="1">
       <c r="F72" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="73" spans="6:6" ht="15" customHeight="1">
       <c r="F73" s="6" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="74" spans="6:6" ht="15" customHeight="1">
       <c r="F74" s="6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="75" spans="6:6" ht="15" customHeight="1">
       <c r="F75" s="6" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="76" spans="6:6" ht="15" customHeight="1">
       <c r="F76" s="6" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="78" spans="6:6" ht="15" customHeight="1">
       <c r="F78" s="6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="79" spans="6:6" ht="15" customHeight="1">
       <c r="F79" s="6" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="80" spans="6:6" ht="15" customHeight="1">
       <c r="F80" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="81" spans="6:6" ht="15" customHeight="1">
       <c r="F81" s="6" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="82" spans="6:6" ht="15" customHeight="1">
       <c r="F82" s="6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="83" spans="6:6" ht="15" customHeight="1">
       <c r="F83" s="6" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="85" spans="6:6" ht="15" customHeight="1">
       <c r="F85" s="6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="86" spans="6:6" ht="15" customHeight="1">
       <c r="F86" s="6" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="87" spans="6:6" ht="15" customHeight="1">
       <c r="F87" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="88" spans="6:6" ht="15" customHeight="1">
       <c r="F88" s="6" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="89" spans="6:6" ht="15" customHeight="1">
       <c r="F89" s="6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="90" spans="6:6" ht="15" customHeight="1">
       <c r="F90" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="92" spans="6:6" ht="15" customHeight="1">
       <c r="F92" s="6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="93" spans="6:6" ht="15" customHeight="1">
       <c r="F93" s="6" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="94" spans="6:6" ht="15" customHeight="1">
       <c r="F94" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="95" spans="6:6" ht="15" customHeight="1">
       <c r="F95" s="6" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="96" spans="6:6" ht="15" customHeight="1">
       <c r="F96" s="6" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="97" spans="6:6" ht="15" customHeight="1">
       <c r="F97" s="6" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="98" spans="6:6" ht="15" customHeight="1">
       <c r="F98" s="6" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="100" spans="6:6" ht="15" customHeight="1">
       <c r="F100" s="6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="101" spans="6:6" ht="15" customHeight="1">
       <c r="F101" s="6" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="102" spans="6:6" ht="15" customHeight="1">
       <c r="F102" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="103" spans="6:6" ht="15" customHeight="1">
       <c r="F103" s="6" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="104" spans="6:6" ht="15" customHeight="1">
       <c r="F104" s="6" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="105" spans="6:6" ht="15" customHeight="1">
       <c r="F105" s="6" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="107" spans="6:6" ht="15" customHeight="1">
       <c r="F107" s="6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="108" spans="6:6" ht="15" customHeight="1">
       <c r="F108" s="6" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="109" spans="6:6" ht="15" customHeight="1">
       <c r="F109" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="110" spans="6:6" ht="15" customHeight="1">
       <c r="F110" s="6" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="111" spans="6:6" ht="15" customHeight="1">
       <c r="F111" s="6" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="112" spans="6:6" ht="15" customHeight="1">
       <c r="F112" s="6" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="114" spans="6:6" ht="15" customHeight="1">
       <c r="F114" s="6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="115" spans="6:6" ht="15" customHeight="1">
       <c r="F115" s="6" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="116" spans="6:6" ht="15" customHeight="1">
       <c r="F116" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="117" spans="6:6" ht="15" customHeight="1">
       <c r="F117" s="6" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="118" spans="6:6" ht="15" customHeight="1">
       <c r="F118" s="6" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="119" spans="6:6" ht="15" customHeight="1">
       <c r="F119" s="6" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="121" spans="6:6" ht="15" customHeight="1">
       <c r="F121" s="6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="122" spans="6:6" ht="15" customHeight="1">
       <c r="F122" s="6" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="123" spans="6:6" ht="15" customHeight="1">
       <c r="F123" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="124" spans="6:6" ht="15" customHeight="1">
       <c r="F124" s="6" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="125" spans="6:6" ht="15" customHeight="1">
       <c r="F125" s="6" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="127" spans="6:6" ht="15" customHeight="1">
       <c r="F127" s="6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="128" spans="6:6" ht="15" customHeight="1">
       <c r="F128" s="6" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="129" spans="6:6" ht="15" customHeight="1">
       <c r="F129" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="130" spans="6:6" ht="15" customHeight="1">
       <c r="F130" s="6" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="131" spans="6:6" ht="15" customHeight="1">
       <c r="F131" s="6" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="133" spans="6:6" ht="15" customHeight="1">
       <c r="F133" s="6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="134" spans="6:6" ht="15" customHeight="1">
       <c r="F134" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="135" spans="6:6" ht="15" customHeight="1">
       <c r="F135" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="136" spans="6:6" ht="15" customHeight="1">
       <c r="F136" s="6" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="137" spans="6:6" ht="15" customHeight="1">
       <c r="F137" s="6" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="138" spans="6:6" ht="15" customHeight="1">
       <c r="F138" s="6" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="140" spans="6:6" ht="15" customHeight="1">
       <c r="F140" s="6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="141" spans="6:6" ht="15" customHeight="1">
       <c r="F141" s="6" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="142" spans="6:6" ht="15" customHeight="1">
       <c r="F142" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="143" spans="6:6" ht="15" customHeight="1">
       <c r="F143" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="144" spans="6:6" ht="15" customHeight="1">
       <c r="F144" s="6" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="145" spans="6:6" ht="15" customHeight="1">
       <c r="F145" s="6" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="147" spans="6:6" ht="15" customHeight="1">
       <c r="F147" s="6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="148" spans="6:6" ht="15" customHeight="1">
       <c r="F148" s="6" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="149" spans="6:6" ht="15" customHeight="1">
       <c r="F149" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="150" spans="6:6" ht="15" customHeight="1">
       <c r="F150" s="6" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="151" spans="6:6" ht="15" customHeight="1">
       <c r="F151" s="6" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="152" spans="6:6" ht="15" customHeight="1">
       <c r="F152" s="6" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="154" spans="6:6" ht="15" customHeight="1">
       <c r="F154" s="6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="155" spans="6:6" ht="15" customHeight="1">
       <c r="F155" s="6" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="156" spans="6:6" ht="15" customHeight="1">
       <c r="F156" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="157" spans="6:6" ht="15" customHeight="1">
       <c r="F157" s="6" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="158" spans="6:6" ht="15" customHeight="1">
       <c r="F158" s="6" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="159" spans="6:6" ht="15" customHeight="1">
       <c r="F159" s="6" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="160" spans="6:6" ht="15" customHeight="1">
       <c r="F160" s="6" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="162" spans="6:6" ht="15" customHeight="1">
       <c r="F162" s="6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="163" spans="6:6" ht="15" customHeight="1">
       <c r="F163" s="6" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="164" spans="6:6" ht="15" customHeight="1">
       <c r="F164" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="165" spans="6:6" ht="15" customHeight="1">
       <c r="F165" s="6" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="166" spans="6:6" ht="15" customHeight="1">
       <c r="F166" s="6" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="168" spans="6:6" ht="15" customHeight="1">
       <c r="F168" s="6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="169" spans="6:6" ht="15" customHeight="1">
       <c r="F169" s="6" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="170" spans="6:6" ht="15" customHeight="1">
       <c r="F170" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="171" spans="6:6" ht="15" customHeight="1">
       <c r="F171" s="6" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="172" spans="6:6" ht="15" customHeight="1">
       <c r="F172" s="6" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="174" spans="6:6" ht="15" customHeight="1">
       <c r="F174" s="6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="175" spans="6:6" ht="15" customHeight="1">
       <c r="F175" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="176" spans="6:6" ht="15" customHeight="1">
       <c r="F176" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="177" spans="6:6" ht="15" customHeight="1">
       <c r="F177" s="6" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="178" spans="6:6" ht="15" customHeight="1">
       <c r="F178" s="6" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="179" spans="6:6" ht="15" customHeight="1">
       <c r="F179" s="6" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="180" spans="6:6" ht="15" customHeight="1">
       <c r="F180" s="6" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="182" spans="6:6" ht="15" customHeight="1">
       <c r="F182" s="6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="183" spans="6:6" ht="15" customHeight="1">
       <c r="F183" s="6" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="184" spans="6:6" ht="15" customHeight="1">
       <c r="F184" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="185" spans="6:6" ht="15" customHeight="1">
       <c r="F185" s="6" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="188" spans="6:6" ht="15" customHeight="1">
       <c r="F188" s="6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="189" spans="6:6" ht="15" customHeight="1">
       <c r="F189" s="6" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="190" spans="6:6" ht="15" customHeight="1">
       <c r="F190" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="191" spans="6:6" ht="15" customHeight="1">
       <c r="F191" s="6" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="192" spans="6:6" ht="15" customHeight="1">
       <c r="F192" s="6" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="193" spans="6:6" ht="15" customHeight="1">
       <c r="F193" s="6" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="194" spans="6:6" ht="15" customHeight="1">
       <c r="F194" s="6" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="196" spans="6:6" ht="15" customHeight="1">
       <c r="F196" s="6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="197" spans="6:6" ht="15" customHeight="1">
       <c r="F197" s="6" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="198" spans="6:6" ht="15" customHeight="1">
       <c r="F198" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="199" spans="6:6" ht="15" customHeight="1">
       <c r="F199" s="6" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="201" spans="6:6" ht="15" customHeight="1">
       <c r="F201" s="6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="202" spans="6:6" ht="15" customHeight="1">
       <c r="F202" s="6" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="203" spans="6:6" ht="15" customHeight="1">
       <c r="F203" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="204" spans="6:6" ht="15" customHeight="1">
       <c r="F204" s="6" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="206" spans="6:6" ht="15" customHeight="1">
       <c r="F206" s="6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="207" spans="6:6" ht="15" customHeight="1">
       <c r="F207" s="6" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="208" spans="6:6" ht="15" customHeight="1">
       <c r="F208" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="209" spans="6:6" ht="15" customHeight="1">
       <c r="F209" s="6" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="210" spans="6:6" ht="15" customHeight="1">
       <c r="F210" s="6" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="211" spans="6:6" ht="15" customHeight="1">
       <c r="F211" s="6" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="212" spans="6:6" ht="15" customHeight="1">
       <c r="F212" s="6" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="213" spans="6:6" ht="15" customHeight="1">
       <c r="F213" s="6" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="214" spans="6:6" ht="15" customHeight="1">
       <c r="F214" s="6" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="216" spans="6:6" ht="15" customHeight="1">
       <c r="F216" s="6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="217" spans="6:6" ht="15" customHeight="1">
       <c r="F217" s="6" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="218" spans="6:6" ht="15" customHeight="1">
       <c r="F218" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="219" spans="6:6" ht="15" customHeight="1">
       <c r="F219" s="6" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="220" spans="6:6" ht="15" customHeight="1">
       <c r="F220" s="6" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="221" spans="6:6" ht="15" customHeight="1">
       <c r="F221" s="6" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="222" spans="6:6" ht="15" customHeight="1">
       <c r="F222" s="6" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="223" spans="6:6" ht="15" customHeight="1">
       <c r="F223" s="6" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="224" spans="6:6" ht="15" customHeight="1">
       <c r="F224" s="6" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="225" spans="6:6" ht="15" customHeight="1">
       <c r="F225" s="6" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="227" spans="6:6" ht="15" customHeight="1">
       <c r="F227" s="6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="228" spans="6:6" ht="15" customHeight="1">
       <c r="F228" s="6" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="229" spans="6:6" ht="15" customHeight="1">
       <c r="F229" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="230" spans="6:6" ht="15" customHeight="1">
       <c r="F230" s="6" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="231" spans="6:6" ht="15" customHeight="1">
       <c r="F231" s="6" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="232" spans="6:6" ht="15" customHeight="1">
       <c r="F232" s="6" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="233" spans="6:6" ht="15" customHeight="1">
       <c r="F233" s="6" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="234" spans="6:6" ht="15" customHeight="1">
       <c r="F234" s="6" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="236" spans="6:6" ht="15" customHeight="1">
       <c r="F236" s="6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="237" spans="6:6" ht="15" customHeight="1">
       <c r="F237" s="6" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="238" spans="6:6" ht="15" customHeight="1">
       <c r="F238" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="239" spans="6:6" ht="15" customHeight="1">
       <c r="F239" s="6" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="240" spans="6:6" ht="15" customHeight="1">
       <c r="F240" s="6" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="241" spans="6:6" ht="15" customHeight="1">
       <c r="F241" s="6" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="242" spans="6:6" ht="15" customHeight="1">
       <c r="F242" s="6" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="243" spans="6:6" ht="15" customHeight="1">
       <c r="F243" s="6" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="245" spans="6:6" ht="15" customHeight="1">
       <c r="F245" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="246" spans="6:6" ht="15" customHeight="1">
       <c r="F246" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="247" spans="6:6" ht="15" customHeight="1">
       <c r="F247" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="35" type="noConversion"/>
+  <phoneticPr fontId="36" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -14317,7 +14339,7 @@
   <sheetData>
     <row r="3" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D3" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F3" s="6"/>
     </row>
@@ -14328,13 +14350,13 @@
     <row r="5" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D5" s="5"/>
       <c r="F5" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="6" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D6" s="5"/>
       <c r="F6" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
@@ -14344,43 +14366,43 @@
     <row r="8" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D8" s="5"/>
       <c r="F8" s="6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="9" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D9" s="5"/>
       <c r="F9" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D10" s="5"/>
       <c r="F10" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D11" s="5"/>
       <c r="F11" s="6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="12" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D12" s="5"/>
       <c r="F12" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D13" s="5"/>
       <c r="F13" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="14" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D14" s="5"/>
       <c r="F14" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="15" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
@@ -14390,31 +14412,31 @@
     <row r="16" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D16" s="5"/>
       <c r="F16" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D17" s="5"/>
       <c r="F17" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="18" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D18" s="5"/>
       <c r="F18" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D19" s="5"/>
       <c r="F19" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="20" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D20" s="5"/>
       <c r="F20" s="6" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="21" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
@@ -14424,31 +14446,31 @@
     <row r="22" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D22" s="5"/>
       <c r="F22" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="23" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D23" s="5"/>
       <c r="F23" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="24" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D24" s="5"/>
       <c r="F24" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D25" s="5"/>
       <c r="F25" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="26" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D26" s="5"/>
       <c r="F26" s="6" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="27" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
@@ -14458,31 +14480,31 @@
     <row r="28" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D28" s="5"/>
       <c r="F28" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="29" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D29" s="5"/>
       <c r="F29" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="30" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D30" s="5"/>
       <c r="F30" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="31" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D31" s="5"/>
       <c r="F31" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="32" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D32" s="5"/>
       <c r="F32" s="6" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="33" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
@@ -14492,31 +14514,31 @@
     <row r="34" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D34" s="5"/>
       <c r="F34" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="35" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D35" s="5"/>
       <c r="F35" s="6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="36" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D36" s="5"/>
       <c r="F36" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="37" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D37" s="5"/>
       <c r="F37" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="38" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D38" s="5"/>
       <c r="F38" s="6" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="39" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
@@ -14526,31 +14548,31 @@
     <row r="40" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D40" s="5"/>
       <c r="F40" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="41" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D41" s="5"/>
       <c r="F41" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="42" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D42" s="5"/>
       <c r="F42" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="43" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D43" s="5"/>
       <c r="F43" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="44" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D44" s="5"/>
       <c r="F44" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="45" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
@@ -14559,11 +14581,11 @@
     </row>
     <row r="46" spans="4:6">
       <c r="F46" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="35" type="noConversion"/>
+  <phoneticPr fontId="36" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -14580,7 +14602,7 @@
   <sheetData>
     <row r="3" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D3" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F3" s="6"/>
     </row>
@@ -14595,7 +14617,7 @@
     <row r="6" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D6" s="5"/>
       <c r="F6" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
@@ -14605,7 +14627,7 @@
     <row r="8" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D8" s="5"/>
       <c r="F8" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
@@ -14615,7 +14637,7 @@
     <row r="10" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D10" s="5"/>
       <c r="F10" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
@@ -14625,49 +14647,49 @@
     <row r="12" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D12" s="5"/>
       <c r="F12" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D13" s="5"/>
       <c r="F13" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="14" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D14" s="5"/>
       <c r="F14" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="15" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D15" s="5"/>
       <c r="F15" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="16" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D16" s="5"/>
       <c r="F16" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D17" s="5"/>
       <c r="F17" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D18" s="5"/>
       <c r="F18" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D19" s="5"/>
       <c r="F19" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
@@ -14677,55 +14699,55 @@
     <row r="21" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D21" s="5"/>
       <c r="F21" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="22" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D22" s="5"/>
       <c r="F22" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="23" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D23" s="5"/>
       <c r="F23" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="24" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D24" s="5"/>
       <c r="F24" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="25" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D25" s="5"/>
       <c r="F25" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="26" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D26" s="5"/>
       <c r="F26" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="27" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D27" s="5"/>
       <c r="F27" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="28" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D28" s="5"/>
       <c r="F28" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="29" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D29" s="5"/>
       <c r="F29" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="30" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
@@ -14735,55 +14757,55 @@
     <row r="31" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D31" s="5"/>
       <c r="F31" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="32" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D32" s="5"/>
       <c r="F32" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="33" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D33" s="5"/>
       <c r="F33" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="34" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D34" s="5"/>
       <c r="F34" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="35" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D35" s="5"/>
       <c r="F35" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="36" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D36" s="5"/>
       <c r="F36" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="37" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D37" s="5"/>
       <c r="F37" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="38" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D38" s="5"/>
       <c r="F38" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="39" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D39" s="5"/>
       <c r="F39" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="40" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
@@ -14793,55 +14815,55 @@
     <row r="41" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D41" s="5"/>
       <c r="F41" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="42" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D42" s="5"/>
       <c r="F42" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="43" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D43" s="5"/>
       <c r="F43" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="44" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D44" s="5"/>
       <c r="F44" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="45" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D45" s="5"/>
       <c r="F45" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="46" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D46" s="5"/>
       <c r="F46" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="47" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D47" s="5"/>
       <c r="F47" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="48" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D48" s="5"/>
       <c r="F48" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="49" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D49" s="5"/>
       <c r="F49" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="50" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
@@ -14851,55 +14873,55 @@
     <row r="51" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D51" s="5"/>
       <c r="F51" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="52" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D52" s="5"/>
       <c r="F52" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="53" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D53" s="5"/>
       <c r="F53" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="54" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D54" s="5"/>
       <c r="F54" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="55" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D55" s="5"/>
       <c r="F55" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="56" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D56" s="5"/>
       <c r="F56" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="57" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D57" s="5"/>
       <c r="F57" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="58" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D58" s="5"/>
       <c r="F58" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="59" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D59" s="5"/>
       <c r="F59" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="60" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
@@ -14909,55 +14931,55 @@
     <row r="61" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D61" s="5"/>
       <c r="F61" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="62" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D62" s="5"/>
       <c r="F62" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="63" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D63" s="5"/>
       <c r="F63" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="64" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D64" s="5"/>
       <c r="F64" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="65" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D65" s="5"/>
       <c r="F65" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="66" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D66" s="5"/>
       <c r="F66" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="67" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D67" s="5"/>
       <c r="F67" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="68" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D68" s="5"/>
       <c r="F68" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="69" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D69" s="5"/>
       <c r="F69" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="70" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
@@ -14967,55 +14989,55 @@
     <row r="71" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D71" s="5"/>
       <c r="F71" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="72" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D72" s="5"/>
       <c r="F72" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="73" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D73" s="5"/>
       <c r="F73" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="74" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D74" s="5"/>
       <c r="F74" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="75" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D75" s="5"/>
       <c r="F75" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="76" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D76" s="5"/>
       <c r="F76" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="77" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D77" s="5"/>
       <c r="F77" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="78" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D78" s="5"/>
       <c r="F78" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="79" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D79" s="5"/>
       <c r="F79" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="80" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
@@ -15025,49 +15047,49 @@
     <row r="81" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D81" s="5"/>
       <c r="F81" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="82" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D82" s="5"/>
       <c r="F82" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="83" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D83" s="5"/>
       <c r="F83" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="84" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D84" s="5"/>
       <c r="F84" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="85" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D85" s="5"/>
       <c r="F85" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="86" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D86" s="5"/>
       <c r="F86" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="87" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D87" s="5"/>
       <c r="F87" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="88" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D88" s="5"/>
       <c r="F88" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="89" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
@@ -15077,49 +15099,49 @@
     <row r="90" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D90" s="5"/>
       <c r="F90" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="91" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D91" s="5"/>
       <c r="F91" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="92" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D92" s="5"/>
       <c r="F92" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="93" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D93" s="5"/>
       <c r="F93" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="94" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D94" s="5"/>
       <c r="F94" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="95" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D95" s="5"/>
       <c r="F95" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="96" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D96" s="5"/>
       <c r="F96" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="97" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D97" s="5"/>
       <c r="F97" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="98" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
@@ -15129,49 +15151,49 @@
     <row r="99" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D99" s="5"/>
       <c r="F99" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="100" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D100" s="5"/>
       <c r="F100" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="101" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D101" s="5"/>
       <c r="F101" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="102" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D102" s="5"/>
       <c r="F102" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="103" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D103" s="5"/>
       <c r="F103" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="104" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D104" s="5"/>
       <c r="F104" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="105" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D105" s="5"/>
       <c r="F105" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="106" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D106" s="5"/>
       <c r="F106" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="107" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
@@ -15181,11 +15203,11 @@
     <row r="108" spans="4:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D108" s="5"/>
       <c r="F108" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="35" type="noConversion"/>
+  <phoneticPr fontId="36" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -15194,602 +15216,602 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="D3:I142"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="3" spans="4:6" ht="18">
       <c r="D3" s="5" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="6" spans="4:6">
       <c r="F6" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="8" spans="4:6">
       <c r="F8" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="9" spans="4:6">
       <c r="F9" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="10" spans="4:6">
       <c r="F10" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="11" spans="4:6">
       <c r="F11" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="12" spans="4:6">
       <c r="F12" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="13" spans="4:6">
       <c r="F13" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="15" spans="4:6">
       <c r="F15" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="17" spans="6:6">
       <c r="F17" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="18" spans="6:6">
       <c r="F18" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="19" spans="6:6">
       <c r="F19" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="20" spans="6:6">
       <c r="F20" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="21" spans="6:6">
       <c r="F21" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="22" spans="6:6">
       <c r="F22" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="23" spans="6:6">
       <c r="F23" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="24" spans="6:6">
       <c r="F24" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="25" spans="6:6">
       <c r="F25" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="26" spans="6:6">
       <c r="F26" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="28" spans="6:6">
       <c r="F28" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="29" spans="6:6">
       <c r="F29" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="30" spans="6:6">
       <c r="F30" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="31" spans="6:6">
       <c r="F31" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="32" spans="6:6">
       <c r="F32" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="33" spans="6:6">
       <c r="F33" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="34" spans="6:6">
       <c r="F34" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="35" spans="6:6">
       <c r="F35" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="37" spans="6:6">
       <c r="F37" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="38" spans="6:6">
       <c r="F38" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="39" spans="6:6">
       <c r="F39" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="40" spans="6:6">
       <c r="F40" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="41" spans="6:6">
       <c r="F41" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="42" spans="6:6">
       <c r="F42" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="43" spans="6:6">
       <c r="F43" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="44" spans="6:6">
       <c r="F44" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="46" spans="6:6">
       <c r="F46" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="47" spans="6:6">
       <c r="F47" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="48" spans="6:6">
       <c r="F48" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="49" spans="6:6">
       <c r="F49" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="50" spans="6:6">
       <c r="F50" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="51" spans="6:6">
       <c r="F51" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="52" spans="6:6">
       <c r="F52" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="53" spans="6:6">
       <c r="F53" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="55" spans="6:6">
       <c r="F55" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="56" spans="6:6">
       <c r="F56" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="58" spans="6:6">
       <c r="F58" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="59" spans="6:6">
       <c r="F59" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="60" spans="6:6">
       <c r="F60" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="61" spans="6:6">
       <c r="F61" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="63" spans="6:6">
       <c r="F63" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="64" spans="6:6">
       <c r="F64" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="65" spans="6:6">
       <c r="F65" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="66" spans="6:6">
       <c r="F66" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="67" spans="6:6">
       <c r="F67" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="68" spans="6:6">
       <c r="F68" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="69" spans="6:6">
       <c r="F69" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="70" spans="6:6">
       <c r="F70" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="71" spans="6:6">
       <c r="F71" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="72" spans="6:6">
       <c r="F72" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="73" spans="6:6">
       <c r="F73" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="74" spans="6:6">
       <c r="F74" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="75" spans="6:6">
       <c r="F75" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="76" spans="6:6">
       <c r="F76" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="77" spans="6:6">
       <c r="F77" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="78" spans="6:6">
       <c r="F78" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="79" spans="6:6">
       <c r="F79" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="80" spans="6:6">
       <c r="F80" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="81" spans="6:6">
       <c r="F81" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="82" spans="6:6">
       <c r="F82" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="83" spans="6:6">
       <c r="F83" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="84" spans="6:6">
       <c r="F84" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="85" spans="6:6">
       <c r="F85" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="86" spans="6:6">
       <c r="F86" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="87" spans="6:6">
       <c r="F87" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="89" spans="6:6">
       <c r="F89" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="90" spans="6:6">
       <c r="F90" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="91" spans="6:6">
       <c r="F91" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="92" spans="6:6">
       <c r="F92" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="94" spans="6:6">
       <c r="F94" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="95" spans="6:6">
       <c r="F95" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="96" spans="6:6">
       <c r="F96" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="97" spans="6:6">
       <c r="F97" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="98" spans="6:6">
       <c r="F98" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="99" spans="6:6">
       <c r="F99" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="100" spans="6:6">
       <c r="F100" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="101" spans="6:6">
       <c r="F101" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="102" spans="6:6">
       <c r="F102" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="103" spans="6:6">
       <c r="F103" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="104" spans="6:6">
       <c r="F104" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="105" spans="6:6">
       <c r="F105" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="106" spans="6:6">
       <c r="F106" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="107" spans="6:6">
       <c r="F107" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="108" spans="6:6">
       <c r="F108" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="109" spans="6:6">
       <c r="F109" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="110" spans="6:6">
       <c r="F110" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="114" spans="4:8" ht="18">
       <c r="D114" s="5" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="117" spans="4:8">
       <c r="F117" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="118" spans="4:8">
       <c r="F118" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="120" spans="4:8">
       <c r="F120" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="121" spans="4:8">
       <c r="F121" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="123" spans="4:8">
       <c r="F123" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="124" spans="4:8">
       <c r="G124" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="125" spans="4:8">
       <c r="H125" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="126" spans="4:8">
       <c r="H126" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="127" spans="4:8">
       <c r="H127" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="128" spans="4:8">
       <c r="H128" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="129" spans="6:9">
       <c r="H129" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="130" spans="6:9">
       <c r="H130" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="132" spans="6:9">
       <c r="H132" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="133" spans="6:9">
       <c r="H133" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="135" spans="6:9">
       <c r="H135" s="64" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="136" spans="6:9">
       <c r="H136" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="137" spans="6:9">
       <c r="I137" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="138" spans="6:9">
       <c r="I138" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="139" spans="6:9">
       <c r="I139" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="140" spans="6:9">
       <c r="H140" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="141" spans="6:9">
       <c r="G141" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="142" spans="6:9">
       <c r="F142" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="35" type="noConversion"/>
+  <phoneticPr fontId="36" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/DevKit/Help/开发辅助工具使用手册.xlsx
+++ b/DevKit/Help/开发辅助工具使用手册.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" firstSheet="8" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="目的" sheetId="1" r:id="rId1"/>
@@ -32,124 +32,124 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1066" uniqueCount="790">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1069" uniqueCount="793">
   <si>
     <t>目的</t>
   </si>
   <si>
     <t>通过使用工具，提高工作效率，防止手工编码的低级错误，消减代码复查的工作时间。</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>工程</t>
   </si>
   <si>
     <t>新建工程</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>菜单 -&gt; 文件 -&gt; 新建工程</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>*暂时请不要使用Java</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>项目名称：</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>这个项目的名字，可以是任意文字</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>命名空间</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>新建工程后，系统将自动添加以下文件夹</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>\Model\Document</t>
   </si>
   <si>
     <t>数据模型设计书</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>\Model\SourceCode</t>
   </si>
   <si>
     <t>数据模型代码</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>枚举代码文件夹</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>*枚举代码文件夹中的文件将在枚举中介绍</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>同时，系统会生成 Project.xml文件</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>打开工程</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>菜单 -&gt; 文件 -&gt; 打开工程</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>数据模型</t>
   </si>
   <si>
     <t>工具通过将设计书直接转化为Model代码的方式，使得数据模型的编码环节做到自动化。</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>设计人员只需要填写完数据设计式样书，则工具可以完成代码的自动生成。</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>基本</t>
   </si>
   <si>
     <t>No</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>属性名</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>元数据类型</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>枚举类型</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>显示名称</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>编号，暂时没有什么作用</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>Model的变量名称，请使用符合C#变量名称的字符串</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>这个项目在Web页显示时候的名称</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>校验</t>
@@ -159,197 +159,197 @@
   </si>
   <si>
     <t>是否为必须项目</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>错误信息</t>
   </si>
   <si>
     <t>错误信息</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>数值范围</t>
   </si>
   <si>
     <t>最大值</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>最小值</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>字符串长度</t>
   </si>
   <si>
     <t>模式</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>正则表达式</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>格式</t>
   </si>
   <si>
     <t>使用类型</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>显示模式</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>这个字段在使用的时候的类型，例如电子邮件，电话号码</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>这个字段在表示模式的时候，如何显示。</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>版本控制</t>
   </si>
   <si>
     <t>省略</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>项目是ID这样的，不希望直接被页面编辑的项目。</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>编号项目（布尔型）</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>是/否（布尔型）</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>*填写的时候，如果是 （布尔型） 的填写项，请在格子里面填写任意字符表示选中。</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>代码的生成</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>将设计书放在Document文件夹下，选择 菜单 -&gt; 工程 -&gt; 生成所有模型代码  系统将自动重新生成所有的代码。</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>生成的代码直接可以给VS使用，作为生成View的数据源头。</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>注意：Language这样的枚举，VS无法自动生成代码，需要手动添加</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>同时，旗标类型的枚举，需要其他的代码的配合，这个在枚举中介绍。</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>枚举类型分为普通枚举和旗标枚举</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>普通枚举：一个变量值只可能有一种枚举状态，则使用普通枚举。</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>旗标枚举：一个变量可能同时存在多种枚举状态，则使用旗标枚举。</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>例如：小明 同时会 日语 和 英语 ，则语言就是一个旗标枚举。</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>例如：如果一家超市，每周只有一天休息，则星期几休息就是一个一般枚举。</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>枚举</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>枚举类型</t>
   </si>
   <si>
     <t>数据模型设计书项目说明</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>枚举设计书项目说明</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>枚举名称：</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>Flag型  (布尔型）</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>是否为旗标枚举</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>枚举量</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>这个枚举的名称，必须符合C#变量名规则</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>表示某个枚举的变量，必须符合C#变量名规则</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>枚举显示名</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>枚举在画面上显示的名字</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>枚举值</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>枚举在系统内部的名字</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>Enum附加代码</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>VS系统将会把Enum类型作为数字处理，如果需要在画面显示的时候，将普通枚举作为下拉列表，旗标枚举作为多个复选框，</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>请将新建工程时候的Enum文件夹下面的代码放入VS的项目中。</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>Enum辅助代码</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>旗标枚举的模板</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>普通枚举的模板</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>using System;</t>
@@ -395,67 +395,67 @@
   </si>
   <si>
     <t>界面说明</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>适用范围</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>工具环境</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>版本情报</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>如果你只需要生成一个模型,则可以使用 菜单 -&gt; 工具 -&gt; 生成数据模型来生成指定数据模型.</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>允许的最大值</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>允许的最小值</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>允许的最大字符串长度</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>允许的最小字符串长度</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>(系统在编辑的时候,将通过浏览器内置的html5功能检查输入是否合法)</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>工具</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>指定枚举设计文档和源代码保存路径后,即可生成代码.</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>菜单 -&gt; 工具 -&gt; 生成枚举代码</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>目标计划</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>Java 系 Spring MVC4 JSR-349 验证标准的完善.</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>数据模型(Spring)</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>package HRSystemOnline;</t>
@@ -1022,97 +1022,97 @@
   </si>
   <si>
     <t>数据模型(ASP.NET)</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>Native2ASCII</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>Java中的Property文档,需要将本地语言转为机器语言,这个工具能够自动转换单个字符串.</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>菜单 -&gt; 工具 -&gt; Native2ASCII</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>变更履历</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>2014/12/19</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>增加了Native AscII 工具</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>这里支持 Native -&gt; ASCII 和 ASCII -&gt; Native 的双向转换.</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>请在Native或者ASCII里面填入内容.系统将自动判断转换方向.</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>如果需要批量转换,请先在Excel里填写好转换内容,再执行批量转换</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>*批量转换也支持双向转换,请按照需求填写内容.系统将自动转换直到 No 列为空.</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>2014/12/22</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>增加了Struts2的数据验证处理</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>2014/12/23</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>增加MySql建表语句功能</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>项目的NameSpace，以后生成的Model的命名空间会是 NameSpace.Models(.NET),Java的Package名称也在这里设定</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>数据表结构生成</t>
   </si>
   <si>
     <t>在数据设计书编辑后,可以通过工具自动生成数据库的CreateTable语句.</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>MySql篇</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>字符串</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>varchar</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>需要长度提示</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>整型</t>
   </si>
   <si>
     <t>int</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>布尔值</t>
@@ -1122,7 +1122,7 @@
   </si>
   <si>
     <t>日期(包含时间)</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>datetime</t>
@@ -1132,15 +1132,15 @@
   </si>
   <si>
     <t>*暂时默认有且只有一个主键,主键是数字自增主健.</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>&lt;考虑到旗标型枚举,所以将类型定义扩大为smallint.&gt;</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>自动生成代码示例</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>DROP TABLE IF EXISTS `test`.`Candidate`;</t>
@@ -1186,26 +1186,26 @@
   </si>
   <si>
     <t>增加 Struts2路由编辑</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>Struts2路由</t>
   </si>
   <si>
     <t>通过读取Excel文档自动生成Struts的路由配置部分内容.</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>菜单 -&gt; 工具 -&gt; Struts2路由</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>读入文件格式如下</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>生成文件</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>&lt;struts&gt;</t>
@@ -1260,38 +1260,38 @@
   </si>
   <si>
     <t>这里只是Struts的路由部分的配置,在实际使用中,需要进行一些修改.</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>2015/1/4</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>增加代码片断功能</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>代码片断</t>
   </si>
   <si>
     <t>将一些常用的代码或者知识,收集到一起,便于以后查阅和使用.</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>检索功能支持标题和描述,Tag检索</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>2015/1/30</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>增强了数据模型定义</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>EnumExtention.cs</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1307,7 +1307,7 @@
       </rPr>
       <t>\SourceCode</t>
     </r>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1333,19 +1333,19 @@
       </rPr>
       <t>\Document</t>
     </r>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>\Enum\ExtendSourceCode</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>枚举辅助代码</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>EnumDisplayNameAttribute.cs</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1361,23 +1361,23 @@
       </rPr>
       <t>isplayName属性代码</t>
     </r>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>放置在数据模型代码工程中</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>放置于\WebSite\Views\Shared\EditorTemplates中</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>Enum具体的编码</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>先确保所有的Enum附加代码放置在正确的文件夹,并且添加了适当的引用</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1423,15 +1423,15 @@
       </rPr>
       <t>,需要手动添加.</t>
     </r>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>添加的形式则和普通的字段一样.</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>Create视图的时候,请保证设定一个New过的模型到ViewData.Model,不然会发生Null引用错误.</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">        public ActionResult Create()</t>
@@ -1453,19 +1453,19 @@
       </rPr>
       <t>new Interview();</t>
     </r>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>EnumFlags.cs</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>Enum.cs</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>代码通过 UIHint属性来控制 字段使用的模板,所以自动生成的代码应该象这个样子:</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">            /// &lt;summary&gt;</t>
@@ -1529,11 +1529,11 @@
   </si>
   <si>
     <t>名字空间</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>该枚举的名字空间</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1560,43 +1560,43 @@
       </rPr>
       <t>在Enum生成代码中,请注意.</t>
     </r>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>注意,系统将自动添加 "0:"字符,所以这里填写的时候不要添加 "0:"</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>MongoDB的时候,日期将使用Local模式</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>2015/2/3</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>增加了MongoDB的支持</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>如果名字空间不填写的话,这里将自动使用工程的名字空间</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>2015/2/4</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>增加了类描述</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>增加了复制所有代码到真实工程</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>增加了元数据类型:列表</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1622,11 +1622,11 @@
       </rPr>
       <t>中,需要添加EnumDisplayNameAttibute的命名空间</t>
     </r>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>基类</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>MasterTable.cs</t>
@@ -1645,135 +1645,135 @@
       </rPr>
       <t>代码</t>
     </r>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>有时候MVC5.0的Js下面的一些验证相关的JS会被误删除造成验证无效。</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>这个时候可以新建一个MVC5.0的工程，然后将Js下面的文件全部复制过去即可。</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>关于自动添加的字段</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>CollectionName:</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>Prefix</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>MvcTitle</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>用作画面标题的字符</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>数据表名称(附加一个静态方法)</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>数据编号的前缀(附加一个静态方法)</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>2015/2/5</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>增加了MvcTitle字段</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>MVC5开发</t>
   </si>
   <si>
     <t>业务模型的设计</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>MasterTable</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>数据模型</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>普通的数据</t>
   </si>
   <si>
     <t>CompanyTable</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>选项列表</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>提供Master数据</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>固定的Master数据</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>模板的修改</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>标准模板</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>C:\Program Files (x86)\Microsoft Visual Studio 12.0\Common7\IDE\Extensions\Microsoft\Web\Mvc\Scaffolding\Templates</t>
   </si>
   <si>
     <t>将标准模板导入到工程中,建立CodeTemplates目录,MVC本地优先级高于标准模板</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>将模板进行本地化,同时使用 MvcTitle(本工具为每个模型自动添加)这样的标题字段,填充相应位置</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>例:</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>&lt;h2&gt;@&lt;#= ViewDataTypeName#&gt;.MvcTitle 列表&lt;/h2&gt;</t>
   </si>
   <si>
     <t>注意,日期形式的时候,html5的Date控件要求格式必须是 yyyy-MM-dd所以这里进行强制设定</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>关于自动导出到MVC的约定</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">这里约定将 </t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">枚举放入  </t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">数据模型放入 </t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>Master表放在</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1799,7 +1799,7 @@
       </rPr>
       <t>文件夹，</t>
     </r>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1835,27 +1835,27 @@
       </rPr>
       <t>文件夹,</t>
     </r>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>Master 文件夹</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>2015/2/11</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>日期型数据在HTML5控件中无法表示的对应</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>增加了Master表自动名字修正功能</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>将Master表和Model表分割开来</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1881,7 +1881,7 @@
       </rPr>
       <t>\Document</t>
     </r>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1907,15 +1907,15 @@
       </rPr>
       <t>\SourceCode</t>
     </r>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>辅助表设计书</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>辅助表代码</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1941,31 +1941,31 @@
       </rPr>
       <t>的工程，而是管理设计文档的工程，或者是WorkSpace这样的一个概念。</t>
     </r>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>2015/2/26</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>增加了修改工程属性的功能</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>修改了一些Bug</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>修改工程</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>菜单 -&gt; 数据定义 -&gt; 修改工程</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>打开工程后可以通过修改工程菜单对工程属性进行修改</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1981,7 +1981,7 @@
       </rPr>
       <t>.系统将自动载入目录结构,更新文件.</t>
     </r>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>using MongoDB.Bson.Serialization.Attributes;</t>
@@ -2343,38 +2343,38 @@
   </si>
   <si>
     <t>2015/4/3</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>增加了CreateOrEdit的CSHTML文件的自动生成</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>CreateOrEdit页面</t>
   </si>
   <si>
     <t>虽然MVC有T4模板，但是，内置的T4模板无法满足定制的要求。</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>工具将自动根据模型生成CreateOrEdit页面的Cshtml文件</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>日期型</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>日期型控件封装了 jQuery UI 的 DateTime组件</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>辅助表型</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>辅助表分为单值和多值两种类型。单值在UI上表现为一个下拉列表框，多值表现为一组CheckBox</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>@model TalentInfo</t>
@@ -2564,85 +2564,85 @@
   </si>
   <si>
     <t>初始状态</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>展开后</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>单值类型</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>多值类型</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>约定：</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>这里约定多值类型的辅助表，列表的名称为 MasterTableName去掉"M_"前缀，加上 List后缀</t>
   </si>
   <si>
     <t>同时为了统一代码，列表名称尽可能和项目名称保持一致。</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>MasterTableName：</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>M_MarketBG</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">                @(HtmlUIHelper.GetMultiValueUI&lt;M_MarketBG&gt;("MarketBGList", ViewBag.MarketBGList, Model.MarketBGList))</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>ViewBag.MarketBGList</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>MarketBGList</t>
   </si>
   <si>
     <t>列表名称：</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>项目名称：</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>同时为了统一代码，项目名称尽可能和MasterTableName保持一致。</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">                @(HtmlUIHelper.GetSingleValueUI&lt;M_TechniqueBG&gt;("TechniqueBG", ViewBag.TechniqueBGList, Model.TechniqueBG))</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>M_TechniqueBG</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>ViewBag.TechniqueBGList</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>TechniqueBG</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>布尔型</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>布尔型在实际使用时候，需要进行一些手工美化</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2668,70 +2668,70 @@
       </rPr>
       <t>）。</t>
     </r>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>辅助表</t>
   </si>
   <si>
     <t>辅助表（MasterTable）里面存放着一些序列。当我们输入数据的时候，为了便利性和防止输入错误，</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>我们将一些项目可能出现的值，以表格的形式保存起来，输入的时候，不能自由填写，只能从列表里面选择。</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>这样的列表是一种辅助性质的列表，所以我们约定称为辅助表。</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>辅助表中包含了一种专门用来表示状态的辅助表，我们称为状态辅助表。</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>这种表格能够定义数据的表示颜色，表示顺序，是对于辅助表的一种扩展。</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>辅助表和枚举</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>辅助表和枚举的区别是：枚举用户相对稳定的序列，例如一年四季的序列，HTTP的状态。</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>辅助表则是用于更新比较频繁的序列，当然，可以将枚举也看成一种辅助表。</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>在编码上，枚举可能更便利，辅助表在各种封装方法的帮助下，也可以做到很简洁。</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>另外，辅助表可以使用缓存系统进行加速，提高性能，枚举则完全在编译的时候变成程序的一部分，无需缓存。</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>约定</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>这里约定辅助表（MasterTable）以 "M_"为前缀</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>整个系统很大程度上需要各种辅助表的支持。对于停止使用的Master表，可以设置为 不启用</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>辅助表可以用在单个值的选取上，例如状态的选取，可以用在多个值得选取上，例如技能的选取。</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>带有评价的多项目</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2747,47 +2747,47 @@
       </rPr>
       <t>辅助表，辅助评价表</t>
     </r>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>列表型</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>可以设定元数据是不是List型。辅助评价表暂时只支持列表型</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>Flg</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>Flg分为Skip和Hidden两种，</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>Skip 将被系统忽略，如果该项目不需要了，但是又想保留完整履历，可以将项目设置为Skip</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>Hidden 标记一个项目为Hidden类型，例如ID这种自动设定的项目，就因该设置为Hidden</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>同时确认一下代码中是否添加了这些JS的引用。</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>关于验证失效的问题</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>数据模型可以在VS中在T4模板的作用在直接生成UI界面。</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>本工具也提供了功能更加强大的UI生成模块。</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2823,15 +2823,15 @@
       </rPr>
       <t>和报表界面.</t>
     </r>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>2015/4/13</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>Filter特性的追加</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2847,15 +2847,15 @@
       </rPr>
       <t>Organization</t>
     </r>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>在多个值的选取上，还可以支持五个级别的等级的选取。（参考：CreateOrEdit页面：带有评价的多项目）</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>如果列表还带有分类的话,可以使用CatalogMasterTable</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>using InfraStructure.FilterSet;</t>
@@ -3391,38 +3391,38 @@
   </si>
   <si>
     <t>ASP.NET MVC5的诸多功能,需要InfraStructure这个DLL的支持.数据库暂时支持无需ORM的MongoDB.</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>.Net Framework 4.5</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>2015/6/26</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>强化了Struts2的数据验证处理</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">CreateOrEdit - ASP.NET MVC5 </t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>Struts2验证</t>
   </si>
   <si>
     <t>通过读取验证设定文档,自动生成Struts2使用的Action单位的验证用XML.</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>验证设定文档和前面的ASP.NET MVC文档结构一致.</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>同时支持内联和外置两种错误信息表示方式.</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>&lt;?xml version="1.0" encoding="utf-8"?&gt;</t>
@@ -3486,7 +3486,7 @@
   </si>
   <si>
     <t>LoginAction-validation.xml</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5167,19 +5167,19 @@
   </si>
   <si>
     <t>参考:Struts2内置的验证类型</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>2015/7/10</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>Spring代码中HibernateORM的加入</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>2015/7/24</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5195,11 +5195,11 @@
       </rPr>
       <t>ava的属性中,布尔型的 getXXX -&gt; isXXX</t>
     </r>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>2015/11/20</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5215,23 +5215,23 @@
       </rPr>
       <t>final的Model代码生成功能的加入</t>
     </r>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>2015/11/25</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>修正了Java中没有DateTime类型的BUG</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>SQL文做成的时候,添加了Schema的填写,修正了没有主键时候SQL错误</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>数据模型(JFinal)</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>package dao;</t>
@@ -5262,7 +5262,7 @@
       </rPr>
       <t>,Struts2,JFinal。</t>
     </r>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5278,7 +5278,7 @@
       </rPr>
       <t>final的简单ORM</t>
     </r>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>import java.util.ArrayList;</t>
@@ -5471,7 +5471,7 @@
   </si>
   <si>
     <t>使用方法</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>import com.jfinal.plugin.activerecord.ActiveRecordPlugin;</t>
@@ -5526,27 +5526,27 @@
   </si>
   <si>
     <t>2015/11/26</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>增加单个Excel文件包含多个数据模型的支持</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>2015/12/16</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>为Jfinal增加了浮点型的处理(其他暂时没有对应)</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>增加了模型版本号的概念</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>2015/12/22</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5592,11 +5592,11 @@
       </rPr>
       <t>增加了浮点型的处理</t>
     </r>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>2016/1/14</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5612,18 +5612,18 @@
       </rPr>
       <t>VC5 -&gt; MVC6 Tool KiffOff</t>
     </r>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>MVC5迁移MVC6工具</t>
   </si>
   <si>
     <t>具体升级步骤如下</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>2016/2/16</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5639,15 +5639,15 @@
       </rPr>
       <t>ompanyTable -&gt; OwnerTable</t>
     </r>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>C#的MVC,Model生成的文件名字改为 [ModelName]_Model.cs,保证相同的文件夹下面可以包括同一个Model的定义和方法两部分</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>2016/2/17</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5663,11 +5663,11 @@
       </rPr>
       <t>SharpModel去除特性模式</t>
     </r>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>MongoDB中,静态字段不用BsonIgnore特性标签</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5693,7 +5693,7 @@
       </rPr>
       <t>Table,同时带有 Name名称和Description描述字段</t>
     </r>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5719,51 +5719,35 @@
       </rPr>
       <t>OwerId 组织编号,Code项目编号主键</t>
     </r>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>OwnerTable.cs</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>OwnerTable代码</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>系统支持OwnerTable,MasterTable两种扩展数据模型</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>2016/2/25</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>Csharp，单文档模式，加入枚举</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>增加Sheet页标识符，区别每个页面的数据类型</t>
-    <phoneticPr fontId="36" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Ver 0.0.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>3.7</t>
-    </r>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>增加CSharp模型的基础增删改操作</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>using InfraStructure.DataBase;</t>
@@ -5964,14 +5948,54 @@
       </rPr>
       <t>实际可以是任何类型名称)</t>
     </r>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016/3/21</t>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <t>CacheEntityBase的对应</t>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>（CacheEntityBase和EntityBase的区别是，前者使用BSON的ObjectID作为主键，后者则使用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>自增数字的字符串作为主键）</t>
+    </r>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Ver 0.0.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3.8</t>
+    </r>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="56">
+  <fonts count="58">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5979,6 +6003,20 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -6478,14 +6516,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -6497,55 +6529,67 @@
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="38" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="14" fontId="40" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="35" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="37" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -6557,40 +6601,43 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="31" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="29" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
+    <xf numFmtId="14" fontId="28" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="26" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -6599,19 +6646,19 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="24" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="22" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="14" fontId="21" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -6620,58 +6667,61 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="19" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="14" fontId="19" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="16" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -6689,9 +6739,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -6699,6 +6746,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -6710,16 +6760,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -7132,6 +7179,62 @@
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>191</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>193</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="矩形 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3448050" y="36423600"/>
+          <a:ext cx="1609725" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>CacheEntityBase</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
@@ -7184,13 +7287,13 @@
       <xdr:col>9</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
       <xdr:row>191</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
       <xdr:row>193</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7199,8 +7302,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1933575" y="26717625"/>
-          <a:ext cx="3143250" cy="371475"/>
+          <a:off x="1933575" y="36423600"/>
+          <a:ext cx="1609725" cy="371475"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8838,11 +8941,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="D3:M94"/>
+  <dimension ref="D3:M95"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M95" sqref="M95"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -8899,8 +9000,8 @@
       </c>
     </row>
     <row r="20" spans="4:6" ht="15" customHeight="1">
-      <c r="F20" s="78" t="s">
-        <v>762</v>
+      <c r="F20" s="84" t="s">
+        <v>792</v>
       </c>
     </row>
     <row r="22" spans="4:6" ht="15" customHeight="1">
@@ -9182,11 +9283,19 @@
     </row>
     <row r="94" spans="6:13" ht="15" customHeight="1">
       <c r="M94" s="80" t="s">
-        <v>763</v>
+        <v>762</v>
+      </c>
+    </row>
+    <row r="95" spans="6:13" ht="15" customHeight="1">
+      <c r="F95" s="83" t="s">
+        <v>789</v>
+      </c>
+      <c r="M95" s="82" t="s">
+        <v>790</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="36" type="noConversion"/>
+  <phoneticPr fontId="38" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -9459,7 +9568,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="36" type="noConversion"/>
+  <phoneticPr fontId="38" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -10094,7 +10203,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="36" type="noConversion"/>
+  <phoneticPr fontId="38" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10823,7 +10932,7 @@
       <c r="AQ35" s="21"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="36" type="noConversion"/>
+  <phoneticPr fontId="38" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -11469,7 +11578,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="36" type="noConversion"/>
+  <phoneticPr fontId="38" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -11589,7 +11698,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="36" type="noConversion"/>
+  <phoneticPr fontId="38" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -11883,7 +11992,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="36" type="noConversion"/>
+  <phoneticPr fontId="38" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -11937,7 +12046,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="36" type="noConversion"/>
+  <phoneticPr fontId="38" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -11973,7 +12082,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="36" type="noConversion"/>
+  <phoneticPr fontId="38" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -12067,7 +12176,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="36" type="noConversion"/>
+  <phoneticPr fontId="38" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -12097,7 +12206,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="36" type="noConversion"/>
+  <phoneticPr fontId="38" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -12108,7 +12217,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="D3:T129"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AL24" sqref="AL24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -12350,7 +12461,7 @@
       <c r="D129" s="5"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="36" type="noConversion"/>
+  <phoneticPr fontId="38" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -12361,8 +12472,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="D3:S237"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AI35" sqref="AI35"/>
+    <sheetView topLeftCell="A172" workbookViewId="0">
+      <selection activeCell="AU199" sqref="AU199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15" customHeight="1"/>
@@ -12478,7 +12589,7 @@
     </row>
     <row r="30" spans="8:10" ht="15" customHeight="1">
       <c r="J30" s="81" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="32" spans="8:10" ht="15" customHeight="1">
@@ -12735,6 +12846,11 @@
         <v>754</v>
       </c>
     </row>
+    <row r="190" spans="4:6" ht="15" customHeight="1">
+      <c r="F190" s="82" t="s">
+        <v>791</v>
+      </c>
+    </row>
     <row r="200" spans="4:19" ht="15" customHeight="1">
       <c r="F200" s="49" t="s">
         <v>526</v>
@@ -12809,7 +12925,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="36" type="noConversion"/>
+  <phoneticPr fontId="38" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I22:I28">
       <formula1>$AE$4:$AE$9</formula1>
@@ -12922,7 +13038,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="36" type="noConversion"/>
+  <phoneticPr fontId="38" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -13241,7 +13357,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="36" type="noConversion"/>
+  <phoneticPr fontId="38" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -13272,12 +13388,12 @@
     </row>
     <row r="5" spans="4:6" ht="15" customHeight="1">
       <c r="F5" s="6" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="6" spans="4:6" ht="15" customHeight="1">
       <c r="F6" s="6" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="7" spans="4:6" ht="15" customHeight="1">
@@ -13312,7 +13428,7 @@
     </row>
     <row r="14" spans="4:6" ht="15" customHeight="1">
       <c r="F14" s="6" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="15" spans="4:6" ht="15" customHeight="1">
@@ -13342,7 +13458,7 @@
     </row>
     <row r="20" spans="6:6" ht="15" customHeight="1">
       <c r="F20" s="6" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="21" spans="6:6" ht="15" customHeight="1">
@@ -13542,7 +13658,7 @@
     </row>
     <row r="66" spans="6:6" ht="15" customHeight="1">
       <c r="F66" s="6" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="67" spans="6:6" ht="15" customHeight="1">
@@ -13907,7 +14023,7 @@
     </row>
     <row r="151" spans="6:6" ht="15" customHeight="1">
       <c r="F151" s="6" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="152" spans="6:6" ht="15" customHeight="1">
@@ -14137,7 +14253,7 @@
     </row>
     <row r="207" spans="6:6" ht="15" customHeight="1">
       <c r="F207" s="6" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="208" spans="6:6" ht="15" customHeight="1">
@@ -14147,17 +14263,17 @@
     </row>
     <row r="209" spans="6:6" ht="15" customHeight="1">
       <c r="F209" s="6" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="210" spans="6:6" ht="15" customHeight="1">
       <c r="F210" s="6" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="211" spans="6:6" ht="15" customHeight="1">
       <c r="F211" s="6" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="212" spans="6:6" ht="15" customHeight="1">
@@ -14167,7 +14283,7 @@
     </row>
     <row r="213" spans="6:6" ht="15" customHeight="1">
       <c r="F213" s="6" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="214" spans="6:6" ht="15" customHeight="1">
@@ -14182,7 +14298,7 @@
     </row>
     <row r="217" spans="6:6" ht="15" customHeight="1">
       <c r="F217" s="6" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="218" spans="6:6" ht="15" customHeight="1">
@@ -14192,22 +14308,22 @@
     </row>
     <row r="219" spans="6:6" ht="15" customHeight="1">
       <c r="F219" s="6" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="220" spans="6:6" ht="15" customHeight="1">
       <c r="F220" s="6" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="221" spans="6:6" ht="15" customHeight="1">
       <c r="F221" s="6" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="222" spans="6:6" ht="15" customHeight="1">
       <c r="F222" s="6" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="223" spans="6:6" ht="15" customHeight="1">
@@ -14217,7 +14333,7 @@
     </row>
     <row r="224" spans="6:6" ht="15" customHeight="1">
       <c r="F224" s="6" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="225" spans="6:6" ht="15" customHeight="1">
@@ -14232,7 +14348,7 @@
     </row>
     <row r="228" spans="6:6" ht="15" customHeight="1">
       <c r="F228" s="6" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="229" spans="6:6" ht="15" customHeight="1">
@@ -14242,12 +14358,12 @@
     </row>
     <row r="230" spans="6:6" ht="15" customHeight="1">
       <c r="F230" s="6" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="231" spans="6:6" ht="15" customHeight="1">
       <c r="F231" s="6" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="232" spans="6:6" ht="15" customHeight="1">
@@ -14257,7 +14373,7 @@
     </row>
     <row r="233" spans="6:6" ht="15" customHeight="1">
       <c r="F233" s="6" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="234" spans="6:6" ht="15" customHeight="1">
@@ -14272,7 +14388,7 @@
     </row>
     <row r="237" spans="6:6" ht="15" customHeight="1">
       <c r="F237" s="6" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="238" spans="6:6" ht="15" customHeight="1">
@@ -14282,12 +14398,12 @@
     </row>
     <row r="239" spans="6:6" ht="15" customHeight="1">
       <c r="F239" s="6" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="240" spans="6:6" ht="15" customHeight="1">
       <c r="F240" s="6" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="241" spans="6:6" ht="15" customHeight="1">
@@ -14297,7 +14413,7 @@
     </row>
     <row r="242" spans="6:6" ht="15" customHeight="1">
       <c r="F242" s="6" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="243" spans="6:6" ht="15" customHeight="1">
@@ -14321,7 +14437,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="36" type="noConversion"/>
+  <phoneticPr fontId="38" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -14585,7 +14701,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="36" type="noConversion"/>
+  <phoneticPr fontId="38" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -15207,7 +15323,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="36" type="noConversion"/>
+  <phoneticPr fontId="38" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -15216,7 +15332,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="D3:I142"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5"/>
   <sheetData>
@@ -15811,7 +15927,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="36" type="noConversion"/>
+  <phoneticPr fontId="38" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
